--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB71A4D4-19F2-4478-B2C0-572039A4B353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1419B42-576F-40F5-A716-F02A51668D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="14" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -11056,12 +11056,12 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB1BDFE-6D2F-9B4B-8CDF-D9B4D3891FD5}">
   <sheetPr codeName="Sheet17">
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="14" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
@@ -12027,9 +12027,12 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8D3DDC-1471-8141-9FF6-8D47FF9D86B6}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -13147,7 +13150,7 @@
   <dimension ref="A1:BG63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="14" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K20" sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="K20" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="K20" sqref="A1:XFD1048576"/>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1419B42-576F-40F5-A716-F02A51668D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BAB7A0-F6E3-4067-9D07-B9357AAC3C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="14" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -11726,6 +11726,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791FBB-5296-C84C-951A-EBCEC0739F22}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12032,7 +12035,7 @@
   </sheetPr>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -29313,10 +29316,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DDBC09-F535-654B-A49D-7D22E3100EEA}">
-  <sheetPr codeName="Sheet13"/>
+  <sheetPr codeName="Sheet13">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:BI3876"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE5D5A7-4602-432F-8075-CE6EEE6EBE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6474E1CE-4BFD-48AD-A381-625E5D7A69AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-37485" yWindow="-2730" windowWidth="35715" windowHeight="19170" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -853,7 +853,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="703">
   <si>
     <t>TX_CURR</t>
   </si>
@@ -2212,12 +2212,6 @@
   </si>
   <si>
     <t>HTS.Index.Pos.Yield</t>
-  </si>
-  <si>
-    <t>HTS.Index.Pos.T</t>
-  </si>
-  <si>
-    <t>HTS.Index.Neg.T</t>
   </si>
   <si>
     <t>TX_CURR.KP.Expected.T_1</t>
@@ -2975,12 +2969,6 @@
     <t>HTS_TST TOTAL</t>
   </si>
   <si>
-    <t>HTS_TST POS FY24 Results</t>
-  </si>
-  <si>
-    <t>HTS_TST NEG FY24 Results</t>
-  </si>
-  <si>
     <t>FY24 HTS_TST Results Yield (%)</t>
   </si>
   <si>
@@ -2995,6 +2983,21 @@
   </si>
   <si>
     <t>PLHIV to Identify (FY26)</t>
+  </si>
+  <si>
+    <t>HTS_TST POS (FY24 Results)</t>
+  </si>
+  <si>
+    <t>HTS_TST NEG (FY24 Results)</t>
+  </si>
+  <si>
+    <t>HTS_TST.Pos.T_1</t>
+  </si>
+  <si>
+    <t>HTS_TST.Neg.T_1</t>
+  </si>
+  <si>
+    <t>HTS_TST.Rt.T_1</t>
   </si>
 </sst>
 </file>
@@ -4343,6 +4346,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="32" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="31" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4361,13 +4371,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -4378,7 +4381,7 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{EBDE175B-1152-3C44-B18E-2B948C595077}"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="107">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4959,6 +4962,26 @@
       </font>
       <fill>
         <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -5748,7 +5771,7 @@
     </row>
     <row r="10" spans="2:2" ht="97.2">
       <c r="B10" s="6" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="82.2">
@@ -5777,7 +5800,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5814,10 +5837,10 @@
       <c r="M1" s="161"/>
     </row>
     <row r="2" spans="1:13" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="421" t="s">
+      <c r="A2" s="424" t="s">
         <v>377</v>
       </c>
-      <c r="B2" s="418"/>
+      <c r="B2" s="421"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5833,34 +5856,34 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="419"/>
-      <c r="B3" s="420"/>
+      <c r="A3" s="422"/>
+      <c r="B3" s="423"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="63" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H3" s="115" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I3" s="115" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J3" s="146" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="K3" s="204" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="L3" s="204" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6068,28 +6091,28 @@
     </row>
     <row r="11" spans="1:13">
       <c r="F11" s="52" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6227,13 +6250,13 @@
   <sheetPr codeName="Sheet16">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V15" sqref="V15"/>
+      <selection pane="bottomRight" activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6284,7 +6307,7 @@
       <c r="N1" s="349"/>
       <c r="O1" s="349"/>
       <c r="P1" s="195" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Q1" s="161"/>
       <c r="R1" s="164"/>
@@ -6299,8 +6322,8 @@
       <c r="Y1" s="372"/>
       <c r="Z1" s="371"/>
       <c r="AA1" s="371"/>
-      <c r="AB1" s="356"/>
-      <c r="AC1" s="377"/>
+      <c r="AB1" s="371"/>
+      <c r="AC1" s="371"/>
       <c r="AD1" s="356"/>
       <c r="AE1" s="349"/>
       <c r="AF1" s="349"/>
@@ -6352,8 +6375,8 @@
       <c r="Y2" s="359"/>
       <c r="Z2" s="391"/>
       <c r="AA2" s="391"/>
-      <c r="AB2" s="358"/>
-      <c r="AC2" s="380"/>
+      <c r="AB2" s="391"/>
+      <c r="AC2" s="391"/>
       <c r="AD2" s="358"/>
       <c r="AE2" s="350" t="s">
         <v>444</v>
@@ -6378,100 +6401,100 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="390" t="s">
+        <v>638</v>
+      </c>
+      <c r="G3" s="362" t="s">
+        <v>639</v>
+      </c>
+      <c r="H3" s="383" t="s">
         <v>640</v>
       </c>
-      <c r="G3" s="362" t="s">
+      <c r="I3" s="383" t="s">
         <v>641</v>
       </c>
-      <c r="H3" s="383" t="s">
+      <c r="J3" s="383" t="s">
         <v>642</v>
       </c>
-      <c r="I3" s="383" t="s">
+      <c r="K3" s="383" t="s">
         <v>643</v>
       </c>
-      <c r="J3" s="383" t="s">
+      <c r="L3" s="351" t="s">
         <v>644</v>
       </c>
-      <c r="K3" s="383" t="s">
+      <c r="M3" s="351" t="s">
         <v>645</v>
       </c>
-      <c r="L3" s="351" t="s">
+      <c r="N3" s="351" t="s">
         <v>646</v>
       </c>
-      <c r="M3" s="351" t="s">
+      <c r="O3" s="351" t="s">
         <v>647</v>
       </c>
-      <c r="N3" s="351" t="s">
+      <c r="P3" s="114" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q3" s="118" t="s">
+        <v>639</v>
+      </c>
+      <c r="R3" s="204" t="s">
+        <v>640</v>
+      </c>
+      <c r="S3" s="204" t="s">
+        <v>641</v>
+      </c>
+      <c r="T3" s="204" t="s">
+        <v>642</v>
+      </c>
+      <c r="U3" s="204" t="s">
+        <v>643</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>689</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="X3" s="361" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y3" s="392" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z3" s="393" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA3" s="393" t="s">
         <v>648</v>
       </c>
-      <c r="O3" s="351" t="s">
+      <c r="AB3" s="393" t="s">
         <v>649</v>
       </c>
-      <c r="P3" s="114" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q3" s="118" t="s">
-        <v>641</v>
-      </c>
-      <c r="R3" s="204" t="s">
-        <v>642</v>
-      </c>
-      <c r="S3" s="204" t="s">
-        <v>643</v>
-      </c>
-      <c r="T3" s="204" t="s">
-        <v>644</v>
-      </c>
-      <c r="U3" s="204" t="s">
-        <v>645</v>
-      </c>
-      <c r="V3" s="30" t="s">
-        <v>691</v>
-      </c>
-      <c r="W3" s="30" t="s">
-        <v>516</v>
-      </c>
-      <c r="X3" s="361" t="s">
-        <v>689</v>
-      </c>
-      <c r="Y3" s="392" t="s">
-        <v>657</v>
-      </c>
-      <c r="Z3" s="393" t="s">
-        <v>658</v>
-      </c>
-      <c r="AA3" s="393" t="s">
+      <c r="AC3" s="393" t="s">
         <v>650</v>
       </c>
-      <c r="AB3" s="373" t="s">
+      <c r="AD3" s="373" t="s">
         <v>651</v>
       </c>
-      <c r="AC3" s="383" t="s">
+      <c r="AE3" s="351" t="s">
+        <v>513</v>
+      </c>
+      <c r="AF3" s="351" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG3" s="205" t="s">
         <v>652</v>
       </c>
-      <c r="AD3" s="373" t="s">
+      <c r="AH3" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="AI3" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="AJ3" s="138" t="s">
         <v>653</v>
       </c>
-      <c r="AE3" s="351" t="s">
-        <v>515</v>
-      </c>
-      <c r="AF3" s="351" t="s">
-        <v>516</v>
-      </c>
-      <c r="AG3" s="205" t="s">
+      <c r="AK3" s="138" t="s">
         <v>654</v>
-      </c>
-      <c r="AH3" s="30" t="s">
-        <v>515</v>
-      </c>
-      <c r="AI3" s="30" t="s">
-        <v>516</v>
-      </c>
-      <c r="AJ3" s="138" t="s">
-        <v>655</v>
-      </c>
-      <c r="AK3" s="138" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -6570,11 +6593,11 @@
         <f>SUBTOTAL(109,AA$15:INDEX(AA:AA,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="370" t="str">
+      <c r="AB4" s="395" t="str">
         <f>IF(SUM($F4)=0,"",MIN($AA4/$F4,1))</f>
         <v/>
       </c>
-      <c r="AC4" s="385" t="str">
+      <c r="AC4" s="396" t="str">
         <f>IF(SUM($M$4)*SUM($AB$4)=0,"",SUM($AE$4)/(SUM($M$4)*SUM($AB$4)))</f>
         <v/>
       </c>
@@ -6693,10 +6716,10 @@
       <c r="AA5" s="397" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="370" t="s">
+      <c r="AB5" s="367" t="s">
         <v>44</v>
       </c>
-      <c r="AC5" s="366" t="s">
+      <c r="AC5" s="397" t="s">
         <v>44</v>
       </c>
       <c r="AD5" s="370" t="s">
@@ -6806,10 +6829,10 @@
       <c r="AA6" s="397" t="s">
         <v>58</v>
       </c>
-      <c r="AB6" s="370" t="s">
+      <c r="AB6" s="367" t="s">
         <v>58</v>
       </c>
-      <c r="AC6" s="366" t="s">
+      <c r="AC6" s="397" t="s">
         <v>58</v>
       </c>
       <c r="AD6" s="370" t="s">
@@ -6919,10 +6942,10 @@
       <c r="AA7" s="397" t="s">
         <v>40</v>
       </c>
-      <c r="AB7" s="370" t="s">
+      <c r="AB7" s="367" t="s">
         <v>41</v>
       </c>
-      <c r="AC7" s="366" t="s">
+      <c r="AC7" s="397" t="s">
         <v>41</v>
       </c>
       <c r="AD7" s="370" t="s">
@@ -6971,6 +6994,8 @@
       <c r="Z8" s="367" t="s">
         <v>106</v>
       </c>
+      <c r="AB8" s="367"/>
+      <c r="AC8" s="397"/>
       <c r="AE8" s="353" t="s">
         <v>105</v>
       </c>
@@ -7008,6 +7033,8 @@
       <c r="Z9" s="367" t="s">
         <v>107</v>
       </c>
+      <c r="AB9" s="367"/>
+      <c r="AC9" s="397"/>
       <c r="AE9" s="353" t="s">
         <v>104</v>
       </c>
@@ -7045,6 +7072,8 @@
       <c r="Z10" s="367" t="s">
         <v>61</v>
       </c>
+      <c r="AB10" s="367"/>
+      <c r="AC10" s="397"/>
       <c r="AE10" s="353" t="s">
         <v>62</v>
       </c>
@@ -7128,10 +7157,10 @@
       <c r="AA11" s="397" t="s">
         <v>339</v>
       </c>
-      <c r="AB11" s="370" t="s">
+      <c r="AB11" s="367" t="s">
         <v>339</v>
       </c>
-      <c r="AC11" s="366" t="s">
+      <c r="AC11" s="397" t="s">
         <v>339</v>
       </c>
       <c r="AD11" s="370" t="s">
@@ -7226,10 +7255,10 @@
       <c r="AA12" s="397" t="s">
         <v>102</v>
       </c>
-      <c r="AB12" s="370" t="s">
+      <c r="AB12" s="367" t="s">
         <v>102</v>
       </c>
-      <c r="AC12" s="366" t="s">
+      <c r="AC12" s="397" t="s">
         <v>102</v>
       </c>
       <c r="AD12" s="370" t="s">
@@ -7256,6 +7285,10 @@
       <c r="AK12" s="11" t="s">
         <v>102</v>
       </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="AB13" s="367"/>
+      <c r="AC13" s="397"/>
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="266" t="s">
@@ -7337,12 +7370,12 @@
         <v>179</v>
       </c>
       <c r="AA14" s="399" t="s">
-        <v>467</v>
-      </c>
-      <c r="AB14" s="400" t="s">
-        <v>468</v>
-      </c>
-      <c r="AC14" s="368" t="s">
+        <v>465</v>
+      </c>
+      <c r="AB14" s="399" t="s">
+        <v>466</v>
+      </c>
+      <c r="AC14" s="399" t="s">
         <v>176</v>
       </c>
       <c r="AD14" s="400" t="s">
@@ -7355,7 +7388,7 @@
         <v>177</v>
       </c>
       <c r="AG14" s="203" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AH14" s="197" t="s">
         <v>182</v>
@@ -7364,10 +7397,10 @@
         <v>181</v>
       </c>
       <c r="AJ14" s="175" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AK14" s="175" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -7435,11 +7468,11 @@
         <f>IFERROR(1/(1/SUM($X15,$Z15,$Y15)),"")</f>
         <v/>
       </c>
-      <c r="AB15" s="370" t="str">
+      <c r="AB15" s="367" t="str">
         <f>IF(SUM($F15)=0,"",MAX(($F15-$AA15)/$F15,0))</f>
         <v/>
       </c>
-      <c r="AC15" s="366">
+      <c r="AC15" s="397">
         <v>1</v>
       </c>
       <c r="AD15" s="370">
@@ -7472,6 +7505,14 @@
         <f>IF(SUM($Z15)=0,"",(SUM($AI15)-$Z15)/$Z15)</f>
         <v/>
       </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="AB16" s="367"/>
+      <c r="AC16" s="397"/>
+    </row>
+    <row r="17" spans="28:29">
+      <c r="AB17" s="367"/>
+      <c r="AC17" s="397"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:AI1048576">
@@ -7556,11 +7597,11 @@
   </sheetPr>
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7638,40 +7679,40 @@
         <v>221</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I3" s="204" t="s">
+        <v>657</v>
+      </c>
+      <c r="J3" s="204" t="s">
+        <v>658</v>
+      </c>
+      <c r="K3" s="204" t="s">
         <v>659</v>
       </c>
-      <c r="J3" s="204" t="s">
+      <c r="L3" s="138" t="s">
         <v>660</v>
       </c>
-      <c r="K3" s="204" t="s">
+      <c r="M3" s="204" t="s">
         <v>661</v>
       </c>
-      <c r="L3" s="138" t="s">
+      <c r="N3" s="230" t="s">
         <v>662</v>
       </c>
-      <c r="M3" s="204" t="s">
-        <v>663</v>
-      </c>
-      <c r="N3" s="230" t="s">
-        <v>664</v>
-      </c>
       <c r="O3" s="230" t="s">
+        <v>518</v>
+      </c>
+      <c r="P3" s="230" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q3" s="230" t="s">
         <v>520</v>
       </c>
-      <c r="P3" s="230" t="s">
+      <c r="R3" s="230" t="s">
         <v>521</v>
-      </c>
-      <c r="Q3" s="230" t="s">
-        <v>522</v>
-      </c>
-      <c r="R3" s="230" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -7906,7 +7947,7 @@
       <c r="D8" s="5"/>
       <c r="F8" s="77"/>
       <c r="G8" s="261" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H8" s="254" t="s">
         <v>351</v>
@@ -7936,7 +7977,7 @@
       <c r="D9" s="5"/>
       <c r="F9" s="77"/>
       <c r="G9" s="261" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H9" s="254" t="s">
         <v>352</v>
@@ -8231,7 +8272,7 @@
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8239,7 +8280,7 @@
     <col min="1" max="1" width="16.19921875" customWidth="1"/>
     <col min="2" max="2" width="41.296875" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.796875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="11.796875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" style="36" customWidth="1"/>
     <col min="5" max="6" width="11.796875" style="11" customWidth="1"/>
     <col min="7" max="8" width="11.796875" style="33" customWidth="1"/>
   </cols>
@@ -8273,10 +8314,10 @@
     </row>
     <row r="3" spans="1:8" ht="117" customHeight="1">
       <c r="C3" s="63" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E3" s="204" t="s">
         <v>405</v>
@@ -8285,10 +8326,10 @@
         <v>406</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -8535,7 +8576,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8580,10 +8621,10 @@
       <c r="U1" s="161"/>
     </row>
     <row r="2" spans="1:21" s="21" customFormat="1" ht="18">
-      <c r="A2" s="421" t="s">
+      <c r="A2" s="424" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="418"/>
+      <c r="B2" s="421"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -8609,58 +8650,58 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="419"/>
-      <c r="B3" s="420"/>
+      <c r="A3" s="422"/>
+      <c r="B3" s="423"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="338" t="s">
+        <v>672</v>
+      </c>
+      <c r="G3" s="338" t="s">
+        <v>673</v>
+      </c>
+      <c r="H3" s="339" t="s">
+        <v>666</v>
+      </c>
+      <c r="I3" s="220" t="s">
+        <v>667</v>
+      </c>
+      <c r="J3" s="61" t="s">
         <v>674</v>
       </c>
-      <c r="G3" s="338" t="s">
-        <v>675</v>
-      </c>
-      <c r="H3" s="339" t="s">
+      <c r="K3" s="220" t="s">
         <v>668</v>
       </c>
-      <c r="I3" s="220" t="s">
+      <c r="L3" s="61" t="s">
+        <v>681</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="N3" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>684</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q3" s="132" t="s">
+        <v>686</v>
+      </c>
+      <c r="R3" s="182" t="s">
+        <v>498</v>
+      </c>
+      <c r="S3" s="182" t="s">
         <v>669</v>
       </c>
-      <c r="J3" s="61" t="s">
-        <v>676</v>
-      </c>
-      <c r="K3" s="220" t="s">
+      <c r="T3" s="230" t="s">
         <v>670</v>
       </c>
-      <c r="L3" s="61" t="s">
-        <v>683</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>684</v>
-      </c>
-      <c r="N3" s="61" t="s">
-        <v>685</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>686</v>
-      </c>
-      <c r="P3" s="61" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q3" s="132" t="s">
-        <v>688</v>
-      </c>
-      <c r="R3" s="182" t="s">
-        <v>500</v>
-      </c>
-      <c r="S3" s="182" t="s">
+      <c r="U3" s="230" t="s">
         <v>671</v>
-      </c>
-      <c r="T3" s="230" t="s">
-        <v>672</v>
-      </c>
-      <c r="U3" s="230" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -9116,16 +9157,16 @@
         <v>242</v>
       </c>
       <c r="H14" s="175" t="s">
+        <v>493</v>
+      </c>
+      <c r="I14" s="174" t="s">
+        <v>494</v>
+      </c>
+      <c r="J14" s="197" t="s">
+        <v>491</v>
+      </c>
+      <c r="K14" s="174" t="s">
         <v>495</v>
-      </c>
-      <c r="I14" s="174" t="s">
-        <v>496</v>
-      </c>
-      <c r="J14" s="197" t="s">
-        <v>493</v>
-      </c>
-      <c r="K14" s="174" t="s">
-        <v>497</v>
       </c>
       <c r="L14" s="174" t="s">
         <v>216</v>
@@ -9362,10 +9403,10 @@
       <c r="BG1" s="161"/>
     </row>
     <row r="2" spans="1:59" s="21" customFormat="1" ht="18">
-      <c r="A2" s="421" t="s">
+      <c r="A2" s="424" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="418"/>
+      <c r="B2" s="421"/>
       <c r="C2" s="51" t="s">
         <v>358</v>
       </c>
@@ -9457,16 +9498,16 @@
       <c r="BG2" s="29"/>
     </row>
     <row r="3" spans="1:59" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="419"/>
-      <c r="B3" s="420"/>
+      <c r="A3" s="422"/>
+      <c r="B3" s="423"/>
       <c r="C3" s="114" t="s">
+        <v>527</v>
+      </c>
+      <c r="D3" s="118" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" s="120" t="s">
         <v>529</v>
-      </c>
-      <c r="D3" s="118" t="s">
-        <v>530</v>
-      </c>
-      <c r="E3" s="120" t="s">
-        <v>531</v>
       </c>
       <c r="F3" s="151" t="s">
         <v>258</v>
@@ -9484,10 +9525,10 @@
         <v>261</v>
       </c>
       <c r="K3" s="114" t="s">
+        <v>527</v>
+      </c>
+      <c r="L3" s="120" t="s">
         <v>529</v>
-      </c>
-      <c r="L3" s="120" t="s">
-        <v>531</v>
       </c>
       <c r="M3" s="151" t="s">
         <v>258</v>
@@ -9505,10 +9546,10 @@
         <v>261</v>
       </c>
       <c r="R3" s="114" t="s">
+        <v>527</v>
+      </c>
+      <c r="S3" s="120" t="s">
         <v>529</v>
-      </c>
-      <c r="S3" s="120" t="s">
-        <v>531</v>
       </c>
       <c r="T3" s="151" t="s">
         <v>258</v>
@@ -9526,10 +9567,10 @@
         <v>261</v>
       </c>
       <c r="Y3" s="114" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z3" s="120" t="s">
         <v>529</v>
-      </c>
-      <c r="Z3" s="120" t="s">
-        <v>531</v>
       </c>
       <c r="AA3" s="151" t="s">
         <v>258</v>
@@ -9547,10 +9588,10 @@
         <v>261</v>
       </c>
       <c r="AF3" s="114" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG3" s="120" t="s">
         <v>529</v>
-      </c>
-      <c r="AG3" s="120" t="s">
-        <v>531</v>
       </c>
       <c r="AH3" s="151" t="s">
         <v>258</v>
@@ -9568,10 +9609,10 @@
         <v>261</v>
       </c>
       <c r="AM3" s="114" t="s">
+        <v>527</v>
+      </c>
+      <c r="AN3" s="120" t="s">
         <v>529</v>
-      </c>
-      <c r="AN3" s="120" t="s">
-        <v>531</v>
       </c>
       <c r="AO3" s="151" t="s">
         <v>258</v>
@@ -9589,10 +9630,10 @@
         <v>261</v>
       </c>
       <c r="AT3" s="114" t="s">
+        <v>527</v>
+      </c>
+      <c r="AU3" s="120" t="s">
         <v>529</v>
-      </c>
-      <c r="AU3" s="120" t="s">
-        <v>531</v>
       </c>
       <c r="AV3" s="151" t="s">
         <v>258</v>
@@ -9610,10 +9651,10 @@
         <v>261</v>
       </c>
       <c r="BA3" s="114" t="s">
+        <v>527</v>
+      </c>
+      <c r="BB3" s="120" t="s">
         <v>529</v>
-      </c>
-      <c r="BB3" s="120" t="s">
-        <v>531</v>
       </c>
       <c r="BC3" s="151" t="s">
         <v>258</v>
@@ -11367,7 +11408,7 @@
         <v>135</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>33</v>
@@ -11432,7 +11473,7 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="416" t="s">
+      <c r="B6" s="419" t="s">
         <v>124</v>
       </c>
       <c r="D6" s="5"/>
@@ -11445,7 +11486,7 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="416"/>
+      <c r="B7" s="419"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -11491,7 +11532,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="416" t="s">
+      <c r="B11" s="419" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="5"/>
@@ -11504,7 +11545,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="416"/>
+      <c r="B12" s="419"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -11550,7 +11591,7 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="416" t="s">
+      <c r="B16" s="419" t="s">
         <v>128</v>
       </c>
       <c r="D16" s="5"/>
@@ -11563,7 +11604,7 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="416"/>
+      <c r="B17" s="419"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -11585,7 +11626,7 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="416" t="s">
+      <c r="B19" s="419" t="s">
         <v>129</v>
       </c>
       <c r="D19" s="5"/>
@@ -11598,7 +11639,7 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="416"/>
+      <c r="B20" s="419"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -11666,8 +11707,8 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="416" t="s">
-        <v>489</v>
+      <c r="B26" s="419" t="s">
+        <v>487</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -11679,7 +11720,7 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="416"/>
+      <c r="B27" s="419"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -25254,13 +25295,13 @@
     <row r="3" spans="1:4" ht="117" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="135" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C3" s="186" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -25378,17 +25419,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="expression" dxfId="104" priority="2">
+    <cfRule type="expression" dxfId="106" priority="2">
       <formula>AND(ROW(B1)&gt;14,LEFT($A1,4)&lt;&gt;"_Mil",$A1&lt;&gt;"",B1&lt;&gt;1,B1&lt;&gt;2,B1&lt;&gt;4,B1&lt;&gt;5,B1&lt;&gt;6,B1&lt;&gt;7,B1&lt;&gt;8,B1&lt;&gt;"M",B1&lt;&gt;"NA")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="103" priority="729">
+    <cfRule type="expression" dxfId="105" priority="729">
       <formula>AND(LEFT($A1,4)&lt;&gt;"_Mil",ROW($C1)&gt;14,$C1&lt;&gt;$B1,$A1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="102" priority="3" operator="containsText" text="BLANK PRIORITIZATIONS">
+    <cfRule type="containsText" dxfId="104" priority="3" operator="containsText" text="BLANK PRIORITIZATIONS">
       <formula>NOT(ISERROR(SEARCH("BLANK PRIORITIZATIONS",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25404,7 +25445,7 @@
   <dimension ref="A1:BI3876"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="AO15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="14" topLeftCell="AQ15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="BI15" sqref="BI15"/>
@@ -25469,17 +25510,17 @@
       <c r="D1" s="4"/>
       <c r="E1" s="267"/>
       <c r="F1" s="192" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G1" s="192" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H1" s="160"/>
       <c r="I1" s="161"/>
       <c r="J1" s="162"/>
       <c r="K1" s="161"/>
       <c r="L1" s="192" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M1" s="160"/>
       <c r="N1" s="160"/>
@@ -25488,7 +25529,7 @@
       <c r="Q1" s="161"/>
       <c r="R1" s="161"/>
       <c r="S1" s="192" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="T1" s="159"/>
       <c r="U1" s="161"/>
@@ -25546,10 +25587,10 @@
       <c r="BI1" s="161"/>
     </row>
     <row r="2" spans="1:61" ht="18">
-      <c r="A2" s="417" t="s">
-        <v>485</v>
-      </c>
-      <c r="B2" s="418"/>
+      <c r="A2" s="420" t="s">
+        <v>483</v>
+      </c>
+      <c r="B2" s="421"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="13"/>
@@ -25567,10 +25608,10 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
       <c r="S2" s="51" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="T2" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="U2" s="46"/>
       <c r="V2" s="46"/>
@@ -25586,7 +25627,7 @@
       <c r="AF2" s="46"/>
       <c r="AG2" s="109"/>
       <c r="AH2" s="80" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AI2" s="46"/>
       <c r="AJ2" s="53"/>
@@ -25633,13 +25674,13 @@
       </c>
     </row>
     <row r="3" spans="1:61" ht="133.94999999999999" customHeight="1" thickBot="1">
-      <c r="A3" s="419"/>
-      <c r="B3" s="420"/>
+      <c r="A3" s="422"/>
+      <c r="B3" s="423"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="264"/>
       <c r="F3" s="272" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G3" s="93" t="s">
         <v>416</v>
@@ -25666,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="286" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="P3" s="65" t="s">
         <v>26</v>
@@ -25678,133 +25719,133 @@
         <v>423</v>
       </c>
       <c r="S3" s="273" t="s">
+        <v>501</v>
+      </c>
+      <c r="T3" s="180" t="s">
+        <v>563</v>
+      </c>
+      <c r="U3" s="181" t="s">
+        <v>502</v>
+      </c>
+      <c r="V3" s="181" t="s">
         <v>503</v>
       </c>
-      <c r="T3" s="180" t="s">
+      <c r="W3" s="294" t="s">
+        <v>564</v>
+      </c>
+      <c r="X3" s="181" t="s">
         <v>565</v>
       </c>
-      <c r="U3" s="181" t="s">
+      <c r="Y3" s="182" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z3" s="181" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA3" s="300" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB3" s="182" t="s">
+        <v>569</v>
+      </c>
+      <c r="AC3" s="325" t="s">
+        <v>570</v>
+      </c>
+      <c r="AD3" s="325" t="s">
+        <v>571</v>
+      </c>
+      <c r="AE3" s="300" t="s">
+        <v>572</v>
+      </c>
+      <c r="AF3" s="181" t="s">
+        <v>573</v>
+      </c>
+      <c r="AG3" s="300" t="s">
+        <v>574</v>
+      </c>
+      <c r="AH3" s="294" t="s">
+        <v>543</v>
+      </c>
+      <c r="AI3" s="181" t="s">
         <v>504</v>
       </c>
-      <c r="V3" s="181" t="s">
+      <c r="AJ3" s="220" t="s">
+        <v>544</v>
+      </c>
+      <c r="AK3" s="220" t="s">
+        <v>545</v>
+      </c>
+      <c r="AL3" s="220" t="s">
         <v>505</v>
       </c>
-      <c r="W3" s="294" t="s">
-        <v>566</v>
-      </c>
-      <c r="X3" s="181" t="s">
-        <v>567</v>
-      </c>
-      <c r="Y3" s="182" t="s">
-        <v>568</v>
-      </c>
-      <c r="Z3" s="181" t="s">
-        <v>569</v>
-      </c>
-      <c r="AA3" s="300" t="s">
-        <v>570</v>
-      </c>
-      <c r="AB3" s="182" t="s">
-        <v>571</v>
-      </c>
-      <c r="AC3" s="325" t="s">
-        <v>572</v>
-      </c>
-      <c r="AD3" s="325" t="s">
-        <v>573</v>
-      </c>
-      <c r="AE3" s="300" t="s">
-        <v>574</v>
-      </c>
-      <c r="AF3" s="181" t="s">
-        <v>575</v>
-      </c>
-      <c r="AG3" s="300" t="s">
-        <v>576</v>
-      </c>
-      <c r="AH3" s="294" t="s">
-        <v>545</v>
-      </c>
-      <c r="AI3" s="181" t="s">
+      <c r="AM3" s="221" t="s">
+        <v>546</v>
+      </c>
+      <c r="AN3" s="66" t="s">
+        <v>547</v>
+      </c>
+      <c r="AO3" s="61" t="s">
+        <v>548</v>
+      </c>
+      <c r="AP3" s="180" t="s">
+        <v>549</v>
+      </c>
+      <c r="AQ3" s="276" t="s">
         <v>506</v>
       </c>
-      <c r="AJ3" s="220" t="s">
-        <v>546</v>
-      </c>
-      <c r="AK3" s="220" t="s">
-        <v>547</v>
-      </c>
-      <c r="AL3" s="220" t="s">
+      <c r="AR3" s="230" t="s">
+        <v>550</v>
+      </c>
+      <c r="AS3" s="306" t="s">
+        <v>551</v>
+      </c>
+      <c r="AT3" s="221" t="s">
+        <v>552</v>
+      </c>
+      <c r="AU3" s="300" t="s">
+        <v>553</v>
+      </c>
+      <c r="AV3" s="66" t="s">
+        <v>554</v>
+      </c>
+      <c r="AW3" s="66" t="s">
+        <v>555</v>
+      </c>
+      <c r="AX3" s="300" t="s">
+        <v>556</v>
+      </c>
+      <c r="AY3" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="AZ3" s="279" t="s">
         <v>507</v>
       </c>
-      <c r="AM3" s="221" t="s">
-        <v>548</v>
-      </c>
-      <c r="AN3" s="66" t="s">
-        <v>549</v>
-      </c>
-      <c r="AO3" s="61" t="s">
-        <v>550</v>
-      </c>
-      <c r="AP3" s="180" t="s">
-        <v>551</v>
-      </c>
-      <c r="AQ3" s="276" t="s">
+      <c r="BA3" s="289" t="s">
         <v>508</v>
       </c>
-      <c r="AR3" s="230" t="s">
-        <v>552</v>
-      </c>
-      <c r="AS3" s="306" t="s">
-        <v>553</v>
-      </c>
-      <c r="AT3" s="221" t="s">
-        <v>554</v>
-      </c>
-      <c r="AU3" s="300" t="s">
-        <v>555</v>
-      </c>
-      <c r="AV3" s="66" t="s">
-        <v>556</v>
-      </c>
-      <c r="AW3" s="66" t="s">
-        <v>557</v>
-      </c>
-      <c r="AX3" s="300" t="s">
+      <c r="BB3" s="158" t="s">
+        <v>509</v>
+      </c>
+      <c r="BC3" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="BD3" s="333" t="s">
         <v>558</v>
       </c>
-      <c r="AY3" s="30" t="s">
+      <c r="BE3" s="221" t="s">
+        <v>510</v>
+      </c>
+      <c r="BF3" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="BG3" s="230" t="s">
         <v>559</v>
       </c>
-      <c r="AZ3" s="279" t="s">
-        <v>509</v>
-      </c>
-      <c r="BA3" s="289" t="s">
-        <v>510</v>
-      </c>
-      <c r="BB3" s="158" t="s">
+      <c r="BH3" s="279" t="s">
         <v>511</v>
       </c>
-      <c r="BC3" s="30" t="s">
-        <v>541</v>
-      </c>
-      <c r="BD3" s="333" t="s">
-        <v>560</v>
-      </c>
-      <c r="BE3" s="221" t="s">
-        <v>512</v>
-      </c>
-      <c r="BF3" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="BG3" s="230" t="s">
-        <v>561</v>
-      </c>
-      <c r="BH3" s="279" t="s">
-        <v>513</v>
-      </c>
       <c r="BI3" s="30" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="4" spans="1:61">
@@ -26597,7 +26638,7 @@
         <v>381</v>
       </c>
       <c r="J8" s="245" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K8" s="245" t="s">
         <v>393</v>
@@ -26638,14 +26679,14 @@
       <c r="AB8" s="147"/>
       <c r="AC8" s="328"/>
       <c r="AD8" s="348" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AF8" s="245" t="s">
         <v>46</v>
       </c>
       <c r="AH8" s="297"/>
       <c r="AI8" s="245" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AL8" s="245" t="s">
         <v>134</v>
@@ -26661,10 +26702,10 @@
         <v>71</v>
       </c>
       <c r="BC8" s="241" t="s">
+        <v>535</v>
+      </c>
+      <c r="BF8" s="241" t="s">
         <v>537</v>
-      </c>
-      <c r="BF8" s="241" t="s">
-        <v>539</v>
       </c>
       <c r="BG8" s="241" t="s">
         <v>46</v>
@@ -26681,7 +26722,7 @@
         <v>122</v>
       </c>
       <c r="J9" s="245" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K9" s="245" t="s">
         <v>394</v>
@@ -26722,10 +26763,10 @@
         <v>72</v>
       </c>
       <c r="BC9" s="241" t="s">
+        <v>536</v>
+      </c>
+      <c r="BF9" s="241" t="s">
         <v>538</v>
-      </c>
-      <c r="BF9" s="241" t="s">
-        <v>540</v>
       </c>
       <c r="BG9" s="241"/>
     </row>
@@ -26814,172 +26855,172 @@
       <c r="B11" s="5"/>
       <c r="D11" s="36"/>
       <c r="F11" s="47" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H11" s="139" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I11" s="139" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L11" s="47" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M11" s="139" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N11" s="139" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O11" s="54" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q11" s="139" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="R11" s="139" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="S11" s="47" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="T11" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="V11" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="W11" s="73" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="X11" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Y11" s="86" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Z11" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AA11" s="111" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AB11" s="86" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AC11" s="327" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AD11" s="330" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AE11" s="127" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AF11" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AG11" s="127" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AH11" s="84" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AI11" s="37" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AJ11" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AK11" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AL11" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AM11" s="72" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AN11" s="36" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AO11" s="36" t="s">
         <v>20</v>
       </c>
       <c r="AP11" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AQ11" s="56" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AR11" s="33" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AS11" s="111" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AT11" s="72" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AU11" s="111" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AV11" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AW11" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AX11" s="127" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AY11" s="90" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AZ11" s="134" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="BA11" s="291" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BB11" s="19" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="BC11" s="33" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BD11" s="335" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BE11" s="72" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="BF11" s="33" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BG11" s="33" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BH11" s="134" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="BI11" s="33" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:61">
@@ -27232,10 +27273,10 @@
         <v>144</v>
       </c>
       <c r="U14" s="174" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="V14" s="174" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="W14" s="196" t="s">
         <v>147</v>
@@ -27256,7 +27297,7 @@
         <v>224</v>
       </c>
       <c r="AC14" s="329" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AD14" s="329" t="s">
         <v>390</v>
@@ -27265,22 +27306,22 @@
         <v>431</v>
       </c>
       <c r="AF14" s="174" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AG14" s="176" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AH14" s="196" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AI14" s="174" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AJ14" s="171" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AK14" s="171" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AL14" s="171" t="s">
         <v>432</v>
@@ -27334,19 +27375,19 @@
         <v>443</v>
       </c>
       <c r="BC14" s="173" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="BD14" s="336" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="BE14" s="310" t="s">
         <v>397</v>
       </c>
       <c r="BF14" s="173" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="BG14" s="173" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="BH14" s="285" t="s">
         <v>227</v>
@@ -62343,70 +62384,70 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576 AM1:AN1048576 AT1:AU1048576 AX1:AX1048576 AZ1:AZ1048576 BB1:BB1048576 BE1:BE1048576 BH1:BH1048576">
-    <cfRule type="expression" dxfId="101" priority="3">
+    <cfRule type="expression" dxfId="103" priority="3">
       <formula>$C1="&lt;01"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:BI1048576">
-    <cfRule type="expression" dxfId="100" priority="1">
+    <cfRule type="expression" dxfId="102" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="expression" dxfId="99" priority="13">
+    <cfRule type="expression" dxfId="101" priority="13">
       <formula>AND($N1&lt;&gt;$O1,ISNUMBER($O1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:AN1048576 AR1:AS1048576 BD1:BD1048576 BG1:BG1048576">
-    <cfRule type="expression" dxfId="98" priority="2">
+    <cfRule type="expression" dxfId="100" priority="2">
       <formula>AND(ROW($S1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:AL1048576">
-    <cfRule type="expression" dxfId="97" priority="4">
+    <cfRule type="expression" dxfId="99" priority="4">
       <formula>AND(ISNUMBER($AL1),ROW($AL1)&gt;14,SUM($AL1)=SUM($AK1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="6">
+    <cfRule type="expression" dxfId="98" priority="6">
       <formula>AND(ISNUMBER($AL1),ROW($AL1)&gt;14,SUM($AL1)=SUM($AJ1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM1048576 AA1:AA1048576 AS1:AS1048576">
-    <cfRule type="expression" dxfId="95" priority="14">
+    <cfRule type="expression" dxfId="97" priority="14">
       <formula>AND(ISNUMBER(AA1),AA1&lt;0.9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM1048576">
-    <cfRule type="expression" dxfId="94" priority="11">
+    <cfRule type="expression" dxfId="96" priority="11">
       <formula>AND(ISNUMBER(AM1),AM1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO1:AO1048576">
-    <cfRule type="expression" dxfId="93" priority="9">
+    <cfRule type="expression" dxfId="95" priority="9">
       <formula>AND(ROW($AO1)&gt;14,$E1&lt;&gt;"",$C1&lt;&gt;"&lt;01")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS1:AU1048576 AX1:AX1048576 AZ1:AZ1048576 BB1:BB1048576 BE1:BE1048576 BH1:BH1048576 W1:W1048576 Y1:Y1048576 AA1:AB1048576 AE1:AE1048576 AG1:AH1048576">
-    <cfRule type="expression" dxfId="92" priority="5">
+    <cfRule type="expression" dxfId="94" priority="5">
       <formula>AND(ISNUMBER(W1),W1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU1048576">
-    <cfRule type="expression" dxfId="91" priority="10">
+    <cfRule type="expression" dxfId="93" priority="10">
       <formula>AND(ISNUMBER(AT1),AT1&lt;0.98)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX1:AX1048576">
-    <cfRule type="expression" dxfId="90" priority="8">
+    <cfRule type="expression" dxfId="92" priority="8">
       <formula>AND(ISNUMBER(AX1),AX1&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ1:AZ1048576">
-    <cfRule type="expression" dxfId="89" priority="7">
+    <cfRule type="expression" dxfId="91" priority="7">
       <formula>AND(ISNUMBER(AZ1),AZ1&lt;0.7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB1:BB1048576 BE1:BE1048576 BH1:BH1048576 Y1:Y1048576 AB1:AB1048576 AE1:AE1048576 AG1:AG1048576">
-    <cfRule type="expression" dxfId="88" priority="12">
+    <cfRule type="expression" dxfId="90" priority="12">
       <formula>AND(ISNUMBER(Y1),Y1&lt;0.95)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62423,11 +62464,11 @@
   </sheetPr>
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="14" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="14" topLeftCell="S15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI8" sqref="AI8:AJ9"/>
+      <selection pane="bottomRight" activeCell="AL1" sqref="AL1:AL1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -62597,106 +62638,106 @@
       <c r="C3"/>
       <c r="D3" s="26"/>
       <c r="E3" s="238" t="s">
+        <v>612</v>
+      </c>
+      <c r="F3" s="230" t="s">
+        <v>613</v>
+      </c>
+      <c r="G3" s="243" t="s">
+        <v>602</v>
+      </c>
+      <c r="H3" s="100" t="s">
         <v>614</v>
       </c>
-      <c r="F3" s="230" t="s">
+      <c r="I3" s="230" t="s">
+        <v>578</v>
+      </c>
+      <c r="J3" s="93" t="s">
         <v>615</v>
       </c>
-      <c r="G3" s="243" t="s">
-        <v>604</v>
-      </c>
-      <c r="H3" s="100" t="s">
+      <c r="K3" s="233" t="s">
+        <v>516</v>
+      </c>
+      <c r="L3" s="93" t="s">
+        <v>675</v>
+      </c>
+      <c r="M3" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="I3" s="230" t="s">
+      <c r="N3" s="181" t="s">
+        <v>617</v>
+      </c>
+      <c r="O3" s="230" t="s">
+        <v>579</v>
+      </c>
+      <c r="P3" s="220" t="s">
         <v>580</v>
       </c>
-      <c r="J3" s="93" t="s">
-        <v>617</v>
-      </c>
-      <c r="K3" s="233" t="s">
-        <v>518</v>
-      </c>
-      <c r="L3" s="93" t="s">
-        <v>677</v>
-      </c>
-      <c r="M3" s="64" t="s">
+      <c r="Q3" s="346" t="s">
+        <v>581</v>
+      </c>
+      <c r="R3" s="93" t="s">
         <v>618</v>
       </c>
-      <c r="N3" s="181" t="s">
+      <c r="S3" s="204" t="s">
+        <v>552</v>
+      </c>
+      <c r="T3" s="204" t="s">
+        <v>553</v>
+      </c>
+      <c r="U3" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="V3" s="64" t="s">
+        <v>555</v>
+      </c>
+      <c r="W3" s="206" t="s">
+        <v>556</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y3" s="314" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z3" s="312" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA3" s="315" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB3" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="AC3" s="314" t="s">
+        <v>510</v>
+      </c>
+      <c r="AD3" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="AE3" s="63" t="s">
         <v>619</v>
       </c>
-      <c r="O3" s="230" t="s">
-        <v>581</v>
-      </c>
-      <c r="P3" s="220" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q3" s="346" t="s">
-        <v>583</v>
-      </c>
-      <c r="R3" s="93" t="s">
+      <c r="AF3" s="61" t="s">
         <v>620</v>
       </c>
-      <c r="S3" s="204" t="s">
-        <v>554</v>
-      </c>
-      <c r="T3" s="204" t="s">
-        <v>555</v>
-      </c>
-      <c r="U3" s="64" t="s">
-        <v>584</v>
-      </c>
-      <c r="V3" s="64" t="s">
-        <v>557</v>
-      </c>
-      <c r="W3" s="206" t="s">
-        <v>558</v>
-      </c>
-      <c r="X3" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="Y3" s="314" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z3" s="312" t="s">
-        <v>510</v>
-      </c>
-      <c r="AA3" s="315" t="s">
+      <c r="AG3" s="204" t="s">
         <v>511</v>
       </c>
-      <c r="AB3" s="30" t="s">
+      <c r="AH3" s="204" t="s">
         <v>586</v>
       </c>
-      <c r="AC3" s="314" t="s">
-        <v>512</v>
-      </c>
-      <c r="AD3" s="30" t="s">
+      <c r="AI3" s="30" t="s">
         <v>587</v>
       </c>
-      <c r="AE3" s="63" t="s">
+      <c r="AJ3" s="230" t="s">
+        <v>588</v>
+      </c>
+      <c r="AK3" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="AF3" s="61" t="s">
-        <v>622</v>
-      </c>
-      <c r="AG3" s="204" t="s">
-        <v>513</v>
-      </c>
-      <c r="AH3" s="204" t="s">
-        <v>588</v>
-      </c>
-      <c r="AI3" s="30" t="s">
+      <c r="AL3" s="230" t="s">
         <v>589</v>
-      </c>
-      <c r="AJ3" s="230" t="s">
-        <v>590</v>
-      </c>
-      <c r="AK3" s="63" t="s">
-        <v>623</v>
-      </c>
-      <c r="AL3" s="230" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:38" s="25" customFormat="1">
@@ -63601,13 +63642,13 @@
         <v>33</v>
       </c>
       <c r="E14" s="215" t="s">
+        <v>476</v>
+      </c>
+      <c r="F14" s="197" t="s">
+        <v>477</v>
+      </c>
+      <c r="G14" s="216" t="s">
         <v>478</v>
-      </c>
-      <c r="F14" s="197" t="s">
-        <v>479</v>
-      </c>
-      <c r="G14" s="216" t="s">
-        <v>480</v>
       </c>
       <c r="H14" s="198" t="s">
         <v>194</v>
@@ -63628,16 +63669,16 @@
         <v>275</v>
       </c>
       <c r="N14" s="174" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O14" s="197" t="s">
         <v>190</v>
       </c>
       <c r="P14" s="174" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="Q14" s="196" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="R14" s="198" t="s">
         <v>188</v>
@@ -63652,10 +63693,10 @@
         <v>276</v>
       </c>
       <c r="V14" s="174" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="W14" s="176" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="X14" s="197" t="s">
         <v>189</v>
@@ -63667,7 +63708,7 @@
         <v>442</v>
       </c>
       <c r="AA14" s="175" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AB14" s="197" t="s">
         <v>191</v>
@@ -63789,47 +63830,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:G1048576">
-    <cfRule type="expression" dxfId="87" priority="2">
+    <cfRule type="expression" dxfId="89" priority="2">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:AL1048576">
-    <cfRule type="expression" dxfId="86" priority="3">
+    <cfRule type="expression" dxfId="88" priority="3">
       <formula>AND(ISNUMBER(E1),E1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 S1:T1048576 W1:W1048576 Y1:Y1048576 AA1:AA1048576 AC1:AC1048576 AG1:AH1048576">
-    <cfRule type="expression" dxfId="85" priority="4">
+    <cfRule type="expression" dxfId="87" priority="4">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="84" priority="13">
+    <cfRule type="expression" dxfId="86" priority="13">
       <formula>AND(ISNUMBER($S1),SUM($S1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="83" priority="19">
+    <cfRule type="expression" dxfId="85" priority="19">
       <formula>AND(ISNUMBER($T1),SUM($T1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576">
-    <cfRule type="expression" dxfId="82" priority="34">
+    <cfRule type="expression" dxfId="84" priority="34">
       <formula>AND(ISNUMBER($Y1),ROUND(SUM($V1),0)&gt;0,ROUND(SUM($Y1),2)&lt;70%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AA1:AA1048576 AC1:AC1048576">
-    <cfRule type="expression" dxfId="81" priority="3836">
+    <cfRule type="expression" dxfId="83" priority="3836">
       <formula>AND(ISNUMBER(AA1),SUM(AA1)&lt;95%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576">
-    <cfRule type="expression" dxfId="80" priority="10">
+    <cfRule type="expression" dxfId="82" priority="10">
       <formula>AND(ROW($AG1)&gt;14,$AI1="ENTER LINKAGE RATE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AH1048576">
-    <cfRule type="expression" dxfId="79" priority="1">
+    <cfRule type="expression" dxfId="81" priority="1">
       <formula>AND(ROW($AH1)&gt;14,$AJ1="ENTER YIELD RATE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63844,11 +63885,11 @@
   </sheetPr>
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V15" sqref="V15"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -63863,7 +63904,7 @@
     <col min="8" max="8" width="11.796875" style="84" customWidth="1"/>
     <col min="9" max="9" width="11.796875" style="37" customWidth="1"/>
     <col min="10" max="10" width="11.796875" style="86" customWidth="1"/>
-    <col min="11" max="17" width="11.796875" style="424" customWidth="1"/>
+    <col min="11" max="17" width="11.796875" style="418" customWidth="1"/>
     <col min="18" max="18" width="11.796875" style="388" customWidth="1"/>
     <col min="19" max="19" width="11.796875" style="366" customWidth="1"/>
     <col min="20" max="20" width="11.796875" style="389" customWidth="1"/>
@@ -63883,19 +63924,19 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="192" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G1" s="163"/>
       <c r="H1" s="191"/>
       <c r="I1" s="163"/>
       <c r="J1" s="165"/>
-      <c r="K1" s="422"/>
-      <c r="L1" s="422"/>
-      <c r="M1" s="422"/>
-      <c r="N1" s="422"/>
-      <c r="O1" s="422"/>
-      <c r="P1" s="422"/>
-      <c r="Q1" s="422"/>
+      <c r="K1" s="416"/>
+      <c r="L1" s="416"/>
+      <c r="M1" s="416"/>
+      <c r="N1" s="416"/>
+      <c r="O1" s="416"/>
+      <c r="P1" s="416"/>
+      <c r="Q1" s="416"/>
       <c r="R1" s="376" t="s">
         <v>445</v>
       </c>
@@ -63904,22 +63945,22 @@
       <c r="U1" s="164"/>
       <c r="V1" s="193"/>
       <c r="W1" s="195" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="X1" s="161"/>
       <c r="Y1" s="161"/>
       <c r="Z1" s="161"/>
       <c r="AA1" s="192" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AB1" s="159"/>
       <c r="AC1" s="167"/>
     </row>
     <row r="2" spans="1:29" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="421" t="s">
+      <c r="A2" s="424" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="418"/>
+      <c r="B2" s="421"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="51"/>
@@ -63966,81 +64007,81 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="419"/>
-      <c r="B3" s="420"/>
+      <c r="A3" s="422"/>
+      <c r="B3" s="423"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
+        <v>600</v>
+      </c>
+      <c r="G3" s="115" t="s">
+        <v>601</v>
+      </c>
+      <c r="H3" s="116" t="s">
         <v>602</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="I3" s="115" t="s">
         <v>603</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="J3" s="117" t="s">
         <v>604</v>
       </c>
-      <c r="I3" s="115" t="s">
+      <c r="K3" s="417" t="s">
         <v>605</v>
       </c>
-      <c r="J3" s="117" t="s">
+      <c r="L3" s="417" t="s">
         <v>606</v>
       </c>
-      <c r="K3" s="423" t="s">
+      <c r="M3" s="417" t="s">
         <v>607</v>
       </c>
-      <c r="L3" s="423" t="s">
+      <c r="N3" s="417" t="s">
         <v>608</v>
       </c>
-      <c r="M3" s="423" t="s">
+      <c r="O3" s="417" t="s">
         <v>609</v>
       </c>
-      <c r="N3" s="423" t="s">
+      <c r="P3" s="417" t="s">
         <v>610</v>
       </c>
-      <c r="O3" s="423" t="s">
+      <c r="Q3" s="417" t="s">
         <v>611</v>
       </c>
-      <c r="P3" s="423" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q3" s="423" t="s">
-        <v>613</v>
-      </c>
       <c r="R3" s="382" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="S3" s="383" t="s">
         <v>116</v>
       </c>
       <c r="T3" s="384" t="s">
+        <v>590</v>
+      </c>
+      <c r="U3" s="204" t="s">
+        <v>591</v>
+      </c>
+      <c r="V3" s="234" t="s">
         <v>592</v>
       </c>
-      <c r="U3" s="204" t="s">
+      <c r="W3" s="238" t="s">
         <v>593</v>
       </c>
-      <c r="V3" s="234" t="s">
+      <c r="X3" s="230" t="s">
         <v>594</v>
       </c>
-      <c r="W3" s="238" t="s">
+      <c r="Y3" s="230" t="s">
         <v>595</v>
       </c>
-      <c r="X3" s="230" t="s">
+      <c r="Z3" s="230" t="s">
         <v>596</v>
       </c>
-      <c r="Y3" s="230" t="s">
+      <c r="AA3" s="238" t="s">
         <v>597</v>
       </c>
-      <c r="Z3" s="230" t="s">
+      <c r="AB3" s="230" t="s">
         <v>598</v>
       </c>
-      <c r="AA3" s="238" t="s">
+      <c r="AC3" s="230" t="s">
         <v>599</v>
-      </c>
-      <c r="AB3" s="230" t="s">
-        <v>600</v>
-      </c>
-      <c r="AC3" s="230" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -64548,76 +64589,76 @@
     </row>
     <row r="11" spans="1:29">
       <c r="F11" s="47" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K11" s="367" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L11" s="367" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M11" s="367" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="N11" s="367" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O11" s="367" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P11" s="367" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q11" s="367" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="R11" s="365" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S11" s="366" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="T11" s="353" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="V11" s="33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="W11" s="56" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="X11" s="33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Z11" s="33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AA11" s="56" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AB11" s="33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC11" s="33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -64746,7 +64787,7 @@
         <v>149</v>
       </c>
       <c r="L14" s="398" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M14" s="398" t="s">
         <v>150</v>
@@ -64782,7 +64823,7 @@
         <v>372</v>
       </c>
       <c r="X14" s="200" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Y14" s="200" t="s">
         <v>370</v>
@@ -64829,31 +64870,31 @@
         <f>IF(LEFT($B15,4)="_Mil","",INDEX(Cascade!$AA:$AA,MATCH($E15,Cascade!$E:$E,0)))</f>
         <v/>
       </c>
-      <c r="K15" s="424" t="str">
+      <c r="K15" s="418" t="str">
         <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;K$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
         <v/>
       </c>
-      <c r="L15" s="424" t="str">
+      <c r="L15" s="418" t="str">
         <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;L$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
         <v/>
       </c>
-      <c r="M15" s="424" t="str">
+      <c r="M15" s="418" t="str">
         <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;M$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
         <v/>
       </c>
-      <c r="N15" s="424" t="str">
+      <c r="N15" s="418" t="str">
         <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;N$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
         <v/>
       </c>
-      <c r="O15" s="424" t="str">
+      <c r="O15" s="418" t="str">
         <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;O$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
         <v/>
       </c>
-      <c r="P15" s="424" t="str">
+      <c r="P15" s="418" t="str">
         <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;P$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
         <v/>
       </c>
-      <c r="Q15" s="424" t="str">
+      <c r="Q15" s="418" t="str">
         <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;Q$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
         <v/>
       </c>
@@ -64907,28 +64948,28 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:Q1048576 U1:AC1048576">
-    <cfRule type="expression" dxfId="78" priority="1">
+    <cfRule type="expression" dxfId="80" priority="1">
       <formula>AND(ROW(F1)&gt;14,LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:R1048576 T1:AC1048576">
-    <cfRule type="expression" dxfId="77" priority="2">
+    <cfRule type="expression" dxfId="79" priority="2">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576 U1:U1048576">
+    <cfRule type="expression" dxfId="78" priority="7">
+      <formula>AND(ISNUMBER(H1),H1&gt;1)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="expression" dxfId="76" priority="14">
+    <cfRule type="expression" dxfId="77" priority="14">
       <formula>AND(ISNUMBER(J1),J1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="75" priority="49">
+    <cfRule type="expression" dxfId="76" priority="49">
       <formula>AND(ISNUMBER($S1),ROUND($S1,2)&lt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="74" priority="7">
-      <formula>AND(ISNUMBER(H1),H1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -64955,7 +64996,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65010,10 +65051,10 @@
       <c r="U1" s="161"/>
     </row>
     <row r="2" spans="1:21" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="421" t="s">
+      <c r="A2" s="424" t="s">
         <v>378</v>
       </c>
-      <c r="B2" s="418"/>
+      <c r="B2" s="421"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -65045,52 +65086,52 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="419"/>
-      <c r="B3" s="420"/>
+      <c r="A3" s="422"/>
+      <c r="B3" s="423"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
+        <v>626</v>
+      </c>
+      <c r="G3" s="115" t="s">
+        <v>601</v>
+      </c>
+      <c r="H3" s="117" t="s">
+        <v>602</v>
+      </c>
+      <c r="I3" s="115" t="s">
+        <v>603</v>
+      </c>
+      <c r="J3" s="117" t="s">
+        <v>604</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>676</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>627</v>
+      </c>
+      <c r="M3" s="230" t="s">
         <v>628</v>
       </c>
-      <c r="G3" s="115" t="s">
-        <v>603</v>
-      </c>
-      <c r="H3" s="117" t="s">
-        <v>604</v>
-      </c>
-      <c r="I3" s="115" t="s">
-        <v>605</v>
-      </c>
-      <c r="J3" s="117" t="s">
-        <v>606</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>678</v>
-      </c>
-      <c r="L3" s="61" t="s">
+      <c r="N3" s="230" t="s">
         <v>629</v>
       </c>
-      <c r="M3" s="230" t="s">
+      <c r="O3" s="132" t="s">
         <v>630</v>
       </c>
-      <c r="N3" s="230" t="s">
-        <v>631</v>
-      </c>
-      <c r="O3" s="132" t="s">
-        <v>632</v>
-      </c>
       <c r="P3" s="204" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q3" s="233" t="s">
+        <v>623</v>
+      </c>
+      <c r="R3" s="233" t="s">
         <v>624</v>
       </c>
-      <c r="Q3" s="233" t="s">
+      <c r="S3" s="221" t="s">
         <v>625</v>
-      </c>
-      <c r="R3" s="233" t="s">
-        <v>626</v>
-      </c>
-      <c r="S3" s="221" t="s">
-        <v>627</v>
       </c>
       <c r="T3" s="182" t="s">
         <v>446</v>
@@ -65436,52 +65477,52 @@
     </row>
     <row r="11" spans="1:21">
       <c r="F11" s="47" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q11" s="40" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S11" s="143" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="T11" s="86" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U11" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -65678,42 +65719,42 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:J1048576 M1:S1048576">
-    <cfRule type="expression" dxfId="73" priority="1">
+    <cfRule type="expression" dxfId="75" priority="1">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="72" priority="7">
+    <cfRule type="expression" dxfId="74" priority="7">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576 O1:P1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="71" priority="8">
+    <cfRule type="expression" dxfId="73" priority="8">
       <formula>AND(ISNUMBER(H1),H1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1048576">
-    <cfRule type="expression" dxfId="70" priority="3765">
+    <cfRule type="expression" dxfId="72" priority="3765">
       <formula>AND(ISNUMBER($M1),ISNUMBER($N1),$N1&lt;$M1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="expression" dxfId="69" priority="3764">
+    <cfRule type="expression" dxfId="71" priority="3764">
       <formula>AND(ISNUMBER($P1),$P1&lt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="expression" dxfId="68" priority="29">
+    <cfRule type="expression" dxfId="70" priority="29">
       <formula>AND(ISNUMBER($Q1),$Q1&lt;$N1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="67" priority="3">
+    <cfRule type="expression" dxfId="69" priority="3">
       <formula>AND(SUM($R1)&lt;&gt;0,$S1="",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="66" priority="4">
+    <cfRule type="expression" dxfId="68" priority="4">
       <formula>AND(ROW($T1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65741,7 +65782,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1:P1048576"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65780,7 +65821,7 @@
       <c r="J1" s="161"/>
       <c r="K1" s="342"/>
       <c r="L1" s="194" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="M1" s="161"/>
       <c r="N1" s="161"/>
@@ -65792,10 +65833,10 @@
       <c r="R1" s="161"/>
     </row>
     <row r="2" spans="1:18" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="421" t="s">
+      <c r="A2" s="424" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="418"/>
+      <c r="B2" s="421"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -65820,31 +65861,31 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="419"/>
-      <c r="B3" s="420"/>
+      <c r="A3" s="422"/>
+      <c r="B3" s="423"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="119" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G3" s="411" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="H3" s="411" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="I3" s="408" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="J3" s="118" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K3" s="403" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="L3" s="205" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="M3" s="230" t="s">
         <v>28</v>
@@ -65853,16 +65894,16 @@
         <v>29</v>
       </c>
       <c r="O3" s="113" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="P3" s="63" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="Q3" s="204" t="s">
         <v>117</v>
       </c>
       <c r="R3" s="230" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -65932,9 +65973,15 @@
       <c r="F5" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="413"/>
-      <c r="H5" s="413"/>
-      <c r="I5" s="111"/>
+      <c r="G5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="111" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" s="36" t="s">
         <v>44</v>
       </c>
@@ -65982,9 +66029,15 @@
       <c r="F6" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="413"/>
-      <c r="H6" s="413"/>
-      <c r="I6" s="111"/>
+      <c r="G6" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="111" t="s">
+        <v>58</v>
+      </c>
       <c r="J6" s="36" t="s">
         <v>39</v>
       </c>
@@ -66032,9 +66085,15 @@
       <c r="F7" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="413"/>
-      <c r="H7" s="413"/>
-      <c r="I7" s="111"/>
+      <c r="G7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="111" t="s">
+        <v>41</v>
+      </c>
       <c r="J7" s="36" t="s">
         <v>40</v>
       </c>
@@ -66132,41 +66191,43 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="72" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G11" s="330" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H11" s="330" t="s">
-        <v>460</v>
-      </c>
-      <c r="I11" s="36"/>
+        <v>458</v>
+      </c>
+      <c r="I11" s="330" t="s">
+        <v>458</v>
+      </c>
       <c r="J11" s="36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K11" s="401" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -66183,7 +66244,9 @@
       <c r="H12" s="330" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="36"/>
+      <c r="I12" s="330" t="s">
+        <v>102</v>
+      </c>
       <c r="J12" s="36" t="s">
         <v>102</v>
       </c>
@@ -66244,9 +66307,15 @@
       <c r="F14" s="203" t="s">
         <v>434</v>
       </c>
-      <c r="G14" s="414"/>
-      <c r="H14" s="414"/>
-      <c r="I14" s="176"/>
+      <c r="G14" s="414" t="s">
+        <v>700</v>
+      </c>
+      <c r="H14" s="414" t="s">
+        <v>701</v>
+      </c>
+      <c r="I14" s="414" t="s">
+        <v>702</v>
+      </c>
       <c r="J14" s="171" t="s">
         <v>229</v>
       </c>
@@ -66257,10 +66326,10 @@
         <v>450</v>
       </c>
       <c r="M14" s="197" t="s">
-        <v>451</v>
+        <v>229</v>
       </c>
       <c r="N14" s="197" t="s">
-        <v>452</v>
+        <v>238</v>
       </c>
       <c r="O14" s="197" t="s">
         <v>165</v>
@@ -66298,9 +66367,9 @@
         <f>INDEX(Cascade!$BI:$BI,MATCH($E15,Cascade!$E:$E,0))</f>
         <v>0</v>
       </c>
-      <c r="K15" s="401">
-        <f>J15</f>
-        <v>0</v>
+      <c r="K15" s="401" t="str">
+        <f>IF(SUM($J15)=0,"",ROUND($J15,0))</f>
+        <v/>
       </c>
       <c r="L15" s="72"/>
       <c r="M15" s="33" t="str">
@@ -66326,46 +66395,56 @@
     </row>
     <row r="16" spans="1:18">
       <c r="M16" s="33" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B3"/>
   </mergeCells>
-  <conditionalFormatting sqref="F1:I1048576">
-    <cfRule type="expression" dxfId="65" priority="26">
+  <conditionalFormatting sqref="F1:I4 F5:F7 I5:I7 F8:I1048576">
+    <cfRule type="expression" dxfId="67" priority="28">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:J15 F16:K1048576 R1:R1048576 F1:K2 L1:P1048576">
-    <cfRule type="expression" dxfId="64" priority="29">
+  <conditionalFormatting sqref="F1:K2 F3:J4 F16:K1048576 L1:P1048576 R1:R1048576 F5:F7 I5:J7 F8:J15">
+    <cfRule type="expression" dxfId="66" priority="31">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K15">
-    <cfRule type="expression" dxfId="63" priority="3">
+    <cfRule type="expression" dxfId="65" priority="5">
       <formula>OR($C3="01-09")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="expression" dxfId="62" priority="50">
+    <cfRule type="expression" dxfId="64" priority="52">
       <formula>AND(ISNUMBER(L1),L1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="containsText" dxfId="61" priority="2" operator="containsText" text="ENTER YIELD">
+    <cfRule type="containsText" dxfId="63" priority="4" operator="containsText" text="ENTER YIELD">
       <formula>NOT(ISERROR(SEARCH("ENTER YIELD",M3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="60" priority="49" operator="containsText" text="ENTER YIELD">
+    <cfRule type="containsText" dxfId="62" priority="51" operator="containsText" text="ENTER YIELD">
       <formula>NOT(ISERROR(SEARCH("ENTER YIELD",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:R1048576">
-    <cfRule type="expression" dxfId="59" priority="22">
+    <cfRule type="expression" dxfId="61" priority="24">
       <formula>OR($C1="01-09")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G7">
+    <cfRule type="expression" dxfId="60" priority="2">
+      <formula>AND(ISNUMBER(G5),G5&lt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H7">
+    <cfRule type="expression" dxfId="59" priority="1">
+      <formula>AND(ISNUMBER(H5),H5&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -66389,7 +66468,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N34" sqref="N34"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -66445,25 +66524,25 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G3" s="115" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H3" s="115" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I3" s="115" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="K3" s="61" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L3" s="230" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -66646,25 +66725,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="F11" s="47" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:12">

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ED6C3A-EB99-4CBF-AEB0-5916A267A24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF4D540D-3926-4720-A13D-525E088C6C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="10" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PMTCT!$B$14:$AC$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">PrEP!$B$14:$L$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Spectrum!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">TX_TB_PREV!$B$14:$Z$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">TX_TB_PREV!$B$14:$X$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">VMMC!$B$14:$U$15</definedName>
     <definedName name="HTS_RECENT.N.KeyPop_HIVStatus.T" localSheetId="14">'KP Validation'!#REF!</definedName>
     <definedName name="HTS_SELF.N.KeyPop.T" localSheetId="14">'KP Validation'!#REF!</definedName>
@@ -71,7 +71,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -511,59 +510,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{C4CE5630-E7C9-476A-8155-EA53B84383F8}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="34"/>
-          </rPr>
-          <t>Red highlights indicate cases where coverage rates are missing, but required.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{299D5CCF-A70C-4B6C-96FC-98E138D6F0A2}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="34"/>
-          </rPr>
-          <t>Red highlights indicate cases where coverage rates are missing, but required.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{26C832E2-9468-4A12-8864-AB1BE38C04BD}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Red highlights indicate cases where yields are missing, but required.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{C7F6B5B7-04AA-424B-8551-9C42C8709279}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="34"/>
-          </rPr>
-          <t>Red highlights indicate cases where yields are missing, but required.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{BEE24B7E-DDA0-9A4C-A2CE-FF02818E528C}">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{BEE24B7E-DDA0-9A4C-A2CE-FF02818E528C}">
       <text>
         <r>
           <rPr>
@@ -576,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{B1269ED3-4F25-2541-BDD4-7079173355E0}">
+    <comment ref="U3" authorId="0" shapeId="0" xr:uid="{B1269ED3-4F25-2541-BDD4-7079173355E0}">
       <text>
         <r>
           <rPr>
@@ -788,7 +735,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="690">
   <si>
     <t>TX_CURR</t>
   </si>
@@ -1265,12 +1212,6 @@
   </si>
   <si>
     <t>CXCA_SCRN.T</t>
-  </si>
-  <si>
-    <t>TX_TB.D.New.Yield</t>
-  </si>
-  <si>
-    <t>TX_TB.D.Already.Yield</t>
   </si>
   <si>
     <t>TX_TB.D.New.Neg.Linkage</t>
@@ -2686,18 +2627,6 @@
     <t>TX_CURR (FY25)</t>
   </si>
   <si>
-    <t>TX_NEW (FY26)</t>
-  </si>
-  <si>
-    <t>Est. TB Screen Positivity Rate: Already on ART (FY26) (%)</t>
-  </si>
-  <si>
-    <t>Est. TB Screen Positivity Rate: New on ART (FY26) (%)</t>
-  </si>
-  <si>
-    <t>Est. total # completed TPT in last 7 years (FY26)</t>
-  </si>
-  <si>
     <t>% TPT Initiation Rate - Already on ART (FY26) (%)</t>
   </si>
   <si>
@@ -2711,12 +2640,6 @@
   </si>
   <si>
     <t>Projected Change: New on ART (FY26) (%)</t>
-  </si>
-  <si>
-    <t>TB_PREV (N) - Already on ART (FY25 Targets)</t>
-  </si>
-  <si>
-    <t>TB_PREV (N) - New on ART (FY25 Targets)</t>
   </si>
   <si>
     <t>Projected Net Change in OVC_SERV (FY26) (%)</t>
@@ -2820,9 +2743,6 @@
     <t>TX_TB (N)</t>
   </si>
   <si>
-    <t>Already on ART(FY26)</t>
-  </si>
-  <si>
     <t>Total HTS_TST_POS from Cascade (FY26)</t>
   </si>
   <si>
@@ -2863,18 +2783,6 @@
     <t>HTS_TST.Rt.T_1</t>
   </si>
   <si>
-    <t>New on ART (Results FY24)</t>
-  </si>
-  <si>
-    <t>Already on ART (Results FY24)</t>
-  </si>
-  <si>
-    <t>Incidence Rate from WHO (%)</t>
-  </si>
-  <si>
-    <t>entage</t>
-  </si>
-  <si>
     <t>TX_TB.N.Already.T</t>
   </si>
   <si>
@@ -2887,25 +2795,63 @@
     <t>TX_TB.N.New.R</t>
   </si>
   <si>
-    <t>^ will pull from DATIM</t>
-  </si>
-  <si>
     <t>Total estimated TX_TB (N) (FY26)</t>
   </si>
   <si>
     <t>TX_TB.N.T</t>
   </si>
   <si>
-    <t>Targeted proportion: Already on ART (FY26) (%)</t>
-  </si>
-  <si>
-    <t>Targeted proportion: New on ART (FY26) (%</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>TB_Incidence.Rt</t>
+  </si>
+  <si>
+    <t>WHO TB Incidence Rate 
+(%)</t>
+  </si>
+  <si>
+    <t>Targeted proportion: Already on ART 
+(FY26) (%)</t>
+  </si>
+  <si>
+    <t>Targeted proportion: New on ART 
+(FY26) (%)</t>
+  </si>
+  <si>
+    <t>Started TB TX - Already on ART 
+(FY24 Results)</t>
+  </si>
+  <si>
+    <t>Started TB TX - New on ART 
+(FY24 Results)</t>
+  </si>
+  <si>
+    <t>Start TB TX - Already on ART
+(FY26)</t>
+  </si>
+  <si>
+    <t>Start TB TX - New on ART 
+(FY26)</t>
+  </si>
+  <si>
+    <t>TB_PREV (N) - Already on ART 
+(FY25 Targets)</t>
+  </si>
+  <si>
+    <t>TB_PREV (N) - New on ART 
+(FY25 Targets)</t>
+  </si>
+  <si>
+    <t>TX_NEW 
+(FY26)</t>
+  </si>
+  <si>
+    <t>Est. total # completed TPT in last 8 years 
+(FY26)</t>
+  </si>
+  <si>
+    <t>^ will pull from DATIM ^</t>
   </si>
 </sst>
 </file>
@@ -3202,7 +3148,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3259,12 +3205,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEBDB8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3373,7 +3313,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="410">
+  <cellXfs count="406">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4179,7 +4119,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="20" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4195,7 +4134,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="32" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="31" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4203,6 +4141,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="30" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4221,33 +4175,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="32" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="30" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -4258,7 +4192,27 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{EBDE175B-1152-3C44-B18E-2B948C595077}"/>
   </cellStyles>
-  <dxfs count="109">
+  <dxfs count="108">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4679,11 +4633,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4729,61 +4703,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5668,17 +5592,17 @@
     </row>
     <row r="10" spans="2:2" ht="97.2">
       <c r="B10" s="6" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="82.2">
       <c r="B20" s="214" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5697,7 +5621,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5734,10 +5658,10 @@
       <c r="M1" s="161"/>
     </row>
     <row r="2" spans="1:13" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="396" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" s="393"/>
+      <c r="A2" s="402" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5749,38 +5673,38 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="394"/>
-      <c r="B3" s="395"/>
+      <c r="A3" s="400"/>
+      <c r="B3" s="401"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="63" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H3" s="115" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I3" s="115" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J3" s="146" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="K3" s="204" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="L3" s="204" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5940,7 +5864,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="F8" s="246" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G8" s="245" t="s">
         <v>74</v>
@@ -5956,7 +5880,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="F9" s="246" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G9" s="245" t="s">
         <v>75</v>
@@ -5988,54 +5912,54 @@
     </row>
     <row r="11" spans="1:13">
       <c r="F11" s="52" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="F12" s="52" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M12" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -6055,25 +5979,25 @@
         <v>31</v>
       </c>
       <c r="F14" s="198" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G14" s="174" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H14" s="174" t="s">
         <v>146</v>
       </c>
       <c r="I14" s="174" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J14" s="175" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K14" s="175" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L14" s="175" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M14" s="197" t="s">
         <v>158</v>
@@ -6113,22 +6037,22 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:M1048576">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:L1048576">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>AND(ISNUMBER(J1),J1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="expression" dxfId="55" priority="3">
+    <cfRule type="expression" dxfId="54" priority="3">
       <formula>AND(ISNUMBER($K1),$K1&lt;33%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="expression" dxfId="54" priority="7">
+    <cfRule type="expression" dxfId="53" priority="7">
       <formula>AND(ISNUMBER($L1),$L1&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6147,13 +6071,13 @@
   <sheetPr codeName="Sheet16">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AP16"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6164,22 +6088,21 @@
     <col min="4" max="4" width="7.796875" style="5" customWidth="1"/>
     <col min="5" max="5" width="7" style="5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11.796875" style="47" customWidth="1"/>
-    <col min="7" max="8" width="11.796875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.796875" style="36" customWidth="1"/>
-    <col min="10" max="11" width="11.796875" style="373" customWidth="1"/>
-    <col min="12" max="13" width="11.796875" style="11" customWidth="1"/>
-    <col min="14" max="15" width="11.796875" style="401" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="11.796875" style="33" customWidth="1"/>
-    <col min="18" max="18" width="11.796875" style="47" customWidth="1"/>
-    <col min="19" max="20" width="11.796875" style="36" customWidth="1"/>
-    <col min="21" max="21" width="11.796875" style="54" customWidth="1"/>
-    <col min="22" max="22" width="11.796875" style="11" customWidth="1"/>
-    <col min="23" max="24" width="11.796875" style="111" customWidth="1"/>
-    <col min="25" max="26" width="11.796875" style="33" customWidth="1"/>
-    <col min="27" max="28" width="11.796875" style="11" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" style="11" customWidth="1"/>
+    <col min="8" max="10" width="11.796875" style="373" customWidth="1"/>
+    <col min="11" max="12" width="11.796875" style="11" customWidth="1"/>
+    <col min="13" max="14" width="11.796875" style="33" customWidth="1"/>
+    <col min="15" max="15" width="14.796875" style="36" customWidth="1"/>
+    <col min="16" max="16" width="11.796875" style="47" customWidth="1"/>
+    <col min="17" max="18" width="11.796875" style="36" customWidth="1"/>
+    <col min="19" max="19" width="11.796875" style="54" customWidth="1"/>
+    <col min="20" max="20" width="11.796875" style="11" customWidth="1"/>
+    <col min="21" max="22" width="11.796875" style="111" customWidth="1"/>
+    <col min="23" max="24" width="11.796875" style="33" customWidth="1"/>
+    <col min="25" max="26" width="11.796875" style="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="22" customFormat="1" ht="31.05" customHeight="1">
+    <row r="1" spans="1:26" s="22" customFormat="1" ht="31.05" customHeight="1">
       <c r="A1" s="267" t="s">
         <v>35</v>
       </c>
@@ -6188,34 +6111,32 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="195" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
+      <c r="H1" s="389"/>
+      <c r="I1" s="389"/>
+      <c r="J1" s="389"/>
+      <c r="K1" s="164"/>
       <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="397"/>
-      <c r="O1" s="397"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="195" t="s">
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="167"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="161"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="165"/>
-    </row>
-    <row r="2" spans="1:28" s="21" customFormat="1" ht="18">
+      <c r="Q1" s="167"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+    </row>
+    <row r="2" spans="1:26" s="21" customFormat="1" ht="18">
       <c r="A2" s="13"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6223,113 +6144,105 @@
       <c r="E2" s="2"/>
       <c r="F2" s="49"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="34"/>
+      <c r="H2" s="404"/>
+      <c r="I2" s="324"/>
       <c r="J2" s="324"/>
-      <c r="K2" s="324"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="398"/>
-      <c r="O2" s="398"/>
-      <c r="P2" s="236" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q2" s="236" t="s">
-        <v>428</v>
-      </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="236" t="s">
-        <v>428</v>
-      </c>
-      <c r="Z2" s="236" t="s">
-        <v>428</v>
-      </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-    </row>
-    <row r="3" spans="1:28" ht="117" customHeight="1">
+      <c r="M2" s="236" t="s">
+        <v>426</v>
+      </c>
+      <c r="N2" s="236" t="s">
+        <v>426</v>
+      </c>
+      <c r="O2" s="34"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="236" t="s">
+        <v>426</v>
+      </c>
+      <c r="X2" s="236" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" ht="117" customHeight="1">
       <c r="A3" s="264"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G3" s="204" t="s">
+        <v>678</v>
+      </c>
+      <c r="H3" s="375" t="s">
+        <v>674</v>
+      </c>
+      <c r="I3" s="375" t="s">
         <v>681</v>
       </c>
-      <c r="H3" s="204" t="s">
+      <c r="J3" s="375" t="s">
+        <v>682</v>
+      </c>
+      <c r="K3" s="204" t="s">
+        <v>679</v>
+      </c>
+      <c r="L3" s="204" t="s">
+        <v>680</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>684</v>
+      </c>
+      <c r="O3" s="118" t="s">
+        <v>687</v>
+      </c>
+      <c r="P3" s="63" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q3" s="64" t="s">
+        <v>685</v>
+      </c>
+      <c r="R3" s="391" t="s">
+        <v>686</v>
+      </c>
+      <c r="S3" s="392" t="s">
         <v>688</v>
       </c>
-      <c r="I3" s="118" t="s">
+      <c r="T3" s="204" t="s">
+        <v>620</v>
+      </c>
+      <c r="U3" s="206" t="s">
+        <v>621</v>
+      </c>
+      <c r="V3" s="206" t="s">
         <v>622</v>
       </c>
-      <c r="J3" s="375" t="s">
-        <v>680</v>
-      </c>
-      <c r="K3" s="375" t="s">
-        <v>679</v>
-      </c>
-      <c r="L3" s="204" t="s">
-        <v>690</v>
-      </c>
-      <c r="M3" s="204" t="s">
-        <v>691</v>
-      </c>
-      <c r="N3" s="399" t="s">
+      <c r="W3" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y3" s="138" t="s">
         <v>623</v>
       </c>
-      <c r="O3" s="399" t="s">
+      <c r="Z3" s="138" t="s">
         <v>624</v>
       </c>
-      <c r="P3" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>497</v>
-      </c>
-      <c r="R3" s="63" t="s">
-        <v>663</v>
-      </c>
-      <c r="S3" s="64" t="s">
-        <v>631</v>
-      </c>
-      <c r="T3" s="406" t="s">
-        <v>632</v>
-      </c>
-      <c r="U3" s="407" t="s">
-        <v>625</v>
-      </c>
-      <c r="V3" s="204" t="s">
-        <v>626</v>
-      </c>
-      <c r="W3" s="206" t="s">
-        <v>627</v>
-      </c>
-      <c r="X3" s="206" t="s">
-        <v>628</v>
-      </c>
-      <c r="Y3" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z3" s="30" t="s">
-        <v>497</v>
-      </c>
-      <c r="AA3" s="138" t="s">
-        <v>629</v>
-      </c>
-      <c r="AB3" s="138" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="265"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -6342,83 +6255,75 @@
         <v>0</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="35">
+      <c r="H4" s="405">
         <f>SUBTOTAL(109,H$15:INDEX(H:H,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
         <v>0</v>
       </c>
-      <c r="I4" s="35">
-        <f>SUBTOTAL(109,I$15:INDEX(I:I,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
+      <c r="I4" s="376"/>
+      <c r="J4" s="376"/>
+      <c r="K4" s="18" t="str">
+        <f>IF(SUM($H$4)=0,"",SUM($M$4)/$H$4)</f>
+        <v/>
+      </c>
+      <c r="L4" s="18" t="str">
+        <f>IF(SUM($H$4)=0,"",SUM($N$4)/$H$4)</f>
+        <v/>
+      </c>
+      <c r="M4" s="32">
+        <f>SUBTOTAL(109,M$15:INDEX(M:M,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
         <v>0</v>
       </c>
-      <c r="J4" s="376"/>
-      <c r="K4" s="376"/>
-      <c r="L4" s="18" t="e">
-        <f>IF(SUM(#REF!)=0,"",SUM(#REF!,#REF!)/#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M4" s="18" t="e">
-        <f>IF(SUM(#REF!)=0,"",SUM(#REF!,#REF!)/#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N4" s="400" t="e">
-        <f>IF(SUM(#REF!,#REF!)=0,"",#REF!/SUM(#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O4" s="400" t="e">
-        <f>IF(SUM(#REF!,#REF!)=0,"",#REF!/SUM(#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P4" s="32">
+      <c r="N4" s="32">
+        <f>SUBTOTAL(109,N$15:INDEX(N:N,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="35">
+        <f>SUBTOTAL(109,O$15:INDEX(O:O,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="50">
         <f>SUBTOTAL(109,P$15:INDEX(P:P,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="32">
+      <c r="Q4" s="35">
         <f>SUBTOTAL(109,Q$15:INDEX(Q:Q,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
         <v>0</v>
       </c>
-      <c r="R4" s="50">
+      <c r="R4" s="35">
         <f>SUBTOTAL(109,R$15:INDEX(R:R,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
         <v>0</v>
       </c>
-      <c r="S4" s="35">
+      <c r="S4" s="133">
         <f>SUBTOTAL(109,S$15:INDEX(S:S,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
         <v>0</v>
       </c>
-      <c r="T4" s="35">
-        <f>SUBTOTAL(109,T$15:INDEX(T:T,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
+      <c r="T4" s="18" t="e">
+        <f>IF(SUM(#REF!)*SUM(#REF!)=0,"",SUM($W$4)/(SUM(#REF!)*SUM(#REF!)))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U4" s="110" t="e">
+        <f>IF(SUM(#REF!)=0,"",$X$4/#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V4" s="110" t="s">
+        <v>676</v>
+      </c>
+      <c r="W4" s="32">
         <v>0</v>
       </c>
-      <c r="U4" s="133">
-        <f>SUBTOTAL(109,U$15:INDEX(U:U,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
+      <c r="X4" s="32">
         <v>0</v>
       </c>
-      <c r="V4" s="18" t="e">
-        <f>IF(SUM(#REF!)*SUM(#REF!)=0,"",SUM($Y$4)/(SUM(#REF!)*SUM(#REF!)))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W4" s="110" t="e">
-        <f>IF(SUM(#REF!)=0,"",$Z$4/#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X4" s="110" t="s">
-        <v>692</v>
-      </c>
-      <c r="Y4" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="18" t="str">
-        <f>IF(SUM($S4)=0,"",(SUM(#REF!)-$S4)/$S4)</f>
+      <c r="Y4" s="18" t="str">
+        <f>IF(SUM($Q4)=0,"",(SUM(#REF!)-$Q4)/$Q4)</f>
         <v/>
       </c>
-      <c r="AB4" s="18" t="str">
-        <f>IF(SUM($T4)=0,"",(SUM(#REF!)-$T4)/$T4)</f>
+      <c r="Z4" s="18" t="str">
+        <f>IF(SUM($R4)=0,"",(SUM(#REF!)-$R4)/$R4)</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -6440,71 +6345,65 @@
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="373" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="36" t="s">
-        <v>42</v>
+      <c r="I5" s="373" t="s">
+        <v>53</v>
       </c>
       <c r="J5" s="373" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="373" t="s">
-        <v>53</v>
+      <c r="K5" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="401" t="s">
+      <c r="P5" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="401" t="s">
+      <c r="Q5" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="T5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="X5" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="Y5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="U5" s="54" t="s">
+      <c r="Z5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="X5" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y5" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z5" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -6526,71 +6425,65 @@
       <c r="G6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="373" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="36" t="s">
-        <v>37</v>
+      <c r="I6" s="373" t="s">
+        <v>54</v>
       </c>
       <c r="J6" s="373" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="373" t="s">
-        <v>54</v>
+      <c r="K6" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="401" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="401" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="33" t="s">
+      <c r="T6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="X6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="T6" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="U6" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="W6" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="X6" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y6" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z6" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="Z6" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -6610,275 +6503,257 @@
         <v>38</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>682</v>
-      </c>
-      <c r="H7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="373" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="373" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="373" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="373" t="s">
-        <v>38</v>
+      <c r="K7" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="401" t="s">
+      <c r="U7" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="401" t="s">
+      <c r="V7" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="W7" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="X7" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="T7" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="U7" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="V7" s="11" t="s">
+      <c r="Y7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="W7" s="111" t="s">
+      <c r="Z7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="X7" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y7" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z7" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="J8" s="404"/>
-      <c r="K8" s="404"/>
-      <c r="P8" s="349"/>
-      <c r="Q8" s="349"/>
-      <c r="S8" s="245" t="s">
+    </row>
+    <row r="8" spans="1:26">
+      <c r="I8" s="390"/>
+      <c r="J8" s="390"/>
+      <c r="M8" s="349"/>
+      <c r="N8" s="349"/>
+      <c r="Q8" s="245" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="245" t="s">
+      <c r="R8" s="245" t="s">
         <v>96</v>
       </c>
-      <c r="U8" s="408"/>
-      <c r="V8" s="129"/>
-      <c r="W8" s="409"/>
-      <c r="X8" s="409"/>
-      <c r="Y8" s="241" t="s">
+      <c r="S8" s="393"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="394"/>
+      <c r="V8" s="394"/>
+      <c r="W8" s="241" t="s">
         <v>96</v>
       </c>
-      <c r="Z8" s="241" t="s">
+      <c r="X8" s="241" t="s">
         <v>96</v>
       </c>
-      <c r="AA8" s="129"/>
-      <c r="AB8" s="129"/>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="J9" s="404"/>
-      <c r="K9" s="404"/>
-      <c r="P9" s="349"/>
-      <c r="Q9" s="349"/>
-      <c r="S9" s="245" t="s">
+      <c r="Y8" s="129"/>
+      <c r="Z8" s="129"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="I9" s="390"/>
+      <c r="J9" s="390"/>
+      <c r="M9" s="349"/>
+      <c r="N9" s="349"/>
+      <c r="Q9" s="245" t="s">
         <v>97</v>
       </c>
-      <c r="T9" s="245" t="s">
+      <c r="R9" s="245" t="s">
         <v>97</v>
       </c>
-      <c r="U9" s="408"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="409"/>
-      <c r="X9" s="409"/>
-      <c r="Y9" s="241" t="s">
+      <c r="S9" s="393"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="394"/>
+      <c r="V9" s="394"/>
+      <c r="W9" s="241" t="s">
         <v>97</v>
       </c>
-      <c r="Z9" s="241" t="s">
+      <c r="X9" s="241" t="s">
         <v>97</v>
       </c>
-      <c r="AA9" s="129"/>
-      <c r="AB9" s="129"/>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="J10" s="404"/>
-      <c r="K10" s="404"/>
-      <c r="P10" s="349"/>
-      <c r="Q10" s="349"/>
-      <c r="S10" s="245" t="s">
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="129"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="I10" s="390"/>
+      <c r="J10" s="390"/>
+      <c r="M10" s="349"/>
+      <c r="N10" s="349"/>
+      <c r="Q10" s="245" t="s">
         <v>60</v>
       </c>
-      <c r="T10" s="245" t="s">
+      <c r="R10" s="245" t="s">
         <v>59</v>
       </c>
-      <c r="U10" s="408"/>
-      <c r="V10" s="129"/>
-      <c r="W10" s="409"/>
-      <c r="X10" s="409"/>
-      <c r="Y10" s="241" t="s">
+      <c r="S10" s="393"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="394"/>
+      <c r="V10" s="394"/>
+      <c r="W10" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="Z10" s="241" t="s">
+      <c r="X10" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="AA10" s="129"/>
-      <c r="AB10" s="129"/>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="129"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="F11" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>323</v>
+        <v>321</v>
+      </c>
+      <c r="I11" s="373" t="s">
+        <v>321</v>
       </c>
       <c r="J11" s="373" t="s">
-        <v>323</v>
-      </c>
-      <c r="K11" s="373" t="s">
-        <v>323</v>
+        <v>321</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="N11" s="401" t="s">
-        <v>323</v>
-      </c>
-      <c r="O11" s="401" t="s">
-        <v>323</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="R11" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="S11" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="T11" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="U11" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="W11" s="111" t="s">
-        <v>323</v>
-      </c>
-      <c r="X11" s="111" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y11" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="Z11" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA11" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB11" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+        <v>321</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="P11" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="S11" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="U11" s="111" t="s">
+        <v>321</v>
+      </c>
+      <c r="V11" s="111" t="s">
+        <v>321</v>
+      </c>
+      <c r="W11" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="F12" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="373" t="s">
         <v>94</v>
       </c>
       <c r="J12" s="373" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="373" t="s">
+      <c r="K12" s="11" t="s">
         <v>94</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="401" t="s">
+      <c r="N12" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="O12" s="401" t="s">
+      <c r="O12" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="P12" s="33" t="s">
+      <c r="P12" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="Q12" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="R12" s="47" t="s">
+      <c r="R12" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="S12" s="36" t="s">
+      <c r="S12" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="T12" s="36" t="s">
+      <c r="T12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="U12" s="54" t="s">
+      <c r="U12" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="V12" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="W12" s="111" t="s">
+      <c r="W12" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="X12" s="111" t="s">
+      <c r="X12" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="Y12" s="33" t="s">
+      <c r="Y12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Z12" s="33" t="s">
+      <c r="Z12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="AA12" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB12" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="266" t="s">
         <v>28</v>
       </c>
@@ -6898,73 +6773,67 @@
         <v>147</v>
       </c>
       <c r="G14" s="175" t="s">
-        <v>693</v>
-      </c>
-      <c r="H14" s="175" t="s">
-        <v>689</v>
-      </c>
-      <c r="I14" s="171" t="s">
+        <v>677</v>
+      </c>
+      <c r="H14" s="329" t="s">
+        <v>675</v>
+      </c>
+      <c r="I14" s="329" t="s">
+        <v>672</v>
+      </c>
+      <c r="J14" s="329" t="s">
+        <v>673</v>
+      </c>
+      <c r="K14" s="175" t="s">
+        <v>386</v>
+      </c>
+      <c r="L14" s="175" t="s">
+        <v>385</v>
+      </c>
+      <c r="M14" s="197" t="s">
+        <v>670</v>
+      </c>
+      <c r="N14" s="197" t="s">
+        <v>671</v>
+      </c>
+      <c r="O14" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="J14" s="329" t="s">
-        <v>685</v>
-      </c>
-      <c r="K14" s="329" t="s">
-        <v>686</v>
-      </c>
-      <c r="L14" s="175" t="s">
-        <v>388</v>
-      </c>
-      <c r="M14" s="175" t="s">
-        <v>387</v>
-      </c>
-      <c r="N14" s="402" t="s">
+      <c r="P14" s="198" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q14" s="174" t="s">
+        <v>162</v>
+      </c>
+      <c r="R14" s="171" t="s">
+        <v>161</v>
+      </c>
+      <c r="S14" s="171" t="s">
+        <v>447</v>
+      </c>
+      <c r="T14" s="175" t="s">
         <v>160</v>
       </c>
-      <c r="O14" s="402" t="s">
+      <c r="U14" s="176" t="s">
         <v>159</v>
       </c>
-      <c r="P14" s="197" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q14" s="197" t="s">
-        <v>684</v>
-      </c>
-      <c r="R14" s="198" t="s">
-        <v>401</v>
-      </c>
-      <c r="S14" s="174" t="s">
+      <c r="V14" s="176" t="s">
+        <v>448</v>
+      </c>
+      <c r="W14" s="197" t="s">
         <v>164</v>
       </c>
-      <c r="T14" s="171" t="s">
+      <c r="X14" s="197" t="s">
         <v>163</v>
       </c>
-      <c r="U14" s="171" t="s">
+      <c r="Y14" s="175" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z14" s="175" t="s">
         <v>449</v>
       </c>
-      <c r="V14" s="175" t="s">
-        <v>162</v>
-      </c>
-      <c r="W14" s="176" t="s">
-        <v>161</v>
-      </c>
-      <c r="X14" s="176" t="s">
-        <v>450</v>
-      </c>
-      <c r="Y14" s="197" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z14" s="197" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA14" s="175" t="s">
-        <v>452</v>
-      </c>
-      <c r="AB14" s="175" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="e">
         <f>INDEX(Prioritization!$D:$D,MATCH($B15,Prioritization!$A:$A,0))</f>
         <v>#N/A</v>
@@ -6977,140 +6846,157 @@
         <f t="array" ref="F15">IFERROR(1/(1/SUM(SUMIFS(Cascade!$AQ:$AQ,Cascade!$B:$B,$B15,Cascade!$C:$C,IF($C15="&lt;15",{"=&lt;01","01-09","10-14"},{"15-24","25-34","35-49","50+"}),Cascade!$D:$D,$D15))),"")</f>
         <v/>
       </c>
-      <c r="H15" s="11" t="str">
-        <f>IF(SUM($F15)=0,"",IF($G15="","ENTER COMPLETION RATE",ROUND($F15*$G15,0)))</f>
+      <c r="H15" s="377" t="str">
+        <f>IF(SUM($F15)=0,"",IF($G15="","ENTER INCIDENCE RATE",ROUND($F15*$G15,0)))</f>
         <v/>
       </c>
-      <c r="I15" s="36" t="str" cm="1">
-        <f t="array" ref="I15">IFERROR(1/(1/SUM(SUMIFS(Cascade!$AY:$AY,Cascade!$B:$B,$B15,Cascade!$C:$C,IF($C15="&lt;15",{"=&lt;01","01-09","10-14"},{"15-24","25-34","35-49","50+"}),Cascade!$D:$D,$D15))),"")</f>
+      <c r="K15" s="11" t="str">
+        <f>IF(SUM($H15)=0,"",ROUND($I15/($I15/$J15),0))</f>
         <v/>
       </c>
-      <c r="L15" s="11">
-        <v>1</v>
-      </c>
-      <c r="M15" s="11">
-        <v>1</v>
-      </c>
-      <c r="P15" s="33" t="str">
+      <c r="L15" s="11" t="str">
+        <f>IF(SUM($H15)=0,"",ROUND(1-$K15,0))</f>
+        <v/>
+      </c>
+      <c r="M15" s="33" t="str">
+        <f>IF(SUM($H15)=0,"",ROUND($H15*$K15,0))</f>
+        <v/>
+      </c>
+      <c r="N15" s="33" t="str">
         <f>IF(SUM($H15)=0,"",ROUND($H15*$L15,0))</f>
         <v/>
       </c>
-      <c r="Q15" s="33" t="str">
-        <f>IF(SUM($H15)=0,"",ROUND($H15*$M15,0))</f>
+      <c r="O15" s="36" t="str" cm="1">
+        <f t="array" ref="O15">IFERROR(1/(1/SUM(SUMIFS(Cascade!$AY:$AY,Cascade!$B:$B,$B15,Cascade!$C:$C,IF($C15="&lt;15",{"=&lt;01","01-09","10-14"},{"15-24","25-34","35-49","50+"}),Cascade!$D:$D,$D15))),"")</f>
         <v/>
       </c>
-      <c r="U15" s="54" t="str">
-        <f>IFERROR(1/(1/SUM($R15,$T15,$S15)),"")</f>
+      <c r="S15" s="54" t="str">
+        <f>IFERROR(1/(1/SUM($P15,$R15,$Q15)),"")</f>
         <v/>
       </c>
-      <c r="V15" s="11">
+      <c r="T15" s="11">
         <v>1</v>
       </c>
-      <c r="W15" s="111">
+      <c r="U15" s="111">
         <v>1</v>
       </c>
-      <c r="X15" s="111">
+      <c r="V15" s="111">
         <v>0.9</v>
       </c>
-      <c r="Y15" s="33" t="str">
-        <f>IF(SUM($P15)=0,"",IF(#REF!="","ENTER ELIGIBILITY RATE",IF($V15 = "","ENTER INITIATION RATE",ROUND($P15*#REF!*$V15*$X15,0))))</f>
+      <c r="W15" s="378" t="str">
+        <f>IF(SUM($F15)=0,"",IF($V15="","ENTER COMPLETION RATE",IF($T15="","ENTER INITIATION RATE",ROUND(($F15-$M15)*$T15*$V15,0))))</f>
         <v/>
       </c>
-      <c r="Z15" s="33" t="str">
-        <f>IF(SUM($Q15)=0,"",IF($W15="","ENTER INITIATION RATE",ROUND($Q15*$W15*$X15,0)))</f>
+      <c r="X15" s="378" t="str">
+        <f>IF(SUM($F15)=0,"",IF($V15="","ENTER COMPLETION RATE",IF($T15 = "","ENTER INITIATION RATE",ROUND(($F15-$N15)*$T15*$V15,0))))</f>
         <v/>
       </c>
-      <c r="AA15" s="11" t="str">
-        <f>IF(SUM($S15)=0,"",(SUM(#REF!)-$S15)/$S15)</f>
+      <c r="Y15" s="11" t="str">
+        <f>IF(SUM($Q15)=0,"",(SUM(#REF!)-$Q15)/$Q15)</f>
         <v/>
       </c>
-      <c r="AB15" s="11" t="str">
-        <f>IF(SUM($T15)=0,"",(SUM(#REF!)-$T15)/$T15)</f>
+      <c r="Z15" s="11" t="str">
+        <f>IF(SUM($R15)=0,"",(SUM(#REF!)-$R15)/$R15)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:28">
-      <c r="J16" s="405" t="s">
-        <v>687</v>
-      </c>
-      <c r="K16" s="405"/>
+    <row r="16" spans="1:26">
+      <c r="I16" s="403" t="s">
+        <v>689</v>
+      </c>
+      <c r="J16" s="403"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="S16" s="395"/>
+      <c r="W16" s="396"/>
+    </row>
+    <row r="17" spans="11:15">
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="I16:J16"/>
   </mergeCells>
-  <conditionalFormatting sqref="L15:Q16 R1:Y1048576 F15:I15 F17:Q1048576 F16:J16 F1:Q14">
-    <cfRule type="expression" dxfId="53" priority="22">
+  <conditionalFormatting sqref="K15:O15 I1:N14 I16 O1:W15 I18:W1048576 P16:W17 I17:J17 F1:H1048576">
+    <cfRule type="expression" dxfId="52" priority="24">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:O14 J17:O1048576 J16 L15:O16 V1:W1048576">
-    <cfRule type="expression" dxfId="52" priority="24">
-      <formula>AND(ISNUMBER(J1),J1&gt;1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576 O1:O1048576">
-    <cfRule type="expression" dxfId="51" priority="28">
-      <formula>AND(SUM(#REF!)&lt;&gt;0,M1="",ROW(M1)&gt;14)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:L14 J17:L1048576 L15:L16 G1:H1048576 M1:N1048576">
-    <cfRule type="expression" dxfId="50" priority="18">
+  <conditionalFormatting sqref="I1:K14 L1:L15 K15 I17:J17 I18:L1048576 G1:H1048576">
+    <cfRule type="expression" dxfId="51" priority="20">
       <formula>AND(SUM(#REF!)&gt;0,G1="",ROW(G1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:M14 J17:M1048576 J16 L15:M16">
-    <cfRule type="expression" dxfId="49" priority="20">
-      <formula>AND(ISNUMBER(J1),ROUND(SUM(J1),2)&lt;100%)</formula>
+  <conditionalFormatting sqref="G1:H1048576">
+    <cfRule type="expression" dxfId="50" priority="16">
+      <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="expression" dxfId="46" priority="16">
+    <cfRule type="expression" dxfId="49" priority="18">
       <formula>AND(ISNUMBER(G1),ROUND(SUM(G1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="expression" dxfId="45" priority="14">
-      <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="48" priority="3903">
+      <formula>AND(SUM(#REF!)&gt;0,I16="",ROW(I16)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="44" priority="3901">
-      <formula>AND(SUM(#REF!)&gt;0,J16="",ROW(J16)&gt;14)</formula>
+  <conditionalFormatting sqref="I1:L14 K15:L15 I18:L1048576 I16 I17:J17">
+    <cfRule type="expression" dxfId="47" priority="22">
+      <formula>AND(ISNUMBER(I1),ROUND(SUM(I1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:W1048576">
-    <cfRule type="expression" dxfId="43" priority="9">
+  <conditionalFormatting sqref="I1:L14 T1:U1048576 K15:L15 I16 I18:L1048576 I17:J17">
+    <cfRule type="expression" dxfId="46" priority="26">
+      <formula>AND(ISNUMBER(I1),I1&gt;1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L15 L18:L1048576">
+    <cfRule type="expression" dxfId="45" priority="30">
+      <formula>AND(SUM(#REF!)&lt;&gt;0,L1="",ROW(L1)&gt;14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:U1048576">
+    <cfRule type="expression" dxfId="44" priority="11">
+      <formula>AND(ISNUMBER(T1),ROUND(SUM(T1),2)&lt;100%)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:V1048576">
+    <cfRule type="expression" dxfId="43" priority="4">
+      <formula>V1="ENTER INITIATION RATE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1048576">
+    <cfRule type="expression" dxfId="42" priority="3">
+      <formula>AND(ISNUMBER(V1),V1&gt;1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="5">
       <formula>AND(ISNUMBER(V1),ROUND(SUM(V1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:W1048576">
-    <cfRule type="expression" dxfId="42" priority="7">
-      <formula>X1="ENTER INITIATION RATE"</formula>
+  <conditionalFormatting sqref="X1:X1048576">
+    <cfRule type="expression" dxfId="40" priority="6">
+      <formula>AND(ISNUMBER(X1),X1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:Z1048576">
-    <cfRule type="expression" dxfId="41" priority="4">
-      <formula>AND(ISNUMBER(Z1),Z1&lt;0)</formula>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(ISNUMBER(G7),ROUND(SUM(G7),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="expression" dxfId="40" priority="1">
-      <formula>AND(ISNUMBER(X1),X1&gt;1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="expression" dxfId="39" priority="3">
-      <formula>AND(ISNUMBER(X1),ROUND(SUM(X1),2)&lt;100%)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="expression" dxfId="38" priority="2">
-      <formula>Z1="ENTER INITIATION RATE"</formula>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND(ISNUMBER(G7),G7&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I3" location="Cascade!AY:AY" display="TX_NEW (FY24)" xr:uid="{C61C72EC-99BD-4562-97FF-290625A82CC1}"/>
+    <hyperlink ref="O3" location="Cascade!AY:AY" display="TX_NEW (FY24)" xr:uid="{C61C72EC-99BD-4562-97FF-290625A82CC1}"/>
     <hyperlink ref="F3" location="Cascade!AQ:AQ" display="TX_CURR (FY26)" xr:uid="{BB4F6B03-E156-42E8-B088-C762EC491594}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7130,7 +7016,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7186,16 +7072,16 @@
       <c r="M2" s="3"/>
       <c r="N2" s="29"/>
       <c r="O2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="R2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="117" customHeight="1">
@@ -7205,43 +7091,43 @@
       <c r="D3" s="17"/>
       <c r="E3" s="264"/>
       <c r="F3" s="320" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="I3" s="204" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="J3" s="204" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="K3" s="204" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="L3" s="138" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="M3" s="204" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="N3" s="230" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="O3" s="230" t="s">
+        <v>499</v>
+      </c>
+      <c r="P3" s="230" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q3" s="230" t="s">
         <v>501</v>
       </c>
-      <c r="P3" s="230" t="s">
+      <c r="R3" s="230" t="s">
         <v>502</v>
-      </c>
-      <c r="Q3" s="230" t="s">
-        <v>503</v>
-      </c>
-      <c r="R3" s="230" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -7476,10 +7362,10 @@
       <c r="D8" s="5"/>
       <c r="F8" s="77"/>
       <c r="G8" s="261" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H8" s="254" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I8" s="129"/>
       <c r="J8" s="129"/>
@@ -7488,16 +7374,16 @@
       <c r="M8" s="129"/>
       <c r="N8" s="33"/>
       <c r="O8" s="253" t="s">
+        <v>331</v>
+      </c>
+      <c r="P8" s="253" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q8" s="241" t="s">
         <v>333</v>
       </c>
-      <c r="P8" s="253" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q8" s="241" t="s">
-        <v>335</v>
-      </c>
       <c r="R8" s="241" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -7506,10 +7392,10 @@
       <c r="D9" s="5"/>
       <c r="F9" s="77"/>
       <c r="G9" s="261" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H9" s="254" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I9" s="129"/>
       <c r="J9" s="129"/>
@@ -7518,16 +7404,16 @@
       <c r="M9" s="129"/>
       <c r="N9" s="33"/>
       <c r="O9" s="253" t="s">
+        <v>332</v>
+      </c>
+      <c r="P9" s="253" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q9" s="241" t="s">
         <v>334</v>
       </c>
-      <c r="P9" s="253" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q9" s="241" t="s">
-        <v>336</v>
-      </c>
       <c r="R9" s="241" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -7558,40 +7444,40 @@
       <c r="D11" s="5"/>
       <c r="F11" s="77"/>
       <c r="G11" s="87" t="s">
+        <v>322</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="K11" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="L11" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="P11" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>326</v>
-      </c>
       <c r="Q11" s="33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -7609,7 +7495,7 @@
         <v>94</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>94</v>
@@ -7624,7 +7510,7 @@
         <v>94</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P12" s="33" t="s">
         <v>94</v>
@@ -7670,43 +7556,43 @@
         <v>31</v>
       </c>
       <c r="F14" s="321" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G14" s="217" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H14" s="174" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I14" s="175" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" s="175" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="175" t="s">
+        <v>229</v>
+      </c>
+      <c r="L14" s="175" t="s">
         <v>228</v>
       </c>
-      <c r="J14" s="175" t="s">
-        <v>229</v>
-      </c>
-      <c r="K14" s="175" t="s">
+      <c r="M14" s="175" t="s">
+        <v>230</v>
+      </c>
+      <c r="N14" s="197" t="s">
+        <v>232</v>
+      </c>
+      <c r="O14" s="197" t="s">
+        <v>202</v>
+      </c>
+      <c r="P14" s="197" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="197" t="s">
         <v>231</v>
       </c>
-      <c r="L14" s="175" t="s">
-        <v>230</v>
-      </c>
-      <c r="M14" s="175" t="s">
-        <v>232</v>
-      </c>
-      <c r="N14" s="197" t="s">
-        <v>234</v>
-      </c>
-      <c r="O14" s="197" t="s">
-        <v>204</v>
-      </c>
-      <c r="P14" s="197" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="197" t="s">
-        <v>233</v>
-      </c>
       <c r="R14" s="197" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -7760,27 +7646,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:H1048576 J1:R1048576">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576 O1:O1048576">
-    <cfRule type="expression" dxfId="36" priority="3854">
+    <cfRule type="expression" dxfId="38" priority="3854">
       <formula>AND($B1&lt;&gt;"",ROW(J1)&gt;14,NOT(AND($D1="Female",$F1="Y",OR($C1="10-14",$C1="15-17"))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:M1048576">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>AND(ISNUMBER(J1),OR(ROUND(SUM(J1),2)&lt;0,ROUND(SUM(J1),2)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 P1:P1048576">
-    <cfRule type="expression" dxfId="34" priority="17">
+    <cfRule type="expression" dxfId="36" priority="17">
       <formula>AND($E1&lt;&gt;"",ROW(K1)&gt;14,NOT(OR($C1="05-09",$C1="10-14")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="33" priority="24">
+    <cfRule type="expression" dxfId="35" priority="24">
       <formula>AND(ISNUMBER($M1),ROUND(SUM($M1),2)&lt;20%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7801,7 +7687,7 @@
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7835,30 +7721,30 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="117" customHeight="1">
       <c r="C3" s="63" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="E3" s="204" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F3" s="204" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -8043,22 +7929,22 @@
         <v>3</v>
       </c>
       <c r="C14" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="200" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="199" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="199" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="201" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="200" t="s">
+      <c r="H14" s="201" t="s">
         <v>185</v>
-      </c>
-      <c r="E14" s="199" t="s">
-        <v>223</v>
-      </c>
-      <c r="F14" s="199" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="201" t="s">
-        <v>186</v>
-      </c>
-      <c r="H14" s="201" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -8085,7 +7971,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:D1048576 G1:H1048576">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>AND(ISNUMBER(C1),C1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8105,7 +7991,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8124,14 +8010,14 @@
   <sheetData>
     <row r="1" spans="1:21" s="22" customFormat="1" ht="31.05" customHeight="1" thickBot="1">
       <c r="A1" s="267" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="161" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G1" s="160"/>
       <c r="H1" s="168"/>
@@ -8150,10 +8036,10 @@
       <c r="U1" s="161"/>
     </row>
     <row r="2" spans="1:21" s="21" customFormat="1" ht="18">
-      <c r="A2" s="396" t="s">
-        <v>391</v>
-      </c>
-      <c r="B2" s="393"/>
+      <c r="A2" s="402" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -8172,65 +8058,65 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="394"/>
-      <c r="B3" s="395"/>
+      <c r="A3" s="400"/>
+      <c r="B3" s="401"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="338" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G3" s="338" t="s">
+        <v>641</v>
+      </c>
+      <c r="H3" s="339" t="s">
+        <v>634</v>
+      </c>
+      <c r="I3" s="220" t="s">
+        <v>635</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>642</v>
+      </c>
+      <c r="K3" s="220" t="s">
+        <v>636</v>
+      </c>
+      <c r="L3" s="61" t="s">
         <v>649</v>
       </c>
-      <c r="H3" s="339" t="s">
-        <v>642</v>
-      </c>
-      <c r="I3" s="220" t="s">
-        <v>643</v>
-      </c>
-      <c r="J3" s="61" t="s">
+      <c r="M3" s="61" t="s">
         <v>650</v>
       </c>
-      <c r="K3" s="220" t="s">
-        <v>644</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>657</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>658</v>
-      </c>
       <c r="N3" s="61" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="O3" s="61" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="P3" s="61" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="Q3" s="132" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="R3" s="182" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="S3" s="182" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="T3" s="230" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="U3" s="230" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -8500,28 +8386,28 @@
     </row>
     <row r="8" spans="1:21">
       <c r="J8" s="245" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L8" s="245" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M8" s="245" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N8" s="245" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O8" s="245" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="147"/>
       <c r="R8" s="147"/>
       <c r="S8" s="147"/>
       <c r="T8" s="241" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="U8" s="241" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -8539,128 +8425,128 @@
     </row>
     <row r="10" spans="1:21">
       <c r="J10" s="245" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L10" s="245" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M10" s="245" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N10" s="245" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O10" s="245" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q10" s="147"/>
       <c r="R10" s="147"/>
       <c r="S10" s="147"/>
       <c r="T10" s="241" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="U10" s="241" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="F11" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N11" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="86" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="T11" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="U11" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="F12" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N12" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O12" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Q12" s="86" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T12" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="U12" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -8683,49 +8569,49 @@
         <v>134</v>
       </c>
       <c r="G14" s="174" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H14" s="175" t="s">
+        <v>474</v>
+      </c>
+      <c r="I14" s="174" t="s">
+        <v>475</v>
+      </c>
+      <c r="J14" s="197" t="s">
+        <v>472</v>
+      </c>
+      <c r="K14" s="174" t="s">
         <v>476</v>
       </c>
-      <c r="I14" s="174" t="s">
-        <v>477</v>
-      </c>
-      <c r="J14" s="197" t="s">
-        <v>474</v>
-      </c>
-      <c r="K14" s="174" t="s">
-        <v>478</v>
-      </c>
       <c r="L14" s="174" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="N14" s="174" t="s">
         <v>200</v>
       </c>
-      <c r="M14" s="174" t="s">
+      <c r="O14" s="174" t="s">
         <v>201</v>
       </c>
-      <c r="N14" s="174" t="s">
-        <v>202</v>
-      </c>
-      <c r="O14" s="174" t="s">
-        <v>203</v>
-      </c>
       <c r="P14" s="174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q14" s="175" t="s">
+        <v>343</v>
+      </c>
+      <c r="R14" s="175" t="s">
         <v>345</v>
       </c>
-      <c r="R14" s="175" t="s">
-        <v>347</v>
-      </c>
       <c r="S14" s="175" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T14" s="197" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U14" s="197" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -8771,27 +8657,27 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:Q1048576 S1:U1048576">
-    <cfRule type="expression" dxfId="31" priority="23">
+    <cfRule type="expression" dxfId="33" priority="23">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="30" priority="24">
+    <cfRule type="expression" dxfId="32" priority="24">
       <formula>AND(ISNUMBER(Q1),Q1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="29" priority="3881">
+    <cfRule type="expression" dxfId="31" priority="3881">
       <formula>AND(ROUND(SUM($S1),2)&lt;60%,SUM($T1)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="28" priority="35">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>AND(ISNUMBER(T1),SUM($T1)&gt;SUM($K1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>AND(ISNUMBER(T1),SUM($U1)&gt;SUM($T1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8854,7 +8740,7 @@
   <sheetData>
     <row r="1" spans="1:59" s="22" customFormat="1" ht="31.05" customHeight="1" thickBot="1">
       <c r="A1" s="267" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="195" t="s">
@@ -8904,7 +8790,7 @@
       <c r="AK1" s="161"/>
       <c r="AL1" s="161"/>
       <c r="AM1" s="195" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AN1" s="212"/>
       <c r="AO1" s="213"/>
@@ -8913,7 +8799,7 @@
       <c r="AR1" s="161"/>
       <c r="AS1" s="161"/>
       <c r="AT1" s="195" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AU1" s="212"/>
       <c r="AV1" s="213"/>
@@ -8932,94 +8818,94 @@
       <c r="BG1" s="161"/>
     </row>
     <row r="2" spans="1:59" s="21" customFormat="1" ht="18">
-      <c r="A2" s="396" t="s">
-        <v>402</v>
-      </c>
-      <c r="B2" s="393"/>
+      <c r="A2" s="402" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="399"/>
       <c r="C2" s="51" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D2" s="53"/>
       <c r="E2" s="104"/>
       <c r="F2" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
       <c r="I2" s="112"/>
       <c r="J2" s="29"/>
       <c r="K2" s="51" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L2" s="104"/>
       <c r="M2" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
       <c r="P2" s="112"/>
       <c r="Q2" s="29"/>
       <c r="R2" s="51" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="S2" s="104"/>
       <c r="T2" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="U2" s="29"/>
       <c r="V2" s="29"/>
       <c r="W2" s="112"/>
       <c r="X2" s="29"/>
       <c r="Y2" s="51" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Z2" s="104"/>
       <c r="AA2" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AB2" s="29"/>
       <c r="AC2" s="29"/>
       <c r="AD2" s="112"/>
       <c r="AE2" s="29"/>
       <c r="AF2" s="51" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AG2" s="104"/>
       <c r="AH2" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AI2" s="29"/>
       <c r="AJ2" s="29"/>
       <c r="AK2" s="112"/>
       <c r="AL2" s="29"/>
       <c r="AM2" s="51" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AN2" s="104"/>
       <c r="AO2" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AP2" s="29"/>
       <c r="AQ2" s="29"/>
       <c r="AR2" s="112"/>
       <c r="AS2" s="29"/>
       <c r="AT2" s="51" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AU2" s="104"/>
       <c r="AV2" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AW2" s="29"/>
       <c r="AX2" s="29"/>
       <c r="AY2" s="112"/>
       <c r="AZ2" s="29"/>
       <c r="BA2" s="51" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BB2" s="104"/>
       <c r="BC2" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="BD2" s="29"/>
       <c r="BE2" s="29"/>
@@ -9027,178 +8913,178 @@
       <c r="BG2" s="29"/>
     </row>
     <row r="3" spans="1:59" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="394"/>
-      <c r="B3" s="395"/>
+      <c r="A3" s="400"/>
+      <c r="B3" s="401"/>
       <c r="C3" s="114" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3" s="118" t="s">
+        <v>509</v>
+      </c>
+      <c r="E3" s="120" t="s">
         <v>510</v>
       </c>
-      <c r="D3" s="118" t="s">
-        <v>511</v>
-      </c>
-      <c r="E3" s="120" t="s">
-        <v>512</v>
-      </c>
       <c r="F3" s="151" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="141" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="G3" s="141" t="s">
+      <c r="J3" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="H3" s="141" t="s">
-        <v>246</v>
-      </c>
-      <c r="I3" s="31" t="s">
+      <c r="K3" s="114" t="s">
+        <v>508</v>
+      </c>
+      <c r="L3" s="120" t="s">
+        <v>510</v>
+      </c>
+      <c r="M3" s="151" t="s">
+        <v>240</v>
+      </c>
+      <c r="N3" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="O3" s="141" t="s">
         <v>244</v>
       </c>
-      <c r="J3" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="K3" s="114" t="s">
+      <c r="P3" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="R3" s="114" t="s">
+        <v>508</v>
+      </c>
+      <c r="S3" s="120" t="s">
         <v>510</v>
       </c>
-      <c r="L3" s="120" t="s">
-        <v>512</v>
-      </c>
-      <c r="M3" s="151" t="s">
+      <c r="T3" s="151" t="s">
+        <v>240</v>
+      </c>
+      <c r="U3" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="V3" s="141" t="s">
+        <v>244</v>
+      </c>
+      <c r="W3" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="N3" s="141" t="s">
+      <c r="X3" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="O3" s="141" t="s">
-        <v>246</v>
-      </c>
-      <c r="P3" s="31" t="s">
+      <c r="Y3" s="114" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z3" s="120" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA3" s="151" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB3" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC3" s="141" t="s">
         <v>244</v>
       </c>
-      <c r="Q3" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="R3" s="114" t="s">
+      <c r="AD3" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE3" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF3" s="114" t="s">
+        <v>508</v>
+      </c>
+      <c r="AG3" s="120" t="s">
         <v>510</v>
       </c>
-      <c r="S3" s="120" t="s">
-        <v>512</v>
-      </c>
-      <c r="T3" s="151" t="s">
+      <c r="AH3" s="151" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI3" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ3" s="141" t="s">
+        <v>244</v>
+      </c>
+      <c r="AK3" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="U3" s="141" t="s">
+      <c r="AL3" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="V3" s="141" t="s">
-        <v>246</v>
-      </c>
-      <c r="W3" s="31" t="s">
+      <c r="AM3" s="114" t="s">
+        <v>508</v>
+      </c>
+      <c r="AN3" s="120" t="s">
+        <v>510</v>
+      </c>
+      <c r="AO3" s="151" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP3" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ3" s="141" t="s">
         <v>244</v>
       </c>
-      <c r="X3" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y3" s="114" t="s">
+      <c r="AR3" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="AS3" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT3" s="114" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU3" s="120" t="s">
         <v>510</v>
       </c>
-      <c r="Z3" s="120" t="s">
-        <v>512</v>
-      </c>
-      <c r="AA3" s="151" t="s">
+      <c r="AV3" s="151" t="s">
+        <v>240</v>
+      </c>
+      <c r="AW3" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="AX3" s="141" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY3" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="AB3" s="141" t="s">
+      <c r="AZ3" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="AC3" s="141" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD3" s="31" t="s">
+      <c r="BA3" s="114" t="s">
+        <v>508</v>
+      </c>
+      <c r="BB3" s="120" t="s">
+        <v>510</v>
+      </c>
+      <c r="BC3" s="151" t="s">
+        <v>240</v>
+      </c>
+      <c r="BD3" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="BE3" s="141" t="s">
         <v>244</v>
       </c>
-      <c r="AE3" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF3" s="114" t="s">
-        <v>510</v>
-      </c>
-      <c r="AG3" s="120" t="s">
-        <v>512</v>
-      </c>
-      <c r="AH3" s="151" t="s">
+      <c r="BF3" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="AI3" s="141" t="s">
+      <c r="BG3" s="31" t="s">
         <v>243</v>
-      </c>
-      <c r="AJ3" s="141" t="s">
-        <v>246</v>
-      </c>
-      <c r="AK3" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="AL3" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM3" s="114" t="s">
-        <v>510</v>
-      </c>
-      <c r="AN3" s="120" t="s">
-        <v>512</v>
-      </c>
-      <c r="AO3" s="151" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP3" s="141" t="s">
-        <v>243</v>
-      </c>
-      <c r="AQ3" s="141" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR3" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="AS3" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="AT3" s="114" t="s">
-        <v>510</v>
-      </c>
-      <c r="AU3" s="120" t="s">
-        <v>512</v>
-      </c>
-      <c r="AV3" s="151" t="s">
-        <v>242</v>
-      </c>
-      <c r="AW3" s="141" t="s">
-        <v>243</v>
-      </c>
-      <c r="AX3" s="141" t="s">
-        <v>246</v>
-      </c>
-      <c r="AY3" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="AZ3" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="BA3" s="114" t="s">
-        <v>510</v>
-      </c>
-      <c r="BB3" s="120" t="s">
-        <v>512</v>
-      </c>
-      <c r="BC3" s="151" t="s">
-        <v>242</v>
-      </c>
-      <c r="BD3" s="141" t="s">
-        <v>243</v>
-      </c>
-      <c r="BE3" s="141" t="s">
-        <v>246</v>
-      </c>
-      <c r="BF3" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="BG3" s="31" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:59">
@@ -10056,175 +9942,175 @@
         <v>3</v>
       </c>
       <c r="C14" s="198" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" s="171" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" s="218" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="219" t="s">
         <v>270</v>
       </c>
-      <c r="D14" s="171" t="s">
-        <v>349</v>
-      </c>
-      <c r="E14" s="218" t="s">
+      <c r="G14" s="177" t="s">
         <v>271</v>
       </c>
-      <c r="F14" s="219" t="s">
+      <c r="H14" s="177" t="s">
         <v>272</v>
       </c>
-      <c r="G14" s="177" t="s">
+      <c r="I14" s="197" t="s">
         <v>273</v>
       </c>
-      <c r="H14" s="177" t="s">
+      <c r="J14" s="197" t="s">
         <v>274</v>
       </c>
-      <c r="I14" s="197" t="s">
+      <c r="K14" s="198" t="s">
         <v>275</v>
       </c>
-      <c r="J14" s="197" t="s">
+      <c r="L14" s="218" t="s">
         <v>276</v>
       </c>
-      <c r="K14" s="198" t="s">
+      <c r="M14" s="219" t="s">
+        <v>263</v>
+      </c>
+      <c r="N14" s="177" t="s">
+        <v>264</v>
+      </c>
+      <c r="O14" s="177" t="s">
+        <v>265</v>
+      </c>
+      <c r="P14" s="197" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q14" s="197" t="s">
+        <v>267</v>
+      </c>
+      <c r="R14" s="198" t="s">
         <v>277</v>
       </c>
-      <c r="L14" s="218" t="s">
+      <c r="S14" s="218" t="s">
         <v>278</v>
       </c>
-      <c r="M14" s="219" t="s">
-        <v>265</v>
-      </c>
-      <c r="N14" s="177" t="s">
-        <v>266</v>
-      </c>
-      <c r="O14" s="177" t="s">
-        <v>267</v>
-      </c>
-      <c r="P14" s="197" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q14" s="197" t="s">
-        <v>269</v>
-      </c>
-      <c r="R14" s="198" t="s">
+      <c r="T14" s="219" t="s">
         <v>279</v>
       </c>
-      <c r="S14" s="218" t="s">
+      <c r="U14" s="177" t="s">
         <v>280</v>
       </c>
-      <c r="T14" s="219" t="s">
+      <c r="V14" s="177" t="s">
         <v>281</v>
       </c>
-      <c r="U14" s="177" t="s">
+      <c r="W14" s="197" t="s">
         <v>282</v>
       </c>
-      <c r="V14" s="177" t="s">
+      <c r="X14" s="197" t="s">
         <v>283</v>
       </c>
-      <c r="W14" s="197" t="s">
+      <c r="Y14" s="198" t="s">
         <v>284</v>
       </c>
-      <c r="X14" s="197" t="s">
+      <c r="Z14" s="218" t="s">
         <v>285</v>
       </c>
-      <c r="Y14" s="198" t="s">
+      <c r="AA14" s="219" t="s">
         <v>286</v>
       </c>
-      <c r="Z14" s="218" t="s">
+      <c r="AB14" s="177" t="s">
         <v>287</v>
       </c>
-      <c r="AA14" s="219" t="s">
+      <c r="AC14" s="177" t="s">
         <v>288</v>
       </c>
-      <c r="AB14" s="177" t="s">
+      <c r="AD14" s="197" t="s">
         <v>289</v>
       </c>
-      <c r="AC14" s="177" t="s">
+      <c r="AE14" s="197" t="s">
         <v>290</v>
       </c>
-      <c r="AD14" s="197" t="s">
+      <c r="AF14" s="198" t="s">
         <v>291</v>
       </c>
-      <c r="AE14" s="197" t="s">
+      <c r="AG14" s="218" t="s">
         <v>292</v>
       </c>
-      <c r="AF14" s="198" t="s">
+      <c r="AH14" s="219" t="s">
         <v>293</v>
       </c>
-      <c r="AG14" s="218" t="s">
+      <c r="AI14" s="177" t="s">
         <v>294</v>
       </c>
-      <c r="AH14" s="219" t="s">
+      <c r="AJ14" s="177" t="s">
         <v>295</v>
       </c>
-      <c r="AI14" s="177" t="s">
+      <c r="AK14" s="197" t="s">
         <v>296</v>
       </c>
-      <c r="AJ14" s="177" t="s">
+      <c r="AL14" s="197" t="s">
         <v>297</v>
       </c>
-      <c r="AK14" s="197" t="s">
+      <c r="AM14" s="198" t="s">
         <v>298</v>
       </c>
-      <c r="AL14" s="197" t="s">
+      <c r="AN14" s="218" t="s">
         <v>299</v>
       </c>
-      <c r="AM14" s="198" t="s">
+      <c r="AO14" s="219" t="s">
         <v>300</v>
       </c>
-      <c r="AN14" s="218" t="s">
+      <c r="AP14" s="177" t="s">
         <v>301</v>
       </c>
-      <c r="AO14" s="219" t="s">
+      <c r="AQ14" s="177" t="s">
         <v>302</v>
       </c>
-      <c r="AP14" s="177" t="s">
+      <c r="AR14" s="197" t="s">
         <v>303</v>
       </c>
-      <c r="AQ14" s="177" t="s">
+      <c r="AS14" s="197" t="s">
         <v>304</v>
       </c>
-      <c r="AR14" s="197" t="s">
+      <c r="AT14" s="198" t="s">
         <v>305</v>
       </c>
-      <c r="AS14" s="197" t="s">
+      <c r="AU14" s="218" t="s">
         <v>306</v>
       </c>
-      <c r="AT14" s="198" t="s">
+      <c r="AV14" s="219" t="s">
         <v>307</v>
       </c>
-      <c r="AU14" s="218" t="s">
+      <c r="AW14" s="177" t="s">
         <v>308</v>
       </c>
-      <c r="AV14" s="219" t="s">
+      <c r="AX14" s="177" t="s">
         <v>309</v>
       </c>
-      <c r="AW14" s="177" t="s">
+      <c r="AY14" s="197" t="s">
         <v>310</v>
       </c>
-      <c r="AX14" s="177" t="s">
+      <c r="AZ14" s="197" t="s">
         <v>311</v>
       </c>
-      <c r="AY14" s="197" t="s">
+      <c r="BA14" s="198" t="s">
         <v>312</v>
       </c>
-      <c r="AZ14" s="197" t="s">
+      <c r="BB14" s="218" t="s">
         <v>313</v>
       </c>
-      <c r="BA14" s="198" t="s">
+      <c r="BC14" s="219" t="s">
         <v>314</v>
       </c>
-      <c r="BB14" s="218" t="s">
+      <c r="BD14" s="177" t="s">
         <v>315</v>
       </c>
-      <c r="BC14" s="219" t="s">
+      <c r="BE14" s="177" t="s">
         <v>316</v>
       </c>
-      <c r="BD14" s="177" t="s">
+      <c r="BF14" s="197" t="s">
         <v>317</v>
       </c>
-      <c r="BE14" s="177" t="s">
+      <c r="BG14" s="197" t="s">
         <v>318</v>
-      </c>
-      <c r="BF14" s="197" t="s">
-        <v>319</v>
-      </c>
-      <c r="BG14" s="197" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:59" customFormat="1">
@@ -10659,137 +10545,137 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:D1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="28" priority="6">
       <formula>AND(ROW($F1)&gt;14,SUM($F1)&gt;$C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1048576 H1:J1048576">
-    <cfRule type="expression" dxfId="25" priority="8">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>(($C1-$F1)+($E1-$G1))&lt;SUM($H1:$J1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 G1:G1048576">
-    <cfRule type="expression" dxfId="24" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>AND(ROW($G1)&gt;14,SUM($G1)&gt;$E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 M1:M1048576">
-    <cfRule type="expression" dxfId="23" priority="10">
+    <cfRule type="expression" dxfId="25" priority="10">
       <formula>AND(ROW($M1)&gt;14,SUM($M1)&gt;$K1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L1048576 O1:Q1048576">
-    <cfRule type="expression" dxfId="22" priority="12">
+    <cfRule type="expression" dxfId="24" priority="12">
       <formula>(($K1-$M1)+($L1-$N1))&lt;SUM($O1:$Q1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576 N1:N1048576">
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>AND(ROW($N1)&gt;14,SUM($N1)&gt;$L1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576 T1:T1048576">
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="22" priority="13">
       <formula>AND(ROW($T1)&gt;14,SUM($T1)&gt;$R1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1048576 V1:X1048576">
-    <cfRule type="expression" dxfId="19" priority="16">
+    <cfRule type="expression" dxfId="21" priority="16">
       <formula>(($R1-$T1)+($S1-$U1))&lt;SUM($V1:$X1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>AND(ROW($U1)&gt;14,SUM($U1)&gt;$S1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576 AA1:AA1048576">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>AND(ROW($AA1)&gt;14,SUM($AA1)&gt;$Y1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Z1048576 AC1:AE1048576">
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>(($Y1-$AA1)+($Z1-$AB1))&lt;SUM($AC1:$AE1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1048576 AB1:AB1048576">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>AND(ROW($AB1)&gt;14,SUM($AB1)&gt;$Z1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AF1048576 AH1:AH1048576">
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule type="expression" dxfId="16" priority="21">
       <formula>AND(ROW($AH1)&gt;14,SUM($AH1)&gt;$AF1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AG1048576 AJ1:AL1048576">
-    <cfRule type="expression" dxfId="13" priority="24">
+    <cfRule type="expression" dxfId="15" priority="24">
       <formula>(($AF1-$AH1)+($AG1-$AI1))&lt;SUM($AJ1:$AL1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AI1:AI1048576">
-    <cfRule type="expression" dxfId="12" priority="22">
+    <cfRule type="expression" dxfId="14" priority="22">
       <formula>AND(ROW($AI1)&gt;14,SUM($AI1)&gt;$AG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM1048576 AO1:AO1048576">
-    <cfRule type="expression" dxfId="11" priority="25">
+    <cfRule type="expression" dxfId="13" priority="25">
       <formula>AND(ROW($AO1)&gt;14,SUM($AO1)&gt;$AM1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AN1048576 AQ1:AS1048576">
-    <cfRule type="expression" dxfId="10" priority="28">
+    <cfRule type="expression" dxfId="12" priority="28">
       <formula>(($AM1-$AO1)+($AN1-$AP1))&lt;SUM($AQ1:$AS1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AN1048576 AP1:AP1048576">
-    <cfRule type="expression" dxfId="9" priority="26">
+    <cfRule type="expression" dxfId="11" priority="26">
       <formula>AND(ROW($AP1)&gt;14,SUM($AP1)&gt;$AN1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AT1048576 AV1:AV1048576">
-    <cfRule type="expression" dxfId="8" priority="29">
+    <cfRule type="expression" dxfId="10" priority="29">
       <formula>AND(ROW($AV1)&gt;14,SUM($AV1)&gt;$AT1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU1048576 AX1:AZ1048576">
-    <cfRule type="expression" dxfId="7" priority="32">
+    <cfRule type="expression" dxfId="9" priority="32">
       <formula>(($AT1-$AV1)+($AU1-$AW1))&lt;SUM($AX1:$AZ1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU1048576 AW1:AW1048576">
-    <cfRule type="expression" dxfId="6" priority="30">
+    <cfRule type="expression" dxfId="8" priority="30">
       <formula>AND(ROW($AW1)&gt;14,SUM($AW1)&gt;$AU1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BA1048576">
-    <cfRule type="expression" dxfId="5" priority="45">
+    <cfRule type="expression" dxfId="7" priority="45">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BB1048576">
-    <cfRule type="expression" dxfId="4" priority="1136">
+    <cfRule type="expression" dxfId="6" priority="1136">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB1:BB1048576">
-    <cfRule type="expression" dxfId="3" priority="1135">
+    <cfRule type="expression" dxfId="5" priority="1135">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC1:BC1048576">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="4" priority="33">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD1:BD1048576">
-    <cfRule type="expression" dxfId="1" priority="34">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1:BG1048576">
-    <cfRule type="expression" dxfId="0" priority="36">
+    <cfRule type="expression" dxfId="2" priority="36">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10901,16 +10787,16 @@
         <v>113</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>128</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>129</v>
@@ -10925,7 +10811,7 @@
         <v>132</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>32</v>
@@ -10937,7 +10823,7 @@
         <v>125</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>31</v>
@@ -11002,7 +10888,7 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="391" t="s">
+      <c r="B6" s="397" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="5"/>
@@ -11015,7 +10901,7 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="391"/>
+      <c r="B7" s="397"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -11061,7 +10947,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="391" t="s">
+      <c r="B11" s="397" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="5"/>
@@ -11074,7 +10960,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="391"/>
+      <c r="B12" s="397"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -11120,7 +11006,7 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="391" t="s">
+      <c r="B16" s="397" t="s">
         <v>118</v>
       </c>
       <c r="D16" s="5"/>
@@ -11133,7 +11019,7 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="391"/>
+      <c r="B17" s="397"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -11155,7 +11041,7 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="391" t="s">
+      <c r="B19" s="397" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="5"/>
@@ -11168,7 +11054,7 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="391"/>
+      <c r="B20" s="397"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -11190,7 +11076,7 @@
     </row>
     <row r="22" spans="2:12" ht="16.05" customHeight="1">
       <c r="B22" s="225" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -11236,8 +11122,8 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="391" t="s">
-        <v>470</v>
+      <c r="B26" s="397" t="s">
+        <v>468</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -11249,7 +11135,7 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="391"/>
+      <c r="B27" s="397"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -24817,20 +24703,20 @@
       <c r="A2" s="14"/>
       <c r="B2" s="148"/>
       <c r="C2" s="239" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:4" ht="117" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="135" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C3" s="186" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -24917,13 +24803,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="188" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C14" s="189" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D14" s="190" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -24948,17 +24834,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="expression" dxfId="108" priority="2">
+    <cfRule type="expression" dxfId="107" priority="2">
       <formula>AND(ROW(B1)&gt;14,LEFT($A1,4)&lt;&gt;"_Mil",$A1&lt;&gt;"",B1&lt;&gt;1,B1&lt;&gt;2,B1&lt;&gt;4,B1&lt;&gt;5,B1&lt;&gt;6,B1&lt;&gt;7,B1&lt;&gt;8,B1&lt;&gt;"M",B1&lt;&gt;"NA")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="107" priority="729">
+    <cfRule type="expression" dxfId="106" priority="729">
       <formula>AND(LEFT($A1,4)&lt;&gt;"_Mil",ROW($C1)&gt;14,$C1&lt;&gt;$B1,$A1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="106" priority="3" operator="containsText" text="BLANK PRIORITIZATIONS">
+    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="BLANK PRIORITIZATIONS">
       <formula>NOT(ISERROR(SEARCH("BLANK PRIORITIZATIONS",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24974,10 +24860,10 @@
   <dimension ref="A1:BI3876"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="14" topLeftCell="AJ15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:F7"/>
+      <selection pane="bottomRight" activeCell="AS15" sqref="AS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -25039,17 +24925,17 @@
       <c r="D1" s="4"/>
       <c r="E1" s="267"/>
       <c r="F1" s="192" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G1" s="192" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H1" s="160"/>
       <c r="I1" s="161"/>
       <c r="J1" s="162"/>
       <c r="K1" s="161"/>
       <c r="L1" s="192" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M1" s="160"/>
       <c r="N1" s="160"/>
@@ -25058,7 +24944,7 @@
       <c r="Q1" s="161"/>
       <c r="R1" s="161"/>
       <c r="S1" s="192" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="T1" s="159"/>
       <c r="U1" s="161"/>
@@ -25080,18 +24966,18 @@
       <c r="AK1" s="162"/>
       <c r="AL1" s="162"/>
       <c r="AM1" s="194" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AN1" s="162"/>
       <c r="AO1" s="162"/>
       <c r="AP1" s="162"/>
       <c r="AQ1" s="192" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AR1" s="159"/>
       <c r="AS1" s="299"/>
       <c r="AT1" s="194" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AU1" s="299"/>
       <c r="AV1" s="162"/>
@@ -25099,27 +24985,27 @@
       <c r="AX1" s="166"/>
       <c r="AY1" s="167"/>
       <c r="AZ1" s="277" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="BA1" s="287"/>
       <c r="BB1" s="168"/>
       <c r="BC1" s="161"/>
       <c r="BD1" s="311"/>
       <c r="BE1" s="194" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="BF1" s="161"/>
       <c r="BG1" s="161"/>
       <c r="BH1" s="194" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BI1" s="161"/>
     </row>
     <row r="2" spans="1:61" ht="18">
-      <c r="A2" s="392" t="s">
-        <v>466</v>
-      </c>
-      <c r="B2" s="393"/>
+      <c r="A2" s="398" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="13"/>
@@ -25137,10 +25023,10 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
       <c r="S2" s="51" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T2" s="53" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="U2" s="46"/>
       <c r="V2" s="46"/>
@@ -25156,23 +25042,23 @@
       <c r="AF2" s="46"/>
       <c r="AG2" s="109"/>
       <c r="AH2" s="80" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AI2" s="46"/>
       <c r="AJ2" s="53"/>
       <c r="AK2" s="53"/>
       <c r="AL2" s="53"/>
       <c r="AM2" s="108" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AN2" s="53"/>
       <c r="AO2" s="53"/>
       <c r="AP2" s="53"/>
       <c r="AQ2" s="275" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AR2" s="228" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AS2" s="109"/>
       <c r="AT2" s="108"/>
@@ -25181,38 +25067,38 @@
       <c r="AW2" s="53"/>
       <c r="AX2" s="307"/>
       <c r="AY2" s="229" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AZ2" s="278"/>
       <c r="BA2" s="288"/>
       <c r="BB2" s="222"/>
       <c r="BC2" s="227" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="BD2" s="332"/>
       <c r="BE2" s="309"/>
       <c r="BF2" s="227" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="BG2" s="227" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="BH2" s="283"/>
       <c r="BI2" s="227" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="133.94999999999999" customHeight="1" thickBot="1">
-      <c r="A3" s="394"/>
-      <c r="B3" s="395"/>
+      <c r="A3" s="400"/>
+      <c r="B3" s="401"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="264"/>
       <c r="F3" s="272" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G3" s="93" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H3" s="130" t="s">
         <v>1</v>
@@ -25227,7 +25113,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="93" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M3" s="130" t="s">
         <v>1</v>
@@ -25236,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="286" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P3" s="65" t="s">
         <v>24</v>
@@ -25245,136 +25131,136 @@
         <v>23</v>
       </c>
       <c r="R3" s="130" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="S3" s="273" t="s">
+        <v>482</v>
+      </c>
+      <c r="T3" s="180" t="s">
+        <v>544</v>
+      </c>
+      <c r="U3" s="181" t="s">
+        <v>483</v>
+      </c>
+      <c r="V3" s="181" t="s">
         <v>484</v>
       </c>
-      <c r="T3" s="180" t="s">
+      <c r="W3" s="294" t="s">
+        <v>545</v>
+      </c>
+      <c r="X3" s="181" t="s">
         <v>546</v>
       </c>
-      <c r="U3" s="181" t="s">
+      <c r="Y3" s="182" t="s">
+        <v>547</v>
+      </c>
+      <c r="Z3" s="181" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA3" s="300" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB3" s="182" t="s">
+        <v>550</v>
+      </c>
+      <c r="AC3" s="325" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD3" s="325" t="s">
+        <v>552</v>
+      </c>
+      <c r="AE3" s="300" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF3" s="181" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG3" s="300" t="s">
+        <v>555</v>
+      </c>
+      <c r="AH3" s="294" t="s">
+        <v>524</v>
+      </c>
+      <c r="AI3" s="181" t="s">
         <v>485</v>
       </c>
-      <c r="V3" s="181" t="s">
+      <c r="AJ3" s="220" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK3" s="220" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL3" s="220" t="s">
         <v>486</v>
       </c>
-      <c r="W3" s="294" t="s">
-        <v>547</v>
-      </c>
-      <c r="X3" s="181" t="s">
-        <v>548</v>
-      </c>
-      <c r="Y3" s="182" t="s">
-        <v>549</v>
-      </c>
-      <c r="Z3" s="181" t="s">
-        <v>550</v>
-      </c>
-      <c r="AA3" s="300" t="s">
-        <v>551</v>
-      </c>
-      <c r="AB3" s="182" t="s">
-        <v>552</v>
-      </c>
-      <c r="AC3" s="325" t="s">
-        <v>553</v>
-      </c>
-      <c r="AD3" s="325" t="s">
-        <v>554</v>
-      </c>
-      <c r="AE3" s="300" t="s">
-        <v>555</v>
-      </c>
-      <c r="AF3" s="181" t="s">
-        <v>556</v>
-      </c>
-      <c r="AG3" s="300" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH3" s="294" t="s">
-        <v>526</v>
-      </c>
-      <c r="AI3" s="181" t="s">
+      <c r="AM3" s="221" t="s">
+        <v>527</v>
+      </c>
+      <c r="AN3" s="66" t="s">
+        <v>528</v>
+      </c>
+      <c r="AO3" s="61" t="s">
+        <v>529</v>
+      </c>
+      <c r="AP3" s="180" t="s">
+        <v>530</v>
+      </c>
+      <c r="AQ3" s="276" t="s">
         <v>487</v>
       </c>
-      <c r="AJ3" s="220" t="s">
-        <v>527</v>
-      </c>
-      <c r="AK3" s="220" t="s">
-        <v>528</v>
-      </c>
-      <c r="AL3" s="220" t="s">
+      <c r="AR3" s="230" t="s">
+        <v>531</v>
+      </c>
+      <c r="AS3" s="306" t="s">
+        <v>532</v>
+      </c>
+      <c r="AT3" s="221" t="s">
+        <v>533</v>
+      </c>
+      <c r="AU3" s="300" t="s">
+        <v>534</v>
+      </c>
+      <c r="AV3" s="66" t="s">
+        <v>535</v>
+      </c>
+      <c r="AW3" s="66" t="s">
+        <v>536</v>
+      </c>
+      <c r="AX3" s="300" t="s">
+        <v>537</v>
+      </c>
+      <c r="AY3" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="AZ3" s="279" t="s">
         <v>488</v>
       </c>
-      <c r="AM3" s="221" t="s">
-        <v>529</v>
-      </c>
-      <c r="AN3" s="66" t="s">
-        <v>530</v>
-      </c>
-      <c r="AO3" s="61" t="s">
-        <v>531</v>
-      </c>
-      <c r="AP3" s="180" t="s">
-        <v>532</v>
-      </c>
-      <c r="AQ3" s="276" t="s">
+      <c r="BA3" s="289" t="s">
         <v>489</v>
       </c>
-      <c r="AR3" s="230" t="s">
-        <v>533</v>
-      </c>
-      <c r="AS3" s="306" t="s">
-        <v>534</v>
-      </c>
-      <c r="AT3" s="221" t="s">
-        <v>535</v>
-      </c>
-      <c r="AU3" s="300" t="s">
-        <v>536</v>
-      </c>
-      <c r="AV3" s="66" t="s">
-        <v>537</v>
-      </c>
-      <c r="AW3" s="66" t="s">
-        <v>538</v>
-      </c>
-      <c r="AX3" s="300" t="s">
+      <c r="BB3" s="158" t="s">
+        <v>490</v>
+      </c>
+      <c r="BC3" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="BD3" s="333" t="s">
         <v>539</v>
       </c>
-      <c r="AY3" s="30" t="s">
+      <c r="BE3" s="221" t="s">
+        <v>491</v>
+      </c>
+      <c r="BF3" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="BG3" s="230" t="s">
         <v>540</v>
       </c>
-      <c r="AZ3" s="279" t="s">
-        <v>490</v>
-      </c>
-      <c r="BA3" s="289" t="s">
-        <v>491</v>
-      </c>
-      <c r="BB3" s="158" t="s">
+      <c r="BH3" s="279" t="s">
         <v>492</v>
       </c>
-      <c r="BC3" s="30" t="s">
-        <v>522</v>
-      </c>
-      <c r="BD3" s="333" t="s">
-        <v>541</v>
-      </c>
-      <c r="BE3" s="221" t="s">
-        <v>493</v>
-      </c>
-      <c r="BF3" s="30" t="s">
-        <v>523</v>
-      </c>
-      <c r="BG3" s="230" t="s">
-        <v>542</v>
-      </c>
-      <c r="BH3" s="279" t="s">
-        <v>494</v>
-      </c>
       <c r="BI3" s="30" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:61">
@@ -25842,7 +25728,7 @@
         <v>37</v>
       </c>
       <c r="S6" s="47" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="T6" s="36" t="s">
         <v>36</v>
@@ -26161,16 +26047,16 @@
       <c r="D8" s="36"/>
       <c r="G8" s="247"/>
       <c r="H8" s="259" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I8" s="259" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J8" s="245" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K8" s="245" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L8" s="247"/>
       <c r="M8" s="259" t="s">
@@ -26183,10 +26069,10 @@
         <v>71</v>
       </c>
       <c r="Q8" s="245" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="S8" s="247" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T8" s="245" t="s">
         <v>40</v>
@@ -26208,14 +26094,14 @@
       <c r="AB8" s="147"/>
       <c r="AC8" s="328"/>
       <c r="AD8" s="348" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AF8" s="245" t="s">
         <v>44</v>
       </c>
       <c r="AH8" s="297"/>
       <c r="AI8" s="245" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AL8" s="245" t="s">
         <v>124</v>
@@ -26231,10 +26117,10 @@
         <v>69</v>
       </c>
       <c r="BC8" s="241" t="s">
+        <v>516</v>
+      </c>
+      <c r="BF8" s="241" t="s">
         <v>518</v>
-      </c>
-      <c r="BF8" s="241" t="s">
-        <v>520</v>
       </c>
       <c r="BG8" s="241" t="s">
         <v>44</v>
@@ -26245,16 +26131,16 @@
       <c r="D9" s="36"/>
       <c r="G9" s="247"/>
       <c r="H9" s="259" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I9" s="259" t="s">
         <v>112</v>
       </c>
       <c r="J9" s="245" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K9" s="245" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L9" s="247"/>
       <c r="M9" s="259" t="s">
@@ -26267,7 +26153,7 @@
         <v>72</v>
       </c>
       <c r="Q9" s="245" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="S9" s="247"/>
       <c r="T9" s="245"/>
@@ -26292,10 +26178,10 @@
         <v>70</v>
       </c>
       <c r="BC9" s="241" t="s">
+        <v>517</v>
+      </c>
+      <c r="BF9" s="241" t="s">
         <v>519</v>
-      </c>
-      <c r="BF9" s="241" t="s">
-        <v>521</v>
       </c>
       <c r="BG9" s="241"/>
     </row>
@@ -26384,172 +26270,172 @@
       <c r="B11" s="5"/>
       <c r="D11" s="36"/>
       <c r="F11" s="47" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H11" s="139" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I11" s="139" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L11" s="47" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M11" s="139" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="N11" s="139" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O11" s="54" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q11" s="139" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R11" s="139" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="S11" s="47" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="W11" s="73" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="X11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Y11" s="86" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Z11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AA11" s="111" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AB11" s="86" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AC11" s="327" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AD11" s="330" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AE11" s="127" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AF11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG11" s="127" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AH11" s="84" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AI11" s="37" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AJ11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AK11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AL11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AM11" s="72" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AN11" s="36" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AO11" s="36" t="s">
         <v>18</v>
       </c>
       <c r="AP11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AQ11" s="56" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AR11" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AS11" s="111" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AT11" s="72" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AU11" s="111" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AV11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AW11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AX11" s="127" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AY11" s="90" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AZ11" s="134" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="BA11" s="291" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="BB11" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="BC11" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="BD11" s="335" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="BE11" s="72" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="BF11" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="BG11" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="BH11" s="134" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="BI11" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:61">
@@ -26757,55 +26643,55 @@
         <v>31</v>
       </c>
       <c r="F14" s="198" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G14" s="198" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H14" s="172" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I14" s="172" t="s">
         <v>145</v>
       </c>
       <c r="J14" s="171" t="s">
+        <v>395</v>
+      </c>
+      <c r="K14" s="173" t="s">
+        <v>378</v>
+      </c>
+      <c r="L14" s="198" t="s">
         <v>397</v>
       </c>
-      <c r="K14" s="173" t="s">
-        <v>380</v>
-      </c>
-      <c r="L14" s="198" t="s">
-        <v>399</v>
-      </c>
       <c r="M14" s="172" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N14" s="172" t="s">
         <v>146</v>
       </c>
       <c r="O14" s="171" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P14" s="174" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="173" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="R14" s="173" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S14" s="198" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="T14" s="171" t="s">
         <v>134</v>
       </c>
       <c r="U14" s="174" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V14" s="174" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="W14" s="196" t="s">
         <v>137</v>
@@ -26814,115 +26700,115 @@
         <v>136</v>
       </c>
       <c r="Y14" s="175" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Z14" s="174" t="s">
         <v>138</v>
       </c>
       <c r="AA14" s="176" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB14" s="175" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC14" s="329" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD14" s="329" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE14" s="176" t="s">
+        <v>413</v>
+      </c>
+      <c r="AF14" s="174" t="s">
+        <v>452</v>
+      </c>
+      <c r="AG14" s="176" t="s">
+        <v>451</v>
+      </c>
+      <c r="AH14" s="196" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI14" s="174" t="s">
+        <v>455</v>
+      </c>
+      <c r="AJ14" s="171" t="s">
+        <v>477</v>
+      </c>
+      <c r="AK14" s="171" t="s">
+        <v>471</v>
+      </c>
+      <c r="AL14" s="171" t="s">
+        <v>414</v>
+      </c>
+      <c r="AM14" s="203" t="s">
+        <v>419</v>
+      </c>
+      <c r="AN14" s="171" t="s">
+        <v>417</v>
+      </c>
+      <c r="AO14" s="171" t="s">
+        <v>212</v>
+      </c>
+      <c r="AP14" s="171" t="s">
         <v>418</v>
-      </c>
-      <c r="AB14" s="175" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC14" s="329" t="s">
-        <v>468</v>
-      </c>
-      <c r="AD14" s="329" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE14" s="176" t="s">
-        <v>415</v>
-      </c>
-      <c r="AF14" s="174" t="s">
-        <v>454</v>
-      </c>
-      <c r="AG14" s="176" t="s">
-        <v>453</v>
-      </c>
-      <c r="AH14" s="196" t="s">
-        <v>458</v>
-      </c>
-      <c r="AI14" s="174" t="s">
-        <v>457</v>
-      </c>
-      <c r="AJ14" s="171" t="s">
-        <v>479</v>
-      </c>
-      <c r="AK14" s="171" t="s">
-        <v>473</v>
-      </c>
-      <c r="AL14" s="171" t="s">
-        <v>416</v>
-      </c>
-      <c r="AM14" s="203" t="s">
-        <v>421</v>
-      </c>
-      <c r="AN14" s="171" t="s">
-        <v>419</v>
-      </c>
-      <c r="AO14" s="171" t="s">
-        <v>214</v>
-      </c>
-      <c r="AP14" s="171" t="s">
-        <v>420</v>
       </c>
       <c r="AQ14" s="215" t="s">
         <v>147</v>
       </c>
       <c r="AR14" s="177" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AS14" s="176" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AT14" s="203" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AU14" s="176" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AV14" s="171" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AW14" s="171" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX14" s="308" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AY14" s="178" t="s">
         <v>148</v>
       </c>
       <c r="AZ14" s="281" t="s">
+        <v>423</v>
+      </c>
+      <c r="BA14" s="292" t="s">
+        <v>424</v>
+      </c>
+      <c r="BB14" s="179" t="s">
         <v>425</v>
       </c>
-      <c r="BA14" s="292" t="s">
-        <v>426</v>
-      </c>
-      <c r="BB14" s="179" t="s">
-        <v>427</v>
-      </c>
       <c r="BC14" s="173" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="BD14" s="336" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="BE14" s="310" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="BF14" s="173" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BG14" s="173" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BH14" s="285" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BI14" s="173" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:61">
@@ -61913,70 +61799,70 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576 AM1:AN1048576 AT1:AU1048576 AX1:AX1048576 AZ1:AZ1048576 BB1:BB1048576 BE1:BE1048576 BH1:BH1048576">
-    <cfRule type="expression" dxfId="105" priority="3">
+    <cfRule type="expression" dxfId="104" priority="3">
       <formula>$C1="&lt;01"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:BI1048576">
-    <cfRule type="expression" dxfId="104" priority="1">
+    <cfRule type="expression" dxfId="103" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="expression" dxfId="103" priority="13">
+    <cfRule type="expression" dxfId="102" priority="13">
       <formula>AND($N1&lt;&gt;$O1,ISNUMBER($O1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:AN1048576 AR1:AS1048576 BD1:BD1048576 BG1:BG1048576">
-    <cfRule type="expression" dxfId="102" priority="2">
+    <cfRule type="expression" dxfId="101" priority="2">
       <formula>AND(ROW($S1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:AL1048576">
-    <cfRule type="expression" dxfId="101" priority="4">
+    <cfRule type="expression" dxfId="100" priority="4">
       <formula>AND(ISNUMBER($AL1),ROW($AL1)&gt;14,SUM($AL1)=SUM($AK1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="6">
+    <cfRule type="expression" dxfId="99" priority="6">
       <formula>AND(ISNUMBER($AL1),ROW($AL1)&gt;14,SUM($AL1)=SUM($AJ1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM1048576 AA1:AA1048576 AS1:AS1048576">
-    <cfRule type="expression" dxfId="99" priority="14">
+    <cfRule type="expression" dxfId="98" priority="14">
       <formula>AND(ISNUMBER(AA1),AA1&lt;0.9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM1048576">
-    <cfRule type="expression" dxfId="98" priority="11">
+    <cfRule type="expression" dxfId="97" priority="11">
       <formula>AND(ISNUMBER(AM1),AM1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO1:AO1048576">
-    <cfRule type="expression" dxfId="97" priority="9">
+    <cfRule type="expression" dxfId="96" priority="9">
       <formula>AND(ROW($AO1)&gt;14,$E1&lt;&gt;"",$C1&lt;&gt;"&lt;01")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS1:AU1048576 AX1:AX1048576 AZ1:AZ1048576 BB1:BB1048576 BE1:BE1048576 BH1:BH1048576 W1:W1048576 Y1:Y1048576 AA1:AB1048576 AE1:AE1048576 AG1:AH1048576">
-    <cfRule type="expression" dxfId="96" priority="5">
+    <cfRule type="expression" dxfId="95" priority="5">
       <formula>AND(ISNUMBER(W1),W1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU1048576">
-    <cfRule type="expression" dxfId="95" priority="10">
+    <cfRule type="expression" dxfId="94" priority="10">
       <formula>AND(ISNUMBER(AT1),AT1&lt;0.98)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX1:AX1048576">
-    <cfRule type="expression" dxfId="94" priority="8">
+    <cfRule type="expression" dxfId="93" priority="8">
       <formula>AND(ISNUMBER(AX1),AX1&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ1:AZ1048576">
-    <cfRule type="expression" dxfId="93" priority="7">
+    <cfRule type="expression" dxfId="92" priority="7">
       <formula>AND(ISNUMBER(AZ1),AZ1&lt;0.7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB1:BB1048576 BE1:BE1048576 BH1:BH1048576 Y1:Y1048576 AB1:AB1048576 AE1:AE1048576 AG1:AG1048576">
-    <cfRule type="expression" dxfId="92" priority="12">
+    <cfRule type="expression" dxfId="91" priority="12">
       <formula>AND(ISNUMBER(Y1),Y1&lt;0.95)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61997,7 +61883,7 @@
       <pane xSplit="4" ySplit="14" topLeftCell="S15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL1" sqref="AL1:AL1048576"/>
+      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -62039,7 +61925,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="22" customFormat="1" ht="31.05" customHeight="1">
       <c r="A1" s="267" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="1"/>
@@ -62103,27 +61989,27 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="237" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G2" s="242" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J2" s="51"/>
       <c r="K2" s="231" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L2" s="51"/>
       <c r="M2" s="46"/>
       <c r="N2" s="46"/>
       <c r="O2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P2" s="331"/>
       <c r="Q2" s="345"/>
@@ -62134,31 +62020,31 @@
       <c r="V2" s="232"/>
       <c r="W2" s="109"/>
       <c r="X2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Y2" s="108"/>
       <c r="Z2" s="53"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AC2" s="108"/>
       <c r="AD2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AE2" s="49"/>
       <c r="AF2" s="34"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AJ2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AK2" s="49"/>
       <c r="AL2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:38" s="25" customFormat="1" ht="117" customHeight="1">
@@ -62167,106 +62053,106 @@
       <c r="C3"/>
       <c r="D3" s="26"/>
       <c r="E3" s="238" t="s">
+        <v>593</v>
+      </c>
+      <c r="F3" s="230" t="s">
+        <v>594</v>
+      </c>
+      <c r="G3" s="243" t="s">
+        <v>583</v>
+      </c>
+      <c r="H3" s="100" t="s">
         <v>595</v>
       </c>
-      <c r="F3" s="230" t="s">
+      <c r="I3" s="230" t="s">
+        <v>559</v>
+      </c>
+      <c r="J3" s="93" t="s">
         <v>596</v>
       </c>
-      <c r="G3" s="243" t="s">
-        <v>585</v>
-      </c>
-      <c r="H3" s="100" t="s">
+      <c r="K3" s="233" t="s">
+        <v>497</v>
+      </c>
+      <c r="L3" s="93" t="s">
+        <v>643</v>
+      </c>
+      <c r="M3" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="I3" s="230" t="s">
+      <c r="N3" s="181" t="s">
+        <v>598</v>
+      </c>
+      <c r="O3" s="230" t="s">
+        <v>560</v>
+      </c>
+      <c r="P3" s="220" t="s">
         <v>561</v>
       </c>
-      <c r="J3" s="93" t="s">
-        <v>598</v>
-      </c>
-      <c r="K3" s="233" t="s">
-        <v>499</v>
-      </c>
-      <c r="L3" s="93" t="s">
-        <v>651</v>
-      </c>
-      <c r="M3" s="64" t="s">
+      <c r="Q3" s="346" t="s">
+        <v>562</v>
+      </c>
+      <c r="R3" s="93" t="s">
         <v>599</v>
       </c>
-      <c r="N3" s="181" t="s">
+      <c r="S3" s="204" t="s">
+        <v>533</v>
+      </c>
+      <c r="T3" s="204" t="s">
+        <v>534</v>
+      </c>
+      <c r="U3" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="V3" s="64" t="s">
+        <v>536</v>
+      </c>
+      <c r="W3" s="206" t="s">
+        <v>537</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y3" s="314" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z3" s="312" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA3" s="315" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB3" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="AC3" s="314" t="s">
+        <v>491</v>
+      </c>
+      <c r="AD3" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="AE3" s="63" t="s">
         <v>600</v>
       </c>
-      <c r="O3" s="230" t="s">
-        <v>562</v>
-      </c>
-      <c r="P3" s="220" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q3" s="346" t="s">
-        <v>564</v>
-      </c>
-      <c r="R3" s="93" t="s">
+      <c r="AF3" s="61" t="s">
         <v>601</v>
       </c>
-      <c r="S3" s="204" t="s">
-        <v>535</v>
-      </c>
-      <c r="T3" s="204" t="s">
-        <v>536</v>
-      </c>
-      <c r="U3" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="V3" s="64" t="s">
-        <v>538</v>
-      </c>
-      <c r="W3" s="206" t="s">
-        <v>539</v>
-      </c>
-      <c r="X3" s="30" t="s">
-        <v>566</v>
-      </c>
-      <c r="Y3" s="314" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z3" s="312" t="s">
-        <v>491</v>
-      </c>
-      <c r="AA3" s="315" t="s">
+      <c r="AG3" s="204" t="s">
         <v>492</v>
       </c>
-      <c r="AB3" s="30" t="s">
+      <c r="AH3" s="204" t="s">
         <v>567</v>
       </c>
-      <c r="AC3" s="314" t="s">
-        <v>493</v>
-      </c>
-      <c r="AD3" s="30" t="s">
+      <c r="AI3" s="30" t="s">
         <v>568</v>
       </c>
-      <c r="AE3" s="63" t="s">
+      <c r="AJ3" s="230" t="s">
+        <v>569</v>
+      </c>
+      <c r="AK3" s="63" t="s">
         <v>602</v>
       </c>
-      <c r="AF3" s="61" t="s">
-        <v>603</v>
-      </c>
-      <c r="AG3" s="204" t="s">
-        <v>494</v>
-      </c>
-      <c r="AH3" s="204" t="s">
-        <v>569</v>
-      </c>
-      <c r="AI3" s="30" t="s">
+      <c r="AL3" s="230" t="s">
         <v>570</v>
-      </c>
-      <c r="AJ3" s="230" t="s">
-        <v>571</v>
-      </c>
-      <c r="AK3" s="63" t="s">
-        <v>604</v>
-      </c>
-      <c r="AL3" s="230" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:38" s="25" customFormat="1">
@@ -62781,7 +62667,7 @@
         <v>79</v>
       </c>
       <c r="L8" s="260" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M8" s="250" t="s">
         <v>104</v>
@@ -62854,7 +62740,7 @@
         <v>80</v>
       </c>
       <c r="L9" s="260" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M9" s="250" t="s">
         <v>105</v>
@@ -63055,106 +62941,106 @@
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="56" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J13" s="102" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L13" s="95" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="341" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R13" s="102" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="S13" s="86" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="T13" s="86" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="U13" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="V13" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="W13" s="127" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="X13" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Y13" s="143" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Z13" s="122" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AA13" s="86" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AB13" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AC13" s="143" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AD13" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AE13" s="47" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AF13" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AG13" s="86" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AH13" s="86" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AI13" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AJ13" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AK13" s="47" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AL13" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1">
@@ -63171,106 +63057,106 @@
         <v>31</v>
       </c>
       <c r="E14" s="215" t="s">
+        <v>457</v>
+      </c>
+      <c r="F14" s="197" t="s">
+        <v>458</v>
+      </c>
+      <c r="G14" s="216" t="s">
         <v>459</v>
       </c>
-      <c r="F14" s="197" t="s">
-        <v>460</v>
-      </c>
-      <c r="G14" s="216" t="s">
-        <v>461</v>
-      </c>
       <c r="H14" s="198" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I14" s="197" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J14" s="198" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14" s="197" t="s">
+        <v>166</v>
+      </c>
+      <c r="L14" s="198" t="s">
+        <v>256</v>
+      </c>
+      <c r="M14" s="174" t="s">
+        <v>257</v>
+      </c>
+      <c r="N14" s="174" t="s">
+        <v>433</v>
+      </c>
+      <c r="O14" s="197" t="s">
+        <v>172</v>
+      </c>
+      <c r="P14" s="174" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q14" s="196" t="s">
+        <v>470</v>
+      </c>
+      <c r="R14" s="198" t="s">
+        <v>170</v>
+      </c>
+      <c r="S14" s="175" t="s">
+        <v>260</v>
+      </c>
+      <c r="T14" s="175" t="s">
+        <v>259</v>
+      </c>
+      <c r="U14" s="174" t="s">
+        <v>258</v>
+      </c>
+      <c r="V14" s="174" t="s">
+        <v>434</v>
+      </c>
+      <c r="W14" s="176" t="s">
+        <v>435</v>
+      </c>
+      <c r="X14" s="197" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y14" s="203" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z14" s="171" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA14" s="175" t="s">
+        <v>436</v>
+      </c>
+      <c r="AB14" s="197" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC14" s="203" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD14" s="197" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE14" s="198" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF14" s="174" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG14" s="175" t="s">
+        <v>261</v>
+      </c>
+      <c r="AH14" s="175" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI14" s="197" t="s">
         <v>167</v>
       </c>
-      <c r="K14" s="197" t="s">
+      <c r="AJ14" s="197" t="s">
         <v>168</v>
       </c>
-      <c r="L14" s="198" t="s">
-        <v>258</v>
-      </c>
-      <c r="M14" s="174" t="s">
-        <v>259</v>
-      </c>
-      <c r="N14" s="174" t="s">
-        <v>435</v>
-      </c>
-      <c r="O14" s="197" t="s">
-        <v>174</v>
-      </c>
-      <c r="P14" s="174" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q14" s="196" t="s">
-        <v>472</v>
-      </c>
-      <c r="R14" s="198" t="s">
-        <v>172</v>
-      </c>
-      <c r="S14" s="175" t="s">
-        <v>262</v>
-      </c>
-      <c r="T14" s="175" t="s">
-        <v>261</v>
-      </c>
-      <c r="U14" s="174" t="s">
-        <v>260</v>
-      </c>
-      <c r="V14" s="174" t="s">
-        <v>436</v>
-      </c>
-      <c r="W14" s="176" t="s">
-        <v>437</v>
-      </c>
-      <c r="X14" s="197" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y14" s="203" t="s">
-        <v>425</v>
-      </c>
-      <c r="Z14" s="171" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA14" s="175" t="s">
-        <v>438</v>
-      </c>
-      <c r="AB14" s="197" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC14" s="203" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD14" s="197" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE14" s="198" t="s">
-        <v>350</v>
-      </c>
-      <c r="AF14" s="174" t="s">
-        <v>351</v>
-      </c>
-      <c r="AG14" s="175" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH14" s="175" t="s">
-        <v>264</v>
-      </c>
-      <c r="AI14" s="197" t="s">
+      <c r="AK14" s="198" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL14" s="197" t="s">
         <v>169</v>
-      </c>
-      <c r="AJ14" s="197" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK14" s="198" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL14" s="197" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -63359,47 +63245,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:G1048576">
-    <cfRule type="expression" dxfId="91" priority="2">
+    <cfRule type="expression" dxfId="90" priority="2">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:AL1048576">
-    <cfRule type="expression" dxfId="90" priority="3">
+    <cfRule type="expression" dxfId="89" priority="3">
       <formula>AND(ISNUMBER(E1),E1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 S1:T1048576 W1:W1048576 Y1:Y1048576 AA1:AA1048576 AC1:AC1048576 AG1:AH1048576">
-    <cfRule type="expression" dxfId="89" priority="4">
+    <cfRule type="expression" dxfId="88" priority="4">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="88" priority="13">
+    <cfRule type="expression" dxfId="87" priority="13">
       <formula>AND(ISNUMBER($S1),SUM($S1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="87" priority="19">
+    <cfRule type="expression" dxfId="86" priority="19">
       <formula>AND(ISNUMBER($T1),SUM($T1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576">
-    <cfRule type="expression" dxfId="86" priority="34">
+    <cfRule type="expression" dxfId="85" priority="34">
       <formula>AND(ISNUMBER($Y1),ROUND(SUM($V1),0)&gt;0,ROUND(SUM($Y1),2)&lt;70%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AA1:AA1048576 AC1:AC1048576">
-    <cfRule type="expression" dxfId="85" priority="3836">
+    <cfRule type="expression" dxfId="84" priority="3836">
       <formula>AND(ISNUMBER(AA1),SUM(AA1)&lt;95%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576">
-    <cfRule type="expression" dxfId="84" priority="10">
+    <cfRule type="expression" dxfId="83" priority="10">
       <formula>AND(ROW($AG1)&gt;14,$AI1="ENTER LINKAGE RATE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AH1048576">
-    <cfRule type="expression" dxfId="83" priority="1">
+    <cfRule type="expression" dxfId="82" priority="1">
       <formula>AND(ROW($AH1)&gt;14,$AJ1="ENTER YIELD RATE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63433,7 +63319,7 @@
     <col min="8" max="8" width="11.796875" style="84" customWidth="1"/>
     <col min="9" max="9" width="11.796875" style="37" customWidth="1"/>
     <col min="10" max="10" width="11.796875" style="86" customWidth="1"/>
-    <col min="11" max="17" width="11.796875" style="390" customWidth="1"/>
+    <col min="11" max="17" width="11.796875" style="388" customWidth="1"/>
     <col min="18" max="18" width="11.796875" style="370" customWidth="1"/>
     <col min="19" max="19" width="11.796875" style="354" customWidth="1"/>
     <col min="20" max="20" width="11.796875" style="371" customWidth="1"/>
@@ -63453,43 +63339,43 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="192" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G1" s="163"/>
       <c r="H1" s="191"/>
       <c r="I1" s="163"/>
       <c r="J1" s="165"/>
-      <c r="K1" s="388"/>
-      <c r="L1" s="388"/>
-      <c r="M1" s="388"/>
-      <c r="N1" s="388"/>
-      <c r="O1" s="388"/>
-      <c r="P1" s="388"/>
-      <c r="Q1" s="388"/>
+      <c r="K1" s="386"/>
+      <c r="L1" s="386"/>
+      <c r="M1" s="386"/>
+      <c r="N1" s="386"/>
+      <c r="O1" s="386"/>
+      <c r="P1" s="386"/>
+      <c r="Q1" s="386"/>
       <c r="R1" s="358" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="S1" s="359"/>
       <c r="T1" s="360"/>
       <c r="U1" s="164"/>
       <c r="V1" s="193"/>
       <c r="W1" s="195" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="X1" s="161"/>
       <c r="Y1" s="161"/>
       <c r="Z1" s="161"/>
       <c r="AA1" s="192" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AB1" s="159"/>
       <c r="AC1" s="167"/>
     </row>
     <row r="2" spans="1:29" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="396" t="s">
-        <v>405</v>
-      </c>
-      <c r="B2" s="393"/>
+      <c r="A2" s="402" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2" s="399"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="51"/>
@@ -63507,110 +63393,110 @@
       <c r="R2" s="361"/>
       <c r="S2" s="362"/>
       <c r="T2" s="363" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="235" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="W2" s="237" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="X2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Y2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Z2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AA2" s="237" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AB2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AC2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="394"/>
-      <c r="B3" s="395"/>
+      <c r="A3" s="400"/>
+      <c r="B3" s="401"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
+        <v>581</v>
+      </c>
+      <c r="G3" s="115" t="s">
+        <v>582</v>
+      </c>
+      <c r="H3" s="116" t="s">
         <v>583</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="I3" s="115" t="s">
         <v>584</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="J3" s="117" t="s">
         <v>585</v>
       </c>
-      <c r="I3" s="115" t="s">
+      <c r="K3" s="387" t="s">
         <v>586</v>
       </c>
-      <c r="J3" s="117" t="s">
+      <c r="L3" s="387" t="s">
         <v>587</v>
       </c>
-      <c r="K3" s="389" t="s">
+      <c r="M3" s="387" t="s">
         <v>588</v>
       </c>
-      <c r="L3" s="389" t="s">
+      <c r="N3" s="387" t="s">
         <v>589</v>
       </c>
-      <c r="M3" s="389" t="s">
+      <c r="O3" s="387" t="s">
         <v>590</v>
       </c>
-      <c r="N3" s="389" t="s">
+      <c r="P3" s="387" t="s">
         <v>591</v>
       </c>
-      <c r="O3" s="389" t="s">
+      <c r="Q3" s="387" t="s">
         <v>592</v>
       </c>
-      <c r="P3" s="389" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q3" s="389" t="s">
-        <v>594</v>
-      </c>
       <c r="R3" s="364" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="S3" s="365" t="s">
         <v>106</v>
       </c>
       <c r="T3" s="366" t="s">
+        <v>571</v>
+      </c>
+      <c r="U3" s="204" t="s">
+        <v>572</v>
+      </c>
+      <c r="V3" s="234" t="s">
         <v>573</v>
       </c>
-      <c r="U3" s="204" t="s">
+      <c r="W3" s="238" t="s">
         <v>574</v>
       </c>
-      <c r="V3" s="234" t="s">
+      <c r="X3" s="230" t="s">
         <v>575</v>
       </c>
-      <c r="W3" s="238" t="s">
+      <c r="Y3" s="230" t="s">
         <v>576</v>
       </c>
-      <c r="X3" s="230" t="s">
+      <c r="Z3" s="230" t="s">
         <v>577</v>
       </c>
-      <c r="Y3" s="230" t="s">
+      <c r="AA3" s="238" t="s">
         <v>578</v>
       </c>
-      <c r="Z3" s="230" t="s">
+      <c r="AB3" s="230" t="s">
         <v>579</v>
       </c>
-      <c r="AA3" s="238" t="s">
+      <c r="AC3" s="230" t="s">
         <v>580</v>
-      </c>
-      <c r="AB3" s="230" t="s">
-        <v>581</v>
-      </c>
-      <c r="AC3" s="230" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -63991,25 +63877,25 @@
       <c r="I8" s="36"/>
       <c r="J8" s="11"/>
       <c r="K8" s="355" t="s">
+        <v>367</v>
+      </c>
+      <c r="L8" s="355" t="s">
+        <v>368</v>
+      </c>
+      <c r="M8" s="355" t="s">
+        <v>368</v>
+      </c>
+      <c r="N8" s="355" t="s">
+        <v>368</v>
+      </c>
+      <c r="O8" s="355" t="s">
         <v>369</v>
       </c>
-      <c r="L8" s="355" t="s">
+      <c r="P8" s="355" t="s">
         <v>370</v>
       </c>
-      <c r="M8" s="355" t="s">
+      <c r="Q8" s="355" t="s">
         <v>370</v>
-      </c>
-      <c r="N8" s="355" t="s">
-        <v>370</v>
-      </c>
-      <c r="O8" s="355" t="s">
-        <v>371</v>
-      </c>
-      <c r="P8" s="355" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q8" s="355" t="s">
-        <v>372</v>
       </c>
       <c r="R8" s="353" t="s">
         <v>57</v>
@@ -64019,25 +63905,25 @@
       </c>
       <c r="U8" s="129"/>
       <c r="V8" s="241" t="s">
+        <v>367</v>
+      </c>
+      <c r="X8" s="241" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y8" s="241" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z8" s="241" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA8" s="257" t="s">
         <v>369</v>
       </c>
-      <c r="X8" s="241" t="s">
+      <c r="AB8" s="241" t="s">
         <v>370</v>
       </c>
-      <c r="Y8" s="241" t="s">
+      <c r="AC8" s="241" t="s">
         <v>370</v>
-      </c>
-      <c r="Z8" s="241" t="s">
-        <v>370</v>
-      </c>
-      <c r="AA8" s="257" t="s">
-        <v>371</v>
-      </c>
-      <c r="AB8" s="241" t="s">
-        <v>372</v>
-      </c>
-      <c r="AC8" s="241" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -64118,150 +64004,150 @@
     </row>
     <row r="11" spans="1:29">
       <c r="F11" s="47" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K11" s="355" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L11" s="355" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M11" s="355" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="N11" s="355" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O11" s="355" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P11" s="355" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q11" s="355" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="R11" s="353" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="S11" s="354" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T11" s="349" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V11" s="33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="W11" s="56" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="X11" s="33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Z11" s="33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AA11" s="56" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AB11" s="33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AC11" s="33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="F12" s="47" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H12" s="73" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K12" s="355" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L12" s="355" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M12" s="355" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N12" s="355" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O12" s="355" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P12" s="355" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Q12" s="355" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="R12" s="353" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="S12" s="354" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T12" s="349" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="V12" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="W12" s="56" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="X12" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Y12" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Z12" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AA12" s="56" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AB12" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AC12" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -64310,13 +64196,13 @@
         <v>138</v>
       </c>
       <c r="J14" s="175" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K14" s="372" t="s">
         <v>139</v>
       </c>
       <c r="L14" s="372" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M14" s="372" t="s">
         <v>140</v>
@@ -64337,37 +64223,37 @@
         <v>149</v>
       </c>
       <c r="S14" s="357" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T14" s="356" t="s">
         <v>150</v>
       </c>
       <c r="U14" s="199" t="s">
+        <v>351</v>
+      </c>
+      <c r="V14" s="200" t="s">
+        <v>350</v>
+      </c>
+      <c r="W14" s="202" t="s">
+        <v>354</v>
+      </c>
+      <c r="X14" s="200" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y14" s="200" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z14" s="200" t="s">
         <v>353</v>
       </c>
-      <c r="V14" s="200" t="s">
-        <v>352</v>
-      </c>
-      <c r="W14" s="202" t="s">
+      <c r="AA14" s="202" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB14" s="200" t="s">
         <v>356</v>
       </c>
-      <c r="X14" s="200" t="s">
-        <v>514</v>
-      </c>
-      <c r="Y14" s="200" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z14" s="200" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA14" s="202" t="s">
+      <c r="AC14" s="200" t="s">
         <v>357</v>
-      </c>
-      <c r="AB14" s="200" t="s">
-        <v>358</v>
-      </c>
-      <c r="AC14" s="200" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -64399,31 +64285,31 @@
         <f>IF(LEFT($B15,4)="_Mil","",INDEX(Cascade!$AA:$AA,MATCH($E15,Cascade!$E:$E,0)))</f>
         <v/>
       </c>
-      <c r="K15" s="390" t="str">
+      <c r="K15" s="388" t="str">
         <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;K$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
         <v/>
       </c>
-      <c r="L15" s="390" t="str">
+      <c r="L15" s="388" t="str">
         <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;L$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
         <v/>
       </c>
-      <c r="M15" s="390" t="str">
+      <c r="M15" s="388" t="str">
         <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;M$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
         <v/>
       </c>
-      <c r="N15" s="390" t="str">
+      <c r="N15" s="388" t="str">
         <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;N$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
         <v/>
       </c>
-      <c r="O15" s="390" t="str">
+      <c r="O15" s="388" t="str">
         <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;O$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
         <v/>
       </c>
-      <c r="P15" s="390" t="str">
+      <c r="P15" s="388" t="str">
         <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;P$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
         <v/>
       </c>
-      <c r="Q15" s="390" t="str">
+      <c r="Q15" s="388" t="str">
         <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;Q$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
         <v/>
       </c>
@@ -64477,27 +64363,27 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:Q1048576 U1:AC1048576">
-    <cfRule type="expression" dxfId="82" priority="1">
+    <cfRule type="expression" dxfId="81" priority="1">
       <formula>AND(ROW(F1)&gt;14,LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:R1048576 T1:AC1048576">
-    <cfRule type="expression" dxfId="81" priority="2">
+    <cfRule type="expression" dxfId="80" priority="2">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="80" priority="7">
+    <cfRule type="expression" dxfId="79" priority="7">
       <formula>AND(ISNUMBER(H1),H1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="expression" dxfId="79" priority="14">
+    <cfRule type="expression" dxfId="78" priority="14">
       <formula>AND(ISNUMBER(J1),J1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="78" priority="49">
+    <cfRule type="expression" dxfId="77" priority="49">
       <formula>AND(ISNUMBER($S1),ROUND($S1,2)&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64525,7 +64411,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -64580,10 +64466,10 @@
       <c r="U1" s="161"/>
     </row>
     <row r="2" spans="1:21" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="396" t="s">
-        <v>362</v>
-      </c>
-      <c r="B2" s="393"/>
+      <c r="A2" s="402" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -64595,75 +64481,75 @@
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="231" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="R2" s="231" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="S2" s="108"/>
       <c r="T2" s="3"/>
       <c r="U2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="394"/>
-      <c r="B3" s="395"/>
+      <c r="A3" s="400"/>
+      <c r="B3" s="401"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
+        <v>607</v>
+      </c>
+      <c r="G3" s="115" t="s">
+        <v>582</v>
+      </c>
+      <c r="H3" s="117" t="s">
+        <v>583</v>
+      </c>
+      <c r="I3" s="115" t="s">
+        <v>584</v>
+      </c>
+      <c r="J3" s="117" t="s">
+        <v>585</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>644</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>608</v>
+      </c>
+      <c r="M3" s="230" t="s">
         <v>609</v>
       </c>
-      <c r="G3" s="115" t="s">
-        <v>584</v>
-      </c>
-      <c r="H3" s="117" t="s">
-        <v>585</v>
-      </c>
-      <c r="I3" s="115" t="s">
-        <v>586</v>
-      </c>
-      <c r="J3" s="117" t="s">
-        <v>587</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>652</v>
-      </c>
-      <c r="L3" s="61" t="s">
+      <c r="N3" s="230" t="s">
         <v>610</v>
       </c>
-      <c r="M3" s="230" t="s">
+      <c r="O3" s="132" t="s">
         <v>611</v>
       </c>
-      <c r="N3" s="230" t="s">
-        <v>612</v>
-      </c>
-      <c r="O3" s="132" t="s">
-        <v>613</v>
-      </c>
       <c r="P3" s="204" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q3" s="233" t="s">
+        <v>604</v>
+      </c>
+      <c r="R3" s="233" t="s">
         <v>605</v>
       </c>
-      <c r="Q3" s="233" t="s">
+      <c r="S3" s="221" t="s">
         <v>606</v>
       </c>
-      <c r="R3" s="233" t="s">
-        <v>607</v>
-      </c>
-      <c r="S3" s="221" t="s">
-        <v>608</v>
-      </c>
       <c r="T3" s="182" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="U3" s="230" t="s">
         <v>95</v>
@@ -64941,7 +64827,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="11"/>
       <c r="K8" s="245" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L8" s="245" t="s">
         <v>64</v>
@@ -64971,7 +64857,7 @@
       <c r="I9" s="36"/>
       <c r="J9" s="11"/>
       <c r="K9" s="245" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L9" s="245" t="s">
         <v>65</v>
@@ -65006,102 +64892,102 @@
     </row>
     <row r="11" spans="1:21">
       <c r="F11" s="47" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q11" s="40" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S11" s="143" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="T11" s="86" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="U11" s="33" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="F12" s="47" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M12" s="33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q12" s="40" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="R12" s="40" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="S12" s="143" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T12" s="86" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="U12" s="33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -65141,13 +65027,13 @@
         <v>138</v>
       </c>
       <c r="J14" s="175" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K14" s="171" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L14" s="174" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M14" s="177" t="s">
         <v>151</v>
@@ -65156,10 +65042,10 @@
         <v>152</v>
       </c>
       <c r="O14" s="175" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P14" s="175" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="197" t="s">
         <v>154</v>
@@ -65168,13 +65054,13 @@
         <v>153</v>
       </c>
       <c r="S14" s="203" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="T14" s="175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="U14" s="197" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -65248,42 +65134,42 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:J1048576 M1:S1048576">
-    <cfRule type="expression" dxfId="77" priority="1">
+    <cfRule type="expression" dxfId="76" priority="1">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="76" priority="7">
+    <cfRule type="expression" dxfId="75" priority="7">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576 O1:P1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="75" priority="8">
+    <cfRule type="expression" dxfId="74" priority="8">
       <formula>AND(ISNUMBER(H1),H1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1048576">
-    <cfRule type="expression" dxfId="74" priority="3765">
+    <cfRule type="expression" dxfId="73" priority="3765">
       <formula>AND(ISNUMBER($M1),ISNUMBER($N1),$N1&lt;$M1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="expression" dxfId="73" priority="3764">
+    <cfRule type="expression" dxfId="72" priority="3764">
       <formula>AND(ISNUMBER($P1),$P1&lt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="expression" dxfId="72" priority="29">
+    <cfRule type="expression" dxfId="71" priority="29">
       <formula>AND(ISNUMBER($Q1),$Q1&lt;$N1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="71" priority="3">
+    <cfRule type="expression" dxfId="70" priority="3">
       <formula>AND(SUM($R1)&lt;&gt;0,$S1="",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="70" priority="4">
+    <cfRule type="expression" dxfId="69" priority="4">
       <formula>AND(ROW($T1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65311,7 +65197,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65322,8 +65208,8 @@
     <col min="4" max="4" width="7.796875" customWidth="1"/>
     <col min="5" max="5" width="7" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11.796875" style="134" customWidth="1"/>
-    <col min="7" max="8" width="11.796875" style="387" customWidth="1"/>
-    <col min="9" max="9" width="11.796875" style="379" customWidth="1"/>
+    <col min="7" max="8" width="11.796875" style="330" customWidth="1"/>
+    <col min="9" max="9" width="11.796875" style="19" customWidth="1"/>
     <col min="10" max="10" width="11.796875" style="36" customWidth="1"/>
     <col min="11" max="11" width="11.796875" style="330" customWidth="1"/>
     <col min="12" max="12" width="11.796875" style="134" customWidth="1"/>
@@ -65342,15 +65228,15 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="194" t="s">
-        <v>251</v>
-      </c>
-      <c r="G1" s="381"/>
-      <c r="H1" s="381"/>
+        <v>249</v>
+      </c>
+      <c r="G1" s="380"/>
+      <c r="H1" s="380"/>
       <c r="I1" s="166"/>
       <c r="J1" s="161"/>
       <c r="K1" s="342"/>
       <c r="L1" s="194" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="M1" s="161"/>
       <c r="N1" s="161"/>
@@ -65362,59 +65248,59 @@
       <c r="R1" s="161"/>
     </row>
     <row r="2" spans="1:18" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="396" t="s">
-        <v>364</v>
-      </c>
-      <c r="B2" s="393"/>
+      <c r="A2" s="402" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="399"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="108"/>
-      <c r="G2" s="382"/>
-      <c r="H2" s="382"/>
+      <c r="G2" s="381"/>
+      <c r="H2" s="381"/>
       <c r="I2" s="109"/>
       <c r="J2" s="34"/>
       <c r="K2" s="374"/>
       <c r="L2" s="108"/>
       <c r="M2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="O2" s="124"/>
       <c r="P2" s="49"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="394"/>
-      <c r="B3" s="395"/>
+      <c r="A3" s="400"/>
+      <c r="B3" s="401"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="119" t="s">
-        <v>587</v>
-      </c>
-      <c r="G3" s="383" t="s">
-        <v>674</v>
-      </c>
-      <c r="H3" s="383" t="s">
-        <v>675</v>
-      </c>
-      <c r="I3" s="380" t="s">
-        <v>669</v>
+        <v>585</v>
+      </c>
+      <c r="G3" s="382" t="s">
+        <v>665</v>
+      </c>
+      <c r="H3" s="382" t="s">
+        <v>666</v>
+      </c>
+      <c r="I3" s="379" t="s">
+        <v>660</v>
       </c>
       <c r="J3" s="118" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="K3" s="375" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="L3" s="205" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="M3" s="230" t="s">
         <v>26</v>
@@ -65423,16 +65309,16 @@
         <v>27</v>
       </c>
       <c r="O3" s="113" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="P3" s="63" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Q3" s="204" t="s">
         <v>107</v>
       </c>
       <c r="R3" s="230" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -65444,8 +65330,8 @@
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="71"/>
-      <c r="G4" s="384"/>
-      <c r="H4" s="384"/>
+      <c r="G4" s="383"/>
+      <c r="H4" s="383"/>
       <c r="I4" s="110"/>
       <c r="J4" s="35">
         <f>SUBTOTAL(109,J$15:INDEX(J:J,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
@@ -65657,8 +65543,8 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="72"/>
-      <c r="G8" s="385"/>
-      <c r="H8" s="385"/>
+      <c r="G8" s="384"/>
+      <c r="H8" s="384"/>
       <c r="I8" s="111"/>
       <c r="K8" s="377"/>
       <c r="L8" s="128"/>
@@ -65678,8 +65564,8 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="72"/>
-      <c r="G9" s="385"/>
-      <c r="H9" s="385"/>
+      <c r="G9" s="384"/>
+      <c r="H9" s="384"/>
       <c r="I9" s="111"/>
       <c r="K9" s="377"/>
       <c r="L9" s="128"/>
@@ -65699,8 +65585,8 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="72"/>
-      <c r="G10" s="385"/>
-      <c r="H10" s="385"/>
+      <c r="G10" s="384"/>
+      <c r="H10" s="384"/>
       <c r="I10" s="111"/>
       <c r="K10" s="377"/>
       <c r="L10" s="128"/>
@@ -65720,43 +65606,43 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="72" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G11" s="330" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H11" s="330" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I11" s="330" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K11" s="373" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -65810,8 +65696,8 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="72"/>
-      <c r="G13" s="385"/>
-      <c r="H13" s="385"/>
+      <c r="G13" s="384"/>
+      <c r="H13" s="384"/>
       <c r="I13" s="111"/>
       <c r="K13" s="373"/>
       <c r="L13" s="72"/>
@@ -65834,37 +65720,37 @@
         <v>31</v>
       </c>
       <c r="F14" s="203" t="s">
-        <v>418</v>
-      </c>
-      <c r="G14" s="386" t="s">
-        <v>676</v>
-      </c>
-      <c r="H14" s="386" t="s">
-        <v>677</v>
-      </c>
-      <c r="I14" s="386" t="s">
-        <v>678</v>
+        <v>416</v>
+      </c>
+      <c r="G14" s="385" t="s">
+        <v>667</v>
+      </c>
+      <c r="H14" s="385" t="s">
+        <v>668</v>
+      </c>
+      <c r="I14" s="385" t="s">
+        <v>669</v>
       </c>
       <c r="J14" s="171" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K14" s="329" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L14" s="203" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M14" s="197" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N14" s="197" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O14" s="197" t="s">
         <v>155</v>
       </c>
       <c r="P14" s="198" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="175" t="s">
         <v>156</v>
@@ -65889,8 +65775,8 @@
         <f>IF(LEFT($B15,4)="_Mil","",INDEX(Cascade!$AA:$AA,MATCH($E15,Cascade!$E:$E,0)))</f>
         <v/>
       </c>
-      <c r="G15" s="385"/>
-      <c r="H15" s="385"/>
+      <c r="G15" s="384"/>
+      <c r="H15" s="384"/>
       <c r="I15" s="111"/>
       <c r="J15" s="54">
         <f>INDEX(Cascade!$BI:$BI,MATCH($E15,Cascade!$E:$E,0))</f>
@@ -65924,7 +65810,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="M16" s="33" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -65932,42 +65818,42 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:I4 F5:F7 I5:I7 F8:I1048576">
-    <cfRule type="expression" dxfId="69" priority="28">
+    <cfRule type="expression" dxfId="68" priority="28">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:K2 F3:J4 F5:F7 I5:J7 F8:J15 F16:K1048576 L1:P1048576 R1:R1048576">
-    <cfRule type="expression" dxfId="68" priority="31">
+    <cfRule type="expression" dxfId="67" priority="31">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:H7">
-    <cfRule type="expression" dxfId="67" priority="1">
+    <cfRule type="expression" dxfId="66" priority="1">
       <formula>AND(ISNUMBER(G5),G5&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K15">
-    <cfRule type="expression" dxfId="66" priority="5">
+    <cfRule type="expression" dxfId="65" priority="5">
       <formula>OR($C3="01-09")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="expression" dxfId="65" priority="52">
+    <cfRule type="expression" dxfId="64" priority="52">
       <formula>AND(ISNUMBER(L1),L1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="ENTER YIELD">
+    <cfRule type="containsText" dxfId="63" priority="4" operator="containsText" text="ENTER YIELD">
       <formula>NOT(ISERROR(SEARCH("ENTER YIELD",M3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="63" priority="51" operator="containsText" text="ENTER YIELD">
+    <cfRule type="containsText" dxfId="62" priority="51" operator="containsText" text="ENTER YIELD">
       <formula>NOT(ISERROR(SEARCH("ENTER YIELD",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:R1048576">
-    <cfRule type="expression" dxfId="62" priority="24">
+    <cfRule type="expression" dxfId="61" priority="24">
       <formula>OR($C1="01-09")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -66038,7 +65924,7 @@
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
       <c r="L2" s="236" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="117" customHeight="1">
@@ -66048,25 +65934,25 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G3" s="115" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H3" s="115" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I3" s="115" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="K3" s="61" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L3" s="230" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -66222,7 +66108,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="J8" s="254" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K8" s="245" t="s">
         <v>87</v>
@@ -66233,7 +66119,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="J9" s="254" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K9" s="245" t="s">
         <v>88</v>
@@ -66249,25 +66135,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="F11" s="47" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -66278,10 +66164,10 @@
         <v>94</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J12" s="36" t="s">
         <v>94</v>
@@ -66313,22 +66199,22 @@
         <v>135</v>
       </c>
       <c r="G14" s="174" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H14" s="174" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I14" s="174" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J14" s="174" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K14" s="174" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L14" s="197" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -66363,20 +66249,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>AND(ROW(F1)&gt;14,LEFT(B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:L1048576">
-    <cfRule type="expression" dxfId="60" priority="5">
+    <cfRule type="expression" dxfId="59" priority="5">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="expression" dxfId="59" priority="3">
+    <cfRule type="expression" dxfId="58" priority="3">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",$D1&lt;&gt;"Female")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="4">
+    <cfRule type="expression" dxfId="57" priority="4">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",NOT(OR($C1="15-24",$C1="25-34")))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF4D540D-3926-4720-A13D-525E088C6C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339ECF99-27A6-44D0-8EB8-37DE450DE789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="10" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="691">
   <si>
     <t>TX_CURR</t>
   </si>
@@ -2037,9 +2037,6 @@
   </si>
   <si>
     <t>CXCA_SCRN.Initiated.Rt.T</t>
-  </si>
-  <si>
-    <t>HTS.Index.Pos.Yield</t>
   </si>
   <si>
     <t>TX_CURR.KP.Expected.T_1</t>
@@ -2852,6 +2849,12 @@
   </si>
   <si>
     <t>^ will pull from DATIM ^</t>
+  </si>
+  <si>
+    <t>HTS_TST.Pos.Yield</t>
+  </si>
+  <si>
+    <t>HTS_TST.Pos.Original</t>
   </si>
 </sst>
 </file>
@@ -4157,6 +4160,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4178,10 +4185,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -4193,26 +4196,6 @@
     <cellStyle name="Percent 2" xfId="3" xr:uid="{EBDE175B-1152-3C44-B18E-2B948C595077}"/>
   </cellStyles>
   <dxfs count="108">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4653,6 +4636,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -4713,11 +4706,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5592,7 +5595,7 @@
     </row>
     <row r="10" spans="2:2" ht="97.2">
       <c r="B10" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="82.2">
@@ -5618,10 +5621,10 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5658,10 +5661,10 @@
       <c r="M1" s="161"/>
     </row>
     <row r="2" spans="1:13" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="404" t="s">
         <v>359</v>
       </c>
-      <c r="B2" s="399"/>
+      <c r="B2" s="401"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5677,34 +5680,34 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="400"/>
-      <c r="B3" s="401"/>
+      <c r="A3" s="402"/>
+      <c r="B3" s="403"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="63" t="s">
+        <v>645</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>617</v>
+      </c>
+      <c r="H3" s="115" t="s">
+        <v>618</v>
+      </c>
+      <c r="I3" s="115" t="s">
+        <v>535</v>
+      </c>
+      <c r="J3" s="146" t="s">
         <v>646</v>
       </c>
-      <c r="G3" s="61" t="s">
-        <v>618</v>
-      </c>
-      <c r="H3" s="115" t="s">
-        <v>619</v>
-      </c>
-      <c r="I3" s="115" t="s">
-        <v>536</v>
-      </c>
-      <c r="J3" s="146" t="s">
-        <v>647</v>
-      </c>
       <c r="K3" s="204" t="s">
+        <v>615</v>
+      </c>
+      <c r="L3" s="204" t="s">
         <v>616</v>
       </c>
-      <c r="L3" s="204" t="s">
-        <v>617</v>
-      </c>
       <c r="M3" s="30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5912,28 +5915,28 @@
     </row>
     <row r="11" spans="1:13">
       <c r="F11" s="52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6071,9 +6074,9 @@
   <sheetPr codeName="Sheet16">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -6111,7 +6114,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="195" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G1" s="164"/>
       <c r="H1" s="389"/>
@@ -6144,7 +6147,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="49"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="404"/>
+      <c r="H2" s="397"/>
       <c r="I2" s="324"/>
       <c r="J2" s="324"/>
       <c r="K2" s="3"/>
@@ -6179,67 +6182,67 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G3" s="204" t="s">
+        <v>677</v>
+      </c>
+      <c r="H3" s="375" t="s">
+        <v>673</v>
+      </c>
+      <c r="I3" s="375" t="s">
+        <v>680</v>
+      </c>
+      <c r="J3" s="375" t="s">
+        <v>681</v>
+      </c>
+      <c r="K3" s="204" t="s">
         <v>678</v>
       </c>
-      <c r="H3" s="375" t="s">
-        <v>674</v>
-      </c>
-      <c r="I3" s="375" t="s">
-        <v>681</v>
-      </c>
-      <c r="J3" s="375" t="s">
+      <c r="L3" s="204" t="s">
+        <v>679</v>
+      </c>
+      <c r="M3" s="30" t="s">
         <v>682</v>
       </c>
-      <c r="K3" s="204" t="s">
-        <v>679</v>
-      </c>
-      <c r="L3" s="204" t="s">
-        <v>680</v>
-      </c>
-      <c r="M3" s="30" t="s">
+      <c r="N3" s="30" t="s">
         <v>683</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="O3" s="118" t="s">
+        <v>686</v>
+      </c>
+      <c r="P3" s="63" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q3" s="64" t="s">
         <v>684</v>
       </c>
-      <c r="O3" s="118" t="s">
+      <c r="R3" s="391" t="s">
+        <v>685</v>
+      </c>
+      <c r="S3" s="392" t="s">
         <v>687</v>
       </c>
-      <c r="P3" s="63" t="s">
-        <v>655</v>
-      </c>
-      <c r="Q3" s="64" t="s">
-        <v>685</v>
-      </c>
-      <c r="R3" s="391" t="s">
-        <v>686</v>
-      </c>
-      <c r="S3" s="392" t="s">
-        <v>688</v>
-      </c>
       <c r="T3" s="204" t="s">
+        <v>619</v>
+      </c>
+      <c r="U3" s="206" t="s">
         <v>620</v>
       </c>
-      <c r="U3" s="206" t="s">
+      <c r="V3" s="206" t="s">
         <v>621</v>
       </c>
-      <c r="V3" s="206" t="s">
+      <c r="W3" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y3" s="138" t="s">
         <v>622</v>
       </c>
-      <c r="W3" s="30" t="s">
-        <v>494</v>
-      </c>
-      <c r="X3" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="Y3" s="138" t="s">
+      <c r="Z3" s="138" t="s">
         <v>623</v>
-      </c>
-      <c r="Z3" s="138" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -6255,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="405">
+      <c r="H4" s="398">
         <f>SUBTOTAL(109,H$15:INDEX(H:H,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
         <v>0</v>
       </c>
@@ -6306,7 +6309,7 @@
         <v>#REF!</v>
       </c>
       <c r="V4" s="110" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="W4" s="32">
         <v>0</v>
@@ -6773,16 +6776,16 @@
         <v>147</v>
       </c>
       <c r="G14" s="175" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H14" s="329" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I14" s="329" t="s">
+        <v>671</v>
+      </c>
+      <c r="J14" s="329" t="s">
         <v>672</v>
-      </c>
-      <c r="J14" s="329" t="s">
-        <v>673</v>
       </c>
       <c r="K14" s="175" t="s">
         <v>386</v>
@@ -6791,10 +6794,10 @@
         <v>385</v>
       </c>
       <c r="M14" s="197" t="s">
+        <v>669</v>
+      </c>
+      <c r="N14" s="197" t="s">
         <v>670</v>
-      </c>
-      <c r="N14" s="197" t="s">
-        <v>671</v>
       </c>
       <c r="O14" s="171" t="s">
         <v>148</v>
@@ -6809,7 +6812,7 @@
         <v>161</v>
       </c>
       <c r="S14" s="171" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="T14" s="175" t="s">
         <v>160</v>
@@ -6818,7 +6821,7 @@
         <v>159</v>
       </c>
       <c r="V14" s="176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="W14" s="197" t="s">
         <v>164</v>
@@ -6827,10 +6830,10 @@
         <v>163</v>
       </c>
       <c r="Y14" s="175" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Z14" s="175" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -6901,10 +6904,10 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="I16" s="403" t="s">
-        <v>689</v>
-      </c>
-      <c r="J16" s="403"/>
+      <c r="I16" s="405" t="s">
+        <v>688</v>
+      </c>
+      <c r="J16" s="405"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -6924,75 +6927,73 @@
   <mergeCells count="1">
     <mergeCell ref="I16:J16"/>
   </mergeCells>
-  <conditionalFormatting sqref="K15:O15 I1:N14 I16 O1:W15 I18:W1048576 P16:W17 I17:J17 F1:H1048576">
-    <cfRule type="expression" dxfId="52" priority="24">
-      <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="52" priority="1">
+      <formula>AND(ISNUMBER(G7),ROUND(SUM(G7),2)&lt;100%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="2">
+      <formula>AND(ISNUMBER(G7),G7&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:K14 L1:L15 K15 I17:J17 I18:L1048576 G1:H1048576">
-    <cfRule type="expression" dxfId="51" priority="20">
+  <conditionalFormatting sqref="G1:H1048576 I1:K14 L1:L15 K15 I17:J17 I18:L1048576">
+    <cfRule type="expression" dxfId="50" priority="20">
       <formula>AND(SUM(#REF!)&gt;0,G1="",ROW(G1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="expression" dxfId="50" priority="16">
+    <cfRule type="expression" dxfId="49" priority="16">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="18">
+    <cfRule type="expression" dxfId="48" priority="18">
       <formula>AND(ISNUMBER(G1),ROUND(SUM(G1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="48" priority="3903">
+    <cfRule type="expression" dxfId="47" priority="3903">
       <formula>AND(SUM(#REF!)&gt;0,I16="",ROW(I16)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:L14 K15:L15 I18:L1048576 I16 I17:J17">
-    <cfRule type="expression" dxfId="47" priority="22">
+  <conditionalFormatting sqref="I1:L14 K15:L15 I17:J17 I18:L1048576 I16">
+    <cfRule type="expression" dxfId="46" priority="22">
       <formula>AND(ISNUMBER(I1),ROUND(SUM(I1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:L14 T1:U1048576 K15:L15 I16 I18:L1048576 I17:J17">
-    <cfRule type="expression" dxfId="46" priority="26">
+  <conditionalFormatting sqref="I1:L14 T1:U1048576 K15:L15 I16 I17:J17 I18:L1048576">
+    <cfRule type="expression" dxfId="45" priority="26">
       <formula>AND(ISNUMBER(I1),I1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I1:N14 K15:O15 I16 I17:J17 I18:W1048576 F1:H1048576 O1:W15 P16:W17">
+    <cfRule type="expression" dxfId="44" priority="24">
+      <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L15 L18:L1048576">
-    <cfRule type="expression" dxfId="45" priority="30">
+    <cfRule type="expression" dxfId="43" priority="30">
       <formula>AND(SUM(#REF!)&lt;&gt;0,L1="",ROW(L1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="44" priority="11">
+    <cfRule type="expression" dxfId="42" priority="11">
       <formula>AND(ISNUMBER(T1),ROUND(SUM(T1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:V1048576">
-    <cfRule type="expression" dxfId="43" priority="4">
+    <cfRule type="expression" dxfId="41" priority="4">
       <formula>V1="ENTER INITIATION RATE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="expression" dxfId="42" priority="3">
+    <cfRule type="expression" dxfId="40" priority="3">
       <formula>AND(ISNUMBER(V1),V1&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="5">
+    <cfRule type="expression" dxfId="39" priority="5">
       <formula>AND(ISNUMBER(V1),ROUND(SUM(V1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="expression" dxfId="40" priority="6">
+    <cfRule type="expression" dxfId="38" priority="6">
       <formula>AND(ISNUMBER(X1),X1&lt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(ISNUMBER(G7),ROUND(SUM(G7),2)&lt;100%)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(ISNUMBER(G7),G7&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -7094,40 +7095,40 @@
         <v>203</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I3" s="204" t="s">
+        <v>624</v>
+      </c>
+      <c r="J3" s="204" t="s">
         <v>625</v>
       </c>
-      <c r="J3" s="204" t="s">
+      <c r="K3" s="204" t="s">
         <v>626</v>
       </c>
-      <c r="K3" s="204" t="s">
+      <c r="L3" s="138" t="s">
         <v>627</v>
       </c>
-      <c r="L3" s="138" t="s">
+      <c r="M3" s="204" t="s">
         <v>628</v>
       </c>
-      <c r="M3" s="204" t="s">
+      <c r="N3" s="230" t="s">
         <v>629</v>
       </c>
-      <c r="N3" s="230" t="s">
-        <v>630</v>
-      </c>
       <c r="O3" s="230" t="s">
+        <v>498</v>
+      </c>
+      <c r="P3" s="230" t="s">
         <v>499</v>
       </c>
-      <c r="P3" s="230" t="s">
+      <c r="Q3" s="230" t="s">
         <v>500</v>
       </c>
-      <c r="Q3" s="230" t="s">
+      <c r="R3" s="230" t="s">
         <v>501</v>
-      </c>
-      <c r="R3" s="230" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -7362,7 +7363,7 @@
       <c r="D8" s="5"/>
       <c r="F8" s="77"/>
       <c r="G8" s="261" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H8" s="254" t="s">
         <v>333</v>
@@ -7392,7 +7393,7 @@
       <c r="D9" s="5"/>
       <c r="F9" s="77"/>
       <c r="G9" s="261" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H9" s="254" t="s">
         <v>334</v>
@@ -7646,27 +7647,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:H1048576 J1:R1048576">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576 O1:O1048576">
-    <cfRule type="expression" dxfId="38" priority="3854">
+    <cfRule type="expression" dxfId="36" priority="3854">
       <formula>AND($B1&lt;&gt;"",ROW(J1)&gt;14,NOT(AND($D1="Female",$F1="Y",OR($C1="10-14",$C1="15-17"))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:M1048576">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(ISNUMBER(J1),OR(ROUND(SUM(J1),2)&lt;0,ROUND(SUM(J1),2)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 P1:P1048576">
-    <cfRule type="expression" dxfId="36" priority="17">
+    <cfRule type="expression" dxfId="34" priority="17">
       <formula>AND($E1&lt;&gt;"",ROW(K1)&gt;14,NOT(OR($C1="05-09",$C1="10-14")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="35" priority="24">
+    <cfRule type="expression" dxfId="33" priority="24">
       <formula>AND(ISNUMBER($M1),ROUND(SUM($M1),2)&lt;20%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7729,10 +7730,10 @@
     </row>
     <row r="3" spans="1:8" ht="117" customHeight="1">
       <c r="C3" s="63" t="s">
+        <v>631</v>
+      </c>
+      <c r="D3" s="61" t="s">
         <v>632</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>633</v>
       </c>
       <c r="E3" s="204" t="s">
         <v>387</v>
@@ -7741,10 +7742,10 @@
         <v>388</v>
       </c>
       <c r="G3" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>505</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7971,7 +7972,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:D1048576 G1:H1048576">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(ISNUMBER(C1),C1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8036,10 +8037,10 @@
       <c r="U1" s="161"/>
     </row>
     <row r="2" spans="1:21" s="21" customFormat="1" ht="18">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="404" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="399"/>
+      <c r="B2" s="401"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -8065,58 +8066,58 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="400"/>
-      <c r="B3" s="401"/>
+      <c r="A3" s="402"/>
+      <c r="B3" s="403"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="338" t="s">
+        <v>639</v>
+      </c>
+      <c r="G3" s="338" t="s">
         <v>640</v>
       </c>
-      <c r="G3" s="338" t="s">
+      <c r="H3" s="339" t="s">
+        <v>633</v>
+      </c>
+      <c r="I3" s="220" t="s">
+        <v>634</v>
+      </c>
+      <c r="J3" s="61" t="s">
         <v>641</v>
       </c>
-      <c r="H3" s="339" t="s">
-        <v>634</v>
-      </c>
-      <c r="I3" s="220" t="s">
+      <c r="K3" s="220" t="s">
         <v>635</v>
       </c>
-      <c r="J3" s="61" t="s">
-        <v>642</v>
-      </c>
-      <c r="K3" s="220" t="s">
+      <c r="L3" s="61" t="s">
+        <v>648</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>649</v>
+      </c>
+      <c r="N3" s="61" t="s">
+        <v>650</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>651</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q3" s="132" t="s">
+        <v>653</v>
+      </c>
+      <c r="R3" s="182" t="s">
+        <v>478</v>
+      </c>
+      <c r="S3" s="182" t="s">
         <v>636</v>
       </c>
-      <c r="L3" s="61" t="s">
-        <v>649</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>650</v>
-      </c>
-      <c r="N3" s="61" t="s">
-        <v>651</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>652</v>
-      </c>
-      <c r="P3" s="61" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q3" s="132" t="s">
-        <v>654</v>
-      </c>
-      <c r="R3" s="182" t="s">
-        <v>479</v>
-      </c>
-      <c r="S3" s="182" t="s">
+      <c r="T3" s="230" t="s">
         <v>637</v>
       </c>
-      <c r="T3" s="230" t="s">
+      <c r="U3" s="230" t="s">
         <v>638</v>
-      </c>
-      <c r="U3" s="230" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -8572,16 +8573,16 @@
         <v>224</v>
       </c>
       <c r="H14" s="175" t="s">
+        <v>473</v>
+      </c>
+      <c r="I14" s="174" t="s">
         <v>474</v>
       </c>
-      <c r="I14" s="174" t="s">
+      <c r="J14" s="197" t="s">
+        <v>471</v>
+      </c>
+      <c r="K14" s="174" t="s">
         <v>475</v>
-      </c>
-      <c r="J14" s="197" t="s">
-        <v>472</v>
-      </c>
-      <c r="K14" s="174" t="s">
-        <v>476</v>
       </c>
       <c r="L14" s="174" t="s">
         <v>198</v>
@@ -8657,27 +8658,27 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:Q1048576 S1:U1048576">
-    <cfRule type="expression" dxfId="33" priority="23">
+    <cfRule type="expression" dxfId="31" priority="23">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="32" priority="24">
+    <cfRule type="expression" dxfId="30" priority="24">
       <formula>AND(ISNUMBER(Q1),Q1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="31" priority="3881">
+    <cfRule type="expression" dxfId="29" priority="3881">
       <formula>AND(ROUND(SUM($S1),2)&lt;60%,SUM($T1)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="28" priority="35">
       <formula>AND(ISNUMBER(T1),SUM($T1)&gt;SUM($K1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>AND(ISNUMBER(T1),SUM($U1)&gt;SUM($T1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8818,10 +8819,10 @@
       <c r="BG1" s="161"/>
     </row>
     <row r="2" spans="1:59" s="21" customFormat="1" ht="18">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="404" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="399"/>
+      <c r="B2" s="401"/>
       <c r="C2" s="51" t="s">
         <v>340</v>
       </c>
@@ -8913,16 +8914,16 @@
       <c r="BG2" s="29"/>
     </row>
     <row r="3" spans="1:59" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="400"/>
-      <c r="B3" s="401"/>
+      <c r="A3" s="402"/>
+      <c r="B3" s="403"/>
       <c r="C3" s="114" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="118" t="s">
         <v>508</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="E3" s="120" t="s">
         <v>509</v>
-      </c>
-      <c r="E3" s="120" t="s">
-        <v>510</v>
       </c>
       <c r="F3" s="151" t="s">
         <v>240</v>
@@ -8940,10 +8941,10 @@
         <v>243</v>
       </c>
       <c r="K3" s="114" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L3" s="120" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M3" s="151" t="s">
         <v>240</v>
@@ -8961,10 +8962,10 @@
         <v>243</v>
       </c>
       <c r="R3" s="114" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S3" s="120" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="T3" s="151" t="s">
         <v>240</v>
@@ -8982,10 +8983,10 @@
         <v>243</v>
       </c>
       <c r="Y3" s="114" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Z3" s="120" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AA3" s="151" t="s">
         <v>240</v>
@@ -9003,10 +9004,10 @@
         <v>243</v>
       </c>
       <c r="AF3" s="114" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AG3" s="120" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AH3" s="151" t="s">
         <v>240</v>
@@ -9024,10 +9025,10 @@
         <v>243</v>
       </c>
       <c r="AM3" s="114" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AN3" s="120" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AO3" s="151" t="s">
         <v>240</v>
@@ -9045,10 +9046,10 @@
         <v>243</v>
       </c>
       <c r="AT3" s="114" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AU3" s="120" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AV3" s="151" t="s">
         <v>240</v>
@@ -9066,10 +9067,10 @@
         <v>243</v>
       </c>
       <c r="BA3" s="114" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="BB3" s="120" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="BC3" s="151" t="s">
         <v>240</v>
@@ -10545,137 +10546,137 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:D1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="28" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>AND(ROW($F1)&gt;14,SUM($F1)&gt;$C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1048576 H1:J1048576">
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="25" priority="8">
       <formula>(($C1-$F1)+($E1-$G1))&lt;SUM($H1:$J1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 G1:G1048576">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>AND(ROW($G1)&gt;14,SUM($G1)&gt;$E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 M1:M1048576">
-    <cfRule type="expression" dxfId="25" priority="10">
+    <cfRule type="expression" dxfId="23" priority="10">
       <formula>AND(ROW($M1)&gt;14,SUM($M1)&gt;$K1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L1048576 O1:Q1048576">
-    <cfRule type="expression" dxfId="24" priority="12">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>(($K1-$M1)+($L1-$N1))&lt;SUM($O1:$Q1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576 N1:N1048576">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>AND(ROW($N1)&gt;14,SUM($N1)&gt;$L1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576 T1:T1048576">
-    <cfRule type="expression" dxfId="22" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>AND(ROW($T1)&gt;14,SUM($T1)&gt;$R1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1048576 V1:X1048576">
-    <cfRule type="expression" dxfId="21" priority="16">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>(($R1-$T1)+($S1-$U1))&lt;SUM($V1:$X1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>AND(ROW($U1)&gt;14,SUM($U1)&gt;$S1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576 AA1:AA1048576">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>AND(ROW($AA1)&gt;14,SUM($AA1)&gt;$Y1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Z1048576 AC1:AE1048576">
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>(($Y1-$AA1)+($Z1-$AB1))&lt;SUM($AC1:$AE1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1048576 AB1:AB1048576">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>AND(ROW($AB1)&gt;14,SUM($AB1)&gt;$Z1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AF1048576 AH1:AH1048576">
-    <cfRule type="expression" dxfId="16" priority="21">
+    <cfRule type="expression" dxfId="14" priority="21">
       <formula>AND(ROW($AH1)&gt;14,SUM($AH1)&gt;$AF1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AG1048576 AJ1:AL1048576">
-    <cfRule type="expression" dxfId="15" priority="24">
+    <cfRule type="expression" dxfId="13" priority="24">
       <formula>(($AF1-$AH1)+($AG1-$AI1))&lt;SUM($AJ1:$AL1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AI1:AI1048576">
-    <cfRule type="expression" dxfId="14" priority="22">
+    <cfRule type="expression" dxfId="12" priority="22">
       <formula>AND(ROW($AI1)&gt;14,SUM($AI1)&gt;$AG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM1048576 AO1:AO1048576">
-    <cfRule type="expression" dxfId="13" priority="25">
+    <cfRule type="expression" dxfId="11" priority="25">
       <formula>AND(ROW($AO1)&gt;14,SUM($AO1)&gt;$AM1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AN1048576 AQ1:AS1048576">
-    <cfRule type="expression" dxfId="12" priority="28">
+    <cfRule type="expression" dxfId="10" priority="28">
       <formula>(($AM1-$AO1)+($AN1-$AP1))&lt;SUM($AQ1:$AS1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AN1048576 AP1:AP1048576">
-    <cfRule type="expression" dxfId="11" priority="26">
+    <cfRule type="expression" dxfId="9" priority="26">
       <formula>AND(ROW($AP1)&gt;14,SUM($AP1)&gt;$AN1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AT1048576 AV1:AV1048576">
-    <cfRule type="expression" dxfId="10" priority="29">
+    <cfRule type="expression" dxfId="8" priority="29">
       <formula>AND(ROW($AV1)&gt;14,SUM($AV1)&gt;$AT1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU1048576 AX1:AZ1048576">
-    <cfRule type="expression" dxfId="9" priority="32">
+    <cfRule type="expression" dxfId="7" priority="32">
       <formula>(($AT1-$AV1)+($AU1-$AW1))&lt;SUM($AX1:$AZ1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU1048576 AW1:AW1048576">
-    <cfRule type="expression" dxfId="8" priority="30">
+    <cfRule type="expression" dxfId="6" priority="30">
       <formula>AND(ROW($AW1)&gt;14,SUM($AW1)&gt;$AU1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BA1048576">
-    <cfRule type="expression" dxfId="7" priority="45">
+    <cfRule type="expression" dxfId="5" priority="45">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BB1048576">
-    <cfRule type="expression" dxfId="6" priority="1136">
+    <cfRule type="expression" dxfId="4" priority="1136">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB1:BB1048576">
-    <cfRule type="expression" dxfId="5" priority="1135">
+    <cfRule type="expression" dxfId="3" priority="1135">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC1:BC1048576">
-    <cfRule type="expression" dxfId="4" priority="33">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD1:BD1048576">
-    <cfRule type="expression" dxfId="3" priority="34">
+    <cfRule type="expression" dxfId="1" priority="34">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1:BG1048576">
-    <cfRule type="expression" dxfId="2" priority="36">
+    <cfRule type="expression" dxfId="0" priority="36">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10823,7 +10824,7 @@
         <v>125</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>31</v>
@@ -10888,7 +10889,7 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="397" t="s">
+      <c r="B6" s="399" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="5"/>
@@ -10901,7 +10902,7 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="397"/>
+      <c r="B7" s="399"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -10947,7 +10948,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="397" t="s">
+      <c r="B11" s="399" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="5"/>
@@ -10960,7 +10961,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="397"/>
+      <c r="B12" s="399"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -11006,7 +11007,7 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="397" t="s">
+      <c r="B16" s="399" t="s">
         <v>118</v>
       </c>
       <c r="D16" s="5"/>
@@ -11019,7 +11020,7 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="397"/>
+      <c r="B17" s="399"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -11041,7 +11042,7 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="397" t="s">
+      <c r="B19" s="399" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="5"/>
@@ -11054,7 +11055,7 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="397"/>
+      <c r="B20" s="399"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -11122,8 +11123,8 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="397" t="s">
-        <v>468</v>
+      <c r="B26" s="399" t="s">
+        <v>467</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -11135,7 +11136,7 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="397"/>
+      <c r="B27" s="399"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -24710,13 +24711,13 @@
     <row r="3" spans="1:4" ht="117" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="135" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" s="186" t="s">
+        <v>521</v>
+      </c>
+      <c r="D3" s="68" t="s">
         <v>480</v>
-      </c>
-      <c r="C3" s="186" t="s">
-        <v>522</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -24860,10 +24861,10 @@
   <dimension ref="A1:BI3876"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="AJ15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="14" topLeftCell="AW15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AS15" sqref="AS15"/>
+      <selection pane="bottomRight" activeCell="BI14" sqref="BI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -24925,17 +24926,17 @@
       <c r="D1" s="4"/>
       <c r="E1" s="267"/>
       <c r="F1" s="192" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G1" s="192" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1" s="160"/>
       <c r="I1" s="161"/>
       <c r="J1" s="162"/>
       <c r="K1" s="161"/>
       <c r="L1" s="192" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M1" s="160"/>
       <c r="N1" s="160"/>
@@ -24944,7 +24945,7 @@
       <c r="Q1" s="161"/>
       <c r="R1" s="161"/>
       <c r="S1" s="192" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="T1" s="159"/>
       <c r="U1" s="161"/>
@@ -25002,10 +25003,10 @@
       <c r="BI1" s="161"/>
     </row>
     <row r="2" spans="1:61" ht="18">
-      <c r="A2" s="398" t="s">
-        <v>464</v>
-      </c>
-      <c r="B2" s="399"/>
+      <c r="A2" s="400" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="401"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="13"/>
@@ -25023,10 +25024,10 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
       <c r="S2" s="51" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="T2" s="53" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="U2" s="46"/>
       <c r="V2" s="46"/>
@@ -25042,7 +25043,7 @@
       <c r="AF2" s="46"/>
       <c r="AG2" s="109"/>
       <c r="AH2" s="80" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AI2" s="46"/>
       <c r="AJ2" s="53"/>
@@ -25089,13 +25090,13 @@
       </c>
     </row>
     <row r="3" spans="1:61" ht="133.94999999999999" customHeight="1" thickBot="1">
-      <c r="A3" s="400"/>
-      <c r="B3" s="401"/>
+      <c r="A3" s="402"/>
+      <c r="B3" s="403"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="264"/>
       <c r="F3" s="272" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G3" s="93" t="s">
         <v>398</v>
@@ -25122,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="286" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P3" s="65" t="s">
         <v>24</v>
@@ -25134,133 +25135,133 @@
         <v>405</v>
       </c>
       <c r="S3" s="273" t="s">
+        <v>481</v>
+      </c>
+      <c r="T3" s="180" t="s">
+        <v>543</v>
+      </c>
+      <c r="U3" s="181" t="s">
         <v>482</v>
       </c>
-      <c r="T3" s="180" t="s">
+      <c r="V3" s="181" t="s">
+        <v>483</v>
+      </c>
+      <c r="W3" s="294" t="s">
         <v>544</v>
       </c>
-      <c r="U3" s="181" t="s">
-        <v>483</v>
-      </c>
-      <c r="V3" s="181" t="s">
+      <c r="X3" s="181" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y3" s="182" t="s">
+        <v>546</v>
+      </c>
+      <c r="Z3" s="181" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA3" s="300" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB3" s="182" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC3" s="325" t="s">
+        <v>550</v>
+      </c>
+      <c r="AD3" s="325" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE3" s="300" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF3" s="181" t="s">
+        <v>553</v>
+      </c>
+      <c r="AG3" s="300" t="s">
+        <v>554</v>
+      </c>
+      <c r="AH3" s="294" t="s">
+        <v>523</v>
+      </c>
+      <c r="AI3" s="181" t="s">
         <v>484</v>
       </c>
-      <c r="W3" s="294" t="s">
-        <v>545</v>
-      </c>
-      <c r="X3" s="181" t="s">
-        <v>546</v>
-      </c>
-      <c r="Y3" s="182" t="s">
-        <v>547</v>
-      </c>
-      <c r="Z3" s="181" t="s">
-        <v>548</v>
-      </c>
-      <c r="AA3" s="300" t="s">
-        <v>549</v>
-      </c>
-      <c r="AB3" s="182" t="s">
-        <v>550</v>
-      </c>
-      <c r="AC3" s="325" t="s">
-        <v>551</v>
-      </c>
-      <c r="AD3" s="325" t="s">
-        <v>552</v>
-      </c>
-      <c r="AE3" s="300" t="s">
-        <v>553</v>
-      </c>
-      <c r="AF3" s="181" t="s">
-        <v>554</v>
-      </c>
-      <c r="AG3" s="300" t="s">
-        <v>555</v>
-      </c>
-      <c r="AH3" s="294" t="s">
+      <c r="AJ3" s="220" t="s">
         <v>524</v>
       </c>
-      <c r="AI3" s="181" t="s">
+      <c r="AK3" s="220" t="s">
+        <v>525</v>
+      </c>
+      <c r="AL3" s="220" t="s">
         <v>485</v>
       </c>
-      <c r="AJ3" s="220" t="s">
-        <v>525</v>
-      </c>
-      <c r="AK3" s="220" t="s">
+      <c r="AM3" s="221" t="s">
         <v>526</v>
       </c>
-      <c r="AL3" s="220" t="s">
+      <c r="AN3" s="66" t="s">
+        <v>527</v>
+      </c>
+      <c r="AO3" s="61" t="s">
+        <v>528</v>
+      </c>
+      <c r="AP3" s="180" t="s">
+        <v>529</v>
+      </c>
+      <c r="AQ3" s="276" t="s">
         <v>486</v>
       </c>
-      <c r="AM3" s="221" t="s">
-        <v>527</v>
-      </c>
-      <c r="AN3" s="66" t="s">
-        <v>528</v>
-      </c>
-      <c r="AO3" s="61" t="s">
-        <v>529</v>
-      </c>
-      <c r="AP3" s="180" t="s">
+      <c r="AR3" s="230" t="s">
         <v>530</v>
       </c>
-      <c r="AQ3" s="276" t="s">
+      <c r="AS3" s="306" t="s">
+        <v>531</v>
+      </c>
+      <c r="AT3" s="221" t="s">
+        <v>532</v>
+      </c>
+      <c r="AU3" s="300" t="s">
+        <v>533</v>
+      </c>
+      <c r="AV3" s="66" t="s">
+        <v>534</v>
+      </c>
+      <c r="AW3" s="66" t="s">
+        <v>535</v>
+      </c>
+      <c r="AX3" s="300" t="s">
+        <v>536</v>
+      </c>
+      <c r="AY3" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="AZ3" s="279" t="s">
         <v>487</v>
       </c>
-      <c r="AR3" s="230" t="s">
-        <v>531</v>
-      </c>
-      <c r="AS3" s="306" t="s">
-        <v>532</v>
-      </c>
-      <c r="AT3" s="221" t="s">
-        <v>533</v>
-      </c>
-      <c r="AU3" s="300" t="s">
-        <v>534</v>
-      </c>
-      <c r="AV3" s="66" t="s">
-        <v>535</v>
-      </c>
-      <c r="AW3" s="66" t="s">
-        <v>536</v>
-      </c>
-      <c r="AX3" s="300" t="s">
-        <v>537</v>
-      </c>
-      <c r="AY3" s="30" t="s">
+      <c r="BA3" s="289" t="s">
+        <v>488</v>
+      </c>
+      <c r="BB3" s="158" t="s">
+        <v>489</v>
+      </c>
+      <c r="BC3" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="BD3" s="333" t="s">
         <v>538</v>
       </c>
-      <c r="AZ3" s="279" t="s">
-        <v>488</v>
-      </c>
-      <c r="BA3" s="289" t="s">
-        <v>489</v>
-      </c>
-      <c r="BB3" s="158" t="s">
+      <c r="BE3" s="221" t="s">
         <v>490</v>
       </c>
-      <c r="BC3" s="30" t="s">
+      <c r="BF3" s="30" t="s">
         <v>520</v>
       </c>
-      <c r="BD3" s="333" t="s">
+      <c r="BG3" s="230" t="s">
         <v>539</v>
       </c>
-      <c r="BE3" s="221" t="s">
+      <c r="BH3" s="279" t="s">
         <v>491</v>
       </c>
-      <c r="BF3" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="BG3" s="230" t="s">
-        <v>540</v>
-      </c>
-      <c r="BH3" s="279" t="s">
-        <v>492</v>
-      </c>
       <c r="BI3" s="30" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:61">
@@ -26053,7 +26054,7 @@
         <v>363</v>
       </c>
       <c r="J8" s="245" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K8" s="245" t="s">
         <v>375</v>
@@ -26094,14 +26095,14 @@
       <c r="AB8" s="147"/>
       <c r="AC8" s="328"/>
       <c r="AD8" s="348" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF8" s="245" t="s">
         <v>44</v>
       </c>
       <c r="AH8" s="297"/>
       <c r="AI8" s="245" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AL8" s="245" t="s">
         <v>124</v>
@@ -26117,10 +26118,10 @@
         <v>69</v>
       </c>
       <c r="BC8" s="241" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="BF8" s="241" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BG8" s="241" t="s">
         <v>44</v>
@@ -26137,7 +26138,7 @@
         <v>112</v>
       </c>
       <c r="J9" s="245" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K9" s="245" t="s">
         <v>376</v>
@@ -26178,10 +26179,10 @@
         <v>70</v>
       </c>
       <c r="BC9" s="241" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="BF9" s="241" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="BG9" s="241"/>
     </row>
@@ -26270,172 +26271,172 @@
       <c r="B11" s="5"/>
       <c r="D11" s="36"/>
       <c r="F11" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="G11" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="G11" s="47" t="s">
-        <v>441</v>
-      </c>
       <c r="H11" s="139" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I11" s="139" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L11" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M11" s="139" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N11" s="139" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O11" s="54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q11" s="139" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R11" s="139" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="S11" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="T11" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V11" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="W11" s="73" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="X11" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Y11" s="86" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Z11" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AA11" s="111" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AB11" s="86" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AC11" s="327" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AD11" s="330" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AE11" s="127" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF11" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG11" s="127" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AH11" s="84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AI11" s="37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AJ11" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AK11" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AL11" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AM11" s="72" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AN11" s="36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AO11" s="36" t="s">
         <v>18</v>
       </c>
       <c r="AP11" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AQ11" s="56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AR11" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AS11" s="111" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AT11" s="72" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU11" s="111" t="s">
+        <v>439</v>
+      </c>
+      <c r="AV11" s="36" t="s">
         <v>440</v>
       </c>
-      <c r="AU11" s="111" t="s">
+      <c r="AW11" s="36" t="s">
         <v>440</v>
       </c>
-      <c r="AV11" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="AW11" s="36" t="s">
-        <v>441</v>
-      </c>
       <c r="AX11" s="127" t="s">
+        <v>439</v>
+      </c>
+      <c r="AY11" s="90" t="s">
         <v>440</v>
       </c>
-      <c r="AY11" s="90" t="s">
-        <v>441</v>
-      </c>
       <c r="AZ11" s="134" t="s">
+        <v>439</v>
+      </c>
+      <c r="BA11" s="291" t="s">
         <v>440</v>
       </c>
-      <c r="BA11" s="291" t="s">
-        <v>441</v>
-      </c>
       <c r="BB11" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="BC11" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="BC11" s="33" t="s">
-        <v>441</v>
-      </c>
       <c r="BD11" s="335" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BE11" s="72" t="s">
+        <v>439</v>
+      </c>
+      <c r="BF11" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="BF11" s="33" t="s">
-        <v>441</v>
-      </c>
       <c r="BG11" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BH11" s="134" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BI11" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:61">
@@ -26688,10 +26689,10 @@
         <v>134</v>
       </c>
       <c r="U14" s="174" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V14" s="174" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="W14" s="196" t="s">
         <v>137</v>
@@ -26712,7 +26713,7 @@
         <v>206</v>
       </c>
       <c r="AC14" s="329" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AD14" s="329" t="s">
         <v>372</v>
@@ -26721,22 +26722,22 @@
         <v>413</v>
       </c>
       <c r="AF14" s="174" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG14" s="176" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AH14" s="196" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AI14" s="174" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AJ14" s="171" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AK14" s="171" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AL14" s="171" t="s">
         <v>414</v>
@@ -26790,19 +26791,19 @@
         <v>425</v>
       </c>
       <c r="BC14" s="173" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="BD14" s="336" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BE14" s="310" t="s">
         <v>379</v>
       </c>
       <c r="BF14" s="173" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="BG14" s="173" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BH14" s="285" t="s">
         <v>209</v>
@@ -61880,7 +61881,7 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="14" topLeftCell="S15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="14" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
@@ -62053,106 +62054,106 @@
       <c r="C3"/>
       <c r="D3" s="26"/>
       <c r="E3" s="238" t="s">
+        <v>592</v>
+      </c>
+      <c r="F3" s="230" t="s">
         <v>593</v>
       </c>
-      <c r="F3" s="230" t="s">
+      <c r="G3" s="243" t="s">
+        <v>582</v>
+      </c>
+      <c r="H3" s="100" t="s">
         <v>594</v>
       </c>
-      <c r="G3" s="243" t="s">
-        <v>583</v>
-      </c>
-      <c r="H3" s="100" t="s">
+      <c r="I3" s="230" t="s">
+        <v>558</v>
+      </c>
+      <c r="J3" s="93" t="s">
         <v>595</v>
       </c>
-      <c r="I3" s="230" t="s">
+      <c r="K3" s="233" t="s">
+        <v>496</v>
+      </c>
+      <c r="L3" s="93" t="s">
+        <v>642</v>
+      </c>
+      <c r="M3" s="64" t="s">
+        <v>596</v>
+      </c>
+      <c r="N3" s="181" t="s">
+        <v>597</v>
+      </c>
+      <c r="O3" s="230" t="s">
         <v>559</v>
       </c>
-      <c r="J3" s="93" t="s">
-        <v>596</v>
-      </c>
-      <c r="K3" s="233" t="s">
-        <v>497</v>
-      </c>
-      <c r="L3" s="93" t="s">
-        <v>643</v>
-      </c>
-      <c r="M3" s="64" t="s">
-        <v>597</v>
-      </c>
-      <c r="N3" s="181" t="s">
+      <c r="P3" s="220" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q3" s="346" t="s">
+        <v>561</v>
+      </c>
+      <c r="R3" s="93" t="s">
         <v>598</v>
       </c>
-      <c r="O3" s="230" t="s">
-        <v>560</v>
-      </c>
-      <c r="P3" s="220" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q3" s="346" t="s">
+      <c r="S3" s="204" t="s">
+        <v>532</v>
+      </c>
+      <c r="T3" s="204" t="s">
+        <v>533</v>
+      </c>
+      <c r="U3" s="64" t="s">
         <v>562</v>
       </c>
-      <c r="R3" s="93" t="s">
+      <c r="V3" s="64" t="s">
+        <v>535</v>
+      </c>
+      <c r="W3" s="206" t="s">
+        <v>536</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y3" s="314" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z3" s="312" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA3" s="315" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB3" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="AC3" s="314" t="s">
+        <v>490</v>
+      </c>
+      <c r="AD3" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE3" s="63" t="s">
         <v>599</v>
       </c>
-      <c r="S3" s="204" t="s">
-        <v>533</v>
-      </c>
-      <c r="T3" s="204" t="s">
-        <v>534</v>
-      </c>
-      <c r="U3" s="64" t="s">
-        <v>563</v>
-      </c>
-      <c r="V3" s="64" t="s">
-        <v>536</v>
-      </c>
-      <c r="W3" s="206" t="s">
-        <v>537</v>
-      </c>
-      <c r="X3" s="30" t="s">
-        <v>564</v>
-      </c>
-      <c r="Y3" s="314" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z3" s="312" t="s">
-        <v>489</v>
-      </c>
-      <c r="AA3" s="315" t="s">
-        <v>490</v>
-      </c>
-      <c r="AB3" s="30" t="s">
-        <v>565</v>
-      </c>
-      <c r="AC3" s="314" t="s">
+      <c r="AF3" s="61" t="s">
+        <v>600</v>
+      </c>
+      <c r="AG3" s="204" t="s">
         <v>491</v>
       </c>
-      <c r="AD3" s="30" t="s">
+      <c r="AH3" s="204" t="s">
         <v>566</v>
       </c>
-      <c r="AE3" s="63" t="s">
-        <v>600</v>
-      </c>
-      <c r="AF3" s="61" t="s">
+      <c r="AI3" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="AJ3" s="230" t="s">
+        <v>568</v>
+      </c>
+      <c r="AK3" s="63" t="s">
         <v>601</v>
       </c>
-      <c r="AG3" s="204" t="s">
-        <v>492</v>
-      </c>
-      <c r="AH3" s="204" t="s">
-        <v>567</v>
-      </c>
-      <c r="AI3" s="30" t="s">
-        <v>568</v>
-      </c>
-      <c r="AJ3" s="230" t="s">
+      <c r="AL3" s="230" t="s">
         <v>569</v>
-      </c>
-      <c r="AK3" s="63" t="s">
-        <v>602</v>
-      </c>
-      <c r="AL3" s="230" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:38" s="25" customFormat="1">
@@ -63057,13 +63058,13 @@
         <v>31</v>
       </c>
       <c r="E14" s="215" t="s">
+        <v>456</v>
+      </c>
+      <c r="F14" s="197" t="s">
         <v>457</v>
       </c>
-      <c r="F14" s="197" t="s">
+      <c r="G14" s="216" t="s">
         <v>458</v>
-      </c>
-      <c r="G14" s="216" t="s">
-        <v>459</v>
       </c>
       <c r="H14" s="198" t="s">
         <v>176</v>
@@ -63084,16 +63085,16 @@
         <v>257</v>
       </c>
       <c r="N14" s="174" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O14" s="197" t="s">
         <v>172</v>
       </c>
       <c r="P14" s="174" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q14" s="196" t="s">
         <v>469</v>
-      </c>
-      <c r="Q14" s="196" t="s">
-        <v>470</v>
       </c>
       <c r="R14" s="198" t="s">
         <v>170</v>
@@ -63108,10 +63109,10 @@
         <v>258</v>
       </c>
       <c r="V14" s="174" t="s">
+        <v>433</v>
+      </c>
+      <c r="W14" s="176" t="s">
         <v>434</v>
-      </c>
-      <c r="W14" s="176" t="s">
-        <v>435</v>
       </c>
       <c r="X14" s="197" t="s">
         <v>171</v>
@@ -63123,7 +63124,7 @@
         <v>424</v>
       </c>
       <c r="AA14" s="175" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AB14" s="197" t="s">
         <v>173</v>
@@ -63339,7 +63340,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="192" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G1" s="163"/>
       <c r="H1" s="191"/>
@@ -63360,22 +63361,22 @@
       <c r="U1" s="164"/>
       <c r="V1" s="193"/>
       <c r="W1" s="195" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="X1" s="161"/>
       <c r="Y1" s="161"/>
       <c r="Z1" s="161"/>
       <c r="AA1" s="192" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AB1" s="159"/>
       <c r="AC1" s="167"/>
     </row>
     <row r="2" spans="1:29" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="404" t="s">
         <v>403</v>
       </c>
-      <c r="B2" s="399"/>
+      <c r="B2" s="401"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="51"/>
@@ -63422,81 +63423,81 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="400"/>
-      <c r="B3" s="401"/>
+      <c r="A3" s="402"/>
+      <c r="B3" s="403"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
+        <v>580</v>
+      </c>
+      <c r="G3" s="115" t="s">
         <v>581</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="H3" s="116" t="s">
         <v>582</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="I3" s="115" t="s">
         <v>583</v>
       </c>
-      <c r="I3" s="115" t="s">
+      <c r="J3" s="117" t="s">
         <v>584</v>
       </c>
-      <c r="J3" s="117" t="s">
+      <c r="K3" s="387" t="s">
         <v>585</v>
       </c>
-      <c r="K3" s="387" t="s">
+      <c r="L3" s="387" t="s">
         <v>586</v>
       </c>
-      <c r="L3" s="387" t="s">
+      <c r="M3" s="387" t="s">
         <v>587</v>
       </c>
-      <c r="M3" s="387" t="s">
+      <c r="N3" s="387" t="s">
         <v>588</v>
       </c>
-      <c r="N3" s="387" t="s">
+      <c r="O3" s="387" t="s">
         <v>589</v>
       </c>
-      <c r="O3" s="387" t="s">
+      <c r="P3" s="387" t="s">
         <v>590</v>
       </c>
-      <c r="P3" s="387" t="s">
+      <c r="Q3" s="387" t="s">
         <v>591</v>
       </c>
-      <c r="Q3" s="387" t="s">
-        <v>592</v>
-      </c>
       <c r="R3" s="364" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S3" s="365" t="s">
         <v>106</v>
       </c>
       <c r="T3" s="366" t="s">
+        <v>570</v>
+      </c>
+      <c r="U3" s="204" t="s">
         <v>571</v>
       </c>
-      <c r="U3" s="204" t="s">
+      <c r="V3" s="234" t="s">
         <v>572</v>
       </c>
-      <c r="V3" s="234" t="s">
+      <c r="W3" s="238" t="s">
         <v>573</v>
       </c>
-      <c r="W3" s="238" t="s">
+      <c r="X3" s="230" t="s">
         <v>574</v>
       </c>
-      <c r="X3" s="230" t="s">
+      <c r="Y3" s="230" t="s">
         <v>575</v>
       </c>
-      <c r="Y3" s="230" t="s">
+      <c r="Z3" s="230" t="s">
         <v>576</v>
       </c>
-      <c r="Z3" s="230" t="s">
+      <c r="AA3" s="238" t="s">
         <v>577</v>
       </c>
-      <c r="AA3" s="238" t="s">
+      <c r="AB3" s="230" t="s">
         <v>578</v>
       </c>
-      <c r="AB3" s="230" t="s">
+      <c r="AC3" s="230" t="s">
         <v>579</v>
-      </c>
-      <c r="AC3" s="230" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -64004,76 +64005,76 @@
     </row>
     <row r="11" spans="1:29">
       <c r="F11" s="47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K11" s="355" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L11" s="355" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M11" s="355" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N11" s="355" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O11" s="355" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P11" s="355" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q11" s="355" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R11" s="353" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="S11" s="354" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T11" s="349" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="V11" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="W11" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="X11" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Z11" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AA11" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AB11" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AC11" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -64202,7 +64203,7 @@
         <v>139</v>
       </c>
       <c r="L14" s="372" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M14" s="372" t="s">
         <v>140</v>
@@ -64238,7 +64239,7 @@
         <v>354</v>
       </c>
       <c r="X14" s="200" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Y14" s="200" t="s">
         <v>352</v>
@@ -64466,10 +64467,10 @@
       <c r="U1" s="161"/>
     </row>
     <row r="2" spans="1:21" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="404" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="399"/>
+      <c r="B2" s="401"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -64501,52 +64502,52 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="400"/>
-      <c r="B3" s="401"/>
+      <c r="A3" s="402"/>
+      <c r="B3" s="403"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
+        <v>606</v>
+      </c>
+      <c r="G3" s="115" t="s">
+        <v>581</v>
+      </c>
+      <c r="H3" s="117" t="s">
+        <v>582</v>
+      </c>
+      <c r="I3" s="115" t="s">
+        <v>583</v>
+      </c>
+      <c r="J3" s="117" t="s">
+        <v>584</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>643</v>
+      </c>
+      <c r="L3" s="61" t="s">
         <v>607</v>
       </c>
-      <c r="G3" s="115" t="s">
-        <v>582</v>
-      </c>
-      <c r="H3" s="117" t="s">
-        <v>583</v>
-      </c>
-      <c r="I3" s="115" t="s">
-        <v>584</v>
-      </c>
-      <c r="J3" s="117" t="s">
-        <v>585</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>644</v>
-      </c>
-      <c r="L3" s="61" t="s">
+      <c r="M3" s="230" t="s">
         <v>608</v>
       </c>
-      <c r="M3" s="230" t="s">
+      <c r="N3" s="230" t="s">
         <v>609</v>
       </c>
-      <c r="N3" s="230" t="s">
+      <c r="O3" s="132" t="s">
         <v>610</v>
       </c>
-      <c r="O3" s="132" t="s">
-        <v>611</v>
-      </c>
       <c r="P3" s="204" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q3" s="233" t="s">
         <v>603</v>
       </c>
-      <c r="Q3" s="233" t="s">
+      <c r="R3" s="233" t="s">
         <v>604</v>
       </c>
-      <c r="R3" s="233" t="s">
+      <c r="S3" s="221" t="s">
         <v>605</v>
-      </c>
-      <c r="S3" s="221" t="s">
-        <v>606</v>
       </c>
       <c r="T3" s="182" t="s">
         <v>428</v>
@@ -64892,52 +64893,52 @@
     </row>
     <row r="11" spans="1:21">
       <c r="F11" s="47" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q11" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="S11" s="143" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T11" s="86" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U11" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -65193,11 +65194,11 @@
   </sheetPr>
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65236,7 +65237,7 @@
       <c r="J1" s="161"/>
       <c r="K1" s="342"/>
       <c r="L1" s="194" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M1" s="161"/>
       <c r="N1" s="161"/>
@@ -65248,10 +65249,10 @@
       <c r="R1" s="161"/>
     </row>
     <row r="2" spans="1:18" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="404" t="s">
         <v>362</v>
       </c>
-      <c r="B2" s="399"/>
+      <c r="B2" s="401"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -65276,31 +65277,31 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="400"/>
-      <c r="B3" s="401"/>
+      <c r="A3" s="402"/>
+      <c r="B3" s="403"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="119" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G3" s="382" t="s">
+        <v>664</v>
+      </c>
+      <c r="H3" s="382" t="s">
         <v>665</v>
       </c>
-      <c r="H3" s="382" t="s">
-        <v>666</v>
-      </c>
       <c r="I3" s="379" t="s">
+        <v>659</v>
+      </c>
+      <c r="J3" s="118" t="s">
+        <v>656</v>
+      </c>
+      <c r="K3" s="375" t="s">
+        <v>657</v>
+      </c>
+      <c r="L3" s="205" t="s">
         <v>660</v>
-      </c>
-      <c r="J3" s="118" t="s">
-        <v>657</v>
-      </c>
-      <c r="K3" s="375" t="s">
-        <v>658</v>
-      </c>
-      <c r="L3" s="205" t="s">
-        <v>661</v>
       </c>
       <c r="M3" s="230" t="s">
         <v>26</v>
@@ -65309,16 +65310,16 @@
         <v>27</v>
       </c>
       <c r="O3" s="113" t="s">
+        <v>613</v>
+      </c>
+      <c r="P3" s="63" t="s">
         <v>614</v>
-      </c>
-      <c r="P3" s="63" t="s">
-        <v>615</v>
       </c>
       <c r="Q3" s="204" t="s">
         <v>107</v>
       </c>
       <c r="R3" s="230" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -65606,43 +65607,43 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="72" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G11" s="330" t="s">
+        <v>439</v>
+      </c>
+      <c r="H11" s="330" t="s">
+        <v>439</v>
+      </c>
+      <c r="I11" s="330" t="s">
+        <v>439</v>
+      </c>
+      <c r="J11" s="36" t="s">
         <v>440</v>
       </c>
-      <c r="H11" s="330" t="s">
+      <c r="K11" s="373" t="s">
         <v>440</v>
       </c>
-      <c r="I11" s="330" t="s">
+      <c r="L11" s="72" t="s">
         <v>440</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="K11" s="373" t="s">
-        <v>441</v>
-      </c>
-      <c r="L11" s="72" t="s">
-        <v>441</v>
-      </c>
       <c r="M11" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -65723,22 +65724,22 @@
         <v>416</v>
       </c>
       <c r="G14" s="385" t="s">
+        <v>666</v>
+      </c>
+      <c r="H14" s="385" t="s">
         <v>667</v>
       </c>
-      <c r="H14" s="385" t="s">
+      <c r="I14" s="385" t="s">
         <v>668</v>
       </c>
-      <c r="I14" s="385" t="s">
-        <v>669</v>
-      </c>
       <c r="J14" s="171" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="K14" s="329" t="s">
-        <v>211</v>
+        <v>690</v>
       </c>
       <c r="L14" s="203" t="s">
-        <v>432</v>
+        <v>689</v>
       </c>
       <c r="M14" s="197" t="s">
         <v>211</v>
@@ -65810,7 +65811,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="M16" s="33" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -65878,7 +65879,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65934,25 +65935,25 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G3" s="115" t="s">
+        <v>611</v>
+      </c>
+      <c r="H3" s="115" t="s">
+        <v>502</v>
+      </c>
+      <c r="I3" s="115" t="s">
+        <v>503</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>644</v>
+      </c>
+      <c r="K3" s="61" t="s">
         <v>612</v>
       </c>
-      <c r="H3" s="115" t="s">
-        <v>503</v>
-      </c>
-      <c r="I3" s="115" t="s">
-        <v>504</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>645</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>613</v>
-      </c>
       <c r="L3" s="230" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -66135,25 +66136,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="F11" s="47" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:12">

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339ECF99-27A6-44D0-8EB8-37DE450DE789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86099FED-BA5A-462B-B34B-D60F2DF44B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="10" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -1214,12 +1214,6 @@
     <t>CXCA_SCRN.T</t>
   </si>
   <si>
-    <t>TX_TB.D.New.Neg.Linkage</t>
-  </si>
-  <si>
-    <t>TX_TB.D.Already.Neg.Linkage</t>
-  </si>
-  <si>
     <t>TB_PREV.N.New.T_1</t>
   </si>
   <si>
@@ -1892,12 +1886,6 @@
   </si>
   <si>
     <t>TX_CURR_SUBNAT.T</t>
-  </si>
-  <si>
-    <t>TX_TB.D.New.Cov</t>
-  </si>
-  <si>
-    <t>TX_TB.D.Already.Cov</t>
   </si>
   <si>
     <t>Projected change in GEND_GBV - Physical/Emotional Violence services (%)</t>
@@ -2079,9 +2067,6 @@
   </si>
   <si>
     <t>MD74x7fNR4j.HytOnKf1KbS.EfmClxvOBtK.QaxSn3WwS7e</t>
-  </si>
-  <si>
-    <t>TX_TB.D.Already.Ineligible.T_1</t>
   </si>
   <si>
     <t>TB_PREV.N.Rt.T</t>
@@ -2855,6 +2840,21 @@
   </si>
   <si>
     <t>HTS_TST.Pos.Original</t>
+  </si>
+  <si>
+    <t>TX_TB.N.Already.Cov</t>
+  </si>
+  <si>
+    <t>TX_TB.N.New.Cov</t>
+  </si>
+  <si>
+    <t>TX_TB.N.Already.Neg.Linkage</t>
+  </si>
+  <si>
+    <t>TX_TB.N.Already.Ineligible.T_1</t>
+  </si>
+  <si>
+    <t>TX_TB.N.New.Neg.Linkage</t>
   </si>
 </sst>
 </file>
@@ -5595,17 +5595,17 @@
     </row>
     <row r="10" spans="2:2" ht="97.2">
       <c r="B10" s="6" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="82.2">
       <c r="B20" s="214" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5662,7 +5662,7 @@
     </row>
     <row r="2" spans="1:13" s="21" customFormat="1" ht="19.05" customHeight="1">
       <c r="A2" s="404" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B2" s="401"/>
       <c r="C2" s="2"/>
@@ -5676,7 +5676,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="117" customHeight="1" thickBot="1">
@@ -5686,28 +5686,28 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="63" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="H3" s="115" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="I3" s="115" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="J3" s="146" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="K3" s="204" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="L3" s="204" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5867,7 +5867,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="F8" s="246" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G8" s="245" t="s">
         <v>74</v>
@@ -5883,7 +5883,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="F9" s="246" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G9" s="245" t="s">
         <v>75</v>
@@ -5915,54 +5915,54 @@
     </row>
     <row r="11" spans="1:13">
       <c r="F11" s="52" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="F12" s="52" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M12" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -5982,25 +5982,25 @@
         <v>31</v>
       </c>
       <c r="F14" s="198" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G14" s="174" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H14" s="174" t="s">
         <v>146</v>
       </c>
       <c r="I14" s="174" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J14" s="175" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K14" s="175" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L14" s="175" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M14" s="197" t="s">
         <v>158</v>
@@ -6076,11 +6076,11 @@
   </sheetPr>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6114,7 +6114,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="195" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="G1" s="164"/>
       <c r="H1" s="389"/>
@@ -6153,10 +6153,10 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="N2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O2" s="34"/>
       <c r="P2" s="49"/>
@@ -6167,10 +6167,10 @@
       <c r="U2" s="109"/>
       <c r="V2" s="109"/>
       <c r="W2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="X2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -6182,67 +6182,67 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G3" s="204" t="s">
+        <v>672</v>
+      </c>
+      <c r="H3" s="375" t="s">
+        <v>668</v>
+      </c>
+      <c r="I3" s="375" t="s">
+        <v>675</v>
+      </c>
+      <c r="J3" s="375" t="s">
+        <v>676</v>
+      </c>
+      <c r="K3" s="204" t="s">
+        <v>673</v>
+      </c>
+      <c r="L3" s="204" t="s">
+        <v>674</v>
+      </c>
+      <c r="M3" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="H3" s="375" t="s">
-        <v>673</v>
-      </c>
-      <c r="I3" s="375" t="s">
+      <c r="N3" s="30" t="s">
+        <v>678</v>
+      </c>
+      <c r="O3" s="118" t="s">
+        <v>681</v>
+      </c>
+      <c r="P3" s="63" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q3" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="R3" s="391" t="s">
         <v>680</v>
       </c>
-      <c r="J3" s="375" t="s">
-        <v>681</v>
-      </c>
-      <c r="K3" s="204" t="s">
-        <v>678</v>
-      </c>
-      <c r="L3" s="204" t="s">
-        <v>679</v>
-      </c>
-      <c r="M3" s="30" t="s">
+      <c r="S3" s="392" t="s">
         <v>682</v>
       </c>
-      <c r="N3" s="30" t="s">
-        <v>683</v>
-      </c>
-      <c r="O3" s="118" t="s">
-        <v>686</v>
-      </c>
-      <c r="P3" s="63" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q3" s="64" t="s">
-        <v>684</v>
-      </c>
-      <c r="R3" s="391" t="s">
-        <v>685</v>
-      </c>
-      <c r="S3" s="392" t="s">
-        <v>687</v>
-      </c>
       <c r="T3" s="204" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="U3" s="206" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="V3" s="206" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="W3" s="30" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="X3" s="30" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y3" s="138" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="Z3" s="138" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -6309,7 +6309,7 @@
         <v>#REF!</v>
       </c>
       <c r="V4" s="110" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="W4" s="32">
         <v>0</v>
@@ -6640,61 +6640,61 @@
     </row>
     <row r="11" spans="1:26">
       <c r="F11" s="47" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I11" s="373" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J11" s="373" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="R11" s="36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="S11" s="54" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="U11" s="111" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="V11" s="111" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="W11" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="X11" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Z11" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -6776,64 +6776,64 @@
         <v>147</v>
       </c>
       <c r="G14" s="175" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H14" s="329" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="I14" s="329" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="J14" s="329" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="K14" s="175" t="s">
-        <v>386</v>
+        <v>686</v>
       </c>
       <c r="L14" s="175" t="s">
-        <v>385</v>
+        <v>687</v>
       </c>
       <c r="M14" s="197" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="N14" s="197" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="O14" s="171" t="s">
         <v>148</v>
       </c>
       <c r="P14" s="198" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="174" t="s">
+        <v>160</v>
+      </c>
+      <c r="R14" s="171" t="s">
+        <v>159</v>
+      </c>
+      <c r="S14" s="171" t="s">
+        <v>689</v>
+      </c>
+      <c r="T14" s="175" t="s">
+        <v>688</v>
+      </c>
+      <c r="U14" s="176" t="s">
+        <v>690</v>
+      </c>
+      <c r="V14" s="176" t="s">
+        <v>442</v>
+      </c>
+      <c r="W14" s="197" t="s">
         <v>162</v>
       </c>
-      <c r="R14" s="171" t="s">
+      <c r="X14" s="197" t="s">
         <v>161</v>
       </c>
-      <c r="S14" s="171" t="s">
-        <v>446</v>
-      </c>
-      <c r="T14" s="175" t="s">
-        <v>160</v>
-      </c>
-      <c r="U14" s="176" t="s">
-        <v>159</v>
-      </c>
-      <c r="V14" s="176" t="s">
-        <v>447</v>
-      </c>
-      <c r="W14" s="197" t="s">
-        <v>164</v>
-      </c>
-      <c r="X14" s="197" t="s">
-        <v>163</v>
-      </c>
       <c r="Y14" s="175" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Z14" s="175" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -6905,7 +6905,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="I16" s="405" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="J16" s="405"/>
       <c r="K16"/>
@@ -7073,16 +7073,16 @@
       <c r="M2" s="3"/>
       <c r="N2" s="29"/>
       <c r="O2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Q2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="R2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="117" customHeight="1">
@@ -7092,43 +7092,43 @@
       <c r="D3" s="17"/>
       <c r="E3" s="264"/>
       <c r="F3" s="320" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="I3" s="204" t="s">
+        <v>619</v>
+      </c>
+      <c r="J3" s="204" t="s">
+        <v>620</v>
+      </c>
+      <c r="K3" s="204" t="s">
+        <v>621</v>
+      </c>
+      <c r="L3" s="138" t="s">
+        <v>622</v>
+      </c>
+      <c r="M3" s="204" t="s">
+        <v>623</v>
+      </c>
+      <c r="N3" s="230" t="s">
         <v>624</v>
       </c>
-      <c r="J3" s="204" t="s">
-        <v>625</v>
-      </c>
-      <c r="K3" s="204" t="s">
-        <v>626</v>
-      </c>
-      <c r="L3" s="138" t="s">
-        <v>627</v>
-      </c>
-      <c r="M3" s="204" t="s">
-        <v>628</v>
-      </c>
-      <c r="N3" s="230" t="s">
-        <v>629</v>
-      </c>
       <c r="O3" s="230" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="P3" s="230" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="Q3" s="230" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="R3" s="230" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -7363,10 +7363,10 @@
       <c r="D8" s="5"/>
       <c r="F8" s="77"/>
       <c r="G8" s="261" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H8" s="254" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I8" s="129"/>
       <c r="J8" s="129"/>
@@ -7375,16 +7375,16 @@
       <c r="M8" s="129"/>
       <c r="N8" s="33"/>
       <c r="O8" s="253" t="s">
+        <v>329</v>
+      </c>
+      <c r="P8" s="253" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q8" s="241" t="s">
         <v>331</v>
       </c>
-      <c r="P8" s="253" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q8" s="241" t="s">
-        <v>333</v>
-      </c>
       <c r="R8" s="241" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -7393,10 +7393,10 @@
       <c r="D9" s="5"/>
       <c r="F9" s="77"/>
       <c r="G9" s="261" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H9" s="254" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I9" s="129"/>
       <c r="J9" s="129"/>
@@ -7405,16 +7405,16 @@
       <c r="M9" s="129"/>
       <c r="N9" s="33"/>
       <c r="O9" s="253" t="s">
+        <v>330</v>
+      </c>
+      <c r="P9" s="253" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q9" s="241" t="s">
         <v>332</v>
       </c>
-      <c r="P9" s="253" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q9" s="241" t="s">
-        <v>334</v>
-      </c>
       <c r="R9" s="241" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -7445,40 +7445,40 @@
       <c r="D11" s="5"/>
       <c r="F11" s="77"/>
       <c r="G11" s="87" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="K11" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="L11" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="P11" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>324</v>
-      </c>
       <c r="Q11" s="33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -7496,7 +7496,7 @@
         <v>94</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>94</v>
@@ -7511,7 +7511,7 @@
         <v>94</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P12" s="33" t="s">
         <v>94</v>
@@ -7557,43 +7557,43 @@
         <v>31</v>
       </c>
       <c r="F14" s="321" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G14" s="217" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H14" s="174" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I14" s="175" t="s">
+        <v>224</v>
+      </c>
+      <c r="J14" s="175" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="175" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" s="175" t="s">
         <v>226</v>
       </c>
-      <c r="J14" s="175" t="s">
-        <v>227</v>
-      </c>
-      <c r="K14" s="175" t="s">
+      <c r="M14" s="175" t="s">
+        <v>228</v>
+      </c>
+      <c r="N14" s="197" t="s">
+        <v>230</v>
+      </c>
+      <c r="O14" s="197" t="s">
+        <v>200</v>
+      </c>
+      <c r="P14" s="197" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q14" s="197" t="s">
         <v>229</v>
       </c>
-      <c r="L14" s="175" t="s">
-        <v>228</v>
-      </c>
-      <c r="M14" s="175" t="s">
-        <v>230</v>
-      </c>
-      <c r="N14" s="197" t="s">
-        <v>232</v>
-      </c>
-      <c r="O14" s="197" t="s">
-        <v>202</v>
-      </c>
-      <c r="P14" s="197" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q14" s="197" t="s">
-        <v>231</v>
-      </c>
       <c r="R14" s="197" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -7722,30 +7722,30 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="117" customHeight="1">
       <c r="C3" s="63" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E3" s="204" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F3" s="204" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7930,22 +7930,22 @@
         <v>3</v>
       </c>
       <c r="C14" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="200" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="199" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="201" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="200" t="s">
+      <c r="H14" s="201" t="s">
         <v>183</v>
-      </c>
-      <c r="E14" s="199" t="s">
-        <v>221</v>
-      </c>
-      <c r="F14" s="199" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="201" t="s">
-        <v>184</v>
-      </c>
-      <c r="H14" s="201" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -8011,14 +8011,14 @@
   <sheetData>
     <row r="1" spans="1:21" s="22" customFormat="1" ht="31.05" customHeight="1" thickBot="1">
       <c r="A1" s="267" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="161" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G1" s="160"/>
       <c r="H1" s="168"/>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="2" spans="1:21" s="21" customFormat="1" ht="18">
       <c r="A2" s="404" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B2" s="401"/>
       <c r="C2" s="2"/>
@@ -8059,10 +8059,10 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="U2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="117" customHeight="1" thickBot="1">
@@ -8072,52 +8072,52 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="338" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G3" s="338" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H3" s="339" t="s">
+        <v>628</v>
+      </c>
+      <c r="I3" s="220" t="s">
+        <v>629</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>636</v>
+      </c>
+      <c r="K3" s="220" t="s">
+        <v>630</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>643</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>644</v>
+      </c>
+      <c r="N3" s="61" t="s">
+        <v>645</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>646</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q3" s="132" t="s">
+        <v>648</v>
+      </c>
+      <c r="R3" s="182" t="s">
+        <v>473</v>
+      </c>
+      <c r="S3" s="182" t="s">
+        <v>631</v>
+      </c>
+      <c r="T3" s="230" t="s">
+        <v>632</v>
+      </c>
+      <c r="U3" s="230" t="s">
         <v>633</v>
-      </c>
-      <c r="I3" s="220" t="s">
-        <v>634</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>641</v>
-      </c>
-      <c r="K3" s="220" t="s">
-        <v>635</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>648</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>649</v>
-      </c>
-      <c r="N3" s="61" t="s">
-        <v>650</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>651</v>
-      </c>
-      <c r="P3" s="61" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q3" s="132" t="s">
-        <v>653</v>
-      </c>
-      <c r="R3" s="182" t="s">
-        <v>478</v>
-      </c>
-      <c r="S3" s="182" t="s">
-        <v>636</v>
-      </c>
-      <c r="T3" s="230" t="s">
-        <v>637</v>
-      </c>
-      <c r="U3" s="230" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -8387,28 +8387,28 @@
     </row>
     <row r="8" spans="1:21">
       <c r="J8" s="245" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L8" s="245" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M8" s="245" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N8" s="245" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O8" s="245" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="147"/>
       <c r="R8" s="147"/>
       <c r="S8" s="147"/>
       <c r="T8" s="241" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="U8" s="241" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -8426,128 +8426,128 @@
     </row>
     <row r="10" spans="1:21">
       <c r="J10" s="245" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L10" s="245" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M10" s="245" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="N10" s="245" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="O10" s="245" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q10" s="147"/>
       <c r="R10" s="147"/>
       <c r="S10" s="147"/>
       <c r="T10" s="241" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="U10" s="241" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="F11" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N11" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="86" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T11" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U11" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="F12" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N12" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O12" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q12" s="86" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="T12" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="U12" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -8570,49 +8570,49 @@
         <v>134</v>
       </c>
       <c r="G14" s="174" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H14" s="175" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I14" s="174" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J14" s="197" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K14" s="174" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L14" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="M14" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="N14" s="174" t="s">
         <v>198</v>
       </c>
-      <c r="M14" s="174" t="s">
+      <c r="O14" s="174" t="s">
         <v>199</v>
       </c>
-      <c r="N14" s="174" t="s">
-        <v>200</v>
-      </c>
-      <c r="O14" s="174" t="s">
-        <v>201</v>
-      </c>
       <c r="P14" s="174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="175" t="s">
+        <v>341</v>
+      </c>
+      <c r="R14" s="175" t="s">
         <v>343</v>
       </c>
-      <c r="R14" s="175" t="s">
-        <v>345</v>
-      </c>
       <c r="S14" s="175" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="T14" s="197" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U14" s="197" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -8741,7 +8741,7 @@
   <sheetData>
     <row r="1" spans="1:59" s="22" customFormat="1" ht="31.05" customHeight="1" thickBot="1">
       <c r="A1" s="267" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="195" t="s">
@@ -8791,7 +8791,7 @@
       <c r="AK1" s="161"/>
       <c r="AL1" s="161"/>
       <c r="AM1" s="195" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AN1" s="212"/>
       <c r="AO1" s="213"/>
@@ -8800,7 +8800,7 @@
       <c r="AR1" s="161"/>
       <c r="AS1" s="161"/>
       <c r="AT1" s="195" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AU1" s="212"/>
       <c r="AV1" s="213"/>
@@ -8820,93 +8820,93 @@
     </row>
     <row r="2" spans="1:59" s="21" customFormat="1" ht="18">
       <c r="A2" s="404" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B2" s="401"/>
       <c r="C2" s="51" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D2" s="53"/>
       <c r="E2" s="104"/>
       <c r="F2" s="97" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
       <c r="I2" s="112"/>
       <c r="J2" s="29"/>
       <c r="K2" s="51" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L2" s="104"/>
       <c r="M2" s="97" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
       <c r="P2" s="112"/>
       <c r="Q2" s="29"/>
       <c r="R2" s="51" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="S2" s="104"/>
       <c r="T2" s="97" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="U2" s="29"/>
       <c r="V2" s="29"/>
       <c r="W2" s="112"/>
       <c r="X2" s="29"/>
       <c r="Y2" s="51" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Z2" s="104"/>
       <c r="AA2" s="97" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AB2" s="29"/>
       <c r="AC2" s="29"/>
       <c r="AD2" s="112"/>
       <c r="AE2" s="29"/>
       <c r="AF2" s="51" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AG2" s="104"/>
       <c r="AH2" s="97" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AI2" s="29"/>
       <c r="AJ2" s="29"/>
       <c r="AK2" s="112"/>
       <c r="AL2" s="29"/>
       <c r="AM2" s="51" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AN2" s="104"/>
       <c r="AO2" s="97" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AP2" s="29"/>
       <c r="AQ2" s="29"/>
       <c r="AR2" s="112"/>
       <c r="AS2" s="29"/>
       <c r="AT2" s="51" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AU2" s="104"/>
       <c r="AV2" s="97" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AW2" s="29"/>
       <c r="AX2" s="29"/>
       <c r="AY2" s="112"/>
       <c r="AZ2" s="29"/>
       <c r="BA2" s="51" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="BB2" s="104"/>
       <c r="BC2" s="97" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="BD2" s="29"/>
       <c r="BE2" s="29"/>
@@ -8917,175 +8917,175 @@
       <c r="A3" s="402"/>
       <c r="B3" s="403"/>
       <c r="C3" s="114" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D3" s="118" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E3" s="120" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F3" s="151" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="141" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3" s="141" t="s">
+        <v>242</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="G3" s="141" t="s">
+      <c r="J3" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="H3" s="141" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="31" t="s">
+      <c r="K3" s="114" t="s">
+        <v>502</v>
+      </c>
+      <c r="L3" s="120" t="s">
+        <v>504</v>
+      </c>
+      <c r="M3" s="151" t="s">
+        <v>238</v>
+      </c>
+      <c r="N3" s="141" t="s">
+        <v>239</v>
+      </c>
+      <c r="O3" s="141" t="s">
         <v>242</v>
       </c>
-      <c r="J3" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="K3" s="114" t="s">
-        <v>507</v>
-      </c>
-      <c r="L3" s="120" t="s">
-        <v>509</v>
-      </c>
-      <c r="M3" s="151" t="s">
+      <c r="P3" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="N3" s="141" t="s">
+      <c r="Q3" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="O3" s="141" t="s">
-        <v>244</v>
-      </c>
-      <c r="P3" s="31" t="s">
+      <c r="R3" s="114" t="s">
+        <v>502</v>
+      </c>
+      <c r="S3" s="120" t="s">
+        <v>504</v>
+      </c>
+      <c r="T3" s="151" t="s">
+        <v>238</v>
+      </c>
+      <c r="U3" s="141" t="s">
+        <v>239</v>
+      </c>
+      <c r="V3" s="141" t="s">
         <v>242</v>
       </c>
-      <c r="Q3" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="R3" s="114" t="s">
-        <v>507</v>
-      </c>
-      <c r="S3" s="120" t="s">
-        <v>509</v>
-      </c>
-      <c r="T3" s="151" t="s">
+      <c r="W3" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="U3" s="141" t="s">
+      <c r="X3" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="V3" s="141" t="s">
-        <v>244</v>
-      </c>
-      <c r="W3" s="31" t="s">
+      <c r="Y3" s="114" t="s">
+        <v>502</v>
+      </c>
+      <c r="Z3" s="120" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA3" s="151" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB3" s="141" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC3" s="141" t="s">
         <v>242</v>
       </c>
-      <c r="X3" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y3" s="114" t="s">
-        <v>507</v>
-      </c>
-      <c r="Z3" s="120" t="s">
-        <v>509</v>
-      </c>
-      <c r="AA3" s="151" t="s">
+      <c r="AD3" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="AB3" s="141" t="s">
+      <c r="AE3" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="AC3" s="141" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD3" s="31" t="s">
+      <c r="AF3" s="114" t="s">
+        <v>502</v>
+      </c>
+      <c r="AG3" s="120" t="s">
+        <v>504</v>
+      </c>
+      <c r="AH3" s="151" t="s">
+        <v>238</v>
+      </c>
+      <c r="AI3" s="141" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ3" s="141" t="s">
         <v>242</v>
       </c>
-      <c r="AE3" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF3" s="114" t="s">
-        <v>507</v>
-      </c>
-      <c r="AG3" s="120" t="s">
-        <v>509</v>
-      </c>
-      <c r="AH3" s="151" t="s">
+      <c r="AK3" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="AI3" s="141" t="s">
+      <c r="AL3" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="AJ3" s="141" t="s">
-        <v>244</v>
-      </c>
-      <c r="AK3" s="31" t="s">
+      <c r="AM3" s="114" t="s">
+        <v>502</v>
+      </c>
+      <c r="AN3" s="120" t="s">
+        <v>504</v>
+      </c>
+      <c r="AO3" s="151" t="s">
+        <v>238</v>
+      </c>
+      <c r="AP3" s="141" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ3" s="141" t="s">
         <v>242</v>
       </c>
-      <c r="AL3" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="AM3" s="114" t="s">
-        <v>507</v>
-      </c>
-      <c r="AN3" s="120" t="s">
-        <v>509</v>
-      </c>
-      <c r="AO3" s="151" t="s">
+      <c r="AR3" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="AP3" s="141" t="s">
+      <c r="AS3" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="AQ3" s="141" t="s">
-        <v>244</v>
-      </c>
-      <c r="AR3" s="31" t="s">
+      <c r="AT3" s="114" t="s">
+        <v>502</v>
+      </c>
+      <c r="AU3" s="120" t="s">
+        <v>504</v>
+      </c>
+      <c r="AV3" s="151" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW3" s="141" t="s">
+        <v>239</v>
+      </c>
+      <c r="AX3" s="141" t="s">
         <v>242</v>
       </c>
-      <c r="AS3" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT3" s="114" t="s">
-        <v>507</v>
-      </c>
-      <c r="AU3" s="120" t="s">
-        <v>509</v>
-      </c>
-      <c r="AV3" s="151" t="s">
+      <c r="AY3" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="AW3" s="141" t="s">
+      <c r="AZ3" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="AX3" s="141" t="s">
-        <v>244</v>
-      </c>
-      <c r="AY3" s="31" t="s">
+      <c r="BA3" s="114" t="s">
+        <v>502</v>
+      </c>
+      <c r="BB3" s="120" t="s">
+        <v>504</v>
+      </c>
+      <c r="BC3" s="151" t="s">
+        <v>238</v>
+      </c>
+      <c r="BD3" s="141" t="s">
+        <v>239</v>
+      </c>
+      <c r="BE3" s="141" t="s">
         <v>242</v>
       </c>
-      <c r="AZ3" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="BA3" s="114" t="s">
-        <v>507</v>
-      </c>
-      <c r="BB3" s="120" t="s">
-        <v>509</v>
-      </c>
-      <c r="BC3" s="151" t="s">
+      <c r="BF3" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="BD3" s="141" t="s">
+      <c r="BG3" s="31" t="s">
         <v>241</v>
-      </c>
-      <c r="BE3" s="141" t="s">
-        <v>244</v>
-      </c>
-      <c r="BF3" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="BG3" s="31" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:59">
@@ -9943,175 +9943,175 @@
         <v>3</v>
       </c>
       <c r="C14" s="198" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="171" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" s="218" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="219" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="171" t="s">
-        <v>347</v>
-      </c>
-      <c r="E14" s="218" t="s">
+      <c r="G14" s="177" t="s">
         <v>269</v>
       </c>
-      <c r="F14" s="219" t="s">
+      <c r="H14" s="177" t="s">
         <v>270</v>
       </c>
-      <c r="G14" s="177" t="s">
+      <c r="I14" s="197" t="s">
         <v>271</v>
       </c>
-      <c r="H14" s="177" t="s">
+      <c r="J14" s="197" t="s">
         <v>272</v>
       </c>
-      <c r="I14" s="197" t="s">
+      <c r="K14" s="198" t="s">
         <v>273</v>
       </c>
-      <c r="J14" s="197" t="s">
+      <c r="L14" s="218" t="s">
         <v>274</v>
       </c>
-      <c r="K14" s="198" t="s">
+      <c r="M14" s="219" t="s">
+        <v>261</v>
+      </c>
+      <c r="N14" s="177" t="s">
+        <v>262</v>
+      </c>
+      <c r="O14" s="177" t="s">
+        <v>263</v>
+      </c>
+      <c r="P14" s="197" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q14" s="197" t="s">
+        <v>265</v>
+      </c>
+      <c r="R14" s="198" t="s">
         <v>275</v>
       </c>
-      <c r="L14" s="218" t="s">
+      <c r="S14" s="218" t="s">
         <v>276</v>
       </c>
-      <c r="M14" s="219" t="s">
-        <v>263</v>
-      </c>
-      <c r="N14" s="177" t="s">
-        <v>264</v>
-      </c>
-      <c r="O14" s="177" t="s">
-        <v>265</v>
-      </c>
-      <c r="P14" s="197" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q14" s="197" t="s">
-        <v>267</v>
-      </c>
-      <c r="R14" s="198" t="s">
+      <c r="T14" s="219" t="s">
         <v>277</v>
       </c>
-      <c r="S14" s="218" t="s">
+      <c r="U14" s="177" t="s">
         <v>278</v>
       </c>
-      <c r="T14" s="219" t="s">
+      <c r="V14" s="177" t="s">
         <v>279</v>
       </c>
-      <c r="U14" s="177" t="s">
+      <c r="W14" s="197" t="s">
         <v>280</v>
       </c>
-      <c r="V14" s="177" t="s">
+      <c r="X14" s="197" t="s">
         <v>281</v>
       </c>
-      <c r="W14" s="197" t="s">
+      <c r="Y14" s="198" t="s">
         <v>282</v>
       </c>
-      <c r="X14" s="197" t="s">
+      <c r="Z14" s="218" t="s">
         <v>283</v>
       </c>
-      <c r="Y14" s="198" t="s">
+      <c r="AA14" s="219" t="s">
         <v>284</v>
       </c>
-      <c r="Z14" s="218" t="s">
+      <c r="AB14" s="177" t="s">
         <v>285</v>
       </c>
-      <c r="AA14" s="219" t="s">
+      <c r="AC14" s="177" t="s">
         <v>286</v>
       </c>
-      <c r="AB14" s="177" t="s">
+      <c r="AD14" s="197" t="s">
         <v>287</v>
       </c>
-      <c r="AC14" s="177" t="s">
+      <c r="AE14" s="197" t="s">
         <v>288</v>
       </c>
-      <c r="AD14" s="197" t="s">
+      <c r="AF14" s="198" t="s">
         <v>289</v>
       </c>
-      <c r="AE14" s="197" t="s">
+      <c r="AG14" s="218" t="s">
         <v>290</v>
       </c>
-      <c r="AF14" s="198" t="s">
+      <c r="AH14" s="219" t="s">
         <v>291</v>
       </c>
-      <c r="AG14" s="218" t="s">
+      <c r="AI14" s="177" t="s">
         <v>292</v>
       </c>
-      <c r="AH14" s="219" t="s">
+      <c r="AJ14" s="177" t="s">
         <v>293</v>
       </c>
-      <c r="AI14" s="177" t="s">
+      <c r="AK14" s="197" t="s">
         <v>294</v>
       </c>
-      <c r="AJ14" s="177" t="s">
+      <c r="AL14" s="197" t="s">
         <v>295</v>
       </c>
-      <c r="AK14" s="197" t="s">
+      <c r="AM14" s="198" t="s">
         <v>296</v>
       </c>
-      <c r="AL14" s="197" t="s">
+      <c r="AN14" s="218" t="s">
         <v>297</v>
       </c>
-      <c r="AM14" s="198" t="s">
+      <c r="AO14" s="219" t="s">
         <v>298</v>
       </c>
-      <c r="AN14" s="218" t="s">
+      <c r="AP14" s="177" t="s">
         <v>299</v>
       </c>
-      <c r="AO14" s="219" t="s">
+      <c r="AQ14" s="177" t="s">
         <v>300</v>
       </c>
-      <c r="AP14" s="177" t="s">
+      <c r="AR14" s="197" t="s">
         <v>301</v>
       </c>
-      <c r="AQ14" s="177" t="s">
+      <c r="AS14" s="197" t="s">
         <v>302</v>
       </c>
-      <c r="AR14" s="197" t="s">
+      <c r="AT14" s="198" t="s">
         <v>303</v>
       </c>
-      <c r="AS14" s="197" t="s">
+      <c r="AU14" s="218" t="s">
         <v>304</v>
       </c>
-      <c r="AT14" s="198" t="s">
+      <c r="AV14" s="219" t="s">
         <v>305</v>
       </c>
-      <c r="AU14" s="218" t="s">
+      <c r="AW14" s="177" t="s">
         <v>306</v>
       </c>
-      <c r="AV14" s="219" t="s">
+      <c r="AX14" s="177" t="s">
         <v>307</v>
       </c>
-      <c r="AW14" s="177" t="s">
+      <c r="AY14" s="197" t="s">
         <v>308</v>
       </c>
-      <c r="AX14" s="177" t="s">
+      <c r="AZ14" s="197" t="s">
         <v>309</v>
       </c>
-      <c r="AY14" s="197" t="s">
+      <c r="BA14" s="198" t="s">
         <v>310</v>
       </c>
-      <c r="AZ14" s="197" t="s">
+      <c r="BB14" s="218" t="s">
         <v>311</v>
       </c>
-      <c r="BA14" s="198" t="s">
+      <c r="BC14" s="219" t="s">
         <v>312</v>
       </c>
-      <c r="BB14" s="218" t="s">
+      <c r="BD14" s="177" t="s">
         <v>313</v>
       </c>
-      <c r="BC14" s="219" t="s">
+      <c r="BE14" s="177" t="s">
         <v>314</v>
       </c>
-      <c r="BD14" s="177" t="s">
+      <c r="BF14" s="197" t="s">
         <v>315</v>
       </c>
-      <c r="BE14" s="177" t="s">
+      <c r="BG14" s="197" t="s">
         <v>316</v>
-      </c>
-      <c r="BF14" s="197" t="s">
-        <v>317</v>
-      </c>
-      <c r="BG14" s="197" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:59" customFormat="1">
@@ -10788,16 +10788,16 @@
         <v>113</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>128</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>129</v>
@@ -10812,7 +10812,7 @@
         <v>132</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>32</v>
@@ -10824,7 +10824,7 @@
         <v>125</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>31</v>
@@ -11077,7 +11077,7 @@
     </row>
     <row r="22" spans="2:12" ht="16.05" customHeight="1">
       <c r="B22" s="225" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -11124,7 +11124,7 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="399" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -24704,20 +24704,20 @@
       <c r="A2" s="14"/>
       <c r="B2" s="148"/>
       <c r="C2" s="239" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:4" ht="117" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="135" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C3" s="186" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -24804,13 +24804,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="188" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" s="189" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D14" s="190" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -24926,17 +24926,17 @@
       <c r="D1" s="4"/>
       <c r="E1" s="267"/>
       <c r="F1" s="192" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G1" s="192" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H1" s="160"/>
       <c r="I1" s="161"/>
       <c r="J1" s="162"/>
       <c r="K1" s="161"/>
       <c r="L1" s="192" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="M1" s="160"/>
       <c r="N1" s="160"/>
@@ -24945,7 +24945,7 @@
       <c r="Q1" s="161"/>
       <c r="R1" s="161"/>
       <c r="S1" s="192" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="T1" s="159"/>
       <c r="U1" s="161"/>
@@ -24967,18 +24967,18 @@
       <c r="AK1" s="162"/>
       <c r="AL1" s="162"/>
       <c r="AM1" s="194" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AN1" s="162"/>
       <c r="AO1" s="162"/>
       <c r="AP1" s="162"/>
       <c r="AQ1" s="192" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AR1" s="159"/>
       <c r="AS1" s="299"/>
       <c r="AT1" s="194" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AU1" s="299"/>
       <c r="AV1" s="162"/>
@@ -24986,25 +24986,25 @@
       <c r="AX1" s="166"/>
       <c r="AY1" s="167"/>
       <c r="AZ1" s="277" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="BA1" s="287"/>
       <c r="BB1" s="168"/>
       <c r="BC1" s="161"/>
       <c r="BD1" s="311"/>
       <c r="BE1" s="194" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="BF1" s="161"/>
       <c r="BG1" s="161"/>
       <c r="BH1" s="194" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="BI1" s="161"/>
     </row>
     <row r="2" spans="1:61" ht="18">
       <c r="A2" s="400" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B2" s="401"/>
       <c r="C2" s="2"/>
@@ -25024,10 +25024,10 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
       <c r="S2" s="51" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="T2" s="53" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="U2" s="46"/>
       <c r="V2" s="46"/>
@@ -25043,23 +25043,23 @@
       <c r="AF2" s="46"/>
       <c r="AG2" s="109"/>
       <c r="AH2" s="80" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="AI2" s="46"/>
       <c r="AJ2" s="53"/>
       <c r="AK2" s="53"/>
       <c r="AL2" s="53"/>
       <c r="AM2" s="108" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AN2" s="53"/>
       <c r="AO2" s="53"/>
       <c r="AP2" s="53"/>
       <c r="AQ2" s="275" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AR2" s="228" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AS2" s="109"/>
       <c r="AT2" s="108"/>
@@ -25068,25 +25068,25 @@
       <c r="AW2" s="53"/>
       <c r="AX2" s="307"/>
       <c r="AY2" s="229" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AZ2" s="278"/>
       <c r="BA2" s="288"/>
       <c r="BB2" s="222"/>
       <c r="BC2" s="227" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="BD2" s="332"/>
       <c r="BE2" s="309"/>
       <c r="BF2" s="227" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="BG2" s="227" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="BH2" s="283"/>
       <c r="BI2" s="227" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="133.94999999999999" customHeight="1" thickBot="1">
@@ -25096,10 +25096,10 @@
       <c r="D3" s="17"/>
       <c r="E3" s="264"/>
       <c r="F3" s="272" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G3" s="93" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H3" s="130" t="s">
         <v>1</v>
@@ -25114,7 +25114,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="93" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M3" s="130" t="s">
         <v>1</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="286" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="P3" s="65" t="s">
         <v>24</v>
@@ -25132,136 +25132,136 @@
         <v>23</v>
       </c>
       <c r="R3" s="130" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="S3" s="273" t="s">
+        <v>476</v>
+      </c>
+      <c r="T3" s="180" t="s">
+        <v>538</v>
+      </c>
+      <c r="U3" s="181" t="s">
+        <v>477</v>
+      </c>
+      <c r="V3" s="181" t="s">
+        <v>478</v>
+      </c>
+      <c r="W3" s="294" t="s">
+        <v>539</v>
+      </c>
+      <c r="X3" s="181" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y3" s="182" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z3" s="181" t="s">
+        <v>542</v>
+      </c>
+      <c r="AA3" s="300" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB3" s="182" t="s">
+        <v>544</v>
+      </c>
+      <c r="AC3" s="325" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD3" s="325" t="s">
+        <v>546</v>
+      </c>
+      <c r="AE3" s="300" t="s">
+        <v>547</v>
+      </c>
+      <c r="AF3" s="181" t="s">
+        <v>548</v>
+      </c>
+      <c r="AG3" s="300" t="s">
+        <v>549</v>
+      </c>
+      <c r="AH3" s="294" t="s">
+        <v>518</v>
+      </c>
+      <c r="AI3" s="181" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ3" s="220" t="s">
+        <v>519</v>
+      </c>
+      <c r="AK3" s="220" t="s">
+        <v>520</v>
+      </c>
+      <c r="AL3" s="220" t="s">
+        <v>480</v>
+      </c>
+      <c r="AM3" s="221" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN3" s="66" t="s">
+        <v>522</v>
+      </c>
+      <c r="AO3" s="61" t="s">
+        <v>523</v>
+      </c>
+      <c r="AP3" s="180" t="s">
+        <v>524</v>
+      </c>
+      <c r="AQ3" s="276" t="s">
         <v>481</v>
       </c>
-      <c r="T3" s="180" t="s">
-        <v>543</v>
-      </c>
-      <c r="U3" s="181" t="s">
+      <c r="AR3" s="230" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS3" s="306" t="s">
+        <v>526</v>
+      </c>
+      <c r="AT3" s="221" t="s">
+        <v>527</v>
+      </c>
+      <c r="AU3" s="300" t="s">
+        <v>528</v>
+      </c>
+      <c r="AV3" s="66" t="s">
+        <v>529</v>
+      </c>
+      <c r="AW3" s="66" t="s">
+        <v>530</v>
+      </c>
+      <c r="AX3" s="300" t="s">
+        <v>531</v>
+      </c>
+      <c r="AY3" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="AZ3" s="279" t="s">
         <v>482</v>
       </c>
-      <c r="V3" s="181" t="s">
+      <c r="BA3" s="289" t="s">
         <v>483</v>
       </c>
-      <c r="W3" s="294" t="s">
-        <v>544</v>
-      </c>
-      <c r="X3" s="181" t="s">
-        <v>545</v>
-      </c>
-      <c r="Y3" s="182" t="s">
-        <v>546</v>
-      </c>
-      <c r="Z3" s="181" t="s">
-        <v>547</v>
-      </c>
-      <c r="AA3" s="300" t="s">
-        <v>548</v>
-      </c>
-      <c r="AB3" s="182" t="s">
-        <v>549</v>
-      </c>
-      <c r="AC3" s="325" t="s">
-        <v>550</v>
-      </c>
-      <c r="AD3" s="325" t="s">
-        <v>551</v>
-      </c>
-      <c r="AE3" s="300" t="s">
-        <v>552</v>
-      </c>
-      <c r="AF3" s="181" t="s">
-        <v>553</v>
-      </c>
-      <c r="AG3" s="300" t="s">
-        <v>554</v>
-      </c>
-      <c r="AH3" s="294" t="s">
-        <v>523</v>
-      </c>
-      <c r="AI3" s="181" t="s">
+      <c r="BB3" s="158" t="s">
         <v>484</v>
       </c>
-      <c r="AJ3" s="220" t="s">
-        <v>524</v>
-      </c>
-      <c r="AK3" s="220" t="s">
-        <v>525</v>
-      </c>
-      <c r="AL3" s="220" t="s">
+      <c r="BC3" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="BD3" s="333" t="s">
+        <v>533</v>
+      </c>
+      <c r="BE3" s="221" t="s">
         <v>485</v>
       </c>
-      <c r="AM3" s="221" t="s">
-        <v>526</v>
-      </c>
-      <c r="AN3" s="66" t="s">
-        <v>527</v>
-      </c>
-      <c r="AO3" s="61" t="s">
-        <v>528</v>
-      </c>
-      <c r="AP3" s="180" t="s">
-        <v>529</v>
-      </c>
-      <c r="AQ3" s="276" t="s">
+      <c r="BF3" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="BG3" s="230" t="s">
+        <v>534</v>
+      </c>
+      <c r="BH3" s="279" t="s">
         <v>486</v>
       </c>
-      <c r="AR3" s="230" t="s">
-        <v>530</v>
-      </c>
-      <c r="AS3" s="306" t="s">
-        <v>531</v>
-      </c>
-      <c r="AT3" s="221" t="s">
-        <v>532</v>
-      </c>
-      <c r="AU3" s="300" t="s">
-        <v>533</v>
-      </c>
-      <c r="AV3" s="66" t="s">
-        <v>534</v>
-      </c>
-      <c r="AW3" s="66" t="s">
-        <v>535</v>
-      </c>
-      <c r="AX3" s="300" t="s">
-        <v>536</v>
-      </c>
-      <c r="AY3" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="AZ3" s="279" t="s">
-        <v>487</v>
-      </c>
-      <c r="BA3" s="289" t="s">
-        <v>488</v>
-      </c>
-      <c r="BB3" s="158" t="s">
-        <v>489</v>
-      </c>
-      <c r="BC3" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="BD3" s="333" t="s">
-        <v>538</v>
-      </c>
-      <c r="BE3" s="221" t="s">
-        <v>490</v>
-      </c>
-      <c r="BF3" s="30" t="s">
-        <v>520</v>
-      </c>
-      <c r="BG3" s="230" t="s">
-        <v>539</v>
-      </c>
-      <c r="BH3" s="279" t="s">
-        <v>491</v>
-      </c>
       <c r="BI3" s="30" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:61">
@@ -25729,7 +25729,7 @@
         <v>37</v>
       </c>
       <c r="S6" s="47" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="T6" s="36" t="s">
         <v>36</v>
@@ -26048,16 +26048,16 @@
       <c r="D8" s="36"/>
       <c r="G8" s="247"/>
       <c r="H8" s="259" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I8" s="259" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J8" s="245" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K8" s="245" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L8" s="247"/>
       <c r="M8" s="259" t="s">
@@ -26070,10 +26070,10 @@
         <v>71</v>
       </c>
       <c r="Q8" s="245" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="S8" s="247" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T8" s="245" t="s">
         <v>40</v>
@@ -26095,14 +26095,14 @@
       <c r="AB8" s="147"/>
       <c r="AC8" s="328"/>
       <c r="AD8" s="348" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="AF8" s="245" t="s">
         <v>44</v>
       </c>
       <c r="AH8" s="297"/>
       <c r="AI8" s="245" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AL8" s="245" t="s">
         <v>124</v>
@@ -26118,10 +26118,10 @@
         <v>69</v>
       </c>
       <c r="BC8" s="241" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="BF8" s="241" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="BG8" s="241" t="s">
         <v>44</v>
@@ -26132,16 +26132,16 @@
       <c r="D9" s="36"/>
       <c r="G9" s="247"/>
       <c r="H9" s="259" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I9" s="259" t="s">
         <v>112</v>
       </c>
       <c r="J9" s="245" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K9" s="245" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L9" s="247"/>
       <c r="M9" s="259" t="s">
@@ -26154,7 +26154,7 @@
         <v>72</v>
       </c>
       <c r="Q9" s="245" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="S9" s="247"/>
       <c r="T9" s="245"/>
@@ -26179,10 +26179,10 @@
         <v>70</v>
       </c>
       <c r="BC9" s="241" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="BF9" s="241" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="BG9" s="241"/>
     </row>
@@ -26271,172 +26271,172 @@
       <c r="B11" s="5"/>
       <c r="D11" s="36"/>
       <c r="F11" s="47" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H11" s="139" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="I11" s="139" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L11" s="47" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M11" s="139" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N11" s="139" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O11" s="54" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="Q11" s="139" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="R11" s="139" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="S11" s="47" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="T11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="V11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="W11" s="73" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="X11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="Y11" s="86" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="Z11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AA11" s="111" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AB11" s="86" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AC11" s="327" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AD11" s="330" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AE11" s="127" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AF11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AG11" s="127" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AH11" s="84" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AI11" s="37" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AJ11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AL11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AM11" s="72" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AN11" s="36" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AO11" s="36" t="s">
         <v>18</v>
       </c>
       <c r="AP11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AQ11" s="56" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AR11" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AS11" s="111" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AT11" s="72" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AU11" s="111" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AV11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AW11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AX11" s="127" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AY11" s="90" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AZ11" s="134" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="BA11" s="291" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="BB11" s="19" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="BC11" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="BD11" s="335" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="BE11" s="72" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="BF11" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="BG11" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="BH11" s="134" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="BI11" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:61">
@@ -26644,55 +26644,55 @@
         <v>31</v>
       </c>
       <c r="F14" s="198" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G14" s="198" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H14" s="172" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I14" s="172" t="s">
         <v>145</v>
       </c>
       <c r="J14" s="171" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K14" s="173" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L14" s="198" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M14" s="172" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N14" s="172" t="s">
         <v>146</v>
       </c>
       <c r="O14" s="171" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P14" s="174" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="173" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R14" s="173" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="S14" s="198" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="T14" s="171" t="s">
         <v>134</v>
       </c>
       <c r="U14" s="174" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="V14" s="174" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="W14" s="196" t="s">
         <v>137</v>
@@ -26701,115 +26701,115 @@
         <v>136</v>
       </c>
       <c r="Y14" s="175" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Z14" s="174" t="s">
         <v>138</v>
       </c>
       <c r="AA14" s="176" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AB14" s="175" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AC14" s="329" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD14" s="329" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE14" s="176" t="s">
+        <v>409</v>
+      </c>
+      <c r="AF14" s="174" t="s">
+        <v>446</v>
+      </c>
+      <c r="AG14" s="176" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH14" s="196" t="s">
+        <v>450</v>
+      </c>
+      <c r="AI14" s="174" t="s">
+        <v>449</v>
+      </c>
+      <c r="AJ14" s="171" t="s">
+        <v>471</v>
+      </c>
+      <c r="AK14" s="171" t="s">
         <v>465</v>
       </c>
-      <c r="AD14" s="329" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE14" s="176" t="s">
+      <c r="AL14" s="171" t="s">
+        <v>410</v>
+      </c>
+      <c r="AM14" s="203" t="s">
+        <v>415</v>
+      </c>
+      <c r="AN14" s="171" t="s">
         <v>413</v>
       </c>
-      <c r="AF14" s="174" t="s">
-        <v>451</v>
-      </c>
-      <c r="AG14" s="176" t="s">
-        <v>450</v>
-      </c>
-      <c r="AH14" s="196" t="s">
-        <v>455</v>
-      </c>
-      <c r="AI14" s="174" t="s">
-        <v>454</v>
-      </c>
-      <c r="AJ14" s="171" t="s">
-        <v>476</v>
-      </c>
-      <c r="AK14" s="171" t="s">
-        <v>470</v>
-      </c>
-      <c r="AL14" s="171" t="s">
+      <c r="AO14" s="171" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP14" s="171" t="s">
         <v>414</v>
-      </c>
-      <c r="AM14" s="203" t="s">
-        <v>419</v>
-      </c>
-      <c r="AN14" s="171" t="s">
-        <v>417</v>
-      </c>
-      <c r="AO14" s="171" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP14" s="171" t="s">
-        <v>418</v>
       </c>
       <c r="AQ14" s="215" t="s">
         <v>147</v>
       </c>
       <c r="AR14" s="177" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AS14" s="176" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AT14" s="203" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AU14" s="176" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AV14" s="171" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AW14" s="171" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AX14" s="308" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AY14" s="178" t="s">
         <v>148</v>
       </c>
       <c r="AZ14" s="281" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="BA14" s="292" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="BB14" s="179" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="BC14" s="173" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="BD14" s="336" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="BE14" s="310" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="BF14" s="173" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="BG14" s="173" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="BH14" s="285" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BI14" s="173" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:61">
@@ -61926,7 +61926,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="22" customFormat="1" ht="31.05" customHeight="1">
       <c r="A1" s="267" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="1"/>
@@ -61990,27 +61990,27 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="237" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G2" s="242" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J2" s="51"/>
       <c r="K2" s="231" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L2" s="51"/>
       <c r="M2" s="46"/>
       <c r="N2" s="46"/>
       <c r="O2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P2" s="331"/>
       <c r="Q2" s="345"/>
@@ -62021,31 +62021,31 @@
       <c r="V2" s="232"/>
       <c r="W2" s="109"/>
       <c r="X2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Y2" s="108"/>
       <c r="Z2" s="53"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AC2" s="108"/>
       <c r="AD2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AE2" s="49"/>
       <c r="AF2" s="34"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AJ2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AK2" s="49"/>
       <c r="AL2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:38" s="25" customFormat="1" ht="117" customHeight="1">
@@ -62054,106 +62054,106 @@
       <c r="C3"/>
       <c r="D3" s="26"/>
       <c r="E3" s="238" t="s">
+        <v>587</v>
+      </c>
+      <c r="F3" s="230" t="s">
+        <v>588</v>
+      </c>
+      <c r="G3" s="243" t="s">
+        <v>577</v>
+      </c>
+      <c r="H3" s="100" t="s">
+        <v>589</v>
+      </c>
+      <c r="I3" s="230" t="s">
+        <v>553</v>
+      </c>
+      <c r="J3" s="93" t="s">
+        <v>590</v>
+      </c>
+      <c r="K3" s="233" t="s">
+        <v>491</v>
+      </c>
+      <c r="L3" s="93" t="s">
+        <v>637</v>
+      </c>
+      <c r="M3" s="64" t="s">
+        <v>591</v>
+      </c>
+      <c r="N3" s="181" t="s">
         <v>592</v>
       </c>
-      <c r="F3" s="230" t="s">
+      <c r="O3" s="230" t="s">
+        <v>554</v>
+      </c>
+      <c r="P3" s="220" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q3" s="346" t="s">
+        <v>556</v>
+      </c>
+      <c r="R3" s="93" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="243" t="s">
-        <v>582</v>
-      </c>
-      <c r="H3" s="100" t="s">
+      <c r="S3" s="204" t="s">
+        <v>527</v>
+      </c>
+      <c r="T3" s="204" t="s">
+        <v>528</v>
+      </c>
+      <c r="U3" s="64" t="s">
+        <v>557</v>
+      </c>
+      <c r="V3" s="64" t="s">
+        <v>530</v>
+      </c>
+      <c r="W3" s="206" t="s">
+        <v>531</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y3" s="314" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z3" s="312" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA3" s="315" t="s">
+        <v>484</v>
+      </c>
+      <c r="AB3" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="AC3" s="314" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD3" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="AE3" s="63" t="s">
         <v>594</v>
       </c>
-      <c r="I3" s="230" t="s">
-        <v>558</v>
-      </c>
-      <c r="J3" s="93" t="s">
+      <c r="AF3" s="61" t="s">
         <v>595</v>
       </c>
-      <c r="K3" s="233" t="s">
-        <v>496</v>
-      </c>
-      <c r="L3" s="93" t="s">
-        <v>642</v>
-      </c>
-      <c r="M3" s="64" t="s">
+      <c r="AG3" s="204" t="s">
+        <v>486</v>
+      </c>
+      <c r="AH3" s="204" t="s">
+        <v>561</v>
+      </c>
+      <c r="AI3" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="AJ3" s="230" t="s">
+        <v>563</v>
+      </c>
+      <c r="AK3" s="63" t="s">
         <v>596</v>
       </c>
-      <c r="N3" s="181" t="s">
-        <v>597</v>
-      </c>
-      <c r="O3" s="230" t="s">
-        <v>559</v>
-      </c>
-      <c r="P3" s="220" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q3" s="346" t="s">
-        <v>561</v>
-      </c>
-      <c r="R3" s="93" t="s">
-        <v>598</v>
-      </c>
-      <c r="S3" s="204" t="s">
-        <v>532</v>
-      </c>
-      <c r="T3" s="204" t="s">
-        <v>533</v>
-      </c>
-      <c r="U3" s="64" t="s">
-        <v>562</v>
-      </c>
-      <c r="V3" s="64" t="s">
-        <v>535</v>
-      </c>
-      <c r="W3" s="206" t="s">
-        <v>536</v>
-      </c>
-      <c r="X3" s="30" t="s">
-        <v>563</v>
-      </c>
-      <c r="Y3" s="314" t="s">
-        <v>487</v>
-      </c>
-      <c r="Z3" s="312" t="s">
-        <v>488</v>
-      </c>
-      <c r="AA3" s="315" t="s">
-        <v>489</v>
-      </c>
-      <c r="AB3" s="30" t="s">
+      <c r="AL3" s="230" t="s">
         <v>564</v>
-      </c>
-      <c r="AC3" s="314" t="s">
-        <v>490</v>
-      </c>
-      <c r="AD3" s="30" t="s">
-        <v>565</v>
-      </c>
-      <c r="AE3" s="63" t="s">
-        <v>599</v>
-      </c>
-      <c r="AF3" s="61" t="s">
-        <v>600</v>
-      </c>
-      <c r="AG3" s="204" t="s">
-        <v>491</v>
-      </c>
-      <c r="AH3" s="204" t="s">
-        <v>566</v>
-      </c>
-      <c r="AI3" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="AJ3" s="230" t="s">
-        <v>568</v>
-      </c>
-      <c r="AK3" s="63" t="s">
-        <v>601</v>
-      </c>
-      <c r="AL3" s="230" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:38" s="25" customFormat="1">
@@ -62668,7 +62668,7 @@
         <v>79</v>
       </c>
       <c r="L8" s="260" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M8" s="250" t="s">
         <v>104</v>
@@ -62741,7 +62741,7 @@
         <v>80</v>
       </c>
       <c r="L9" s="260" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M9" s="250" t="s">
         <v>105</v>
@@ -62942,106 +62942,106 @@
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="56" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J13" s="102" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L13" s="95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="341" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="R13" s="102" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S13" s="86" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="T13" s="86" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U13" s="36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="V13" s="36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="W13" s="127" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="X13" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Y13" s="143" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Z13" s="122" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AA13" s="86" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AB13" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AC13" s="143" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AD13" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AE13" s="47" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AF13" s="36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AG13" s="86" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AH13" s="86" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AI13" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AJ13" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AK13" s="47" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AL13" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1">
@@ -63058,106 +63058,106 @@
         <v>31</v>
       </c>
       <c r="E14" s="215" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F14" s="197" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G14" s="216" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H14" s="198" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I14" s="197" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J14" s="198" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="197" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" s="198" t="s">
+        <v>254</v>
+      </c>
+      <c r="M14" s="174" t="s">
+        <v>255</v>
+      </c>
+      <c r="N14" s="174" t="s">
+        <v>428</v>
+      </c>
+      <c r="O14" s="197" t="s">
+        <v>170</v>
+      </c>
+      <c r="P14" s="174" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q14" s="196" t="s">
+        <v>464</v>
+      </c>
+      <c r="R14" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="S14" s="175" t="s">
+        <v>258</v>
+      </c>
+      <c r="T14" s="175" t="s">
+        <v>257</v>
+      </c>
+      <c r="U14" s="174" t="s">
+        <v>256</v>
+      </c>
+      <c r="V14" s="174" t="s">
+        <v>429</v>
+      </c>
+      <c r="W14" s="176" t="s">
+        <v>430</v>
+      </c>
+      <c r="X14" s="197" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y14" s="203" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z14" s="171" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA14" s="175" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB14" s="197" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC14" s="203" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD14" s="197" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE14" s="198" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF14" s="174" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG14" s="175" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH14" s="175" t="s">
+        <v>260</v>
+      </c>
+      <c r="AI14" s="197" t="s">
         <v>165</v>
       </c>
-      <c r="K14" s="197" t="s">
+      <c r="AJ14" s="197" t="s">
         <v>166</v>
       </c>
-      <c r="L14" s="198" t="s">
-        <v>256</v>
-      </c>
-      <c r="M14" s="174" t="s">
-        <v>257</v>
-      </c>
-      <c r="N14" s="174" t="s">
-        <v>432</v>
-      </c>
-      <c r="O14" s="197" t="s">
-        <v>172</v>
-      </c>
-      <c r="P14" s="174" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q14" s="196" t="s">
-        <v>469</v>
-      </c>
-      <c r="R14" s="198" t="s">
-        <v>170</v>
-      </c>
-      <c r="S14" s="175" t="s">
-        <v>260</v>
-      </c>
-      <c r="T14" s="175" t="s">
-        <v>259</v>
-      </c>
-      <c r="U14" s="174" t="s">
-        <v>258</v>
-      </c>
-      <c r="V14" s="174" t="s">
-        <v>433</v>
-      </c>
-      <c r="W14" s="176" t="s">
-        <v>434</v>
-      </c>
-      <c r="X14" s="197" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y14" s="203" t="s">
-        <v>423</v>
-      </c>
-      <c r="Z14" s="171" t="s">
-        <v>424</v>
-      </c>
-      <c r="AA14" s="175" t="s">
-        <v>435</v>
-      </c>
-      <c r="AB14" s="197" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC14" s="203" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD14" s="197" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE14" s="198" t="s">
-        <v>348</v>
-      </c>
-      <c r="AF14" s="174" t="s">
-        <v>349</v>
-      </c>
-      <c r="AG14" s="175" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH14" s="175" t="s">
-        <v>262</v>
-      </c>
-      <c r="AI14" s="197" t="s">
+      <c r="AK14" s="198" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL14" s="197" t="s">
         <v>167</v>
-      </c>
-      <c r="AJ14" s="197" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK14" s="198" t="s">
-        <v>255</v>
-      </c>
-      <c r="AL14" s="197" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -63340,7 +63340,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="192" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G1" s="163"/>
       <c r="H1" s="191"/>
@@ -63354,27 +63354,27 @@
       <c r="P1" s="386"/>
       <c r="Q1" s="386"/>
       <c r="R1" s="358" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="S1" s="359"/>
       <c r="T1" s="360"/>
       <c r="U1" s="164"/>
       <c r="V1" s="193"/>
       <c r="W1" s="195" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="X1" s="161"/>
       <c r="Y1" s="161"/>
       <c r="Z1" s="161"/>
       <c r="AA1" s="192" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AB1" s="159"/>
       <c r="AC1" s="167"/>
     </row>
     <row r="2" spans="1:29" s="21" customFormat="1" ht="19.05" customHeight="1">
       <c r="A2" s="404" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B2" s="401"/>
       <c r="D2" s="2"/>
@@ -63394,32 +63394,32 @@
       <c r="R2" s="361"/>
       <c r="S2" s="362"/>
       <c r="T2" s="363" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="235" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="W2" s="237" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="X2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Y2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Z2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AA2" s="237" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AB2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AC2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="117" customHeight="1" thickBot="1">
@@ -63428,76 +63428,76 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
+        <v>575</v>
+      </c>
+      <c r="G3" s="115" t="s">
+        <v>576</v>
+      </c>
+      <c r="H3" s="116" t="s">
+        <v>577</v>
+      </c>
+      <c r="I3" s="115" t="s">
+        <v>578</v>
+      </c>
+      <c r="J3" s="117" t="s">
+        <v>579</v>
+      </c>
+      <c r="K3" s="387" t="s">
         <v>580</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="L3" s="387" t="s">
         <v>581</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="M3" s="387" t="s">
         <v>582</v>
       </c>
-      <c r="I3" s="115" t="s">
+      <c r="N3" s="387" t="s">
         <v>583</v>
       </c>
-      <c r="J3" s="117" t="s">
+      <c r="O3" s="387" t="s">
         <v>584</v>
       </c>
-      <c r="K3" s="387" t="s">
+      <c r="P3" s="387" t="s">
         <v>585</v>
       </c>
-      <c r="L3" s="387" t="s">
+      <c r="Q3" s="387" t="s">
         <v>586</v>
       </c>
-      <c r="M3" s="387" t="s">
-        <v>587</v>
-      </c>
-      <c r="N3" s="387" t="s">
-        <v>588</v>
-      </c>
-      <c r="O3" s="387" t="s">
-        <v>589</v>
-      </c>
-      <c r="P3" s="387" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q3" s="387" t="s">
-        <v>591</v>
-      </c>
       <c r="R3" s="364" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="S3" s="365" t="s">
         <v>106</v>
       </c>
       <c r="T3" s="366" t="s">
+        <v>565</v>
+      </c>
+      <c r="U3" s="204" t="s">
+        <v>566</v>
+      </c>
+      <c r="V3" s="234" t="s">
+        <v>567</v>
+      </c>
+      <c r="W3" s="238" t="s">
+        <v>568</v>
+      </c>
+      <c r="X3" s="230" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y3" s="230" t="s">
         <v>570</v>
       </c>
-      <c r="U3" s="204" t="s">
+      <c r="Z3" s="230" t="s">
         <v>571</v>
       </c>
-      <c r="V3" s="234" t="s">
+      <c r="AA3" s="238" t="s">
         <v>572</v>
       </c>
-      <c r="W3" s="238" t="s">
+      <c r="AB3" s="230" t="s">
         <v>573</v>
       </c>
-      <c r="X3" s="230" t="s">
+      <c r="AC3" s="230" t="s">
         <v>574</v>
-      </c>
-      <c r="Y3" s="230" t="s">
-        <v>575</v>
-      </c>
-      <c r="Z3" s="230" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA3" s="238" t="s">
-        <v>577</v>
-      </c>
-      <c r="AB3" s="230" t="s">
-        <v>578</v>
-      </c>
-      <c r="AC3" s="230" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -63878,25 +63878,25 @@
       <c r="I8" s="36"/>
       <c r="J8" s="11"/>
       <c r="K8" s="355" t="s">
+        <v>365</v>
+      </c>
+      <c r="L8" s="355" t="s">
+        <v>366</v>
+      </c>
+      <c r="M8" s="355" t="s">
+        <v>366</v>
+      </c>
+      <c r="N8" s="355" t="s">
+        <v>366</v>
+      </c>
+      <c r="O8" s="355" t="s">
         <v>367</v>
       </c>
-      <c r="L8" s="355" t="s">
+      <c r="P8" s="355" t="s">
         <v>368</v>
       </c>
-      <c r="M8" s="355" t="s">
+      <c r="Q8" s="355" t="s">
         <v>368</v>
-      </c>
-      <c r="N8" s="355" t="s">
-        <v>368</v>
-      </c>
-      <c r="O8" s="355" t="s">
-        <v>369</v>
-      </c>
-      <c r="P8" s="355" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q8" s="355" t="s">
-        <v>370</v>
       </c>
       <c r="R8" s="353" t="s">
         <v>57</v>
@@ -63906,25 +63906,25 @@
       </c>
       <c r="U8" s="129"/>
       <c r="V8" s="241" t="s">
+        <v>365</v>
+      </c>
+      <c r="X8" s="241" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y8" s="241" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z8" s="241" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA8" s="257" t="s">
         <v>367</v>
       </c>
-      <c r="X8" s="241" t="s">
+      <c r="AB8" s="241" t="s">
         <v>368</v>
       </c>
-      <c r="Y8" s="241" t="s">
+      <c r="AC8" s="241" t="s">
         <v>368</v>
-      </c>
-      <c r="Z8" s="241" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA8" s="257" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB8" s="241" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC8" s="241" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -64005,150 +64005,150 @@
     </row>
     <row r="11" spans="1:29">
       <c r="F11" s="47" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K11" s="355" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L11" s="355" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M11" s="355" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N11" s="355" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O11" s="355" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P11" s="355" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="355" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="R11" s="353" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="S11" s="354" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="T11" s="349" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="V11" s="33" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="W11" s="56" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="X11" s="33" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Y11" s="33" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Z11" s="33" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AA11" s="56" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AB11" s="33" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AC11" s="33" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="F12" s="47" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H12" s="73" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K12" s="355" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L12" s="355" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M12" s="355" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N12" s="355" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O12" s="355" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P12" s="355" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q12" s="355" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="R12" s="353" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="S12" s="354" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="T12" s="349" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="V12" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="W12" s="56" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="X12" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Y12" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Z12" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AA12" s="56" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AB12" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AC12" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -64197,13 +64197,13 @@
         <v>138</v>
       </c>
       <c r="J14" s="175" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K14" s="372" t="s">
         <v>139</v>
       </c>
       <c r="L14" s="372" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M14" s="372" t="s">
         <v>140</v>
@@ -64224,37 +64224,37 @@
         <v>149</v>
       </c>
       <c r="S14" s="357" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T14" s="356" t="s">
         <v>150</v>
       </c>
       <c r="U14" s="199" t="s">
+        <v>349</v>
+      </c>
+      <c r="V14" s="200" t="s">
+        <v>348</v>
+      </c>
+      <c r="W14" s="202" t="s">
+        <v>352</v>
+      </c>
+      <c r="X14" s="200" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y14" s="200" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z14" s="200" t="s">
         <v>351</v>
       </c>
-      <c r="V14" s="200" t="s">
-        <v>350</v>
-      </c>
-      <c r="W14" s="202" t="s">
+      <c r="AA14" s="202" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB14" s="200" t="s">
         <v>354</v>
       </c>
-      <c r="X14" s="200" t="s">
-        <v>511</v>
-      </c>
-      <c r="Y14" s="200" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z14" s="200" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA14" s="202" t="s">
+      <c r="AC14" s="200" t="s">
         <v>355</v>
-      </c>
-      <c r="AB14" s="200" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC14" s="200" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -64468,7 +64468,7 @@
     </row>
     <row r="2" spans="1:21" s="21" customFormat="1" ht="19.05" customHeight="1">
       <c r="A2" s="404" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B2" s="401"/>
       <c r="C2" s="2"/>
@@ -64482,23 +64482,23 @@
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="N2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="231" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="R2" s="231" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="S2" s="108"/>
       <c r="T2" s="3"/>
       <c r="U2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="117" customHeight="1" thickBot="1">
@@ -64508,49 +64508,49 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G3" s="115" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H3" s="117" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I3" s="115" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="J3" s="117" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="K3" s="61" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="L3" s="61" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="M3" s="230" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="N3" s="230" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="O3" s="132" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="P3" s="204" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q3" s="233" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="R3" s="233" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="S3" s="221" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="T3" s="182" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="U3" s="230" t="s">
         <v>95</v>
@@ -64828,7 +64828,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="11"/>
       <c r="K8" s="245" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L8" s="245" t="s">
         <v>64</v>
@@ -64858,7 +64858,7 @@
       <c r="I9" s="36"/>
       <c r="J9" s="11"/>
       <c r="K9" s="245" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L9" s="245" t="s">
         <v>65</v>
@@ -64893,102 +64893,102 @@
     </row>
     <row r="11" spans="1:21">
       <c r="F11" s="47" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q11" s="40" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="S11" s="143" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="T11" s="86" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="U11" s="33" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="F12" s="47" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M12" s="33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q12" s="40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="R12" s="40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S12" s="143" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="T12" s="86" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="U12" s="33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -65028,13 +65028,13 @@
         <v>138</v>
       </c>
       <c r="J14" s="175" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K14" s="171" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L14" s="174" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M14" s="177" t="s">
         <v>151</v>
@@ -65043,10 +65043,10 @@
         <v>152</v>
       </c>
       <c r="O14" s="175" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P14" s="175" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="197" t="s">
         <v>154</v>
@@ -65055,13 +65055,13 @@
         <v>153</v>
       </c>
       <c r="S14" s="203" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="T14" s="175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="U14" s="197" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -65194,11 +65194,11 @@
   </sheetPr>
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65229,7 +65229,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="194" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G1" s="380"/>
       <c r="H1" s="380"/>
@@ -65237,7 +65237,7 @@
       <c r="J1" s="161"/>
       <c r="K1" s="342"/>
       <c r="L1" s="194" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="M1" s="161"/>
       <c r="N1" s="161"/>
@@ -65250,7 +65250,7 @@
     </row>
     <row r="2" spans="1:18" s="21" customFormat="1" ht="19.05" customHeight="1">
       <c r="A2" s="404" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B2" s="401"/>
       <c r="C2" s="2"/>
@@ -65264,16 +65264,16 @@
       <c r="K2" s="374"/>
       <c r="L2" s="108"/>
       <c r="M2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="N2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O2" s="124"/>
       <c r="P2" s="49"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="117" customHeight="1" thickBot="1">
@@ -65283,25 +65283,25 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="119" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G3" s="382" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="H3" s="382" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I3" s="379" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="J3" s="118" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="K3" s="375" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="L3" s="205" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="M3" s="230" t="s">
         <v>26</v>
@@ -65310,16 +65310,16 @@
         <v>27</v>
       </c>
       <c r="O3" s="113" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="P3" s="63" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="Q3" s="204" t="s">
         <v>107</v>
       </c>
       <c r="R3" s="230" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -65607,43 +65607,43 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="72" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G11" s="330" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H11" s="330" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I11" s="330" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K11" s="373" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -65721,37 +65721,37 @@
         <v>31</v>
       </c>
       <c r="F14" s="203" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G14" s="385" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H14" s="385" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I14" s="385" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="J14" s="171" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K14" s="329" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="L14" s="203" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="M14" s="197" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N14" s="197" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O14" s="197" t="s">
         <v>155</v>
       </c>
       <c r="P14" s="198" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="175" t="s">
         <v>156</v>
@@ -65811,7 +65811,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="M16" s="33" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -65925,7 +65925,7 @@
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
       <c r="L2" s="236" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="117" customHeight="1">
@@ -65935,25 +65935,25 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G3" s="115" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H3" s="115" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="I3" s="115" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="K3" s="61" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="L3" s="230" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -66109,7 +66109,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="J8" s="254" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K8" s="245" t="s">
         <v>87</v>
@@ -66120,7 +66120,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="J9" s="254" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K9" s="245" t="s">
         <v>88</v>
@@ -66136,25 +66136,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="F11" s="47" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -66165,10 +66165,10 @@
         <v>94</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J12" s="36" t="s">
         <v>94</v>
@@ -66200,22 +66200,22 @@
         <v>135</v>
       </c>
       <c r="G14" s="174" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H14" s="174" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I14" s="174" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J14" s="174" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K14" s="174" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L14" s="197" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:12">

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86099FED-BA5A-462B-B34B-D60F2DF44B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662C5BDF-B61B-4590-8C05-50B2E705D348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="10" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
@@ -2789,10 +2789,6 @@
     <t>TB_Incidence.Rt</t>
   </si>
   <si>
-    <t>WHO TB Incidence Rate 
-(%)</t>
-  </si>
-  <si>
     <t>Targeted proportion: Already on ART 
 (FY26) (%)</t>
   </si>
@@ -2855,6 +2851,10 @@
   </si>
   <si>
     <t>TX_TB.N.New.Neg.Linkage</t>
+  </si>
+  <si>
+    <t>WHO TB Incidence rate among PLHIV
+(%)</t>
   </si>
 </sst>
 </file>
@@ -6080,7 +6080,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
+      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6185,43 +6185,43 @@
         <v>481</v>
       </c>
       <c r="G3" s="204" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="H3" s="375" t="s">
         <v>668</v>
       </c>
       <c r="I3" s="375" t="s">
+        <v>674</v>
+      </c>
+      <c r="J3" s="375" t="s">
         <v>675</v>
       </c>
-      <c r="J3" s="375" t="s">
+      <c r="K3" s="204" t="s">
+        <v>672</v>
+      </c>
+      <c r="L3" s="204" t="s">
+        <v>673</v>
+      </c>
+      <c r="M3" s="30" t="s">
         <v>676</v>
       </c>
-      <c r="K3" s="204" t="s">
-        <v>673</v>
-      </c>
-      <c r="L3" s="204" t="s">
-        <v>674</v>
-      </c>
-      <c r="M3" s="30" t="s">
+      <c r="N3" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="N3" s="30" t="s">
-        <v>678</v>
-      </c>
       <c r="O3" s="118" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P3" s="63" t="s">
         <v>649</v>
       </c>
       <c r="Q3" s="64" t="s">
+        <v>678</v>
+      </c>
+      <c r="R3" s="391" t="s">
         <v>679</v>
       </c>
-      <c r="R3" s="391" t="s">
-        <v>680</v>
-      </c>
       <c r="S3" s="392" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="T3" s="204" t="s">
         <v>614</v>
@@ -6788,10 +6788,10 @@
         <v>667</v>
       </c>
       <c r="K14" s="175" t="s">
+        <v>685</v>
+      </c>
+      <c r="L14" s="175" t="s">
         <v>686</v>
-      </c>
-      <c r="L14" s="175" t="s">
-        <v>687</v>
       </c>
       <c r="M14" s="197" t="s">
         <v>664</v>
@@ -6812,13 +6812,13 @@
         <v>159</v>
       </c>
       <c r="S14" s="171" t="s">
+        <v>688</v>
+      </c>
+      <c r="T14" s="175" t="s">
+        <v>687</v>
+      </c>
+      <c r="U14" s="176" t="s">
         <v>689</v>
-      </c>
-      <c r="T14" s="175" t="s">
-        <v>688</v>
-      </c>
-      <c r="U14" s="176" t="s">
-        <v>690</v>
       </c>
       <c r="V14" s="176" t="s">
         <v>442</v>
@@ -6905,7 +6905,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="I16" s="405" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J16" s="405"/>
       <c r="K16"/>
@@ -65736,10 +65736,10 @@
         <v>232</v>
       </c>
       <c r="K14" s="329" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L14" s="203" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M14" s="197" t="s">
         <v>209</v>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662C5BDF-B61B-4590-8C05-50B2E705D348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE26DA3A-FB2A-4FA7-835A-569F47FAB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="10" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
@@ -6854,11 +6854,11 @@
         <v/>
       </c>
       <c r="K15" s="11" t="str">
-        <f>IF(SUM($H15)=0,"",ROUND($I15/($I15/$J15),0))</f>
+        <f>IF(SUM($H15)=0,"",ROUND($I15/($I15+$J15),2))</f>
         <v/>
       </c>
       <c r="L15" s="11" t="str">
-        <f>IF(SUM($H15)=0,"",ROUND(1-$K15,0))</f>
+        <f>IF(SUM($H15)=0,"",ROUND(1-$K15,2))</f>
         <v/>
       </c>
       <c r="M15" s="33" t="str">
@@ -6887,11 +6887,11 @@
         <v>0.9</v>
       </c>
       <c r="W15" s="378" t="str">
-        <f>IF(SUM($F15)=0,"",IF($V15="","ENTER COMPLETION RATE",IF($T15="","ENTER INITIATION RATE",ROUND(($F15-$M15)*$T15*$V15,0))))</f>
+        <f>IF(SUM($F15)=0,"",IF($V15="","ENTER COMPLETION RATE",IF($T15="","ENTER INITIATION RATE",ROUND(($F15-$S15)*$T15*$V15,0))))</f>
         <v/>
       </c>
       <c r="X15" s="378" t="str">
-        <f>IF(SUM($F15)=0,"",IF($V15="","ENTER COMPLETION RATE",IF($T15 = "","ENTER INITIATION RATE",ROUND(($F15-$N15)*$T15*$V15,0))))</f>
+        <f>IF(SUM($F15)=0,"",IF($V15="","ENTER COMPLETION RATE",IF($T15 = "","ENTER INITIATION RATE",ROUND(($O15-$N15)*$U15*$V15,0))))</f>
         <v/>
       </c>
       <c r="Y15" s="11" t="str">

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE26DA3A-FB2A-4FA7-835A-569F47FAB920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13E81D9-A0A9-4088-9CC4-13F38B37DC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="10" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-36960" yWindow="-1725" windowWidth="34995" windowHeight="17355" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="695">
   <si>
     <t>TX_CURR</t>
   </si>
@@ -2855,6 +2855,18 @@
   <si>
     <t>WHO TB Incidence rate among PLHIV
 (%)</t>
+  </si>
+  <si>
+    <t>TbG5gCQH78Q</t>
+  </si>
+  <si>
+    <t>oOKsYnDuN4i</t>
+  </si>
+  <si>
+    <t>VLzoQMAdG8N</t>
+  </si>
+  <si>
+    <t>wM1xqMQ4Zt6</t>
   </si>
 </sst>
 </file>
@@ -6076,11 +6088,11 @@
   </sheetPr>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6569,8 +6581,12 @@
     <row r="8" spans="1:26">
       <c r="I8" s="390"/>
       <c r="J8" s="390"/>
-      <c r="M8" s="349"/>
-      <c r="N8" s="349"/>
+      <c r="M8" s="349" t="s">
+        <v>693</v>
+      </c>
+      <c r="N8" s="349" t="s">
+        <v>693</v>
+      </c>
       <c r="Q8" s="245" t="s">
         <v>96</v>
       </c>
@@ -6593,8 +6609,12 @@
     <row r="9" spans="1:26">
       <c r="I9" s="390"/>
       <c r="J9" s="390"/>
-      <c r="M9" s="349"/>
-      <c r="N9" s="349"/>
+      <c r="M9" s="349" t="s">
+        <v>694</v>
+      </c>
+      <c r="N9" s="349" t="s">
+        <v>694</v>
+      </c>
       <c r="Q9" s="245" t="s">
         <v>97</v>
       </c>
@@ -6617,8 +6637,12 @@
     <row r="10" spans="1:26">
       <c r="I10" s="390"/>
       <c r="J10" s="390"/>
-      <c r="M10" s="349"/>
-      <c r="N10" s="349"/>
+      <c r="M10" s="349" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="349" t="s">
+        <v>59</v>
+      </c>
       <c r="Q10" s="245" t="s">
         <v>60</v>
       </c>
@@ -6963,7 +6987,7 @@
       <formula>AND(ISNUMBER(I1),I1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:N14 K15:O15 I16 I17:J17 I18:W1048576 F1:H1048576 O1:W15 P16:W17">
+  <conditionalFormatting sqref="K15:O15 I16 I17:J17 I18:W1048576 F1:H1048576 O1:W15 P16:W17 I1:N14">
     <cfRule type="expression" dxfId="44" priority="24">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
@@ -24860,7 +24884,7 @@
   </sheetPr>
   <dimension ref="A1:BI3876"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="AW15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -65198,7 +65222,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65549,8 +65573,12 @@
       <c r="I8" s="111"/>
       <c r="K8" s="377"/>
       <c r="L8" s="128"/>
-      <c r="M8" s="378"/>
-      <c r="N8" s="378"/>
+      <c r="M8" s="378" t="s">
+        <v>691</v>
+      </c>
+      <c r="N8" s="378" t="s">
+        <v>691</v>
+      </c>
       <c r="P8" s="252" t="s">
         <v>108</v>
       </c>
@@ -65570,8 +65598,12 @@
       <c r="I9" s="111"/>
       <c r="K9" s="377"/>
       <c r="L9" s="128"/>
-      <c r="M9" s="378"/>
-      <c r="N9" s="378"/>
+      <c r="M9" s="378" t="s">
+        <v>692</v>
+      </c>
+      <c r="N9" s="378" t="s">
+        <v>692</v>
+      </c>
       <c r="P9" s="252" t="s">
         <v>109</v>
       </c>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13E81D9-A0A9-4088-9CC4-13F38B37DC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0598B6E9-7DDC-443A-94A1-3EEC9B71EA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36960" yWindow="-1725" windowWidth="34995" windowHeight="17355" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-36960" yWindow="-1725" windowWidth="34995" windowHeight="17355" activeTab="7" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="697">
   <si>
     <t>TX_CURR</t>
   </si>
@@ -2867,6 +2867,12 @@
   </si>
   <si>
     <t>wM1xqMQ4Zt6</t>
+  </si>
+  <si>
+    <t>VlD4dM191wg</t>
+  </si>
+  <si>
+    <t>de2brmxC0rR</t>
   </si>
 </sst>
 </file>
@@ -6092,7 +6098,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6579,8 +6585,12 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="I8" s="390"/>
-      <c r="J8" s="390"/>
+      <c r="I8" s="390" t="s">
+        <v>695</v>
+      </c>
+      <c r="J8" s="390" t="s">
+        <v>695</v>
+      </c>
       <c r="M8" s="349" t="s">
         <v>693</v>
       </c>
@@ -6607,8 +6617,12 @@
       <c r="Z8" s="129"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="I9" s="390"/>
-      <c r="J9" s="390"/>
+      <c r="I9" s="390" t="s">
+        <v>696</v>
+      </c>
+      <c r="J9" s="390" t="s">
+        <v>696</v>
+      </c>
       <c r="M9" s="349" t="s">
         <v>694</v>
       </c>
@@ -6635,8 +6649,12 @@
       <c r="Z9" s="129"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="I10" s="390"/>
-      <c r="J10" s="390"/>
+      <c r="I10" s="390" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="390" t="s">
+        <v>59</v>
+      </c>
       <c r="M10" s="349" t="s">
         <v>60</v>
       </c>
@@ -24884,7 +24902,7 @@
   </sheetPr>
   <dimension ref="A1:BI3876"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="AW15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -63329,7 +63347,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65218,11 +65236,11 @@
   </sheetPr>
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65821,7 +65839,7 @@
       </c>
       <c r="L15" s="72"/>
       <c r="M15" s="33" t="str">
-        <f>IF(OR(SUM($J15)=0,SUM($L15)=0),"",ROUND(SUM($J15)*SUM($L15),0))</f>
+        <f>IF(OR(SUM($K15)=0,SUM($L15)=0),"",ROUND(SUM($K15)*SUM($L15),0))</f>
         <v/>
       </c>
       <c r="N15" s="33" t="str">

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BCD7EA-99DE-4185-BF68-78B5373EF917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F19B537-0E51-4E12-B65B-5A03438434B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37080" yWindow="-1125" windowWidth="34995" windowHeight="17355" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="701">
   <si>
     <t>TX_CURR</t>
   </si>
@@ -2908,6 +2908,9 @@
   </si>
   <si>
     <t>PSNU Estimates</t>
+  </si>
+  <si>
+    <t>^ From DATIM</t>
   </si>
 </sst>
 </file>
@@ -4212,6 +4215,25 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="20" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="30" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="33" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4233,25 +4255,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="30" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="33" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -4263,16 +4266,6 @@
     <cellStyle name="Percent 2" xfId="3" xr:uid="{EBDE175B-1152-3C44-B18E-2B948C595077}"/>
   </cellStyles>
   <dxfs count="112">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4877,6 +4870,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4892,16 +4895,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5270,6 +5263,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED79F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCB257"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -5300,16 +5307,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFED79F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCB257"/>
+        <patternFill patternType="darkUp">
+          <fgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6096,20 +6099,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>AND(ROW(F1)&gt;14,LEFT(B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:L1048576">
-    <cfRule type="expression" dxfId="60" priority="5">
+    <cfRule type="expression" dxfId="59" priority="5">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="expression" dxfId="59" priority="3">
+    <cfRule type="expression" dxfId="58" priority="3">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",$D1&lt;&gt;"Female")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="4">
+    <cfRule type="expression" dxfId="57" priority="4">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",NOT(OR($C1="15-24",$C1="25-34")))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6171,10 +6174,10 @@
       <c r="M1" s="160"/>
     </row>
     <row r="2" spans="1:13" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="401" t="s">
+      <c r="A2" s="412" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="398"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6190,8 +6193,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="399"/>
-      <c r="B3" s="400"/>
+      <c r="A3" s="410"/>
+      <c r="B3" s="411"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -6550,22 +6553,22 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:M1048576">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:L1048576">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>AND(ISNUMBER(J1),J1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="expression" dxfId="55" priority="3">
+    <cfRule type="expression" dxfId="54" priority="3">
       <formula>AND(ISNUMBER($K1),$K1&lt;33%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="expression" dxfId="54" priority="7">
+    <cfRule type="expression" dxfId="53" priority="7">
       <formula>AND(ISNUMBER($L1),$L1&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7438,10 +7441,10 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="I16" s="402" t="s">
+      <c r="I16" s="413" t="s">
         <v>680</v>
       </c>
-      <c r="J16" s="402"/>
+      <c r="J16" s="413"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -7462,71 +7465,71 @@
     <mergeCell ref="I16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="52" priority="1">
       <formula>AND(ISNUMBER(G7),ROUND(SUM(G7),2)&lt;100%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="51" priority="2">
       <formula>AND(ISNUMBER(G7),G7&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1048576 I1:K14 L1:L15 K15 I17:J17 I18:L1048576">
-    <cfRule type="expression" dxfId="51" priority="20">
+    <cfRule type="expression" dxfId="50" priority="20">
       <formula>AND(SUM(#REF!)&gt;0,G1="",ROW(G1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="expression" dxfId="50" priority="16">
+    <cfRule type="expression" dxfId="49" priority="16">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="18">
+    <cfRule type="expression" dxfId="48" priority="18">
       <formula>AND(ISNUMBER(G1),ROUND(SUM(G1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="48" priority="3903">
+    <cfRule type="expression" dxfId="47" priority="3903">
       <formula>AND(SUM(#REF!)&gt;0,I16="",ROW(I16)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L14 K15:L15 I17:J17 I18:L1048576 I16">
-    <cfRule type="expression" dxfId="47" priority="22">
+    <cfRule type="expression" dxfId="46" priority="22">
       <formula>AND(ISNUMBER(I1),ROUND(SUM(I1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L14 T1:U1048576 K15:L15 I16 I17:J17 I18:L1048576">
-    <cfRule type="expression" dxfId="46" priority="26">
+    <cfRule type="expression" dxfId="45" priority="26">
       <formula>AND(ISNUMBER(I1),I1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:N14 K15:O15 I16 I17:J17 I18:W1048576 F1:H1048576 O1:W15 P16:W17">
-    <cfRule type="expression" dxfId="45" priority="24">
+    <cfRule type="expression" dxfId="44" priority="24">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L15 L18:L1048576">
-    <cfRule type="expression" dxfId="44" priority="30">
+    <cfRule type="expression" dxfId="43" priority="30">
       <formula>AND(SUM(#REF!)&lt;&gt;0,L1="",ROW(L1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="43" priority="11">
+    <cfRule type="expression" dxfId="42" priority="11">
       <formula>AND(ISNUMBER(T1),ROUND(SUM(T1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:V1048576">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="41" priority="4">
       <formula>V1="ENTER INITIATION RATE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="40" priority="3">
       <formula>AND(ISNUMBER(V1),V1&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="5">
+    <cfRule type="expression" dxfId="39" priority="5">
       <formula>AND(ISNUMBER(V1),ROUND(SUM(V1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="38" priority="6">
       <formula>AND(ISNUMBER(X1),X1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8181,27 +8184,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:H1048576 J1:R1048576">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576 O1:O1048576">
-    <cfRule type="expression" dxfId="37" priority="3854">
+    <cfRule type="expression" dxfId="36" priority="3854">
       <formula>AND($B1&lt;&gt;"",ROW(J1)&gt;14,NOT(AND($D1="Female",$F1="Y",OR($C1="10-14",$C1="15-17"))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:M1048576">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(ISNUMBER(J1),OR(ROUND(SUM(J1),2)&lt;0,ROUND(SUM(J1),2)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 P1:P1048576">
-    <cfRule type="expression" dxfId="35" priority="17">
+    <cfRule type="expression" dxfId="34" priority="17">
       <formula>AND($E1&lt;&gt;"",ROW(K1)&gt;14,NOT(OR($C1="05-09",$C1="10-14")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="34" priority="24">
+    <cfRule type="expression" dxfId="33" priority="24">
       <formula>AND(ISNUMBER($M1),ROUND(SUM($M1),2)&lt;20%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8506,7 +8509,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:D1048576 G1:H1048576">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(ISNUMBER(C1),C1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8571,10 +8574,10 @@
       <c r="U1" s="160"/>
     </row>
     <row r="2" spans="1:21" s="21" customFormat="1" ht="18">
-      <c r="A2" s="401" t="s">
+      <c r="A2" s="412" t="s">
         <v>385</v>
       </c>
-      <c r="B2" s="398"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -8600,8 +8603,8 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="399"/>
-      <c r="B3" s="400"/>
+      <c r="A3" s="410"/>
+      <c r="B3" s="411"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -9192,27 +9195,27 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:Q1048576 S1:U1048576">
-    <cfRule type="expression" dxfId="32" priority="23">
+    <cfRule type="expression" dxfId="31" priority="23">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="31" priority="24">
+    <cfRule type="expression" dxfId="30" priority="24">
       <formula>AND(ISNUMBER(Q1),Q1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="30" priority="3881">
+    <cfRule type="expression" dxfId="29" priority="3881">
       <formula>AND(ROUND(SUM($S1),2)&lt;60%,SUM($T1)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="29" priority="35">
+    <cfRule type="expression" dxfId="28" priority="35">
       <formula>AND(ISNUMBER(T1),SUM($T1)&gt;SUM($K1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>AND(ISNUMBER(T1),SUM($U1)&gt;SUM($T1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9353,10 +9356,10 @@
       <c r="BG1" s="160"/>
     </row>
     <row r="2" spans="1:59" s="21" customFormat="1" ht="18">
-      <c r="A2" s="401" t="s">
+      <c r="A2" s="412" t="s">
         <v>396</v>
       </c>
-      <c r="B2" s="398"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="51" t="s">
         <v>338</v>
       </c>
@@ -9448,8 +9451,8 @@
       <c r="BG2" s="29"/>
     </row>
     <row r="3" spans="1:59" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="399"/>
-      <c r="B3" s="400"/>
+      <c r="A3" s="410"/>
+      <c r="B3" s="411"/>
       <c r="C3" s="114" t="s">
         <v>502</v>
       </c>
@@ -11080,137 +11083,137 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:D1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>AND(ROW($F1)&gt;14,SUM($F1)&gt;$C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1048576 H1:J1048576">
-    <cfRule type="expression" dxfId="26" priority="8">
+    <cfRule type="expression" dxfId="25" priority="8">
       <formula>(($C1-$F1)+($E1-$G1))&lt;SUM($H1:$J1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 G1:G1048576">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>AND(ROW($G1)&gt;14,SUM($G1)&gt;$E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 M1:M1048576">
-    <cfRule type="expression" dxfId="24" priority="10">
+    <cfRule type="expression" dxfId="23" priority="10">
       <formula>AND(ROW($M1)&gt;14,SUM($M1)&gt;$K1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L1048576 O1:Q1048576">
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>(($K1-$M1)+($L1-$N1))&lt;SUM($O1:$Q1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576 N1:N1048576">
-    <cfRule type="expression" dxfId="22" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>AND(ROW($N1)&gt;14,SUM($N1)&gt;$L1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576 T1:T1048576">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>AND(ROW($T1)&gt;14,SUM($T1)&gt;$R1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1048576 V1:X1048576">
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>(($R1-$T1)+($S1-$U1))&lt;SUM($V1:$X1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>AND(ROW($U1)&gt;14,SUM($U1)&gt;$S1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576 AA1:AA1048576">
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>AND(ROW($AA1)&gt;14,SUM($AA1)&gt;$Y1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Z1048576 AC1:AE1048576">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>(($Y1-$AA1)+($Z1-$AB1))&lt;SUM($AC1:$AE1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1048576 AB1:AB1048576">
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>AND(ROW($AB1)&gt;14,SUM($AB1)&gt;$Z1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AF1048576 AH1:AH1048576">
-    <cfRule type="expression" dxfId="15" priority="21">
+    <cfRule type="expression" dxfId="14" priority="21">
       <formula>AND(ROW($AH1)&gt;14,SUM($AH1)&gt;$AF1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AG1048576 AJ1:AL1048576">
-    <cfRule type="expression" dxfId="14" priority="24">
+    <cfRule type="expression" dxfId="13" priority="24">
       <formula>(($AF1-$AH1)+($AG1-$AI1))&lt;SUM($AJ1:$AL1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AI1:AI1048576">
-    <cfRule type="expression" dxfId="13" priority="22">
+    <cfRule type="expression" dxfId="12" priority="22">
       <formula>AND(ROW($AI1)&gt;14,SUM($AI1)&gt;$AG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM1048576 AO1:AO1048576">
-    <cfRule type="expression" dxfId="12" priority="25">
+    <cfRule type="expression" dxfId="11" priority="25">
       <formula>AND(ROW($AO1)&gt;14,SUM($AO1)&gt;$AM1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AN1048576 AQ1:AS1048576">
-    <cfRule type="expression" dxfId="11" priority="28">
+    <cfRule type="expression" dxfId="10" priority="28">
       <formula>(($AM1-$AO1)+($AN1-$AP1))&lt;SUM($AQ1:$AS1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AN1048576 AP1:AP1048576">
-    <cfRule type="expression" dxfId="10" priority="26">
+    <cfRule type="expression" dxfId="9" priority="26">
       <formula>AND(ROW($AP1)&gt;14,SUM($AP1)&gt;$AN1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AT1048576 AV1:AV1048576">
-    <cfRule type="expression" dxfId="9" priority="29">
+    <cfRule type="expression" dxfId="8" priority="29">
       <formula>AND(ROW($AV1)&gt;14,SUM($AV1)&gt;$AT1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU1048576 AX1:AZ1048576">
-    <cfRule type="expression" dxfId="8" priority="32">
+    <cfRule type="expression" dxfId="7" priority="32">
       <formula>(($AT1-$AV1)+($AU1-$AW1))&lt;SUM($AX1:$AZ1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU1048576 AW1:AW1048576">
-    <cfRule type="expression" dxfId="7" priority="30">
+    <cfRule type="expression" dxfId="6" priority="30">
       <formula>AND(ROW($AW1)&gt;14,SUM($AW1)&gt;$AU1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BA1048576">
-    <cfRule type="expression" dxfId="6" priority="45">
+    <cfRule type="expression" dxfId="5" priority="45">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BB1048576">
-    <cfRule type="expression" dxfId="5" priority="1136">
+    <cfRule type="expression" dxfId="4" priority="1136">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB1:BB1048576">
-    <cfRule type="expression" dxfId="4" priority="1135">
+    <cfRule type="expression" dxfId="3" priority="1135">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC1:BC1048576">
-    <cfRule type="expression" dxfId="3" priority="33">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD1:BD1048576">
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule type="expression" dxfId="1" priority="34">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1:BG1048576">
-    <cfRule type="expression" dxfId="1" priority="36">
+    <cfRule type="expression" dxfId="0" priority="36">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11423,7 +11426,7 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="396" t="s">
+      <c r="B6" s="407" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="5"/>
@@ -11436,7 +11439,7 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="396"/>
+      <c r="B7" s="407"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -11482,7 +11485,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="396" t="s">
+      <c r="B11" s="407" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="5"/>
@@ -11495,7 +11498,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="396"/>
+      <c r="B12" s="407"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -11541,7 +11544,7 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="396" t="s">
+      <c r="B16" s="407" t="s">
         <v>118</v>
       </c>
       <c r="D16" s="5"/>
@@ -11554,7 +11557,7 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="396"/>
+      <c r="B17" s="407"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -11576,7 +11579,7 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="396" t="s">
+      <c r="B19" s="407" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="5"/>
@@ -11589,7 +11592,7 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="396"/>
+      <c r="B20" s="407"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -11657,7 +11660,7 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="396" t="s">
+      <c r="B26" s="407" t="s">
         <v>462</v>
       </c>
       <c r="D26" s="5"/>
@@ -11670,7 +11673,7 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="396"/>
+      <c r="B27" s="407"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -25391,7 +25394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40C0D9C-55AA-4B47-A16E-7BAE8CBB2B91}">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -25450,10 +25453,10 @@
       <c r="Y1" s="161"/>
     </row>
     <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="397" t="s">
+      <c r="A2" s="408" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="398"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="13"/>
@@ -25485,8 +25488,8 @@
       <c r="Y2" s="53"/>
     </row>
     <row r="3" spans="1:25" ht="78.599999999999994" thickBot="1">
-      <c r="A3" s="399"/>
-      <c r="B3" s="400"/>
+      <c r="A3" s="410"/>
+      <c r="B3" s="411"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="262"/>
@@ -26297,33 +26300,31 @@
     <cfRule type="expression" dxfId="108" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1048576">
-    <cfRule type="expression" dxfId="107" priority="4">
-      <formula>AND(ISNUMBER($Y1),ROW($Y1)&gt;14,SUM($Y1)=SUM($X1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="6">
-      <formula>AND(ISNUMBER($Y1),ROW($Y1)&gt;14,SUM($Y1)=SUM($W1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="expression" dxfId="105" priority="9">
-      <formula>AND(ISNUMBER(N1),N1&lt;0.9)</formula>
+    <cfRule type="expression" dxfId="107" priority="3905">
+      <formula>AND(ROW($F1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576 L1:L1048576 N1:O1048576 R1:R1048576 T1:U1048576">
-    <cfRule type="expression" dxfId="104" priority="5">
+    <cfRule type="expression" dxfId="106" priority="5">
       <formula>AND(ISNUMBER(J1),J1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576 O1:O1048576 R1:R1048576 T1:T1048576">
-    <cfRule type="expression" dxfId="103" priority="7">
+    <cfRule type="expression" dxfId="105" priority="7">
       <formula>AND(ISNUMBER(L1),L1&lt;0.95)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:Y1048576">
-    <cfRule type="expression" dxfId="0" priority="3905">
-      <formula>AND(ROW($F1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)="_Mil")</formula>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="expression" dxfId="104" priority="9">
+      <formula>AND(ISNUMBER(N1),N1&lt;0.9)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1:Y1048576">
+    <cfRule type="expression" dxfId="103" priority="4">
+      <formula>AND(ISNUMBER($Y1),ROW($Y1)&gt;14,SUM($Y1)=SUM($X1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="6">
+      <formula>AND(ISNUMBER($Y1),ROW($Y1)&gt;14,SUM($Y1)=SUM($W1))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26481,10 +26482,10 @@
       <c r="BI1" s="160"/>
     </row>
     <row r="2" spans="1:61" ht="18">
-      <c r="A2" s="397" t="s">
+      <c r="A2" s="408" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="398"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="13"/>
@@ -26568,8 +26569,8 @@
       </c>
     </row>
     <row r="3" spans="1:61" ht="133.94999999999999" customHeight="1" thickBot="1">
-      <c r="A3" s="399"/>
-      <c r="B3" s="400"/>
+      <c r="A3" s="410"/>
+      <c r="B3" s="411"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="262"/>
@@ -63278,70 +63279,70 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576 AM1:AN1048576 AT1:AU1048576 AX1:AX1048576 AZ1:AZ1048576 BB1:BB1048576 BE1:BE1048576 BH1:BH1048576">
-    <cfRule type="expression" dxfId="102" priority="3">
+    <cfRule type="expression" dxfId="101" priority="3">
       <formula>$C1="&lt;01"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:BI1048576">
-    <cfRule type="expression" dxfId="101" priority="1">
+    <cfRule type="expression" dxfId="100" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="expression" dxfId="100" priority="13">
+    <cfRule type="expression" dxfId="99" priority="13">
       <formula>AND($N1&lt;&gt;$O1,ISNUMBER($O1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:AN1048576 AR1:AS1048576 BD1:BD1048576 BG1:BG1048576">
-    <cfRule type="expression" dxfId="99" priority="2">
+    <cfRule type="expression" dxfId="98" priority="2">
       <formula>AND(ROW($S1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:AL1048576">
-    <cfRule type="expression" dxfId="98" priority="4">
+    <cfRule type="expression" dxfId="97" priority="4">
       <formula>AND(ISNUMBER($AL1),ROW($AL1)&gt;14,SUM($AL1)=SUM($AK1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="6">
+    <cfRule type="expression" dxfId="96" priority="6">
       <formula>AND(ISNUMBER($AL1),ROW($AL1)&gt;14,SUM($AL1)=SUM($AJ1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM1048576 AA1:AA1048576 AS1:AS1048576">
-    <cfRule type="expression" dxfId="96" priority="14">
+    <cfRule type="expression" dxfId="95" priority="14">
       <formula>AND(ISNUMBER(AA1),AA1&lt;0.9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM1048576">
-    <cfRule type="expression" dxfId="95" priority="11">
+    <cfRule type="expression" dxfId="94" priority="11">
       <formula>AND(ISNUMBER(AM1),AM1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO1:AO1048576">
-    <cfRule type="expression" dxfId="94" priority="9">
+    <cfRule type="expression" dxfId="93" priority="9">
       <formula>AND(ROW($AO1)&gt;14,$E1&lt;&gt;"",$C1&lt;&gt;"&lt;01")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS1:AU1048576 AX1:AX1048576 AZ1:AZ1048576 BB1:BB1048576 BE1:BE1048576 BH1:BH1048576 W1:W1048576 Y1:Y1048576 AA1:AB1048576 AE1:AE1048576 AG1:AH1048576">
-    <cfRule type="expression" dxfId="93" priority="5">
+    <cfRule type="expression" dxfId="92" priority="5">
       <formula>AND(ISNUMBER(W1),W1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU1048576">
-    <cfRule type="expression" dxfId="92" priority="10">
+    <cfRule type="expression" dxfId="91" priority="10">
       <formula>AND(ISNUMBER(AT1),AT1&lt;0.98)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX1:AX1048576">
-    <cfRule type="expression" dxfId="91" priority="8">
+    <cfRule type="expression" dxfId="90" priority="8">
       <formula>AND(ISNUMBER(AX1),AX1&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ1:AZ1048576">
-    <cfRule type="expression" dxfId="90" priority="7">
+    <cfRule type="expression" dxfId="89" priority="7">
       <formula>AND(ISNUMBER(AZ1),AZ1&lt;0.7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB1:BB1048576 BE1:BE1048576 BH1:BH1048576 Y1:Y1048576 AB1:AB1048576 AE1:AE1048576 AG1:AG1048576">
-    <cfRule type="expression" dxfId="89" priority="12">
+    <cfRule type="expression" dxfId="88" priority="12">
       <formula>AND(ISNUMBER(Y1),Y1&lt;0.95)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64724,47 +64725,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:G1048576">
-    <cfRule type="expression" dxfId="88" priority="2">
+    <cfRule type="expression" dxfId="87" priority="2">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:AL1048576">
-    <cfRule type="expression" dxfId="87" priority="3">
+    <cfRule type="expression" dxfId="86" priority="3">
       <formula>AND(ISNUMBER(E1),E1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 S1:T1048576 W1:W1048576 Y1:Y1048576 AA1:AA1048576 AC1:AC1048576 AG1:AH1048576">
-    <cfRule type="expression" dxfId="86" priority="4">
+    <cfRule type="expression" dxfId="85" priority="4">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="85" priority="13">
+    <cfRule type="expression" dxfId="84" priority="13">
       <formula>AND(ISNUMBER($S1),SUM($S1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="84" priority="19">
+    <cfRule type="expression" dxfId="83" priority="19">
       <formula>AND(ISNUMBER($T1),SUM($T1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576">
-    <cfRule type="expression" dxfId="83" priority="34">
+    <cfRule type="expression" dxfId="82" priority="34">
       <formula>AND(ISNUMBER($Y1),ROUND(SUM($V1),0)&gt;0,ROUND(SUM($Y1),2)&lt;70%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AA1:AA1048576 AC1:AC1048576">
-    <cfRule type="expression" dxfId="82" priority="3836">
+    <cfRule type="expression" dxfId="81" priority="3836">
       <formula>AND(ISNUMBER(AA1),SUM(AA1)&lt;95%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576">
-    <cfRule type="expression" dxfId="81" priority="10">
+    <cfRule type="expression" dxfId="80" priority="10">
       <formula>AND(ROW($AG1)&gt;14,$AI1="ENTER LINKAGE RATE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AH1048576">
-    <cfRule type="expression" dxfId="80" priority="1">
+    <cfRule type="expression" dxfId="79" priority="1">
       <formula>AND(ROW($AH1)&gt;14,$AJ1="ENTER YIELD RATE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64851,10 +64852,10 @@
       <c r="AC1" s="166"/>
     </row>
     <row r="2" spans="1:29" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="401" t="s">
+      <c r="A2" s="412" t="s">
         <v>399</v>
       </c>
-      <c r="B2" s="398"/>
+      <c r="B2" s="409"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="51"/>
@@ -64901,8 +64902,8 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="399"/>
-      <c r="B3" s="400"/>
+      <c r="A3" s="410"/>
+      <c r="B3" s="411"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
@@ -65842,27 +65843,27 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:Q1048576 U1:AC1048576">
-    <cfRule type="expression" dxfId="79" priority="1">
+    <cfRule type="expression" dxfId="78" priority="1">
       <formula>AND(ROW(F1)&gt;14,LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:R1048576 T1:AC1048576">
-    <cfRule type="expression" dxfId="78" priority="2">
+    <cfRule type="expression" dxfId="77" priority="2">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="77" priority="7">
+    <cfRule type="expression" dxfId="76" priority="7">
       <formula>AND(ISNUMBER(H1),H1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="expression" dxfId="76" priority="14">
+    <cfRule type="expression" dxfId="75" priority="14">
       <formula>AND(ISNUMBER(J1),J1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="75" priority="49">
+    <cfRule type="expression" dxfId="74" priority="49">
       <formula>AND(ISNUMBER($S1),ROUND($S1,2)&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65945,10 +65946,10 @@
       <c r="U1" s="160"/>
     </row>
     <row r="2" spans="1:21" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="401" t="s">
+      <c r="A2" s="412" t="s">
         <v>358</v>
       </c>
-      <c r="B2" s="398"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -65980,8 +65981,8 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="399"/>
-      <c r="B3" s="400"/>
+      <c r="A3" s="410"/>
+      <c r="B3" s="411"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -66613,42 +66614,42 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:J1048576 M1:S1048576">
-    <cfRule type="expression" dxfId="74" priority="1">
+    <cfRule type="expression" dxfId="73" priority="1">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="73" priority="7">
+    <cfRule type="expression" dxfId="72" priority="7">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576 O1:P1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="72" priority="8">
+    <cfRule type="expression" dxfId="71" priority="8">
       <formula>AND(ISNUMBER(H1),H1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1048576">
-    <cfRule type="expression" dxfId="71" priority="3765">
+    <cfRule type="expression" dxfId="70" priority="3765">
       <formula>AND(ISNUMBER($M1),ISNUMBER($N1),$N1&lt;$M1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="expression" dxfId="70" priority="3764">
+    <cfRule type="expression" dxfId="69" priority="3764">
       <formula>AND(ISNUMBER($P1),$P1&lt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="expression" dxfId="69" priority="29">
+    <cfRule type="expression" dxfId="68" priority="29">
       <formula>AND(ISNUMBER($Q1),$Q1&lt;$N1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="68" priority="3">
+    <cfRule type="expression" dxfId="67" priority="3">
       <formula>AND(SUM($R1)&lt;&gt;0,$S1="",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="67" priority="4">
+    <cfRule type="expression" dxfId="66" priority="4">
       <formula>AND(ROW($T1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -66672,11 +66673,11 @@
   </sheetPr>
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -66691,8 +66692,8 @@
     <col min="9" max="9" width="11.796875" style="19" customWidth="1"/>
     <col min="10" max="11" width="11.796875" style="328" customWidth="1"/>
     <col min="12" max="12" width="11.796875" style="36" customWidth="1"/>
-    <col min="13" max="13" width="11.796875" style="412" customWidth="1"/>
-    <col min="14" max="14" width="11.796875" style="404" customWidth="1"/>
+    <col min="13" max="13" width="11.796875" style="405" customWidth="1"/>
+    <col min="14" max="14" width="11.796875" style="397" customWidth="1"/>
     <col min="15" max="16" width="11.796875" style="33" customWidth="1"/>
     <col min="17" max="17" width="11.796875" style="47" customWidth="1"/>
     <col min="18" max="18" width="11.796875" style="19" customWidth="1"/>
@@ -66716,7 +66717,7 @@
       <c r="J1" s="377"/>
       <c r="K1" s="377"/>
       <c r="L1" s="160"/>
-      <c r="M1" s="405" t="s">
+      <c r="M1" s="398" t="s">
         <v>652</v>
       </c>
       <c r="N1" s="165"/>
@@ -66729,10 +66730,10 @@
       <c r="S1" s="160"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="401" t="s">
+      <c r="A2" s="412" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="398"/>
+      <c r="B2" s="409"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -66743,7 +66744,7 @@
       <c r="J2" s="378"/>
       <c r="K2" s="378"/>
       <c r="L2" s="34"/>
-      <c r="M2" s="406" t="s">
+      <c r="M2" s="399" t="s">
         <v>422</v>
       </c>
       <c r="N2" s="109"/>
@@ -66758,8 +66759,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="399"/>
-      <c r="B3" s="400"/>
+      <c r="A3" s="410"/>
+      <c r="B3" s="411"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -66778,13 +66779,13 @@
       <c r="J3" s="379" t="s">
         <v>694</v>
       </c>
-      <c r="K3" s="403" t="s">
+      <c r="K3" s="396" t="s">
         <v>696</v>
       </c>
       <c r="L3" s="118" t="s">
         <v>651</v>
       </c>
-      <c r="M3" s="407" t="s">
+      <c r="M3" s="400" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="204" t="s">
@@ -66824,14 +66825,14 @@
         <f>SUBTOTAL(109,L$15:INDEX(L:L,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
         <v>0</v>
       </c>
-      <c r="M4" s="408">
+      <c r="M4" s="401">
         <v>0</v>
       </c>
       <c r="N4" s="110" t="s">
         <v>668</v>
       </c>
       <c r="O4" s="32">
-        <f ca="1">SUBTOTAL(109,O$15:INDEX(O:O,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
+        <f>SUBTOTAL(109,O$15:INDEX(O:O,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
         <v>0</v>
       </c>
       <c r="P4" s="32">
@@ -66888,7 +66889,7 @@
       <c r="L5" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="409" t="s">
+      <c r="M5" s="402" t="s">
         <v>53</v>
       </c>
       <c r="N5" s="111" t="s">
@@ -66947,7 +66948,7 @@
       <c r="L6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="409" t="s">
+      <c r="M6" s="402" t="s">
         <v>36</v>
       </c>
       <c r="N6" s="111" t="s">
@@ -67006,7 +67007,7 @@
       <c r="L7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="409" t="s">
+      <c r="M7" s="402" t="s">
         <v>38</v>
       </c>
       <c r="N7" s="111" t="s">
@@ -67039,7 +67040,7 @@
       <c r="I8" s="111"/>
       <c r="J8" s="381"/>
       <c r="K8" s="381"/>
-      <c r="M8" s="413" t="s">
+      <c r="M8" s="406" t="s">
         <v>688</v>
       </c>
       <c r="N8" s="391"/>
@@ -67065,7 +67066,7 @@
       <c r="I9" s="111"/>
       <c r="J9" s="381"/>
       <c r="K9" s="381"/>
-      <c r="M9" s="413" t="s">
+      <c r="M9" s="406" t="s">
         <v>689</v>
       </c>
       <c r="N9" s="391"/>
@@ -67091,7 +67092,7 @@
       <c r="I10" s="111"/>
       <c r="J10" s="381"/>
       <c r="K10" s="381"/>
-      <c r="M10" s="413" t="s">
+      <c r="M10" s="406" t="s">
         <v>46</v>
       </c>
       <c r="N10" s="391"/>
@@ -67128,7 +67129,7 @@
       <c r="L11" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="M11" s="409" t="s">
+      <c r="M11" s="402" t="s">
         <v>436</v>
       </c>
       <c r="N11" s="111" t="s">
@@ -67176,7 +67177,7 @@
       <c r="L12" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="409" t="s">
+      <c r="M12" s="402" t="s">
         <v>94</v>
       </c>
       <c r="N12" s="111" t="s">
@@ -67209,7 +67210,7 @@
       <c r="I13" s="111"/>
       <c r="J13" s="381"/>
       <c r="K13" s="381"/>
-      <c r="M13" s="409"/>
+      <c r="M13" s="402"/>
       <c r="N13" s="111"/>
       <c r="R13" s="11"/>
     </row>
@@ -67250,7 +67251,7 @@
       <c r="L14" s="170" t="s">
         <v>232</v>
       </c>
-      <c r="M14" s="410" t="s">
+      <c r="M14" s="403" t="s">
         <v>209</v>
       </c>
       <c r="N14" s="175" t="s">
@@ -67300,14 +67301,14 @@
         <f>INDEX(Cascade!$BI:$BI,MATCH($E15,Cascade!$E:$E,0))</f>
         <v>0</v>
       </c>
-      <c r="M15" s="411">
-        <f ca="1">IF(OR(SUM($L15)=0,SUM($M15)=0),"",ROUND(SUM($L15,$K15),0))</f>
-        <v>0</v>
+      <c r="M15" s="404" t="str">
+        <f>IF(OR(SUM($L15)=0,SUM($L15)=0),"",ROUND(SUM($L15,$K15),0))</f>
+        <v/>
       </c>
       <c r="N15" s="111"/>
-      <c r="O15" s="33">
-        <f ca="1">IF(SUM($M15)=0,"",IF(SUM($N15)=0,"ENTER YIELD",ROUND($M15/$N15,0)-$M15))</f>
-        <v>0</v>
+      <c r="O15" s="33" t="str">
+        <f>IF(SUM($M15)=0,"",IF(SUM($N15)=0,"ENTER YIELD",ROUND($M15/$N15,0)-$M15))</f>
+        <v/>
       </c>
       <c r="P15" s="90" t="str">
         <f>IFERROR(1/(1/SUM($O15,#REF!)),"")</f>
@@ -67323,7 +67324,10 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="M16" s="412" t="s">
+      <c r="J16" s="328" t="s">
+        <v>700</v>
+      </c>
+      <c r="M16" s="405" t="s">
         <v>654</v>
       </c>
     </row>
@@ -67331,19 +67335,14 @@
   <mergeCells count="1">
     <mergeCell ref="A2:B3"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5:F7 F1:K4 I5:K7 F8:K1048576">
-    <cfRule type="expression" dxfId="66" priority="28">
+  <conditionalFormatting sqref="F1:K4 F5:F7 I5:K7 F8:K1048576">
+    <cfRule type="expression" dxfId="65" priority="28">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1048576 F1:Q1048576">
-    <cfRule type="expression" dxfId="65" priority="31">
+  <conditionalFormatting sqref="F1:Q1048576 S1:S1048576">
+    <cfRule type="expression" dxfId="64" priority="31">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="64" priority="5">
-      <formula>OR($C1="01-09")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1048576">
@@ -67354,6 +67353,11 @@
   <conditionalFormatting sqref="O1:O1048576">
     <cfRule type="containsText" dxfId="62" priority="51" operator="containsText" text="ENTER YIELD">
       <formula>NOT(ISERROR(SEARCH("ENTER YIELD",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:S1048576">
+    <cfRule type="expression" dxfId="61" priority="5">
+      <formula>OR($C1="01-09")</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F19B537-0E51-4E12-B65B-5A03438434B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36CF612-D899-46F0-9BF3-9D9F71CBB191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
@@ -66677,7 +66677,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -67112,13 +67112,13 @@
         <v>436</v>
       </c>
       <c r="G11" s="328" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H11" s="328" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I11" s="328" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J11" s="328" t="s">
         <v>436</v>
@@ -67340,7 +67340,7 @@
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:Q1048576 S1:S1048576">
+  <conditionalFormatting sqref="S1:S1048576 F1:Q1048576">
     <cfRule type="expression" dxfId="64" priority="31">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6504E85E-3913-47AD-BA95-300BBD5B35F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95581276-3F6D-4EA1-BA5F-632A218EBB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
@@ -23814,10 +23814,10 @@
   <dimension ref="A1:BI3876"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="AL15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BBB9A1-951E-4659-A4BB-EA3546BB261B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CDFCCF-AE5A-43A2-B6A2-EAD66D80C151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="679">
   <si>
     <t>TX_CURR</t>
   </si>
@@ -2750,14 +2750,8 @@
 HTS_TST_POS from PMTCT, TB, and EID</t>
   </si>
   <si>
-    <t>HTS_TST.Other.POS.R</t>
-  </si>
-  <si>
     <t>(OPTIONAL) HTS_TST_POS for PMTCT, TB, and EID
 (FY26)</t>
-  </si>
-  <si>
-    <t>HTS_TST.OtherMods.POS.T</t>
   </si>
   <si>
     <t>^ From DATIM</t>
@@ -2796,6 +2790,15 @@
   </si>
   <si>
     <t>PEPFAR_ART.RT.T</t>
+  </si>
+  <si>
+    <t>HTS_TST.NonMod.POS.R</t>
+  </si>
+  <si>
+    <t>HTS_TST.NonMods.POS.T</t>
+  </si>
+  <si>
+    <t>Total Initiated on ART - New and Returned (FY26)</t>
   </si>
 </sst>
 </file>
@@ -4087,6 +4090,17 @@
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4108,17 +4122,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -4129,17 +4132,7 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{EBDE175B-1152-3C44-B18E-2B948C595077}"/>
   </cellStyles>
-  <dxfs count="122">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="107">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -5126,6 +5119,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -5151,150 +5154,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED79F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCB257"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5690,7 +5549,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5727,10 +5586,10 @@
       <c r="M1" s="154"/>
     </row>
     <row r="2" spans="1:13" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="395" t="s">
+      <c r="A2" s="400" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="392"/>
+      <c r="B2" s="397"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5746,8 +5605,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="393"/>
-      <c r="B3" s="394"/>
+      <c r="A3" s="398"/>
+      <c r="B3" s="399"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -6106,22 +5965,22 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:M1048576">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:L1048576">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>AND(ISNUMBER(J1),J1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="32" priority="3">
       <formula>AND(ISNUMBER($K1),$K1&lt;33%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="expression" dxfId="32" priority="7">
+    <cfRule type="expression" dxfId="31" priority="7">
       <formula>AND(ISNUMBER($L1),$L1&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6142,7 +6001,7 @@
   </sheetPr>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -6994,10 +6853,10 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="I16" s="396" t="s">
+      <c r="I16" s="401" t="s">
         <v>649</v>
       </c>
-      <c r="J16" s="396"/>
+      <c r="J16" s="401"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -7018,71 +6877,71 @@
     <mergeCell ref="I16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>AND(ISNUMBER(G7),ROUND(SUM(G7),2)&lt;100%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>AND(ISNUMBER(G7),G7&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1048576 I1:K14 L1:L15 K15 I17:J17 I18:L1048576">
-    <cfRule type="expression" dxfId="29" priority="20">
+    <cfRule type="expression" dxfId="28" priority="20">
       <formula>AND(SUM(#REF!)&gt;0,G1="",ROW(G1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule type="expression" dxfId="27" priority="16">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>AND(ISNUMBER(G1),ROUND(SUM(G1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="26" priority="3903">
+    <cfRule type="expression" dxfId="25" priority="3903">
       <formula>AND(SUM(#REF!)&gt;0,I16="",ROW(I16)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L14 K15:L15 I17:J17 I18:L1048576 I16">
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>AND(ISNUMBER(I1),ROUND(SUM(I1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L14 T1:U1048576 K15:L15 I16 I17:J17 I18:L1048576">
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>AND(ISNUMBER(I1),I1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:N14 K15:O15 I16 I17:J17 I18:W1048576 F1:H1048576 O1:W15 P16:W17">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L15 L18:L1048576">
-    <cfRule type="expression" dxfId="22" priority="30">
+    <cfRule type="expression" dxfId="21" priority="30">
       <formula>AND(SUM(#REF!)&lt;&gt;0,L1="",ROW(L1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>AND(ISNUMBER(T1),ROUND(SUM(T1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:V1048576">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>V1="ENTER INITIATION RATE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>AND(ISNUMBER(V1),V1&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>AND(ISNUMBER(V1),ROUND(SUM(V1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>AND(ISNUMBER(X1),X1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7107,7 +6966,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7737,27 +7596,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:H1048576 J1:R1048576">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576 O1:O1048576">
-    <cfRule type="expression" dxfId="15" priority="3854">
+    <cfRule type="expression" dxfId="14" priority="3854">
       <formula>AND($B1&lt;&gt;"",ROW(J1)&gt;14,NOT(AND($D1="Female",$F1="Y",OR($C1="10-14",$C1="15-17"))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:M1048576">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(ISNUMBER(J1),OR(ROUND(SUM(J1),2)&lt;0,ROUND(SUM(J1),2)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 P1:P1048576">
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>AND($E1&lt;&gt;"",ROW(K1)&gt;14,NOT(OR($C1="05-09",$C1="10-14")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="12" priority="24">
+    <cfRule type="expression" dxfId="11" priority="24">
       <formula>AND(ISNUMBER($M1),ROUND(SUM($M1),2)&lt;20%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8062,7 +7921,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:D1048576 G1:H1048576">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(ISNUMBER(C1),C1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8127,10 +7986,10 @@
       <c r="U1" s="154"/>
     </row>
     <row r="2" spans="1:21" s="21" customFormat="1" ht="18">
-      <c r="A2" s="395" t="s">
+      <c r="A2" s="400" t="s">
         <v>371</v>
       </c>
-      <c r="B2" s="392"/>
+      <c r="B2" s="397"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -8156,8 +8015,8 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="393"/>
-      <c r="B3" s="394"/>
+      <c r="A3" s="398"/>
+      <c r="B3" s="399"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -8748,27 +8607,27 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:Q1048576 S1:U1048576">
-    <cfRule type="expression" dxfId="10" priority="23">
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="9" priority="24">
+    <cfRule type="expression" dxfId="8" priority="24">
       <formula>AND(ISNUMBER(Q1),Q1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="8" priority="3881">
+    <cfRule type="expression" dxfId="7" priority="3881">
       <formula>AND(ROUND(SUM($S1),2)&lt;60%,SUM($T1)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="7" priority="35">
+    <cfRule type="expression" dxfId="6" priority="35">
       <formula>AND(ISNUMBER(T1),SUM($T1)&gt;SUM($K1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(ISNUMBER(T1),SUM($U1)&gt;SUM($T1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8816,7 +8675,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="183" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G1" s="156"/>
       <c r="H1" s="156"/>
@@ -8825,7 +8684,7 @@
       <c r="K1" s="156"/>
       <c r="L1" s="156"/>
       <c r="M1" s="183" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="N1" s="152"/>
       <c r="O1" s="152"/>
@@ -8836,10 +8695,10 @@
       <c r="T1" s="160"/>
     </row>
     <row r="2" spans="1:20" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="395" t="s">
+      <c r="A2" s="400" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="392"/>
+      <c r="B2" s="397"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="46"/>
@@ -8875,8 +8734,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="393"/>
-      <c r="B3" s="394"/>
+      <c r="A3" s="398"/>
+      <c r="B3" s="399"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="173" t="s">
@@ -9525,25 +9384,25 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:P1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(ROW(F1)&gt;14,LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q14">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(ISNUMBER(Q2),Q2&lt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(ISNUMBER(Q2),Q2&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1 R2:T14 Q15:T1048576 F1:P1048576">
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1 R2:T14 Q15:T1048576">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>AND(ROW(Q1)&gt;14,LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9689,7 +9548,7 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="390" t="s">
+      <c r="B6" s="395" t="s">
         <v>108</v>
       </c>
       <c r="D6" s="5"/>
@@ -9702,7 +9561,7 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="390"/>
+      <c r="B7" s="395"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -9748,7 +9607,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="390" t="s">
+      <c r="B11" s="395" t="s">
         <v>110</v>
       </c>
       <c r="D11" s="5"/>
@@ -9761,7 +9620,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="390"/>
+      <c r="B12" s="395"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -9807,7 +9666,7 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="390" t="s">
+      <c r="B16" s="395" t="s">
         <v>112</v>
       </c>
       <c r="D16" s="5"/>
@@ -9820,7 +9679,7 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="390"/>
+      <c r="B17" s="395"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -9842,7 +9701,7 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="390" t="s">
+      <c r="B19" s="395" t="s">
         <v>113</v>
       </c>
       <c r="D19" s="5"/>
@@ -9855,7 +9714,7 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="390"/>
+      <c r="B20" s="395"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -9923,7 +9782,7 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="390" t="s">
+      <c r="B26" s="395" t="s">
         <v>441</v>
       </c>
       <c r="D26" s="5"/>
@@ -9936,7 +9795,7 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="390"/>
+      <c r="B27" s="395"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -23660,11 +23519,11 @@
   </sheetPr>
   <dimension ref="A1:BF3876"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="14" topLeftCell="AG15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -23802,10 +23661,10 @@
       <c r="BF1" s="154"/>
     </row>
     <row r="2" spans="1:58" ht="18">
-      <c r="A2" s="391" t="s">
+      <c r="A2" s="396" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="392"/>
+      <c r="B2" s="397"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="13"/>
@@ -23820,7 +23679,7 @@
       <c r="N2" s="46"/>
       <c r="O2" s="43"/>
       <c r="P2" s="43"/>
-      <c r="Q2" s="397" t="s">
+      <c r="Q2" s="390" t="s">
         <v>512</v>
       </c>
       <c r="R2" s="46"/>
@@ -23882,8 +23741,8 @@
       <c r="BF2" s="216"/>
     </row>
     <row r="3" spans="1:58" ht="133.94999999999999" customHeight="1" thickBot="1">
-      <c r="A3" s="393"/>
-      <c r="B3" s="394"/>
+      <c r="A3" s="398"/>
+      <c r="B3" s="399"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="249"/>
@@ -23920,7 +23779,7 @@
       <c r="P3" s="123" t="s">
         <v>384</v>
       </c>
-      <c r="Q3" s="398" t="s">
+      <c r="Q3" s="391" t="s">
         <v>514</v>
       </c>
       <c r="R3" s="173" t="s">
@@ -23984,7 +23843,7 @@
         <v>499</v>
       </c>
       <c r="AL3" s="322" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AM3" s="172" t="s">
         <v>500</v>
@@ -24008,7 +23867,7 @@
         <v>505</v>
       </c>
       <c r="AT3" s="172" t="s">
-        <v>506</v>
+        <v>678</v>
       </c>
       <c r="AU3" s="283" t="s">
         <v>507</v>
@@ -24096,7 +23955,7 @@
         <f>SUBTOTAL(109,P$15:INDEX(P:P,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="399">
+      <c r="Q4" s="392">
         <f>SUBTOTAL(109,Q$15:INDEX(Q:Q,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
         <v>0</v>
       </c>
@@ -25385,7 +25244,7 @@
       <c r="P14" s="166" t="s">
         <v>380</v>
       </c>
-      <c r="Q14" s="400" t="s">
+      <c r="Q14" s="393" t="s">
         <v>128</v>
       </c>
       <c r="R14" s="167" t="s">
@@ -25449,7 +25308,7 @@
         <v>396</v>
       </c>
       <c r="AL14" s="381" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AM14" s="164" t="s">
         <v>397</v>
@@ -25540,7 +25399,7 @@
         <f>IF(AND(SUM($H15)=0,SUM($M15)=0),"",SUM($M15)-$H15)</f>
         <v/>
       </c>
-      <c r="Q15" s="401" t="str">
+      <c r="Q15" s="394" t="str">
         <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;Q$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
         <v/>
       </c>
@@ -60505,57 +60364,57 @@
       <formula>AND($L1&lt;&gt;$M1,ISNUMBER($M1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AP1048576 Q2:AK1048576 BA2:BA1048576 BD2:BD1048576">
-    <cfRule type="expression" dxfId="101" priority="4">
+  <conditionalFormatting sqref="Q1:AK1 AO1:AP1 BA1 BD1">
+    <cfRule type="expression" dxfId="101" priority="3921">
+      <formula>AND(ROW($Q1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)="_Mil")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:AK1048576 AO2:AP1048576 BA2:BA1048576 BD2:BD1048576">
+    <cfRule type="expression" dxfId="100" priority="4">
       <formula>AND(ROW(#REF!)&gt;14,$E2&lt;&gt;"",LEFT($B2,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576 V1:V1048576 X1:Y1048576 AB1:AB1048576 AD1:AE1048576 AP1:AR1048576 AU1:AU1048576 AW1:AW1048576 AY1:AY1048576 BB1:BB1048576 BE1:BE1048576">
-    <cfRule type="expression" dxfId="100" priority="7">
+    <cfRule type="expression" dxfId="99" priority="7">
       <formula>AND(ISNUMBER(T1),T1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576 Y1:Y1048576 AB1:AB1048576 AD1:AD1048576 AY1:AY1048576 BB1:BB1048576 BE1:BE1048576">
-    <cfRule type="expression" dxfId="99" priority="14">
+    <cfRule type="expression" dxfId="98" priority="14">
       <formula>AND(ISNUMBER(V1),V1&lt;0.95)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576 AJ1:AJ1048576 AP1:AP1048576">
-    <cfRule type="expression" dxfId="98" priority="16">
+    <cfRule type="expression" dxfId="97" priority="16">
       <formula>AND(ISNUMBER(X1),X1&lt;0.9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI1048576">
-    <cfRule type="expression" dxfId="97" priority="6">
+    <cfRule type="expression" dxfId="96" priority="6">
       <formula>AND(ISNUMBER($AI1),ROW($AI1)&gt;14,SUM($AI1)=SUM($AH1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="8">
+    <cfRule type="expression" dxfId="95" priority="8">
       <formula>AND(ISNUMBER($AI1),ROW($AI1)&gt;14,SUM($AI1)=SUM($AG1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1:AJ1048576">
-    <cfRule type="expression" dxfId="95" priority="13">
+    <cfRule type="expression" dxfId="94" priority="13">
       <formula>AND(ISNUMBER(AJ1),AJ1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ1:AR1048576">
-    <cfRule type="expression" dxfId="94" priority="12">
+    <cfRule type="expression" dxfId="93" priority="12">
       <formula>AND(ISNUMBER(AQ1),AQ1&lt;0.98)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU1048576">
-    <cfRule type="expression" dxfId="93" priority="10">
+    <cfRule type="expression" dxfId="92" priority="10">
       <formula>AND(ISNUMBER(AU1),AU1&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW1:AW1048576">
-    <cfRule type="expression" dxfId="92" priority="9">
+    <cfRule type="expression" dxfId="91" priority="9">
       <formula>AND(ISNUMBER(AW1),AW1&lt;0.7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:AK1 AO1:AP1 BA1 BD1">
-    <cfRule type="expression" dxfId="0" priority="3921">
-      <formula>AND(ROW($Q1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -60572,10 +60431,10 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="14" topLeftCell="Q15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="14" topLeftCell="AC15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
+      <selection pane="bottomRight" activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -61937,47 +61796,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:G1048576">
-    <cfRule type="expression" dxfId="91" priority="2">
+    <cfRule type="expression" dxfId="90" priority="2">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:AL1048576">
-    <cfRule type="expression" dxfId="90" priority="3">
+    <cfRule type="expression" dxfId="89" priority="3">
       <formula>AND(ISNUMBER(E1),E1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 S1:T1048576 W1:W1048576 Y1:Y1048576 AA1:AA1048576 AC1:AC1048576 AG1:AH1048576">
-    <cfRule type="expression" dxfId="89" priority="4">
+    <cfRule type="expression" dxfId="88" priority="4">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="88" priority="13">
+    <cfRule type="expression" dxfId="87" priority="13">
       <formula>AND(ISNUMBER($S1),SUM($S1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="87" priority="19">
+    <cfRule type="expression" dxfId="86" priority="19">
       <formula>AND(ISNUMBER($T1),SUM($T1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576">
-    <cfRule type="expression" dxfId="86" priority="34">
+    <cfRule type="expression" dxfId="85" priority="34">
       <formula>AND(ISNUMBER($Y1),ROUND(SUM($V1),0)&gt;0,ROUND(SUM($Y1),2)&lt;70%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AA1:AA1048576 AC1:AC1048576">
-    <cfRule type="expression" dxfId="85" priority="3836">
+    <cfRule type="expression" dxfId="84" priority="3836">
       <formula>AND(ISNUMBER(AA1),SUM(AA1)&lt;95%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576">
-    <cfRule type="expression" dxfId="84" priority="10">
+    <cfRule type="expression" dxfId="83" priority="10">
       <formula>AND(ROW($AG1)&gt;14,$AI1="ENTER LINKAGE RATE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AH1048576">
-    <cfRule type="expression" dxfId="83" priority="1">
+    <cfRule type="expression" dxfId="82" priority="1">
       <formula>AND(ROW($AH1)&gt;14,$AJ1="ENTER YIELD RATE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62117,10 +61976,10 @@
       <c r="BG1" s="154"/>
     </row>
     <row r="2" spans="1:59" s="21" customFormat="1" ht="18">
-      <c r="A2" s="395" t="s">
+      <c r="A2" s="400" t="s">
         <v>379</v>
       </c>
-      <c r="B2" s="392"/>
+      <c r="B2" s="397"/>
       <c r="C2" s="51" t="s">
         <v>326</v>
       </c>
@@ -62212,8 +62071,8 @@
       <c r="BG2" s="29"/>
     </row>
     <row r="3" spans="1:59" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="393"/>
-      <c r="B3" s="394"/>
+      <c r="A3" s="398"/>
+      <c r="B3" s="399"/>
       <c r="C3" s="110" t="s">
         <v>479</v>
       </c>
@@ -63844,152 +63703,152 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:D1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="82" priority="9">
+    <cfRule type="expression" dxfId="81" priority="9">
       <formula>AND(ROW($F1)&gt;14,SUM($F1)&gt;$C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1048576 H1:J1048576">
-    <cfRule type="expression" dxfId="81" priority="11">
+    <cfRule type="expression" dxfId="80" priority="11">
       <formula>(($C1-$F1)+($E1-$G1))&lt;SUM($H1:$J1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 G1:G1048576">
-    <cfRule type="expression" dxfId="80" priority="8">
+    <cfRule type="expression" dxfId="79" priority="8">
       <formula>AND(ROW($G1)&gt;14,SUM($G1)&gt;$E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 M1:M1048576">
-    <cfRule type="expression" dxfId="79" priority="13">
+    <cfRule type="expression" dxfId="78" priority="13">
       <formula>AND(ROW($M1)&gt;14,SUM($M1)&gt;$K1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L1048576 O1:Q1048576">
-    <cfRule type="expression" dxfId="78" priority="15">
+    <cfRule type="expression" dxfId="77" priority="15">
       <formula>(($K1-$M1)+($L1-$N1))&lt;SUM($O1:$Q1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576 N1:N1048576">
-    <cfRule type="expression" dxfId="77" priority="12">
+    <cfRule type="expression" dxfId="76" priority="12">
       <formula>AND(ROW($N1)&gt;14,SUM($N1)&gt;$L1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576 T1:T1048576">
-    <cfRule type="expression" dxfId="76" priority="16">
+    <cfRule type="expression" dxfId="75" priority="16">
       <formula>AND(ROW($T1)&gt;14,SUM($T1)&gt;$R1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1048576 V1:X1048576">
-    <cfRule type="expression" dxfId="75" priority="19">
+    <cfRule type="expression" dxfId="74" priority="19">
       <formula>(($R1-$T1)+($S1-$U1))&lt;SUM($V1:$X1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="74" priority="17">
+    <cfRule type="expression" dxfId="73" priority="17">
       <formula>AND(ROW($U1)&gt;14,SUM($U1)&gt;$S1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576 AA1:AA1048576">
-    <cfRule type="expression" dxfId="73" priority="20">
+    <cfRule type="expression" dxfId="72" priority="20">
       <formula>AND(ROW($AA1)&gt;14,SUM($AA1)&gt;$Y1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Z1048576 AC1:AE1048576">
-    <cfRule type="expression" dxfId="72" priority="23">
+    <cfRule type="expression" dxfId="71" priority="23">
       <formula>(($Y1-$AA1)+($Z1-$AB1))&lt;SUM($AC1:$AE1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1048576 AB1:AB1048576">
-    <cfRule type="expression" dxfId="71" priority="21">
+    <cfRule type="expression" dxfId="70" priority="21">
       <formula>AND(ROW($AB1)&gt;14,SUM($AB1)&gt;$Z1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AF1048576 AH1:AH1048576">
-    <cfRule type="expression" dxfId="70" priority="24">
+    <cfRule type="expression" dxfId="69" priority="24">
       <formula>AND(ROW($AH1)&gt;14,SUM($AH1)&gt;$AF1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AG1048576 AJ1:AL1048576">
-    <cfRule type="expression" dxfId="69" priority="27">
+    <cfRule type="expression" dxfId="68" priority="27">
       <formula>(($AF1-$AH1)+($AG1-$AI1))&lt;SUM($AJ1:$AL1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AI1:AI1048576">
-    <cfRule type="expression" dxfId="68" priority="25">
+    <cfRule type="expression" dxfId="67" priority="25">
       <formula>AND(ROW($AI1)&gt;14,SUM($AI1)&gt;$AG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM1048576 AO1:AO1048576">
-    <cfRule type="expression" dxfId="67" priority="28">
+    <cfRule type="expression" dxfId="66" priority="28">
       <formula>AND(ROW($AO1)&gt;14,SUM($AO1)&gt;$AM1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AN1048576 AQ1:AS1048576">
-    <cfRule type="expression" dxfId="66" priority="31">
+    <cfRule type="expression" dxfId="65" priority="31">
       <formula>(($AM1-$AO1)+($AN1-$AP1))&lt;SUM($AQ1:$AS1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AN1048576 AP1:AP1048576">
-    <cfRule type="expression" dxfId="65" priority="29">
+    <cfRule type="expression" dxfId="64" priority="29">
       <formula>AND(ROW($AP1)&gt;14,SUM($AP1)&gt;$AN1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AT14 AV1:AV1048576 AT16:AT1048576">
-    <cfRule type="expression" dxfId="64" priority="32">
+    <cfRule type="expression" dxfId="63" priority="32">
       <formula>AND(ROW($AV1)&gt;14,SUM($AV1)&gt;$AT1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15">
-    <cfRule type="expression" dxfId="63" priority="1">
+    <cfRule type="expression" dxfId="62" priority="1">
       <formula>AND(ROW($AO15)&gt;14,SUM($AO15)&gt;$AM15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU14 AX1:AZ1048576 AT16:AU1048576">
-    <cfRule type="expression" dxfId="62" priority="35">
+    <cfRule type="expression" dxfId="61" priority="35">
       <formula>(($AT1-$AV1)+($AU1-$AW1))&lt;SUM($AX1:$AZ1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15:AU15">
-    <cfRule type="expression" dxfId="61" priority="3">
+    <cfRule type="expression" dxfId="60" priority="3">
       <formula>(($AM15-$AO15)+($AN15-$AP15))&lt;SUM($AQ15:$AS15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU14 AW1:AW1048576 AU16:AU1048576">
-    <cfRule type="expression" dxfId="60" priority="33">
+    <cfRule type="expression" dxfId="59" priority="33">
       <formula>AND(ROW($AW1)&gt;14,SUM($AW1)&gt;$AU1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU15">
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>AND(ROW($AP15)&gt;14,SUM($AP15)&gt;$AN15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BA1048576">
-    <cfRule type="expression" dxfId="58" priority="48">
+    <cfRule type="expression" dxfId="57" priority="48">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BB1048576">
-    <cfRule type="expression" dxfId="57" priority="1139">
+    <cfRule type="expression" dxfId="56" priority="1139">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB1:BB1048576">
-    <cfRule type="expression" dxfId="56" priority="1138">
+    <cfRule type="expression" dxfId="55" priority="1138">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC1:BC1048576">
-    <cfRule type="expression" dxfId="55" priority="36">
+    <cfRule type="expression" dxfId="54" priority="36">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD1:BD1048576">
-    <cfRule type="expression" dxfId="54" priority="37">
+    <cfRule type="expression" dxfId="53" priority="37">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1:BG1048576">
-    <cfRule type="expression" dxfId="53" priority="39">
+    <cfRule type="expression" dxfId="52" priority="39">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64073,11 +63932,11 @@
   </sheetPr>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="14" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -64132,10 +63991,10 @@
       <c r="U1" s="154"/>
     </row>
     <row r="2" spans="1:21" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="395" t="s">
+      <c r="A2" s="400" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="392"/>
+      <c r="B2" s="397"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -64167,8 +64026,8 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="393"/>
-      <c r="B3" s="394"/>
+      <c r="A3" s="398"/>
+      <c r="B3" s="399"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -64800,42 +64659,42 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:J1048576 M1:S1048576">
-    <cfRule type="expression" dxfId="52" priority="1">
+    <cfRule type="expression" dxfId="51" priority="1">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="51" priority="7">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576 O1:P1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="50" priority="8">
+    <cfRule type="expression" dxfId="49" priority="8">
       <formula>AND(ISNUMBER(H1),H1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1048576">
-    <cfRule type="expression" dxfId="49" priority="3765">
+    <cfRule type="expression" dxfId="48" priority="3765">
       <formula>AND(ISNUMBER($M1),ISNUMBER($N1),$N1&lt;$M1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="expression" dxfId="48" priority="3764">
+    <cfRule type="expression" dxfId="47" priority="3764">
       <formula>AND(ISNUMBER($P1),$P1&lt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="expression" dxfId="47" priority="29">
+    <cfRule type="expression" dxfId="46" priority="29">
       <formula>AND(ISNUMBER($Q1),$Q1&lt;$N1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="46" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>AND(SUM($R1)&lt;&gt;0,$S1="",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>AND(ROW($T1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64847,8 +64706,8 @@
     <hyperlink ref="J3" location="Cascade!AA:AA" display="P.C. Est. ART Coverage (ART/PLHIV) (FY23) (%)" xr:uid="{A7D90546-FC05-1942-88B3-F73371278897}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -64859,11 +64718,11 @@
   </sheetPr>
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -64918,10 +64777,10 @@
       <c r="S1" s="154"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A2" s="395" t="s">
+      <c r="A2" s="400" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="392"/>
+      <c r="B2" s="397"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -64947,8 +64806,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="117" customHeight="1" thickBot="1">
-      <c r="A3" s="393"/>
-      <c r="B3" s="394"/>
+      <c r="A3" s="398"/>
+      <c r="B3" s="399"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -64956,31 +64815,31 @@
         <v>551</v>
       </c>
       <c r="G3" s="341" t="s">
+        <v>668</v>
+      </c>
+      <c r="H3" s="341" t="s">
+        <v>669</v>
+      </c>
+      <c r="I3" s="338" t="s">
         <v>670</v>
-      </c>
-      <c r="H3" s="341" t="s">
-        <v>671</v>
-      </c>
-      <c r="I3" s="338" t="s">
-        <v>672</v>
       </c>
       <c r="J3" s="341" t="s">
         <v>663</v>
       </c>
       <c r="K3" s="355" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L3" s="113" t="s">
         <v>623</v>
       </c>
       <c r="M3" s="359" t="s">
+        <v>671</v>
+      </c>
+      <c r="N3" s="195" t="s">
         <v>673</v>
       </c>
-      <c r="N3" s="195" t="s">
-        <v>675</v>
-      </c>
       <c r="O3" s="218" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="P3" s="109" t="s">
         <v>580</v>
@@ -65431,10 +65290,10 @@
         <v>630</v>
       </c>
       <c r="J14" s="344" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="K14" s="344" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="L14" s="164" t="s">
         <v>222</v>
@@ -65516,7 +65375,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="J16" s="313" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="M16" s="364" t="s">
         <v>625</v>
@@ -65527,27 +65386,27 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:K4 F5:F7 I5:K7 F8:K1048576">
-    <cfRule type="expression" dxfId="44" priority="28">
+    <cfRule type="expression" dxfId="43" priority="28">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:Q1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="43" priority="31">
+    <cfRule type="expression" dxfId="42" priority="31">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1048576">
-    <cfRule type="expression" dxfId="42" priority="52">
+    <cfRule type="expression" dxfId="41" priority="52">
       <formula>AND(ISNUMBER(M1),M1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="41" priority="51" operator="containsText" text="ENTER YIELD">
+    <cfRule type="containsText" dxfId="40" priority="51" operator="containsText" text="ENTER YIELD">
       <formula>NOT(ISERROR(SEARCH("ENTER YIELD",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="40" priority="5">
+    <cfRule type="expression" dxfId="39" priority="5">
       <formula>OR($C1="01-09")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65556,8 +65415,8 @@
     <hyperlink ref="L3" location="Cascade!BI:BI" display="Total HTS_TST_POS (FY24)" xr:uid="{4F5D648D-D7C2-5348-BC20-3F43FA74D673}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -65943,20 +65802,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>AND(ROW(F1)&gt;14,LEFT(B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:L1048576">
-    <cfRule type="expression" dxfId="38" priority="5">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="36" priority="3">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",$D1&lt;&gt;"Female")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="35" priority="4">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",NOT(OR($C1="15-24",$C1="25-34")))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CDFCCF-AE5A-43A2-B6A2-EAD66D80C151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EBFB86-6E9C-4C58-BA9E-305361A8E86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -23519,8 +23519,8 @@
   </sheetPr>
   <dimension ref="A1:BF3876"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="AG15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="14" topLeftCell="AF15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AT4" sqref="AT4"/>
@@ -64718,8 +64718,8 @@
   </sheetPr>
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="14" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
@@ -65355,7 +65355,10 @@
         <f>IF(OR(SUM($L15)=0,SUM($L15)=0),"",ROUND(SUM($L15,$K15),0))</f>
         <v/>
       </c>
-      <c r="N15" s="107"/>
+      <c r="N15" s="107" t="str">
+        <f>IF(SUM($I15)=0,"",ROUND($I15,2))</f>
+        <v/>
+      </c>
       <c r="O15" s="33" t="str">
         <f>IF(SUM($M15)=0,"",IF(SUM($N15)=0,"ENTER YIELD",ROUND($M15/$N15,0)-$M15))</f>
         <v/>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EBFB86-6E9C-4C58-BA9E-305361A8E86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3A487B-17EA-4DFA-B58D-FF11211C3A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-33285" yWindow="-525" windowWidth="30600" windowHeight="15990" firstSheet="1" activeTab="9" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="675">
   <si>
     <t>TX_CURR</t>
   </si>
@@ -1990,12 +1990,6 @@
   </si>
   <si>
     <t>TB_PREV.N.Rt.T</t>
-  </si>
-  <si>
-    <t>TB_PREV.N.New.Growth.T</t>
-  </si>
-  <si>
-    <t>TB_PREV.N.Already.Growth.T</t>
   </si>
   <si>
     <t>VLS_SUBNAT.Rt.T_1</t>
@@ -2506,12 +2500,6 @@
   </si>
   <si>
     <t>Targeted TPT completion (FY26) (%)</t>
-  </si>
-  <si>
-    <t>Projected Change: Already on ART (FY26) (%)</t>
-  </si>
-  <si>
-    <t>Projected Change: New on ART (FY26) (%)</t>
   </si>
   <si>
     <t>Projected Net Change in OVC_SERV (FY26) (%)</t>
@@ -5520,7 +5508,7 @@
     </row>
     <row r="10" spans="2:2" ht="97.2">
       <c r="B10" s="6" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="82.2">
@@ -5545,7 +5533,7 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -5611,28 +5599,28 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="60" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H3" s="111" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I3" s="111" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J3" s="139" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="K3" s="194" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L3" s="194" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6002,10 +5990,10 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="14" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6027,10 +6015,9 @@
     <col min="20" max="20" width="11.796875" style="11" customWidth="1"/>
     <col min="21" max="22" width="11.796875" style="107" customWidth="1"/>
     <col min="23" max="24" width="11.796875" style="33" customWidth="1"/>
-    <col min="25" max="26" width="11.796875" style="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="22" customFormat="1" ht="31.05" customHeight="1">
+    <row r="1" spans="1:24" s="22" customFormat="1" ht="31.05" customHeight="1">
       <c r="A1" s="252" t="s">
         <v>32</v>
       </c>
@@ -6039,7 +6026,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="185" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G1" s="157"/>
       <c r="H1" s="345"/>
@@ -6061,10 +6048,8 @@
       <c r="V1" s="159"/>
       <c r="W1" s="154"/>
       <c r="X1" s="154"/>
-      <c r="Y1" s="158"/>
-      <c r="Z1" s="158"/>
-    </row>
-    <row r="2" spans="1:26" s="21" customFormat="1" ht="18">
+    </row>
+    <row r="2" spans="1:24" s="21" customFormat="1" ht="18">
       <c r="A2" s="13"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6097,80 +6082,72 @@
       <c r="X2" s="222" t="s">
         <v>405</v>
       </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3" spans="1:26" ht="117" customHeight="1">
+    </row>
+    <row r="3" spans="1:24" ht="117" customHeight="1">
       <c r="A3" s="249"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="110" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G3" s="194" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="H3" s="334" t="s">
+        <v>631</v>
+      </c>
+      <c r="I3" s="334" t="s">
+        <v>637</v>
+      </c>
+      <c r="J3" s="334" t="s">
+        <v>638</v>
+      </c>
+      <c r="K3" s="194" t="s">
         <v>635</v>
       </c>
-      <c r="I3" s="334" t="s">
+      <c r="L3" s="194" t="s">
+        <v>636</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="O3" s="113" t="s">
+        <v>643</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q3" s="61" t="s">
         <v>641</v>
       </c>
-      <c r="J3" s="334" t="s">
+      <c r="R3" s="347" t="s">
         <v>642</v>
       </c>
-      <c r="K3" s="194" t="s">
-        <v>639</v>
-      </c>
-      <c r="L3" s="194" t="s">
-        <v>640</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>643</v>
-      </c>
-      <c r="N3" s="30" t="s">
+      <c r="S3" s="348" t="s">
         <v>644</v>
       </c>
-      <c r="O3" s="113" t="s">
-        <v>647</v>
-      </c>
-      <c r="P3" s="60" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q3" s="61" t="s">
-        <v>645</v>
-      </c>
-      <c r="R3" s="347" t="s">
-        <v>646</v>
-      </c>
-      <c r="S3" s="348" t="s">
-        <v>648</v>
-      </c>
       <c r="T3" s="194" t="s">
+        <v>584</v>
+      </c>
+      <c r="U3" s="195" t="s">
+        <v>585</v>
+      </c>
+      <c r="V3" s="195" t="s">
         <v>586</v>
       </c>
-      <c r="U3" s="195" t="s">
-        <v>587</v>
-      </c>
-      <c r="V3" s="195" t="s">
-        <v>588</v>
-      </c>
       <c r="W3" s="30" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="X3" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="Y3" s="131" t="s">
-        <v>589</v>
-      </c>
-      <c r="Z3" s="131" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="250"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -6234,7 +6211,7 @@
         <v>#REF!</v>
       </c>
       <c r="V4" s="106" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="W4" s="32">
         <v>0</v>
@@ -6242,16 +6219,8 @@
       <c r="X4" s="32">
         <v>0</v>
       </c>
-      <c r="Y4" s="18" t="str">
-        <f>IF(SUM($Q4)=0,"",(SUM(#REF!)-$Q4)/$Q4)</f>
-        <v/>
-      </c>
-      <c r="Z4" s="18" t="str">
-        <f>IF(SUM($R4)=0,"",(SUM(#REF!)-$R4)/$R4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -6324,14 +6293,8 @@
       <c r="X5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -6404,14 +6367,8 @@
       <c r="X6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="Y6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -6484,25 +6441,19 @@
       <c r="X7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+    </row>
+    <row r="8" spans="1:24">
       <c r="I8" s="346" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="J8" s="346" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="M8" s="332" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="N8" s="332" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="Q8" s="230" t="s">
         <v>91</v>
@@ -6520,21 +6471,19 @@
       <c r="X8" s="227" t="s">
         <v>91</v>
       </c>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="122"/>
-    </row>
-    <row r="9" spans="1:26">
+    </row>
+    <row r="9" spans="1:24">
       <c r="I9" s="346" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="J9" s="346" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="M9" s="332" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="N9" s="332" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="Q9" s="230" t="s">
         <v>92</v>
@@ -6552,10 +6501,8 @@
       <c r="X9" s="227" t="s">
         <v>92</v>
       </c>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-    </row>
-    <row r="10" spans="1:26">
+    </row>
+    <row r="10" spans="1:24">
       <c r="I10" s="346" t="s">
         <v>55</v>
       </c>
@@ -6584,10 +6531,8 @@
       <c r="X10" s="227" t="s">
         <v>54</v>
       </c>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="122"/>
-    </row>
-    <row r="11" spans="1:26">
+    </row>
+    <row r="11" spans="1:24">
       <c r="F11" s="47" t="s">
         <v>307</v>
       </c>
@@ -6639,14 +6584,8 @@
       <c r="X11" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+    </row>
+    <row r="12" spans="1:24">
       <c r="F12" s="47" t="s">
         <v>89</v>
       </c>
@@ -6698,14 +6637,8 @@
       <c r="X12" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Y12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="251" t="s">
         <v>25</v>
       </c>
@@ -6725,28 +6658,28 @@
         <v>141</v>
       </c>
       <c r="G14" s="168" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H14" s="312" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="I14" s="312" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J14" s="312" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="K14" s="168" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L14" s="168" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="M14" s="187" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="N14" s="187" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="O14" s="164" t="s">
         <v>142</v>
@@ -6761,13 +6694,13 @@
         <v>151</v>
       </c>
       <c r="S14" s="164" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="T14" s="168" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="U14" s="169" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="V14" s="169" t="s">
         <v>424</v>
@@ -6778,14 +6711,8 @@
       <c r="X14" s="187" t="s">
         <v>153</v>
       </c>
-      <c r="Y14" s="168" t="s">
-        <v>426</v>
-      </c>
-      <c r="Z14" s="168" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="e">
         <f>INDEX(Prioritization!$D:$D,MATCH($B15,Prioritization!$A:$A,0))</f>
         <v>#N/A</v>
@@ -6843,18 +6770,10 @@
         <f>IF(SUM($F15)=0,"",IF($V15="","ENTER COMPLETION RATE",IF($T15 = "","ENTER INITIATION RATE",ROUND(($O15-$N15)*$U15*$V15,0))))</f>
         <v/>
       </c>
-      <c r="Y15" s="11" t="str">
-        <f>IF(SUM($Q15)=0,"",(SUM(#REF!)-$Q15)/$Q15)</f>
-        <v/>
-      </c>
-      <c r="Z15" s="11" t="str">
-        <f>IF(SUM($R15)=0,"",(SUM(#REF!)-$R15)/$R15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+    </row>
+    <row r="16" spans="1:24">
       <c r="I16" s="401" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="J16" s="401"/>
       <c r="K16"/>
@@ -6966,7 +6885,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7044,40 +6963,40 @@
         <v>193</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H3" s="59" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="I3" s="194" t="s">
+        <v>587</v>
+      </c>
+      <c r="J3" s="194" t="s">
+        <v>588</v>
+      </c>
+      <c r="K3" s="194" t="s">
+        <v>589</v>
+      </c>
+      <c r="L3" s="131" t="s">
+        <v>590</v>
+      </c>
+      <c r="M3" s="194" t="s">
         <v>591</v>
       </c>
-      <c r="J3" s="194" t="s">
+      <c r="N3" s="218" t="s">
         <v>592</v>
       </c>
-      <c r="K3" s="194" t="s">
-        <v>593</v>
-      </c>
-      <c r="L3" s="131" t="s">
-        <v>594</v>
-      </c>
-      <c r="M3" s="194" t="s">
-        <v>595</v>
-      </c>
-      <c r="N3" s="218" t="s">
-        <v>596</v>
-      </c>
       <c r="O3" s="218" t="s">
+        <v>469</v>
+      </c>
+      <c r="P3" s="218" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q3" s="218" t="s">
         <v>471</v>
       </c>
-      <c r="P3" s="218" t="s">
+      <c r="R3" s="218" t="s">
         <v>472</v>
-      </c>
-      <c r="Q3" s="218" t="s">
-        <v>473</v>
-      </c>
-      <c r="R3" s="218" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -7679,10 +7598,10 @@
     </row>
     <row r="3" spans="1:8" ht="117" customHeight="1">
       <c r="C3" s="60" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E3" s="194" t="s">
         <v>369</v>
@@ -7691,10 +7610,10 @@
         <v>370</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -8021,52 +7940,52 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="321" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G3" s="321" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H3" s="322" t="s">
+        <v>596</v>
+      </c>
+      <c r="I3" s="209" t="s">
+        <v>597</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>604</v>
+      </c>
+      <c r="K3" s="209" t="s">
+        <v>598</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>611</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>612</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>613</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>614</v>
+      </c>
+      <c r="P3" s="59" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q3" s="125" t="s">
+        <v>616</v>
+      </c>
+      <c r="R3" s="174" t="s">
+        <v>450</v>
+      </c>
+      <c r="S3" s="174" t="s">
+        <v>599</v>
+      </c>
+      <c r="T3" s="218" t="s">
         <v>600</v>
       </c>
-      <c r="I3" s="209" t="s">
+      <c r="U3" s="218" t="s">
         <v>601</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>608</v>
-      </c>
-      <c r="K3" s="209" t="s">
-        <v>602</v>
-      </c>
-      <c r="L3" s="59" t="s">
-        <v>615</v>
-      </c>
-      <c r="M3" s="59" t="s">
-        <v>616</v>
-      </c>
-      <c r="N3" s="59" t="s">
-        <v>617</v>
-      </c>
-      <c r="O3" s="59" t="s">
-        <v>618</v>
-      </c>
-      <c r="P3" s="59" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q3" s="125" t="s">
-        <v>620</v>
-      </c>
-      <c r="R3" s="174" t="s">
-        <v>452</v>
-      </c>
-      <c r="S3" s="174" t="s">
-        <v>603</v>
-      </c>
-      <c r="T3" s="218" t="s">
-        <v>604</v>
-      </c>
-      <c r="U3" s="218" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -8522,16 +8441,16 @@
         <v>212</v>
       </c>
       <c r="H14" s="168" t="s">
+        <v>445</v>
+      </c>
+      <c r="I14" s="167" t="s">
+        <v>446</v>
+      </c>
+      <c r="J14" s="187" t="s">
+        <v>443</v>
+      </c>
+      <c r="K14" s="167" t="s">
         <v>447</v>
-      </c>
-      <c r="I14" s="167" t="s">
-        <v>448</v>
-      </c>
-      <c r="J14" s="187" t="s">
-        <v>445</v>
-      </c>
-      <c r="K14" s="167" t="s">
-        <v>449</v>
       </c>
       <c r="L14" s="167" t="s">
         <v>188</v>
@@ -8647,7 +8566,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8675,7 +8594,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="183" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G1" s="156"/>
       <c r="H1" s="156"/>
@@ -8684,7 +8603,7 @@
       <c r="K1" s="156"/>
       <c r="L1" s="156"/>
       <c r="M1" s="183" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="N1" s="152"/>
       <c r="O1" s="152"/>
@@ -8739,49 +8658,49 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="173" t="s">
+        <v>550</v>
+      </c>
+      <c r="G3" s="173" t="s">
+        <v>551</v>
+      </c>
+      <c r="H3" s="173" t="s">
         <v>552</v>
       </c>
-      <c r="G3" s="173" t="s">
+      <c r="I3" s="173" t="s">
         <v>553</v>
       </c>
-      <c r="H3" s="173" t="s">
+      <c r="J3" s="173" t="s">
         <v>554</v>
       </c>
-      <c r="I3" s="173" t="s">
+      <c r="K3" s="173" t="s">
         <v>555</v>
       </c>
-      <c r="J3" s="173" t="s">
+      <c r="L3" s="173" t="s">
         <v>556</v>
       </c>
-      <c r="K3" s="173" t="s">
-        <v>557</v>
-      </c>
-      <c r="L3" s="173" t="s">
-        <v>558</v>
-      </c>
       <c r="M3" s="377" t="s">
+        <v>538</v>
+      </c>
+      <c r="N3" s="367" t="s">
         <v>540</v>
       </c>
-      <c r="N3" s="367" t="s">
+      <c r="O3" s="218" t="s">
+        <v>541</v>
+      </c>
+      <c r="P3" s="218" t="s">
         <v>542</v>
       </c>
-      <c r="O3" s="218" t="s">
+      <c r="Q3" s="375" t="s">
+        <v>539</v>
+      </c>
+      <c r="R3" s="367" t="s">
         <v>543</v>
       </c>
-      <c r="P3" s="218" t="s">
+      <c r="S3" s="218" t="s">
         <v>544</v>
       </c>
-      <c r="Q3" s="375" t="s">
-        <v>541</v>
-      </c>
-      <c r="R3" s="367" t="s">
+      <c r="T3" s="218" t="s">
         <v>545</v>
-      </c>
-      <c r="S3" s="218" t="s">
-        <v>546</v>
-      </c>
-      <c r="T3" s="218" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9266,7 +9185,7 @@
         <v>133</v>
       </c>
       <c r="G14" s="167" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H14" s="167" t="s">
         <v>134</v>
@@ -9287,7 +9206,7 @@
         <v>336</v>
       </c>
       <c r="N14" s="370" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O14" s="190" t="s">
         <v>337</v>
@@ -9483,7 +9402,7 @@
         <v>119</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>28</v>
@@ -9783,7 +9702,7 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="395" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -23338,7 +23257,7 @@
       <pane xSplit="1" ySplit="14" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16:C19"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -23370,13 +23289,13 @@
     <row r="3" spans="1:4" ht="117" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="128" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C3" s="178" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -23519,11 +23438,11 @@
   </sheetPr>
   <dimension ref="A1:BF3876"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="AF15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT4" sqref="AT4"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -23587,16 +23506,16 @@
       <c r="D1" s="4"/>
       <c r="E1" s="252"/>
       <c r="F1" s="183" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G1" s="183" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H1" s="154"/>
       <c r="I1" s="155"/>
       <c r="J1" s="154"/>
       <c r="K1" s="183" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L1" s="153"/>
       <c r="M1" s="152"/>
@@ -23604,7 +23523,7 @@
       <c r="O1" s="154"/>
       <c r="P1" s="154"/>
       <c r="Q1" s="357" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="R1" s="154"/>
       <c r="S1" s="154"/>
@@ -23662,7 +23581,7 @@
     </row>
     <row r="2" spans="1:58" ht="18">
       <c r="A2" s="396" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B2" s="397"/>
       <c r="C2" s="2"/>
@@ -23680,7 +23599,7 @@
       <c r="O2" s="43"/>
       <c r="P2" s="43"/>
       <c r="Q2" s="390" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="R2" s="46"/>
       <c r="S2" s="46"/>
@@ -23696,7 +23615,7 @@
       <c r="AC2" s="46"/>
       <c r="AD2" s="105"/>
       <c r="AE2" s="76" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AF2" s="46"/>
       <c r="AG2" s="53"/>
@@ -23747,7 +23666,7 @@
       <c r="D3" s="17"/>
       <c r="E3" s="249"/>
       <c r="F3" s="257" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G3" s="89" t="s">
         <v>1</v>
@@ -23768,7 +23687,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="269" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N3" s="62" t="s">
         <v>23</v>
@@ -23780,130 +23699,130 @@
         <v>384</v>
       </c>
       <c r="Q3" s="391" t="s">
+        <v>512</v>
+      </c>
+      <c r="R3" s="173" t="s">
+        <v>453</v>
+      </c>
+      <c r="S3" s="173" t="s">
+        <v>454</v>
+      </c>
+      <c r="T3" s="277" t="s">
+        <v>513</v>
+      </c>
+      <c r="U3" s="173" t="s">
         <v>514</v>
       </c>
-      <c r="R3" s="173" t="s">
+      <c r="V3" s="174" t="s">
+        <v>515</v>
+      </c>
+      <c r="W3" s="173" t="s">
+        <v>516</v>
+      </c>
+      <c r="X3" s="283" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y3" s="174" t="s">
+        <v>518</v>
+      </c>
+      <c r="Z3" s="308" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA3" s="308" t="s">
+        <v>520</v>
+      </c>
+      <c r="AB3" s="283" t="s">
+        <v>521</v>
+      </c>
+      <c r="AC3" s="173" t="s">
+        <v>522</v>
+      </c>
+      <c r="AD3" s="283" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE3" s="277" t="s">
+        <v>493</v>
+      </c>
+      <c r="AF3" s="173" t="s">
         <v>455</v>
       </c>
-      <c r="S3" s="173" t="s">
+      <c r="AG3" s="209" t="s">
+        <v>494</v>
+      </c>
+      <c r="AH3" s="209" t="s">
+        <v>495</v>
+      </c>
+      <c r="AI3" s="209" t="s">
         <v>456</v>
       </c>
-      <c r="T3" s="277" t="s">
-        <v>515</v>
-      </c>
-      <c r="U3" s="173" t="s">
-        <v>516</v>
-      </c>
-      <c r="V3" s="174" t="s">
-        <v>517</v>
-      </c>
-      <c r="W3" s="173" t="s">
-        <v>518</v>
-      </c>
-      <c r="X3" s="283" t="s">
-        <v>519</v>
-      </c>
-      <c r="Y3" s="174" t="s">
-        <v>520</v>
-      </c>
-      <c r="Z3" s="308" t="s">
-        <v>521</v>
-      </c>
-      <c r="AA3" s="308" t="s">
-        <v>522</v>
-      </c>
-      <c r="AB3" s="283" t="s">
-        <v>523</v>
-      </c>
-      <c r="AC3" s="173" t="s">
-        <v>524</v>
-      </c>
-      <c r="AD3" s="283" t="s">
-        <v>525</v>
-      </c>
-      <c r="AE3" s="277" t="s">
-        <v>495</v>
-      </c>
-      <c r="AF3" s="173" t="s">
+      <c r="AJ3" s="210" t="s">
+        <v>496</v>
+      </c>
+      <c r="AK3" s="63" t="s">
+        <v>497</v>
+      </c>
+      <c r="AL3" s="322" t="s">
+        <v>670</v>
+      </c>
+      <c r="AM3" s="172" t="s">
+        <v>498</v>
+      </c>
+      <c r="AN3" s="259" t="s">
         <v>457</v>
       </c>
-      <c r="AG3" s="209" t="s">
-        <v>496</v>
-      </c>
-      <c r="AH3" s="209" t="s">
-        <v>497</v>
-      </c>
-      <c r="AI3" s="209" t="s">
+      <c r="AO3" s="218" t="s">
+        <v>499</v>
+      </c>
+      <c r="AP3" s="289" t="s">
+        <v>500</v>
+      </c>
+      <c r="AQ3" s="210" t="s">
+        <v>501</v>
+      </c>
+      <c r="AR3" s="283" t="s">
+        <v>502</v>
+      </c>
+      <c r="AS3" s="63" t="s">
+        <v>503</v>
+      </c>
+      <c r="AT3" s="172" t="s">
+        <v>674</v>
+      </c>
+      <c r="AU3" s="283" t="s">
+        <v>505</v>
+      </c>
+      <c r="AV3" s="383" t="s">
+        <v>506</v>
+      </c>
+      <c r="AW3" s="262" t="s">
         <v>458</v>
       </c>
-      <c r="AJ3" s="210" t="s">
-        <v>498</v>
-      </c>
-      <c r="AK3" s="63" t="s">
-        <v>499</v>
-      </c>
-      <c r="AL3" s="322" t="s">
-        <v>674</v>
-      </c>
-      <c r="AM3" s="172" t="s">
-        <v>500</v>
-      </c>
-      <c r="AN3" s="259" t="s">
+      <c r="AX3" s="272" t="s">
         <v>459</v>
       </c>
-      <c r="AO3" s="218" t="s">
-        <v>501</v>
-      </c>
-      <c r="AP3" s="289" t="s">
-        <v>502</v>
-      </c>
-      <c r="AQ3" s="210" t="s">
-        <v>503</v>
-      </c>
-      <c r="AR3" s="283" t="s">
-        <v>504</v>
-      </c>
-      <c r="AS3" s="63" t="s">
-        <v>505</v>
-      </c>
-      <c r="AT3" s="172" t="s">
-        <v>678</v>
-      </c>
-      <c r="AU3" s="283" t="s">
+      <c r="AY3" s="151" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ3" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="BA3" s="316" t="s">
         <v>507</v>
       </c>
-      <c r="AV3" s="383" t="s">
+      <c r="BB3" s="210" t="s">
+        <v>461</v>
+      </c>
+      <c r="BC3" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="BD3" s="218" t="s">
         <v>508</v>
       </c>
-      <c r="AW3" s="262" t="s">
-        <v>460</v>
-      </c>
-      <c r="AX3" s="272" t="s">
-        <v>461</v>
-      </c>
-      <c r="AY3" s="151" t="s">
+      <c r="BE3" s="262" t="s">
         <v>462</v>
       </c>
-      <c r="AZ3" s="30" t="s">
-        <v>491</v>
-      </c>
-      <c r="BA3" s="316" t="s">
-        <v>509</v>
-      </c>
-      <c r="BB3" s="210" t="s">
-        <v>463</v>
-      </c>
-      <c r="BC3" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="BD3" s="218" t="s">
-        <v>510</v>
-      </c>
-      <c r="BE3" s="262" t="s">
-        <v>464</v>
-      </c>
       <c r="BF3" s="30" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:58">
@@ -24039,9 +23958,9 @@
         <f>SUBTOTAL(109,AK$15:INDEX(AK:AK,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
         <v>0</v>
       </c>
-      <c r="AL4" s="380">
-        <f>SUBTOTAL(109,AL$15:INDEX(AL:AL,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
-        <v>0</v>
+      <c r="AL4" s="380" t="str">
+        <f>IF(SUM($AT4)=0,"",ROUND(SUM($M15)/IF(SUM($W15)=0,1,$W15),2))</f>
+        <v/>
       </c>
       <c r="AM4" s="66">
         <f>SUBTOTAL(109,AM$15:INDEX(AM:AM,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
@@ -24693,14 +24612,14 @@
       <c r="Y8" s="140"/>
       <c r="Z8" s="311"/>
       <c r="AA8" s="331" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AC8" s="230" t="s">
         <v>41</v>
       </c>
       <c r="AE8" s="280"/>
       <c r="AF8" s="230" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AI8" s="230" t="s">
         <v>118</v>
@@ -24716,10 +24635,10 @@
         <v>64</v>
       </c>
       <c r="AZ8" s="227" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC8" s="227" t="s">
         <v>487</v>
-      </c>
-      <c r="BC8" s="227" t="s">
-        <v>489</v>
       </c>
       <c r="BD8" s="227" t="s">
         <v>41</v>
@@ -24773,10 +24692,10 @@
         <v>65</v>
       </c>
       <c r="AZ9" s="227" t="s">
+        <v>486</v>
+      </c>
+      <c r="BC9" s="227" t="s">
         <v>488</v>
-      </c>
-      <c r="BC9" s="227" t="s">
-        <v>490</v>
       </c>
       <c r="BD9" s="227"/>
     </row>
@@ -25248,10 +25167,10 @@
         <v>128</v>
       </c>
       <c r="R14" s="167" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="S14" s="167" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="T14" s="186" t="s">
         <v>131</v>
@@ -25272,7 +25191,7 @@
         <v>196</v>
       </c>
       <c r="Z14" s="312" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AA14" s="312" t="s">
         <v>356</v>
@@ -25281,22 +25200,22 @@
         <v>392</v>
       </c>
       <c r="AC14" s="167" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AD14" s="169" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AE14" s="186" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AF14" s="167" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AG14" s="164" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AH14" s="164" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AI14" s="164" t="s">
         <v>393</v>
@@ -25308,7 +25227,7 @@
         <v>396</v>
       </c>
       <c r="AL14" s="381" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="AM14" s="164" t="s">
         <v>397</v>
@@ -25350,7 +25269,7 @@
         <v>404</v>
       </c>
       <c r="AZ14" s="166" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="BA14" s="319" t="s">
         <v>419</v>
@@ -25359,10 +25278,10 @@
         <v>363</v>
       </c>
       <c r="BC14" s="166" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="BD14" s="166" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="BE14" s="268" t="s">
         <v>199</v>
@@ -60431,7 +60350,7 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="14" topLeftCell="AC15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="14" topLeftCell="W15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AH15" sqref="AH15"/>
@@ -60604,106 +60523,106 @@
       <c r="C3"/>
       <c r="D3" s="26"/>
       <c r="E3" s="224" t="s">
+        <v>557</v>
+      </c>
+      <c r="F3" s="218" t="s">
+        <v>558</v>
+      </c>
+      <c r="G3" s="229" t="s">
+        <v>547</v>
+      </c>
+      <c r="H3" s="96" t="s">
         <v>559</v>
       </c>
-      <c r="F3" s="218" t="s">
+      <c r="I3" s="218" t="s">
+        <v>526</v>
+      </c>
+      <c r="J3" s="89" t="s">
         <v>560</v>
       </c>
-      <c r="G3" s="229" t="s">
-        <v>549</v>
-      </c>
-      <c r="H3" s="96" t="s">
+      <c r="K3" s="221" t="s">
+        <v>467</v>
+      </c>
+      <c r="L3" s="89" t="s">
+        <v>605</v>
+      </c>
+      <c r="M3" s="61" t="s">
         <v>561</v>
       </c>
-      <c r="I3" s="218" t="s">
+      <c r="N3" s="173" t="s">
+        <v>562</v>
+      </c>
+      <c r="O3" s="218" t="s">
+        <v>527</v>
+      </c>
+      <c r="P3" s="209" t="s">
         <v>528</v>
       </c>
-      <c r="J3" s="89" t="s">
-        <v>562</v>
-      </c>
-      <c r="K3" s="221" t="s">
-        <v>469</v>
-      </c>
-      <c r="L3" s="89" t="s">
-        <v>609</v>
-      </c>
-      <c r="M3" s="61" t="s">
+      <c r="Q3" s="329" t="s">
+        <v>529</v>
+      </c>
+      <c r="R3" s="89" t="s">
         <v>563</v>
       </c>
-      <c r="N3" s="173" t="s">
+      <c r="S3" s="194" t="s">
+        <v>501</v>
+      </c>
+      <c r="T3" s="194" t="s">
+        <v>502</v>
+      </c>
+      <c r="U3" s="61" t="s">
+        <v>530</v>
+      </c>
+      <c r="V3" s="61" t="s">
+        <v>504</v>
+      </c>
+      <c r="W3" s="195" t="s">
+        <v>505</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y3" s="297" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z3" s="295" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA3" s="298" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB3" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="AC3" s="297" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD3" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE3" s="60" t="s">
         <v>564</v>
       </c>
-      <c r="O3" s="218" t="s">
-        <v>529</v>
-      </c>
-      <c r="P3" s="209" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q3" s="329" t="s">
-        <v>531</v>
-      </c>
-      <c r="R3" s="89" t="s">
+      <c r="AF3" s="59" t="s">
         <v>565</v>
       </c>
-      <c r="S3" s="194" t="s">
-        <v>503</v>
-      </c>
-      <c r="T3" s="194" t="s">
-        <v>504</v>
-      </c>
-      <c r="U3" s="61" t="s">
-        <v>532</v>
-      </c>
-      <c r="V3" s="61" t="s">
-        <v>506</v>
-      </c>
-      <c r="W3" s="195" t="s">
-        <v>507</v>
-      </c>
-      <c r="X3" s="30" t="s">
-        <v>533</v>
-      </c>
-      <c r="Y3" s="297" t="s">
-        <v>460</v>
-      </c>
-      <c r="Z3" s="295" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA3" s="298" t="s">
+      <c r="AG3" s="194" t="s">
         <v>462</v>
       </c>
-      <c r="AB3" s="30" t="s">
+      <c r="AH3" s="194" t="s">
         <v>534</v>
       </c>
-      <c r="AC3" s="297" t="s">
-        <v>463</v>
-      </c>
-      <c r="AD3" s="30" t="s">
+      <c r="AI3" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="AE3" s="60" t="s">
+      <c r="AJ3" s="218" t="s">
+        <v>536</v>
+      </c>
+      <c r="AK3" s="60" t="s">
         <v>566</v>
       </c>
-      <c r="AF3" s="59" t="s">
-        <v>567</v>
-      </c>
-      <c r="AG3" s="194" t="s">
-        <v>464</v>
-      </c>
-      <c r="AH3" s="194" t="s">
-        <v>536</v>
-      </c>
-      <c r="AI3" s="30" t="s">
+      <c r="AL3" s="218" t="s">
         <v>537</v>
-      </c>
-      <c r="AJ3" s="218" t="s">
-        <v>538</v>
-      </c>
-      <c r="AK3" s="60" t="s">
-        <v>568</v>
-      </c>
-      <c r="AL3" s="218" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:38" s="25" customFormat="1">
@@ -61608,13 +61527,13 @@
         <v>28</v>
       </c>
       <c r="E14" s="204" t="s">
+        <v>431</v>
+      </c>
+      <c r="F14" s="187" t="s">
+        <v>432</v>
+      </c>
+      <c r="G14" s="205" t="s">
         <v>433</v>
-      </c>
-      <c r="F14" s="187" t="s">
-        <v>434</v>
-      </c>
-      <c r="G14" s="205" t="s">
-        <v>435</v>
       </c>
       <c r="H14" s="188" t="s">
         <v>166</v>
@@ -61641,10 +61560,10 @@
         <v>162</v>
       </c>
       <c r="P14" s="167" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q14" s="186" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R14" s="188" t="s">
         <v>160</v>
@@ -62074,13 +61993,13 @@
       <c r="A3" s="398"/>
       <c r="B3" s="399"/>
       <c r="C3" s="110" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" s="113" t="s">
+        <v>478</v>
+      </c>
+      <c r="E3" s="115" t="s">
         <v>479</v>
-      </c>
-      <c r="D3" s="113" t="s">
-        <v>480</v>
-      </c>
-      <c r="E3" s="115" t="s">
-        <v>481</v>
       </c>
       <c r="F3" s="144" t="s">
         <v>228</v>
@@ -62098,10 +62017,10 @@
         <v>231</v>
       </c>
       <c r="K3" s="110" t="s">
+        <v>477</v>
+      </c>
+      <c r="L3" s="115" t="s">
         <v>479</v>
-      </c>
-      <c r="L3" s="115" t="s">
-        <v>481</v>
       </c>
       <c r="M3" s="144" t="s">
         <v>228</v>
@@ -62119,10 +62038,10 @@
         <v>231</v>
       </c>
       <c r="R3" s="110" t="s">
+        <v>477</v>
+      </c>
+      <c r="S3" s="115" t="s">
         <v>479</v>
-      </c>
-      <c r="S3" s="115" t="s">
-        <v>481</v>
       </c>
       <c r="T3" s="144" t="s">
         <v>228</v>
@@ -62140,10 +62059,10 @@
         <v>231</v>
       </c>
       <c r="Y3" s="110" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z3" s="115" t="s">
         <v>479</v>
-      </c>
-      <c r="Z3" s="115" t="s">
-        <v>481</v>
       </c>
       <c r="AA3" s="144" t="s">
         <v>228</v>
@@ -62161,10 +62080,10 @@
         <v>231</v>
       </c>
       <c r="AF3" s="110" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG3" s="115" t="s">
         <v>479</v>
-      </c>
-      <c r="AG3" s="115" t="s">
-        <v>481</v>
       </c>
       <c r="AH3" s="144" t="s">
         <v>228</v>
@@ -62182,10 +62101,10 @@
         <v>231</v>
       </c>
       <c r="AM3" s="110" t="s">
+        <v>477</v>
+      </c>
+      <c r="AN3" s="115" t="s">
         <v>479</v>
-      </c>
-      <c r="AN3" s="115" t="s">
-        <v>481</v>
       </c>
       <c r="AO3" s="144" t="s">
         <v>228</v>
@@ -62203,10 +62122,10 @@
         <v>231</v>
       </c>
       <c r="AT3" s="110" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU3" s="115" t="s">
         <v>479</v>
-      </c>
-      <c r="AU3" s="115" t="s">
-        <v>481</v>
       </c>
       <c r="AV3" s="144" t="s">
         <v>228</v>
@@ -62224,10 +62143,10 @@
         <v>231</v>
       </c>
       <c r="BA3" s="110" t="s">
+        <v>477</v>
+      </c>
+      <c r="BB3" s="115" t="s">
         <v>479</v>
-      </c>
-      <c r="BB3" s="115" t="s">
-        <v>481</v>
       </c>
       <c r="BC3" s="144" t="s">
         <v>228</v>
@@ -63933,10 +63852,10 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -64032,46 +63951,46 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="110" t="s">
+        <v>571</v>
+      </c>
+      <c r="G3" s="111" t="s">
+        <v>546</v>
+      </c>
+      <c r="H3" s="112" t="s">
+        <v>547</v>
+      </c>
+      <c r="I3" s="111" t="s">
+        <v>548</v>
+      </c>
+      <c r="J3" s="112" t="s">
+        <v>549</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>606</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>572</v>
+      </c>
+      <c r="M3" s="218" t="s">
         <v>573</v>
       </c>
-      <c r="G3" s="111" t="s">
-        <v>548</v>
-      </c>
-      <c r="H3" s="112" t="s">
-        <v>549</v>
-      </c>
-      <c r="I3" s="111" t="s">
-        <v>550</v>
-      </c>
-      <c r="J3" s="112" t="s">
-        <v>551</v>
-      </c>
-      <c r="K3" s="59" t="s">
-        <v>610</v>
-      </c>
-      <c r="L3" s="59" t="s">
+      <c r="N3" s="218" t="s">
         <v>574</v>
       </c>
-      <c r="M3" s="218" t="s">
+      <c r="O3" s="125" t="s">
         <v>575</v>
       </c>
-      <c r="N3" s="218" t="s">
-        <v>576</v>
-      </c>
-      <c r="O3" s="125" t="s">
-        <v>577</v>
-      </c>
       <c r="P3" s="194" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q3" s="221" t="s">
+        <v>568</v>
+      </c>
+      <c r="R3" s="221" t="s">
         <v>569</v>
       </c>
-      <c r="Q3" s="221" t="s">
+      <c r="S3" s="210" t="s">
         <v>570</v>
-      </c>
-      <c r="R3" s="221" t="s">
-        <v>571</v>
-      </c>
-      <c r="S3" s="210" t="s">
-        <v>572</v>
       </c>
       <c r="T3" s="174" t="s">
         <v>406</v>
@@ -64718,11 +64637,11 @@
   </sheetPr>
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -64765,7 +64684,7 @@
       <c r="K1" s="339"/>
       <c r="L1" s="154"/>
       <c r="M1" s="357" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="N1" s="159"/>
       <c r="O1" s="154"/>
@@ -64812,46 +64731,46 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="114" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G3" s="341" t="s">
+        <v>664</v>
+      </c>
+      <c r="H3" s="341" t="s">
+        <v>665</v>
+      </c>
+      <c r="I3" s="338" t="s">
+        <v>666</v>
+      </c>
+      <c r="J3" s="341" t="s">
+        <v>659</v>
+      </c>
+      <c r="K3" s="355" t="s">
+        <v>660</v>
+      </c>
+      <c r="L3" s="113" t="s">
+        <v>619</v>
+      </c>
+      <c r="M3" s="359" t="s">
+        <v>667</v>
+      </c>
+      <c r="N3" s="195" t="s">
+        <v>669</v>
+      </c>
+      <c r="O3" s="218" t="s">
         <v>668</v>
       </c>
-      <c r="H3" s="341" t="s">
-        <v>669</v>
-      </c>
-      <c r="I3" s="338" t="s">
-        <v>670</v>
-      </c>
-      <c r="J3" s="341" t="s">
-        <v>663</v>
-      </c>
-      <c r="K3" s="355" t="s">
-        <v>664</v>
-      </c>
-      <c r="L3" s="113" t="s">
-        <v>623</v>
-      </c>
-      <c r="M3" s="359" t="s">
-        <v>671</v>
-      </c>
-      <c r="N3" s="195" t="s">
-        <v>673</v>
-      </c>
-      <c r="O3" s="218" t="s">
-        <v>672</v>
-      </c>
       <c r="P3" s="109" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="Q3" s="60" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="R3" s="194" t="s">
         <v>101</v>
       </c>
       <c r="S3" s="218" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -64876,7 +64795,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="106" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="O4" s="32">
         <f>SUBTOTAL(109,O$15:INDEX(O:O,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
@@ -65088,11 +65007,11 @@
       <c r="J8" s="343"/>
       <c r="K8" s="343"/>
       <c r="M8" s="365" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="N8" s="350"/>
       <c r="O8" s="337" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q8" s="237" t="s">
         <v>102</v>
@@ -65114,11 +65033,11 @@
       <c r="J9" s="343"/>
       <c r="K9" s="343"/>
       <c r="M9" s="365" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="N9" s="350"/>
       <c r="O9" s="337" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="Q9" s="237" t="s">
         <v>103</v>
@@ -65281,19 +65200,19 @@
         <v>395</v>
       </c>
       <c r="G14" s="344" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H14" s="344" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I14" s="344" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="J14" s="344" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="K14" s="344" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="L14" s="164" t="s">
         <v>222</v>
@@ -65302,7 +65221,7 @@
         <v>200</v>
       </c>
       <c r="N14" s="169" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="O14" s="187" t="s">
         <v>208</v>
@@ -65378,10 +65297,10 @@
     </row>
     <row r="16" spans="1:19">
       <c r="J16" s="313" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M16" s="364" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -65434,7 +65353,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65490,25 +65409,25 @@
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="110" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G3" s="111" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H3" s="111" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I3" s="111" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J3" s="59" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="K3" s="59" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L3" s="218" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -65697,10 +65616,10 @@
         <v>415</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J11" s="36" t="s">
         <v>415</v>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3A487B-17EA-4DFA-B58D-FF11211C3A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3047C999-8759-4975-A2DF-8A4F31ECF9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33285" yWindow="-525" windowWidth="30600" windowHeight="15990" firstSheet="1" activeTab="9" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-33885" yWindow="-180" windowWidth="30600" windowHeight="15990" firstSheet="1" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -5533,7 +5533,7 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -23438,7 +23438,7 @@
   </sheetPr>
   <dimension ref="A1:BF3876"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3047C999-8759-4975-A2DF-8A4F31ECF9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F25D15-0656-4F47-BA08-B152C98B7324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33885" yWindow="-180" windowWidth="30600" windowHeight="15990" firstSheet="1" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -4126,6 +4126,26 @@
         <color rgb="FFC00000"/>
       </font>
       <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
         <patternFill patternType="darkUp"/>
       </fill>
     </dxf>
@@ -5107,31 +5127,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5953,22 +5953,22 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:M1048576">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="36" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:L1048576">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(ISNUMBER(J1),J1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="34" priority="3">
       <formula>AND(ISNUMBER($K1),$K1&lt;33%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="expression" dxfId="31" priority="7">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>AND(ISNUMBER($L1),$L1&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5987,13 +5987,13 @@
   <sheetPr codeName="Sheet16">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6796,71 +6796,71 @@
     <mergeCell ref="I16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>AND(ISNUMBER(G7),ROUND(SUM(G7),2)&lt;100%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>AND(ISNUMBER(G7),G7&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1048576 I1:K14 L1:L15 K15 I17:J17 I18:L1048576">
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="30" priority="20">
       <formula>AND(SUM(#REF!)&gt;0,G1="",ROW(G1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="expression" dxfId="27" priority="16">
+    <cfRule type="expression" dxfId="29" priority="16">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="18">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>AND(ISNUMBER(G1),ROUND(SUM(G1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="25" priority="3903">
+    <cfRule type="expression" dxfId="27" priority="3903">
       <formula>AND(SUM(#REF!)&gt;0,I16="",ROW(I16)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L14 K15:L15 I17:J17 I18:L1048576 I16">
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>AND(ISNUMBER(I1),ROUND(SUM(I1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L14 T1:U1048576 K15:L15 I16 I17:J17 I18:L1048576">
-    <cfRule type="expression" dxfId="23" priority="26">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>AND(ISNUMBER(I1),I1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:N14 K15:O15 I16 I17:J17 I18:W1048576 F1:H1048576 O1:W15 P16:W17">
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L15 L18:L1048576">
-    <cfRule type="expression" dxfId="21" priority="30">
+    <cfRule type="expression" dxfId="23" priority="30">
       <formula>AND(SUM(#REF!)&lt;&gt;0,L1="",ROW(L1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="22" priority="11">
       <formula>AND(ISNUMBER(T1),ROUND(SUM(T1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:V1048576">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>V1="ENTER INITIATION RATE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>AND(ISNUMBER(V1),V1&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>AND(ISNUMBER(V1),ROUND(SUM(V1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>AND(ISNUMBER(X1),X1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7515,27 +7515,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:H1048576 J1:R1048576">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576 O1:O1048576">
-    <cfRule type="expression" dxfId="14" priority="3854">
+    <cfRule type="expression" dxfId="16" priority="3854">
       <formula>AND($B1&lt;&gt;"",ROW(J1)&gt;14,NOT(AND($D1="Female",$F1="Y",OR($C1="10-14",$C1="15-17"))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:M1048576">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND(ISNUMBER(J1),OR(ROUND(SUM(J1),2)&lt;0,ROUND(SUM(J1),2)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 P1:P1048576">
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>AND($E1&lt;&gt;"",ROW(K1)&gt;14,NOT(OR($C1="05-09",$C1="10-14")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="11" priority="24">
+    <cfRule type="expression" dxfId="13" priority="24">
       <formula>AND(ISNUMBER($M1),ROUND(SUM($M1),2)&lt;20%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7840,7 +7840,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:D1048576 G1:H1048576">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(ISNUMBER(C1),C1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8526,27 +8526,27 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:Q1048576 S1:U1048576">
-    <cfRule type="expression" dxfId="9" priority="23">
+    <cfRule type="expression" dxfId="11" priority="23">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="8" priority="24">
+    <cfRule type="expression" dxfId="10" priority="24">
       <formula>AND(ISNUMBER(Q1),Q1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="7" priority="3881">
+    <cfRule type="expression" dxfId="9" priority="3881">
       <formula>AND(ROUND(SUM($S1),2)&lt;60%,SUM($T1)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="6" priority="35">
+    <cfRule type="expression" dxfId="8" priority="35">
       <formula>AND(ISNUMBER(T1),SUM($T1)&gt;SUM($K1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND(ISNUMBER(T1),SUM($U1)&gt;SUM($T1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8562,11 +8562,11 @@
   </sheetPr>
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9303,25 +9303,25 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:P1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(ROW(F1)&gt;14,LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q14">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(ISNUMBER(Q2),Q2&lt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>AND(ISNUMBER(Q2),Q2&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1 R2:T14 Q15:T1048576 F1:P1048576">
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1 R2:T14 Q15:T1048576">
-    <cfRule type="expression" dxfId="0" priority="13">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>AND(ROW(Q1)&gt;14,LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23257,7 +23257,7 @@
       <pane xSplit="1" ySplit="14" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14:D14"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -23438,11 +23438,11 @@
   </sheetPr>
   <dimension ref="A1:BF3876"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -25319,35 +25319,35 @@
         <v/>
       </c>
       <c r="Q15" s="394" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;Q$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;Q$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$B15,Spectrum!$K:$K,$C15,Spectrum!$G:$G,Q$14,Spectrum!$M:$M,"CY2025Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="R15" s="37" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;R$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;R$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$B15,Spectrum!$K:$K,$C15,Spectrum!$G:$G,R$14,Spectrum!$M:$M,"CY2025Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="S15" s="37" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;S$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;S$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$B15,Spectrum!$K:$K,$C15,Spectrum!$G:$G,S$14,Spectrum!$M:$M,"CY2025Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="T15" s="69" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;T$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;T$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),IFERROR(1/(1/ROUND(AVERAGEIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$B15,Spectrum!$K:$K,$C15,Spectrum!$G:$G,T$14,Spectrum!$M:$M,"CY2025Q3"),2)),"")))</f>
         <v/>
       </c>
       <c r="U15" s="37" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;U$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;U$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$B15,Spectrum!$K:$K,$C15,Spectrum!$G:$G,U$14,Spectrum!$M:$M,"CY2025Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="V15" s="82" t="str">
         <f>IF(OR(SUM($R15)=0,LEFT($B15,4)="_Mil"),"",ROUND(SUM($U15)/$R15,2))</f>
         <v/>
       </c>
-      <c r="W15" s="36" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;W$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+      <c r="W15" s="37" t="str">
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;W$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$B15,Spectrum!$K:$K,$C15,Spectrum!$G:$G,W$14,Spectrum!$M:$M,"CY2025Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="X15" s="285" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",IFERROR(1/(1/INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;X$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0))),IF(SUM($R15)=0,"",SUM($W15)/$R15)))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",IFERROR(1/(1/INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;X$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0))),IFERROR(1/(1/ROUND(AVERAGEIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$B15,Spectrum!$K:$K,$C15,Spectrum!$G:$G,X$14,Spectrum!$M:$M,"CY2025Q3"),2)),IF(SUM($R15)=0,"",SUM($W15)/$R15))))</f>
         <v/>
       </c>
       <c r="Y15" s="82" t="str">
@@ -25355,11 +25355,11 @@
         <v/>
       </c>
       <c r="Z15" s="310" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;Z$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;Z$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$B15,Spectrum!$K:$K,$C15,Spectrum!$G:$G,Z$14,Spectrum!$M:$M,"CY2025Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="AA15" s="326" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;AA$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;AA$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$B15,Spectrum!$K:$K,$C15,Spectrum!$G:$G,AA$14,Spectrum!$M:$M,"CY2025Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="AB15" s="285" t="str">
@@ -25367,7 +25367,7 @@
         <v/>
       </c>
       <c r="AC15" s="37" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;AC$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;AC$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$B15,Spectrum!$K:$K,$C15,Spectrum!$G:$G,AC$14,Spectrum!$M:$M,"CY2025Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="AD15" s="285" t="str">
@@ -25375,19 +25375,19 @@
         <v/>
       </c>
       <c r="AE15" s="281" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;AE$14&amp;"|"&amp;"CY2026Q3",Spectrum!$R:$R,0)),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;AE$14&amp;"|"&amp;"CY2026Q3",Spectrum!$R:$R,0)),IFERROR(1/(1/ROUND(AVERAGEIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$B15,Spectrum!$K:$K,$C15,Spectrum!$G:$G,AE$14,Spectrum!$M:$M,"CY2026Q3"),2)),"")))</f>
         <v/>
       </c>
       <c r="AF15" s="148" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;AF$14&amp;"|"&amp;"CY2026Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;AF$14&amp;"|"&amp;"CY2026Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$B15,Spectrum!$K:$K,$C15,Spectrum!$G:$G,M$14,Spectrum!$M:$M,"CY2026Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="AG15" s="45" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;AG$14&amp;"|"&amp;"CY2026Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;AG$14&amp;"|"&amp;"CY2026Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$B15,Spectrum!$K:$K,$C15,Spectrum!$G:$G,M$14,Spectrum!$M:$M,"CY2026Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="AH15" s="148" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;AH$14&amp;"|"&amp;"CY2026Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;AH$14&amp;"|"&amp;"CY2026Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$B15,Spectrum!$K:$K,$C15,Spectrum!$G:$G,M$14,Spectrum!$M:$M,"CY2026Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="AI15" s="148" t="str">
@@ -60274,65 +60274,65 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:BF1048576">
-    <cfRule type="expression" dxfId="103" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="102" priority="15">
+    <cfRule type="expression" dxfId="103" priority="15">
       <formula>AND($L1&lt;&gt;$M1,ISNUMBER($M1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:AK1 AO1:AP1 BA1 BD1">
-    <cfRule type="expression" dxfId="101" priority="3921">
+    <cfRule type="expression" dxfId="102" priority="3921">
       <formula>AND(ROW($Q1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:AK1048576 AO2:AP1048576 BA2:BA1048576 BD2:BD1048576">
-    <cfRule type="expression" dxfId="100" priority="4">
+  <conditionalFormatting sqref="AO2:AP1048576 BA2:BA1048576 BD2:BD1048576 Q2:AK1048576">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND(ROW(#REF!)&gt;14,$E2&lt;&gt;"",LEFT($B2,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576 V1:V1048576 X1:Y1048576 AB1:AB1048576 AD1:AE1048576 AP1:AR1048576 AU1:AU1048576 AW1:AW1048576 AY1:AY1048576 BB1:BB1048576 BE1:BE1048576">
-    <cfRule type="expression" dxfId="99" priority="7">
+    <cfRule type="expression" dxfId="101" priority="7">
       <formula>AND(ISNUMBER(T1),T1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576 Y1:Y1048576 AB1:AB1048576 AD1:AD1048576 AY1:AY1048576 BB1:BB1048576 BE1:BE1048576">
-    <cfRule type="expression" dxfId="98" priority="14">
+    <cfRule type="expression" dxfId="100" priority="14">
       <formula>AND(ISNUMBER(V1),V1&lt;0.95)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576 AJ1:AJ1048576 AP1:AP1048576">
-    <cfRule type="expression" dxfId="97" priority="16">
+    <cfRule type="expression" dxfId="99" priority="16">
       <formula>AND(ISNUMBER(X1),X1&lt;0.9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI1048576">
-    <cfRule type="expression" dxfId="96" priority="6">
+    <cfRule type="expression" dxfId="98" priority="6">
       <formula>AND(ISNUMBER($AI1),ROW($AI1)&gt;14,SUM($AI1)=SUM($AH1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="8">
+    <cfRule type="expression" dxfId="97" priority="8">
       <formula>AND(ISNUMBER($AI1),ROW($AI1)&gt;14,SUM($AI1)=SUM($AG1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1:AJ1048576">
-    <cfRule type="expression" dxfId="94" priority="13">
+    <cfRule type="expression" dxfId="96" priority="13">
       <formula>AND(ISNUMBER(AJ1),AJ1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ1:AR1048576">
-    <cfRule type="expression" dxfId="93" priority="12">
+    <cfRule type="expression" dxfId="95" priority="12">
       <formula>AND(ISNUMBER(AQ1),AQ1&lt;0.98)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU1048576">
-    <cfRule type="expression" dxfId="92" priority="10">
+    <cfRule type="expression" dxfId="94" priority="10">
       <formula>AND(ISNUMBER(AU1),AU1&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW1:AW1048576">
-    <cfRule type="expression" dxfId="91" priority="9">
+    <cfRule type="expression" dxfId="93" priority="9">
       <formula>AND(ISNUMBER(AW1),AW1&lt;0.7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60350,7 +60350,7 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="14" topLeftCell="W15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="14" topLeftCell="Q15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AH15" sqref="AH15"/>
@@ -61715,47 +61715,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:G1048576">
-    <cfRule type="expression" dxfId="90" priority="2">
+    <cfRule type="expression" dxfId="92" priority="2">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:AL1048576">
-    <cfRule type="expression" dxfId="89" priority="3">
+    <cfRule type="expression" dxfId="91" priority="3">
       <formula>AND(ISNUMBER(E1),E1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 S1:T1048576 W1:W1048576 Y1:Y1048576 AA1:AA1048576 AC1:AC1048576 AG1:AH1048576">
-    <cfRule type="expression" dxfId="88" priority="4">
+    <cfRule type="expression" dxfId="90" priority="4">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="87" priority="13">
+    <cfRule type="expression" dxfId="89" priority="13">
       <formula>AND(ISNUMBER($S1),SUM($S1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="86" priority="19">
+    <cfRule type="expression" dxfId="88" priority="19">
       <formula>AND(ISNUMBER($T1),SUM($T1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576">
-    <cfRule type="expression" dxfId="85" priority="34">
+    <cfRule type="expression" dxfId="87" priority="34">
       <formula>AND(ISNUMBER($Y1),ROUND(SUM($V1),0)&gt;0,ROUND(SUM($Y1),2)&lt;70%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AA1:AA1048576 AC1:AC1048576">
-    <cfRule type="expression" dxfId="84" priority="3836">
+    <cfRule type="expression" dxfId="86" priority="3836">
       <formula>AND(ISNUMBER(AA1),SUM(AA1)&lt;95%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576">
-    <cfRule type="expression" dxfId="83" priority="10">
+    <cfRule type="expression" dxfId="85" priority="10">
       <formula>AND(ROW($AG1)&gt;14,$AI1="ENTER LINKAGE RATE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AH1048576">
-    <cfRule type="expression" dxfId="82" priority="1">
+    <cfRule type="expression" dxfId="84" priority="1">
       <formula>AND(ROW($AH1)&gt;14,$AJ1="ENTER YIELD RATE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63622,152 +63622,152 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:D1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="81" priority="9">
+    <cfRule type="expression" dxfId="83" priority="9">
       <formula>AND(ROW($F1)&gt;14,SUM($F1)&gt;$C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1048576 H1:J1048576">
-    <cfRule type="expression" dxfId="80" priority="11">
+    <cfRule type="expression" dxfId="82" priority="11">
       <formula>(($C1-$F1)+($E1-$G1))&lt;SUM($H1:$J1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 G1:G1048576">
-    <cfRule type="expression" dxfId="79" priority="8">
+    <cfRule type="expression" dxfId="81" priority="8">
       <formula>AND(ROW($G1)&gt;14,SUM($G1)&gt;$E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 M1:M1048576">
-    <cfRule type="expression" dxfId="78" priority="13">
+    <cfRule type="expression" dxfId="80" priority="13">
       <formula>AND(ROW($M1)&gt;14,SUM($M1)&gt;$K1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L1048576 O1:Q1048576">
-    <cfRule type="expression" dxfId="77" priority="15">
+    <cfRule type="expression" dxfId="79" priority="15">
       <formula>(($K1-$M1)+($L1-$N1))&lt;SUM($O1:$Q1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576 N1:N1048576">
-    <cfRule type="expression" dxfId="76" priority="12">
+    <cfRule type="expression" dxfId="78" priority="12">
       <formula>AND(ROW($N1)&gt;14,SUM($N1)&gt;$L1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576 T1:T1048576">
-    <cfRule type="expression" dxfId="75" priority="16">
+    <cfRule type="expression" dxfId="77" priority="16">
       <formula>AND(ROW($T1)&gt;14,SUM($T1)&gt;$R1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1048576 V1:X1048576">
-    <cfRule type="expression" dxfId="74" priority="19">
+    <cfRule type="expression" dxfId="76" priority="19">
       <formula>(($R1-$T1)+($S1-$U1))&lt;SUM($V1:$X1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="73" priority="17">
+    <cfRule type="expression" dxfId="75" priority="17">
       <formula>AND(ROW($U1)&gt;14,SUM($U1)&gt;$S1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576 AA1:AA1048576">
-    <cfRule type="expression" dxfId="72" priority="20">
+    <cfRule type="expression" dxfId="74" priority="20">
       <formula>AND(ROW($AA1)&gt;14,SUM($AA1)&gt;$Y1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Z1048576 AC1:AE1048576">
-    <cfRule type="expression" dxfId="71" priority="23">
+    <cfRule type="expression" dxfId="73" priority="23">
       <formula>(($Y1-$AA1)+($Z1-$AB1))&lt;SUM($AC1:$AE1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1048576 AB1:AB1048576">
-    <cfRule type="expression" dxfId="70" priority="21">
+    <cfRule type="expression" dxfId="72" priority="21">
       <formula>AND(ROW($AB1)&gt;14,SUM($AB1)&gt;$Z1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AF1048576 AH1:AH1048576">
-    <cfRule type="expression" dxfId="69" priority="24">
+    <cfRule type="expression" dxfId="71" priority="24">
       <formula>AND(ROW($AH1)&gt;14,SUM($AH1)&gt;$AF1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AG1048576 AJ1:AL1048576">
-    <cfRule type="expression" dxfId="68" priority="27">
+    <cfRule type="expression" dxfId="70" priority="27">
       <formula>(($AF1-$AH1)+($AG1-$AI1))&lt;SUM($AJ1:$AL1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AI1:AI1048576">
-    <cfRule type="expression" dxfId="67" priority="25">
+    <cfRule type="expression" dxfId="69" priority="25">
       <formula>AND(ROW($AI1)&gt;14,SUM($AI1)&gt;$AG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM1048576 AO1:AO1048576">
-    <cfRule type="expression" dxfId="66" priority="28">
+    <cfRule type="expression" dxfId="68" priority="28">
       <formula>AND(ROW($AO1)&gt;14,SUM($AO1)&gt;$AM1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AN1048576 AQ1:AS1048576">
-    <cfRule type="expression" dxfId="65" priority="31">
+    <cfRule type="expression" dxfId="67" priority="31">
       <formula>(($AM1-$AO1)+($AN1-$AP1))&lt;SUM($AQ1:$AS1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AN1048576 AP1:AP1048576">
-    <cfRule type="expression" dxfId="64" priority="29">
+    <cfRule type="expression" dxfId="66" priority="29">
       <formula>AND(ROW($AP1)&gt;14,SUM($AP1)&gt;$AN1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AT14 AV1:AV1048576 AT16:AT1048576">
-    <cfRule type="expression" dxfId="63" priority="32">
+    <cfRule type="expression" dxfId="65" priority="32">
       <formula>AND(ROW($AV1)&gt;14,SUM($AV1)&gt;$AT1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15">
-    <cfRule type="expression" dxfId="62" priority="1">
+    <cfRule type="expression" dxfId="64" priority="1">
       <formula>AND(ROW($AO15)&gt;14,SUM($AO15)&gt;$AM15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU14 AX1:AZ1048576 AT16:AU1048576">
-    <cfRule type="expression" dxfId="61" priority="35">
+    <cfRule type="expression" dxfId="63" priority="35">
       <formula>(($AT1-$AV1)+($AU1-$AW1))&lt;SUM($AX1:$AZ1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15:AU15">
-    <cfRule type="expression" dxfId="60" priority="3">
+    <cfRule type="expression" dxfId="62" priority="3">
       <formula>(($AM15-$AO15)+($AN15-$AP15))&lt;SUM($AQ15:$AS15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU14 AW1:AW1048576 AU16:AU1048576">
-    <cfRule type="expression" dxfId="59" priority="33">
+    <cfRule type="expression" dxfId="61" priority="33">
       <formula>AND(ROW($AW1)&gt;14,SUM($AW1)&gt;$AU1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU15">
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>AND(ROW($AP15)&gt;14,SUM($AP15)&gt;$AN15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BA1048576">
-    <cfRule type="expression" dxfId="57" priority="48">
+    <cfRule type="expression" dxfId="59" priority="48">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BB1048576">
-    <cfRule type="expression" dxfId="56" priority="1139">
+    <cfRule type="expression" dxfId="58" priority="1139">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB1:BB1048576">
-    <cfRule type="expression" dxfId="55" priority="1138">
+    <cfRule type="expression" dxfId="57" priority="1138">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC1:BC1048576">
-    <cfRule type="expression" dxfId="54" priority="36">
+    <cfRule type="expression" dxfId="56" priority="36">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD1:BD1048576">
-    <cfRule type="expression" dxfId="53" priority="37">
+    <cfRule type="expression" dxfId="55" priority="37">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1:BG1048576">
-    <cfRule type="expression" dxfId="52" priority="39">
+    <cfRule type="expression" dxfId="54" priority="39">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63855,7 +63855,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -64578,42 +64578,42 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:J1048576 M1:S1048576">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="50" priority="7">
+    <cfRule type="expression" dxfId="52" priority="7">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576 O1:P1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="49" priority="8">
+    <cfRule type="expression" dxfId="51" priority="8">
       <formula>AND(ISNUMBER(H1),H1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1048576">
-    <cfRule type="expression" dxfId="48" priority="3765">
+    <cfRule type="expression" dxfId="50" priority="3765">
       <formula>AND(ISNUMBER($M1),ISNUMBER($N1),$N1&lt;$M1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="expression" dxfId="47" priority="3764">
+    <cfRule type="expression" dxfId="49" priority="3764">
       <formula>AND(ISNUMBER($P1),$P1&lt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="expression" dxfId="46" priority="29">
+    <cfRule type="expression" dxfId="48" priority="29">
       <formula>AND(ISNUMBER($Q1),$Q1&lt;$N1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="47" priority="3">
       <formula>AND(SUM($R1)&lt;&gt;0,$S1="",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>AND(ROW($T1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64641,7 +64641,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8:H9"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65308,27 +65308,27 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:K4 F5:F7 I5:K7 F8:K1048576">
-    <cfRule type="expression" dxfId="43" priority="28">
+    <cfRule type="expression" dxfId="45" priority="28">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:Q1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="42" priority="31">
+    <cfRule type="expression" dxfId="44" priority="31">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1048576">
-    <cfRule type="expression" dxfId="41" priority="52">
+    <cfRule type="expression" dxfId="43" priority="52">
       <formula>AND(ISNUMBER(M1),M1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="40" priority="51" operator="containsText" text="ENTER YIELD">
+    <cfRule type="containsText" dxfId="42" priority="51" operator="containsText" text="ENTER YIELD">
       <formula>NOT(ISERROR(SEARCH("ENTER YIELD",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="41" priority="5">
       <formula>OR($C1="01-09")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65353,7 +65353,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:P1048576"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65724,20 +65724,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>AND(ROW(F1)&gt;14,LEFT(B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:L1048576">
-    <cfRule type="expression" dxfId="37" priority="5">
+    <cfRule type="expression" dxfId="39" priority="5">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="expression" dxfId="36" priority="3">
+    <cfRule type="expression" dxfId="38" priority="3">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",$D1&lt;&gt;"Female")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",NOT(OR($C1="15-24",$C1="25-34")))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F25D15-0656-4F47-BA08-B152C98B7324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E67B06-39F3-4360-B893-383052F22BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
@@ -5537,7 +5537,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5993,7 +5993,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6885,7 +6885,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7556,7 +7556,7 @@
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7860,7 +7860,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8562,11 +8562,11 @@
   </sheetPr>
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -23257,7 +23257,7 @@
       <pane xSplit="1" ySplit="14" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:A19"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -23438,11 +23438,11 @@
   </sheetPr>
   <dimension ref="A1:BF3876"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI15" sqref="AI15"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -60350,10 +60350,10 @@
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="14" topLeftCell="Q15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="14" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH15" sqref="AH15"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -61767,12 +61767,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D6209B-A31F-0140-BC0B-6F9EBD3DCD27}">
   <dimension ref="A1:BG63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="AC15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K20" sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="K20" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="K20" sqref="A1:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="AV17" sqref="AV17"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -63855,7 +63855,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11:R12"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -64641,7 +64641,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65349,11 +65349,11 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E67B06-39F3-4360-B893-383052F22BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6A862D-CB4B-49EE-B9BC-0190A6BE5521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="672">
   <si>
     <t>TX_CURR</t>
   </si>
@@ -2609,9 +2609,6 @@
     <t>HTS_TST TOTAL</t>
   </si>
   <si>
-    <t>Make sure MER includes &lt;01 for HTS_TST metadata</t>
-  </si>
-  <si>
     <t>FY26 Target Setting Tool</t>
   </si>
   <si>
@@ -2691,9 +2688,6 @@
 (FY26)</t>
   </si>
   <si>
-    <t>^ will pull from DATIM ^</t>
-  </si>
-  <si>
     <t>HTS_TST.Pos.Yield</t>
   </si>
   <si>
@@ -2740,9 +2734,6 @@
   <si>
     <t>(OPTIONAL) HTS_TST_POS for PMTCT, TB, and EID
 (FY26)</t>
-  </si>
-  <si>
-    <t>^ From DATIM</t>
   </si>
   <si>
     <t>FY25 Partner Country (P.C.) Context - ANC Estimates</t>
@@ -4120,14 +4111,14 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{EBDE175B-1152-3C44-B18E-2B948C595077}"/>
   </cellStyles>
-  <dxfs count="107">
+  <dxfs count="112">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
       </font>
       <fill>
         <patternFill patternType="darkUp">
-          <fgColor theme="1"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4139,6 +4130,82 @@
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
       </fill>
     </dxf>
     <dxf>
@@ -4499,54 +4566,6 @@
       </font>
       <fill>
         <patternFill patternType="darkUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -5127,11 +5146,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5492,7 +5531,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:B25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5508,7 +5547,7 @@
     </row>
     <row r="10" spans="2:2" ht="97.2">
       <c r="B10" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="82.2">
@@ -5537,7 +5576,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5953,22 +5992,22 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:M1048576">
-    <cfRule type="expression" dxfId="36" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:L1048576">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>AND(ISNUMBER(J1),J1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="expression" dxfId="34" priority="3">
+    <cfRule type="expression" dxfId="42" priority="3">
       <formula>AND(ISNUMBER($K1),$K1&lt;33%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="41" priority="7">
       <formula>AND(ISNUMBER($L1),$L1&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5993,7 +6032,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6093,43 +6132,43 @@
         <v>457</v>
       </c>
       <c r="G3" s="194" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H3" s="334" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I3" s="334" t="s">
+        <v>636</v>
+      </c>
+      <c r="J3" s="334" t="s">
         <v>637</v>
       </c>
-      <c r="J3" s="334" t="s">
+      <c r="K3" s="194" t="s">
+        <v>634</v>
+      </c>
+      <c r="L3" s="194" t="s">
+        <v>635</v>
+      </c>
+      <c r="M3" s="30" t="s">
         <v>638</v>
       </c>
-      <c r="K3" s="194" t="s">
-        <v>635</v>
-      </c>
-      <c r="L3" s="194" t="s">
-        <v>636</v>
-      </c>
-      <c r="M3" s="30" t="s">
+      <c r="N3" s="30" t="s">
         <v>639</v>
       </c>
-      <c r="N3" s="30" t="s">
-        <v>640</v>
-      </c>
       <c r="O3" s="113" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P3" s="60" t="s">
         <v>617</v>
       </c>
       <c r="Q3" s="61" t="s">
+        <v>640</v>
+      </c>
+      <c r="R3" s="347" t="s">
         <v>641</v>
       </c>
-      <c r="R3" s="347" t="s">
-        <v>642</v>
-      </c>
       <c r="S3" s="348" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T3" s="194" t="s">
         <v>584</v>
@@ -6202,16 +6241,10 @@
         <f>SUBTOTAL(109,S$15:INDEX(S:S,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
         <v>0</v>
       </c>
-      <c r="T4" s="18" t="e">
-        <f>IF(SUM(#REF!)*SUM(#REF!)=0,"",SUM($W$4)/(SUM(#REF!)*SUM(#REF!)))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U4" s="106" t="e">
-        <f>IF(SUM(#REF!)=0,"",$X$4/#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="T4" s="18"/>
+      <c r="U4" s="106"/>
       <c r="V4" s="106" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="W4" s="32">
         <v>0</v>
@@ -6444,16 +6477,16 @@
     </row>
     <row r="8" spans="1:24">
       <c r="I8" s="346" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J8" s="346" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="M8" s="332" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="N8" s="332" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="Q8" s="230" t="s">
         <v>91</v>
@@ -6474,16 +6507,16 @@
     </row>
     <row r="9" spans="1:24">
       <c r="I9" s="346" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J9" s="346" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="M9" s="332" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="N9" s="332" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="Q9" s="230" t="s">
         <v>92</v>
@@ -6658,28 +6691,28 @@
         <v>141</v>
       </c>
       <c r="G14" s="168" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H14" s="312" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I14" s="312" t="s">
+        <v>628</v>
+      </c>
+      <c r="J14" s="312" t="s">
         <v>629</v>
       </c>
-      <c r="J14" s="312" t="s">
-        <v>630</v>
-      </c>
       <c r="K14" s="168" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="L14" s="168" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M14" s="187" t="s">
+        <v>626</v>
+      </c>
+      <c r="N14" s="187" t="s">
         <v>627</v>
-      </c>
-      <c r="N14" s="187" t="s">
-        <v>628</v>
       </c>
       <c r="O14" s="164" t="s">
         <v>142</v>
@@ -6694,13 +6727,13 @@
         <v>151</v>
       </c>
       <c r="S14" s="164" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="T14" s="168" t="s">
+        <v>647</v>
+      </c>
+      <c r="U14" s="169" t="s">
         <v>649</v>
-      </c>
-      <c r="U14" s="169" t="s">
-        <v>651</v>
       </c>
       <c r="V14" s="169" t="s">
         <v>424</v>
@@ -6772,9 +6805,7 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="I16" s="401" t="s">
-        <v>645</v>
-      </c>
+      <c r="I16" s="401"/>
       <c r="J16" s="401"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -6796,71 +6827,71 @@
     <mergeCell ref="I16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="40" priority="1">
       <formula>AND(ISNUMBER(G7),ROUND(SUM(G7),2)&lt;100%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>AND(ISNUMBER(G7),G7&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1048576 I1:K14 L1:L15 K15 I17:J17 I18:L1048576">
-    <cfRule type="expression" dxfId="30" priority="20">
+    <cfRule type="expression" dxfId="38" priority="20">
       <formula>AND(SUM(#REF!)&gt;0,G1="",ROW(G1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="expression" dxfId="29" priority="16">
+    <cfRule type="expression" dxfId="37" priority="16">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="18">
+    <cfRule type="expression" dxfId="36" priority="18">
       <formula>AND(ISNUMBER(G1),ROUND(SUM(G1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="27" priority="3903">
+    <cfRule type="expression" dxfId="35" priority="3903">
       <formula>AND(SUM(#REF!)&gt;0,I16="",ROW(I16)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L14 K15:L15 I17:J17 I18:L1048576 I16">
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="34" priority="22">
       <formula>AND(ISNUMBER(I1),ROUND(SUM(I1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L14 T1:U1048576 K15:L15 I16 I17:J17 I18:L1048576">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="33" priority="26">
       <formula>AND(ISNUMBER(I1),I1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:N14 K15:O15 I16 I17:J17 I18:W1048576 F1:H1048576 O1:W15 P16:W17">
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="32" priority="24">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L15 L18:L1048576">
-    <cfRule type="expression" dxfId="23" priority="30">
+    <cfRule type="expression" dxfId="31" priority="30">
       <formula>AND(SUM(#REF!)&lt;&gt;0,L1="",ROW(L1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="30" priority="11">
       <formula>AND(ISNUMBER(T1),ROUND(SUM(T1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:V1048576">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>V1="ENTER INITIATION RATE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>AND(ISNUMBER(V1),V1&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="27" priority="5">
       <formula>AND(ISNUMBER(V1),ROUND(SUM(V1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>AND(ISNUMBER(X1),X1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6885,7 +6916,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7515,27 +7546,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:H1048576 J1:R1048576">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576 O1:O1048576">
-    <cfRule type="expression" dxfId="16" priority="3854">
+    <cfRule type="expression" dxfId="24" priority="3854">
       <formula>AND($B1&lt;&gt;"",ROW(J1)&gt;14,NOT(AND($D1="Female",$F1="Y",OR($C1="10-14",$C1="15-17"))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:M1048576">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(ISNUMBER(J1),OR(ROUND(SUM(J1),2)&lt;0,ROUND(SUM(J1),2)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 P1:P1048576">
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>AND($E1&lt;&gt;"",ROW(K1)&gt;14,NOT(OR($C1="05-09",$C1="10-14")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="13" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>AND(ISNUMBER($M1),ROUND(SUM($M1),2)&lt;20%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7556,7 +7587,7 @@
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7840,7 +7871,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:D1048576 G1:H1048576">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(ISNUMBER(C1),C1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7860,7 +7891,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8526,27 +8557,27 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:Q1048576 S1:U1048576">
-    <cfRule type="expression" dxfId="11" priority="23">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="10" priority="24">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>AND(ISNUMBER(Q1),Q1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="9" priority="3881">
+    <cfRule type="expression" dxfId="17" priority="3881">
       <formula>AND(ROUND(SUM($S1),2)&lt;60%,SUM($T1)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="8" priority="35">
+    <cfRule type="expression" dxfId="16" priority="35">
       <formula>AND(ISNUMBER(T1),SUM($T1)&gt;SUM($K1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>AND(ISNUMBER(T1),SUM($U1)&gt;SUM($T1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8566,7 +8597,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8594,7 +8625,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="183" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G1" s="156"/>
       <c r="H1" s="156"/>
@@ -8603,7 +8634,7 @@
       <c r="K1" s="156"/>
       <c r="L1" s="156"/>
       <c r="M1" s="183" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="N1" s="152"/>
       <c r="O1" s="152"/>
@@ -9303,25 +9334,25 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:P1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>AND(ROW(F1)&gt;14,LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q14">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(ISNUMBER(Q2),Q2&lt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>AND(ISNUMBER(Q2),Q2&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1 R2:T14 Q15:T1048576 F1:P1048576">
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1 R2:T14 Q15:T1048576">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>AND(ROW(Q1)&gt;14,LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23413,17 +23444,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="expression" dxfId="106" priority="2">
+    <cfRule type="expression" dxfId="111" priority="2">
       <formula>AND(ROW(B1)&gt;14,LEFT($A1,4)&lt;&gt;"_Mil",$A1&lt;&gt;"",B1&lt;&gt;1,B1&lt;&gt;2,B1&lt;&gt;4,B1&lt;&gt;5,B1&lt;&gt;6,B1&lt;&gt;7,B1&lt;&gt;8,B1&lt;&gt;"M",B1&lt;&gt;"NA")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="105" priority="729">
+    <cfRule type="expression" dxfId="110" priority="729">
       <formula>AND(LEFT($A1,4)&lt;&gt;"_Mil",ROW($C1)&gt;14,$C1&lt;&gt;$B1,$A1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="104" priority="3" operator="containsText" text="BLANK PRIORITIZATIONS">
+    <cfRule type="containsText" dxfId="109" priority="3" operator="containsText" text="BLANK PRIORITIZATIONS">
       <formula>NOT(ISERROR(SEARCH("BLANK PRIORITIZATIONS",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23438,11 +23469,11 @@
   </sheetPr>
   <dimension ref="A1:BF3876"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -23762,7 +23793,7 @@
         <v>497</v>
       </c>
       <c r="AL3" s="322" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="AM3" s="172" t="s">
         <v>498</v>
@@ -23786,7 +23817,7 @@
         <v>503</v>
       </c>
       <c r="AT3" s="172" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="AU3" s="283" t="s">
         <v>505</v>
@@ -23822,7 +23853,7 @@
         <v>462</v>
       </c>
       <c r="BF3" s="30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="1:58">
@@ -25227,7 +25258,7 @@
         <v>396</v>
       </c>
       <c r="AL14" s="381" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AM14" s="164" t="s">
         <v>397</v>
@@ -60274,65 +60305,65 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:BF1048576">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="108" priority="3">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="103" priority="15">
+    <cfRule type="expression" dxfId="107" priority="15">
       <formula>AND($L1&lt;&gt;$M1,ISNUMBER($M1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:AK1 AO1:AP1 BA1 BD1">
-    <cfRule type="expression" dxfId="102" priority="3921">
+    <cfRule type="expression" dxfId="106" priority="3921">
       <formula>AND(ROW($Q1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AP1048576 BA2:BA1048576 BD2:BD1048576 Q2:AK1048576">
-    <cfRule type="expression" dxfId="0" priority="4">
+  <conditionalFormatting sqref="Q2:AK1048576 AO2:AP1048576 BA2:BA1048576 BD2:BD1048576">
+    <cfRule type="expression" dxfId="105" priority="4">
       <formula>AND(ROW(#REF!)&gt;14,$E2&lt;&gt;"",LEFT($B2,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576 V1:V1048576 X1:Y1048576 AB1:AB1048576 AD1:AE1048576 AP1:AR1048576 AU1:AU1048576 AW1:AW1048576 AY1:AY1048576 BB1:BB1048576 BE1:BE1048576">
-    <cfRule type="expression" dxfId="101" priority="7">
+    <cfRule type="expression" dxfId="104" priority="7">
       <formula>AND(ISNUMBER(T1),T1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576 Y1:Y1048576 AB1:AB1048576 AD1:AD1048576 AY1:AY1048576 BB1:BB1048576 BE1:BE1048576">
-    <cfRule type="expression" dxfId="100" priority="14">
+    <cfRule type="expression" dxfId="103" priority="14">
       <formula>AND(ISNUMBER(V1),V1&lt;0.95)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576 AJ1:AJ1048576 AP1:AP1048576">
-    <cfRule type="expression" dxfId="99" priority="16">
+    <cfRule type="expression" dxfId="102" priority="16">
       <formula>AND(ISNUMBER(X1),X1&lt;0.9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI1048576">
-    <cfRule type="expression" dxfId="98" priority="6">
+    <cfRule type="expression" dxfId="101" priority="6">
       <formula>AND(ISNUMBER($AI1),ROW($AI1)&gt;14,SUM($AI1)=SUM($AH1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="8">
+    <cfRule type="expression" dxfId="100" priority="8">
       <formula>AND(ISNUMBER($AI1),ROW($AI1)&gt;14,SUM($AI1)=SUM($AG1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1:AJ1048576">
-    <cfRule type="expression" dxfId="96" priority="13">
+    <cfRule type="expression" dxfId="99" priority="13">
       <formula>AND(ISNUMBER(AJ1),AJ1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ1:AR1048576">
-    <cfRule type="expression" dxfId="95" priority="12">
+    <cfRule type="expression" dxfId="98" priority="12">
       <formula>AND(ISNUMBER(AQ1),AQ1&lt;0.98)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU1048576">
-    <cfRule type="expression" dxfId="94" priority="10">
+    <cfRule type="expression" dxfId="97" priority="10">
       <formula>AND(ISNUMBER(AU1),AU1&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW1:AW1048576">
-    <cfRule type="expression" dxfId="93" priority="9">
+    <cfRule type="expression" dxfId="96" priority="9">
       <formula>AND(ISNUMBER(AW1),AW1&lt;0.7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61715,47 +61746,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:G1048576">
-    <cfRule type="expression" dxfId="92" priority="2">
+    <cfRule type="expression" dxfId="95" priority="2">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:AL1048576">
-    <cfRule type="expression" dxfId="91" priority="3">
+    <cfRule type="expression" dxfId="94" priority="3">
       <formula>AND(ISNUMBER(E1),E1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 S1:T1048576 W1:W1048576 Y1:Y1048576 AA1:AA1048576 AC1:AC1048576 AG1:AH1048576">
-    <cfRule type="expression" dxfId="90" priority="4">
+    <cfRule type="expression" dxfId="93" priority="4">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="89" priority="13">
+    <cfRule type="expression" dxfId="92" priority="13">
       <formula>AND(ISNUMBER($S1),SUM($S1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="88" priority="19">
+    <cfRule type="expression" dxfId="91" priority="19">
       <formula>AND(ISNUMBER($T1),SUM($T1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576">
-    <cfRule type="expression" dxfId="87" priority="34">
+    <cfRule type="expression" dxfId="90" priority="34">
       <formula>AND(ISNUMBER($Y1),ROUND(SUM($V1),0)&gt;0,ROUND(SUM($Y1),2)&lt;70%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AA1:AA1048576 AC1:AC1048576">
-    <cfRule type="expression" dxfId="86" priority="3836">
+    <cfRule type="expression" dxfId="89" priority="3836">
       <formula>AND(ISNUMBER(AA1),SUM(AA1)&lt;95%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576">
-    <cfRule type="expression" dxfId="85" priority="10">
+    <cfRule type="expression" dxfId="88" priority="10">
       <formula>AND(ROW($AG1)&gt;14,$AI1="ENTER LINKAGE RATE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AH1048576">
-    <cfRule type="expression" dxfId="84" priority="1">
+    <cfRule type="expression" dxfId="87" priority="1">
       <formula>AND(ROW($AH1)&gt;14,$AJ1="ENTER YIELD RATE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63622,152 +63653,152 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:D1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="83" priority="9">
+    <cfRule type="expression" dxfId="86" priority="9">
       <formula>AND(ROW($F1)&gt;14,SUM($F1)&gt;$C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1048576 H1:J1048576">
-    <cfRule type="expression" dxfId="82" priority="11">
+    <cfRule type="expression" dxfId="85" priority="11">
       <formula>(($C1-$F1)+($E1-$G1))&lt;SUM($H1:$J1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 G1:G1048576">
-    <cfRule type="expression" dxfId="81" priority="8">
+    <cfRule type="expression" dxfId="84" priority="8">
       <formula>AND(ROW($G1)&gt;14,SUM($G1)&gt;$E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 M1:M1048576">
-    <cfRule type="expression" dxfId="80" priority="13">
+    <cfRule type="expression" dxfId="83" priority="13">
       <formula>AND(ROW($M1)&gt;14,SUM($M1)&gt;$K1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L1048576 O1:Q1048576">
-    <cfRule type="expression" dxfId="79" priority="15">
+    <cfRule type="expression" dxfId="82" priority="15">
       <formula>(($K1-$M1)+($L1-$N1))&lt;SUM($O1:$Q1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576 N1:N1048576">
-    <cfRule type="expression" dxfId="78" priority="12">
+    <cfRule type="expression" dxfId="81" priority="12">
       <formula>AND(ROW($N1)&gt;14,SUM($N1)&gt;$L1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576 T1:T1048576">
-    <cfRule type="expression" dxfId="77" priority="16">
+    <cfRule type="expression" dxfId="80" priority="16">
       <formula>AND(ROW($T1)&gt;14,SUM($T1)&gt;$R1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1048576 V1:X1048576">
-    <cfRule type="expression" dxfId="76" priority="19">
+    <cfRule type="expression" dxfId="79" priority="19">
       <formula>(($R1-$T1)+($S1-$U1))&lt;SUM($V1:$X1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="75" priority="17">
+    <cfRule type="expression" dxfId="78" priority="17">
       <formula>AND(ROW($U1)&gt;14,SUM($U1)&gt;$S1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576 AA1:AA1048576">
-    <cfRule type="expression" dxfId="74" priority="20">
+    <cfRule type="expression" dxfId="77" priority="20">
       <formula>AND(ROW($AA1)&gt;14,SUM($AA1)&gt;$Y1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Z1048576 AC1:AE1048576">
-    <cfRule type="expression" dxfId="73" priority="23">
+    <cfRule type="expression" dxfId="76" priority="23">
       <formula>(($Y1-$AA1)+($Z1-$AB1))&lt;SUM($AC1:$AE1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1048576 AB1:AB1048576">
-    <cfRule type="expression" dxfId="72" priority="21">
+    <cfRule type="expression" dxfId="75" priority="21">
       <formula>AND(ROW($AB1)&gt;14,SUM($AB1)&gt;$Z1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AF1048576 AH1:AH1048576">
-    <cfRule type="expression" dxfId="71" priority="24">
+    <cfRule type="expression" dxfId="74" priority="24">
       <formula>AND(ROW($AH1)&gt;14,SUM($AH1)&gt;$AF1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AG1048576 AJ1:AL1048576">
-    <cfRule type="expression" dxfId="70" priority="27">
+    <cfRule type="expression" dxfId="73" priority="27">
       <formula>(($AF1-$AH1)+($AG1-$AI1))&lt;SUM($AJ1:$AL1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AI1:AI1048576">
-    <cfRule type="expression" dxfId="69" priority="25">
+    <cfRule type="expression" dxfId="72" priority="25">
       <formula>AND(ROW($AI1)&gt;14,SUM($AI1)&gt;$AG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM1048576 AO1:AO1048576">
-    <cfRule type="expression" dxfId="68" priority="28">
+    <cfRule type="expression" dxfId="71" priority="28">
       <formula>AND(ROW($AO1)&gt;14,SUM($AO1)&gt;$AM1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AN1048576 AQ1:AS1048576">
-    <cfRule type="expression" dxfId="67" priority="31">
+    <cfRule type="expression" dxfId="70" priority="31">
       <formula>(($AM1-$AO1)+($AN1-$AP1))&lt;SUM($AQ1:$AS1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AN1048576 AP1:AP1048576">
-    <cfRule type="expression" dxfId="66" priority="29">
+    <cfRule type="expression" dxfId="69" priority="29">
       <formula>AND(ROW($AP1)&gt;14,SUM($AP1)&gt;$AN1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AT14 AV1:AV1048576 AT16:AT1048576">
-    <cfRule type="expression" dxfId="65" priority="32">
+    <cfRule type="expression" dxfId="68" priority="32">
       <formula>AND(ROW($AV1)&gt;14,SUM($AV1)&gt;$AT1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15">
-    <cfRule type="expression" dxfId="64" priority="1">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>AND(ROW($AO15)&gt;14,SUM($AO15)&gt;$AM15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU14 AX1:AZ1048576 AT16:AU1048576">
-    <cfRule type="expression" dxfId="63" priority="35">
+    <cfRule type="expression" dxfId="66" priority="35">
       <formula>(($AT1-$AV1)+($AU1-$AW1))&lt;SUM($AX1:$AZ1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15:AU15">
-    <cfRule type="expression" dxfId="62" priority="3">
+    <cfRule type="expression" dxfId="65" priority="3">
       <formula>(($AM15-$AO15)+($AN15-$AP15))&lt;SUM($AQ15:$AS15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU14 AW1:AW1048576 AU16:AU1048576">
-    <cfRule type="expression" dxfId="61" priority="33">
+    <cfRule type="expression" dxfId="64" priority="33">
       <formula>AND(ROW($AW1)&gt;14,SUM($AW1)&gt;$AU1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU15">
-    <cfRule type="expression" dxfId="60" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>AND(ROW($AP15)&gt;14,SUM($AP15)&gt;$AN15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BA1048576">
-    <cfRule type="expression" dxfId="59" priority="48">
+    <cfRule type="expression" dxfId="62" priority="48">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BB1048576">
-    <cfRule type="expression" dxfId="58" priority="1139">
+    <cfRule type="expression" dxfId="61" priority="1139">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB1:BB1048576">
-    <cfRule type="expression" dxfId="57" priority="1138">
+    <cfRule type="expression" dxfId="60" priority="1138">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC1:BC1048576">
-    <cfRule type="expression" dxfId="56" priority="36">
+    <cfRule type="expression" dxfId="59" priority="36">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD1:BD1048576">
-    <cfRule type="expression" dxfId="55" priority="37">
+    <cfRule type="expression" dxfId="58" priority="37">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1:BG1048576">
-    <cfRule type="expression" dxfId="54" priority="39">
+    <cfRule type="expression" dxfId="57" priority="39">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63855,7 +63886,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -64578,42 +64609,42 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:J1048576 M1:S1048576">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="52" priority="7">
+    <cfRule type="expression" dxfId="55" priority="7">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576 O1:P1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="51" priority="8">
+    <cfRule type="expression" dxfId="54" priority="8">
       <formula>AND(ISNUMBER(H1),H1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1048576">
-    <cfRule type="expression" dxfId="50" priority="3765">
+    <cfRule type="expression" dxfId="53" priority="3765">
       <formula>AND(ISNUMBER($M1),ISNUMBER($N1),$N1&lt;$M1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="expression" dxfId="49" priority="3764">
+    <cfRule type="expression" dxfId="52" priority="3764">
       <formula>AND(ISNUMBER($P1),$P1&lt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="expression" dxfId="48" priority="29">
+    <cfRule type="expression" dxfId="51" priority="29">
       <formula>AND(ISNUMBER($Q1),$Q1&lt;$N1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="47" priority="3">
+    <cfRule type="expression" dxfId="50" priority="3">
       <formula>AND(SUM($R1)&lt;&gt;0,$S1="",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="46" priority="4">
+    <cfRule type="expression" dxfId="49" priority="4">
       <formula>AND(ROW($T1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64635,13 +64666,13 @@
   <sheetPr codeName="Sheet15">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -64734,31 +64765,31 @@
         <v>549</v>
       </c>
       <c r="G3" s="341" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H3" s="341" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="I3" s="338" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="J3" s="341" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K3" s="355" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L3" s="113" t="s">
         <v>619</v>
       </c>
       <c r="M3" s="359" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N3" s="195" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="O3" s="218" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="P3" s="109" t="s">
         <v>578</v>
@@ -64795,7 +64826,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="106" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O4" s="32">
         <f>SUBTOTAL(109,O$15:INDEX(O:O,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
@@ -65007,11 +65038,11 @@
       <c r="J8" s="343"/>
       <c r="K8" s="343"/>
       <c r="M8" s="365" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="N8" s="350"/>
       <c r="O8" s="337" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="Q8" s="237" t="s">
         <v>102</v>
@@ -65033,11 +65064,11 @@
       <c r="J9" s="343"/>
       <c r="K9" s="343"/>
       <c r="M9" s="365" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N9" s="350"/>
       <c r="O9" s="337" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="Q9" s="237" t="s">
         <v>103</v>
@@ -65200,19 +65231,19 @@
         <v>395</v>
       </c>
       <c r="G14" s="344" t="s">
+        <v>623</v>
+      </c>
+      <c r="H14" s="344" t="s">
         <v>624</v>
       </c>
-      <c r="H14" s="344" t="s">
+      <c r="I14" s="344" t="s">
         <v>625</v>
       </c>
-      <c r="I14" s="344" t="s">
-        <v>626</v>
-      </c>
       <c r="J14" s="344" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="K14" s="344" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="L14" s="164" t="s">
         <v>222</v>
@@ -65221,7 +65252,7 @@
         <v>200</v>
       </c>
       <c r="N14" s="169" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="O14" s="187" t="s">
         <v>208</v>
@@ -65266,9 +65297,9 @@
         <f>IF(SUM($J15)=0,"",ROUND($J15,0))</f>
         <v/>
       </c>
-      <c r="L15" s="54">
-        <f>INDEX(Cascade!$BF:$BF,MATCH($E15,Cascade!$E:$E,0))</f>
-        <v>0</v>
+      <c r="L15" s="54" t="str">
+        <f>IFERROR(1/(1/INDEX(Cascade!$BF:$BF,MATCH($E15,Cascade!$E:$E,0))),"")</f>
+        <v/>
       </c>
       <c r="M15" s="363" t="str">
         <f>IF(OR(SUM($L15)=0,SUM($L15)=0),"",ROUND(SUM($L15,$K15),0))</f>
@@ -65283,7 +65314,7 @@
         <v/>
       </c>
       <c r="P15" s="86" t="str">
-        <f>IFERROR(1/(1/SUM($O15,#REF!)),"")</f>
+        <f>IFERROR(1/(1/SUM($O15,$M15)),"")</f>
         <v/>
       </c>
       <c r="R15" s="11" t="str">
@@ -65291,16 +65322,8 @@
         <v/>
       </c>
       <c r="S15" s="33" t="str">
-        <f>IF(OR($C15="01-09",SUM($Q15)=0),"",ROUND($Q15*(1+$R15),0))</f>
+        <f>IF(OR($C15="&lt;01","01-09",SUM($Q15)=0),"",ROUND($Q15*(1+$R15),0))</f>
         <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="J16" s="313" t="s">
-        <v>661</v>
-      </c>
-      <c r="M16" s="364" t="s">
-        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -65308,28 +65331,28 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:K4 F5:F7 I5:K7 F8:K1048576">
-    <cfRule type="expression" dxfId="45" priority="28">
+    <cfRule type="expression" dxfId="9" priority="28">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:Q1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="44" priority="31">
+    <cfRule type="expression" dxfId="8" priority="31">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1048576">
-    <cfRule type="expression" dxfId="43" priority="52">
+    <cfRule type="expression" dxfId="7" priority="52">
       <formula>AND(ISNUMBER(M1),M1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="42" priority="51" operator="containsText" text="ENTER YIELD">
+    <cfRule type="containsText" dxfId="6" priority="51" operator="containsText" text="ENTER YIELD">
       <formula>NOT(ISERROR(SEARCH("ENTER YIELD",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="41" priority="5">
-      <formula>OR($C1="01-09")</formula>
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>OR($C1="&lt;01","01-09")</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -65353,7 +65376,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65706,7 +65729,7 @@
         <v/>
       </c>
       <c r="G15" s="36" t="str">
-        <f>IFERROR(1/(1/INDEX(HTS!#REF!,MATCH($E15,HTS!$E:$E,0))),"")</f>
+        <f>IFERROR(1/(1/INDEX(HTS!O15,MATCH($E15,HTS!$E:$E,0))),"")</f>
         <v/>
       </c>
       <c r="H15" s="36" t="str" cm="1">
@@ -65724,20 +65747,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>AND(ROW(F1)&gt;14,LEFT(B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:L1048576">
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="47" priority="5">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="expression" dxfId="38" priority="3">
+    <cfRule type="expression" dxfId="46" priority="3">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",$D1&lt;&gt;"Female")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="4">
+    <cfRule type="expression" dxfId="45" priority="4">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",NOT(OR($C1="15-24",$C1="25-34")))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6A862D-CB4B-49EE-B9BC-0190A6BE5521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FFE387-7C09-4B96-9F7E-FF9D64994D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="674">
   <si>
     <t>TX_CURR</t>
   </si>
@@ -2778,6 +2778,12 @@
   </si>
   <si>
     <t>Total Initiated on ART - New and Returned (FY26)</t>
+  </si>
+  <si>
+    <t>Target Setting Unit</t>
+  </si>
+  <si>
+    <t>DREAMS SNU</t>
   </si>
 </sst>
 </file>
@@ -4111,103 +4117,7 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{EBDE175B-1152-3C44-B18E-2B948C595077}"/>
   </cellStyles>
-  <dxfs count="112">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp"/>
-      </fill>
-    </dxf>
+  <dxfs count="107">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -4566,6 +4476,54 @@
       </font>
       <fill>
         <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -5567,16 +5525,14 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F12E676-4E0B-9F4C-AD46-AC4FAA82FFF4}">
-  <sheetPr codeName="Sheet14">
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5922,7 +5878,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>3</v>
+        <v>672</v>
       </c>
       <c r="C14" s="179" t="s">
         <v>17</v>
@@ -5992,22 +5948,22 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:M1048576">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:L1048576">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>AND(ISNUMBER(J1),J1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="expression" dxfId="42" priority="3">
+    <cfRule type="expression" dxfId="32" priority="3">
       <formula>AND(ISNUMBER($K1),$K1&lt;33%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="31" priority="7">
       <formula>AND(ISNUMBER($L1),$L1&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6023,16 +5979,14 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF8812F-6C9B-A843-9B36-4ED7666FB762}">
-  <sheetPr codeName="Sheet16">
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6676,7 +6630,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>3</v>
+        <v>672</v>
       </c>
       <c r="C14" s="163" t="s">
         <v>17</v>
@@ -6827,71 +6781,71 @@
     <mergeCell ref="I16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="40" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>AND(ISNUMBER(G7),ROUND(SUM(G7),2)&lt;100%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>AND(ISNUMBER(G7),G7&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1048576 I1:K14 L1:L15 K15 I17:J17 I18:L1048576">
-    <cfRule type="expression" dxfId="38" priority="20">
+    <cfRule type="expression" dxfId="28" priority="20">
       <formula>AND(SUM(#REF!)&gt;0,G1="",ROW(G1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="expression" dxfId="37" priority="16">
+    <cfRule type="expression" dxfId="27" priority="16">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>AND(ISNUMBER(G1),ROUND(SUM(G1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="35" priority="3903">
+    <cfRule type="expression" dxfId="25" priority="3903">
       <formula>AND(SUM(#REF!)&gt;0,I16="",ROW(I16)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L14 K15:L15 I17:J17 I18:L1048576 I16">
-    <cfRule type="expression" dxfId="34" priority="22">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>AND(ISNUMBER(I1),ROUND(SUM(I1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L14 T1:U1048576 K15:L15 I16 I17:J17 I18:L1048576">
-    <cfRule type="expression" dxfId="33" priority="26">
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>AND(ISNUMBER(I1),I1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:N14 K15:O15 I16 I17:J17 I18:W1048576 F1:H1048576 O1:W15 P16:W17">
-    <cfRule type="expression" dxfId="32" priority="24">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L15 L18:L1048576">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="21" priority="30">
       <formula>AND(SUM(#REF!)&lt;&gt;0,L1="",ROW(L1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="30" priority="11">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>AND(ISNUMBER(T1),ROUND(SUM(T1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:V1048576">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>V1="ENTER INITIATION RATE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>AND(ISNUMBER(V1),V1&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>AND(ISNUMBER(V1),ROUND(SUM(V1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>AND(ISNUMBER(X1),X1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6907,16 +6861,14 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB1BDFE-6D2F-9B4B-8CDF-D9B4D3891FD5}">
-  <sheetPr codeName="Sheet17">
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7444,7 +7396,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>3</v>
+        <v>672</v>
       </c>
       <c r="C14" s="179" t="s">
         <v>17</v>
@@ -7546,27 +7498,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:H1048576 J1:R1048576">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576 O1:O1048576">
-    <cfRule type="expression" dxfId="24" priority="3854">
+    <cfRule type="expression" dxfId="14" priority="3854">
       <formula>AND($B1&lt;&gt;"",ROW(J1)&gt;14,NOT(AND($D1="Female",$F1="Y",OR($C1="10-14",$C1="15-17"))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:M1048576">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(ISNUMBER(J1),OR(ROUND(SUM(J1),2)&lt;0,ROUND(SUM(J1),2)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 P1:P1048576">
-    <cfRule type="expression" dxfId="22" priority="17">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>AND($E1&lt;&gt;"",ROW(K1)&gt;14,NOT(OR($C1="05-09",$C1="10-14")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="11" priority="24">
       <formula>AND(ISNUMBER($M1),ROUND(SUM($M1),2)&lt;20%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7578,16 +7530,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791FBB-5296-C84C-951A-EBCEC0739F22}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -7826,7 +7775,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>3</v>
+        <v>672</v>
       </c>
       <c r="C14" s="188" t="s">
         <v>172</v>
@@ -7871,7 +7820,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:D1048576 G1:H1048576">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(ISNUMBER(C1),C1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7882,16 +7831,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8D3DDC-1471-8141-9FF6-8D47FF9D86B6}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8454,7 +8400,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="163" t="s">
-        <v>3</v>
+        <v>673</v>
       </c>
       <c r="C14" s="163" t="s">
         <v>17</v>
@@ -8557,27 +8503,27 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:Q1048576 S1:U1048576">
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="8" priority="24">
       <formula>AND(ISNUMBER(Q1),Q1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="17" priority="3881">
+    <cfRule type="expression" dxfId="7" priority="3881">
       <formula>AND(ROUND(SUM($S1),2)&lt;60%,SUM($T1)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="16" priority="35">
+    <cfRule type="expression" dxfId="6" priority="35">
       <formula>AND(ISNUMBER(T1),SUM($T1)&gt;SUM($K1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(ISNUMBER(T1),SUM($U1)&gt;SUM($T1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8588,16 +8534,14 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF45A96-462E-884F-9A44-72CF683D5C9E}">
-  <sheetPr codeName="Sheet9">
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9201,7 +9145,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>3</v>
+        <v>672</v>
       </c>
       <c r="C14" s="179" t="s">
         <v>17</v>
@@ -9334,25 +9278,25 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:P1048576">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(ROW(F1)&gt;14,LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q14">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(ISNUMBER(Q2),Q2&lt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(ISNUMBER(Q2),Q2&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1 R2:T14 Q15:T1048576 F1:P1048576">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1 R2:T14 Q15:T1048576">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>AND(ROW(Q1)&gt;14,LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23288,7 +23232,7 @@
       <pane xSplit="1" ySplit="14" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -23444,17 +23388,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="expression" dxfId="111" priority="2">
+    <cfRule type="expression" dxfId="106" priority="2">
       <formula>AND(ROW(B1)&gt;14,LEFT($A1,4)&lt;&gt;"_Mil",$A1&lt;&gt;"",B1&lt;&gt;1,B1&lt;&gt;2,B1&lt;&gt;4,B1&lt;&gt;5,B1&lt;&gt;6,B1&lt;&gt;7,B1&lt;&gt;8,B1&lt;&gt;"M",B1&lt;&gt;"NA")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="110" priority="729">
+    <cfRule type="expression" dxfId="105" priority="729">
       <formula>AND(LEFT($A1,4)&lt;&gt;"_Mil",ROW($C1)&gt;14,$C1&lt;&gt;$B1,$A1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="109" priority="3" operator="containsText" text="BLANK PRIORITIZATIONS">
+    <cfRule type="containsText" dxfId="104" priority="3" operator="containsText" text="BLANK PRIORITIZATIONS">
       <formula>NOT(ISERROR(SEARCH("BLANK PRIORITIZATIONS",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23464,16 +23408,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DDBC09-F535-654B-A49D-7D22E3100EEA}">
-  <sheetPr codeName="Sheet13">
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BF3876"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -25150,7 +25092,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="162" t="s">
-        <v>3</v>
+        <v>672</v>
       </c>
       <c r="C14" s="163" t="s">
         <v>17</v>
@@ -60305,65 +60247,65 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:BF1048576">
-    <cfRule type="expression" dxfId="108" priority="3">
+    <cfRule type="expression" dxfId="103" priority="3">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="107" priority="15">
+    <cfRule type="expression" dxfId="102" priority="15">
       <formula>AND($L1&lt;&gt;$M1,ISNUMBER($M1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:AK1 AO1:AP1 BA1 BD1">
-    <cfRule type="expression" dxfId="106" priority="3921">
+    <cfRule type="expression" dxfId="101" priority="3921">
       <formula>AND(ROW($Q1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:AK1048576 AO2:AP1048576 BA2:BA1048576 BD2:BD1048576">
-    <cfRule type="expression" dxfId="105" priority="4">
+    <cfRule type="expression" dxfId="100" priority="4">
       <formula>AND(ROW(#REF!)&gt;14,$E2&lt;&gt;"",LEFT($B2,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576 V1:V1048576 X1:Y1048576 AB1:AB1048576 AD1:AE1048576 AP1:AR1048576 AU1:AU1048576 AW1:AW1048576 AY1:AY1048576 BB1:BB1048576 BE1:BE1048576">
-    <cfRule type="expression" dxfId="104" priority="7">
+    <cfRule type="expression" dxfId="99" priority="7">
       <formula>AND(ISNUMBER(T1),T1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576 Y1:Y1048576 AB1:AB1048576 AD1:AD1048576 AY1:AY1048576 BB1:BB1048576 BE1:BE1048576">
-    <cfRule type="expression" dxfId="103" priority="14">
+    <cfRule type="expression" dxfId="98" priority="14">
       <formula>AND(ISNUMBER(V1),V1&lt;0.95)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576 AJ1:AJ1048576 AP1:AP1048576">
-    <cfRule type="expression" dxfId="102" priority="16">
+    <cfRule type="expression" dxfId="97" priority="16">
       <formula>AND(ISNUMBER(X1),X1&lt;0.9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI1048576">
-    <cfRule type="expression" dxfId="101" priority="6">
+    <cfRule type="expression" dxfId="96" priority="6">
       <formula>AND(ISNUMBER($AI1),ROW($AI1)&gt;14,SUM($AI1)=SUM($AH1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="8">
+    <cfRule type="expression" dxfId="95" priority="8">
       <formula>AND(ISNUMBER($AI1),ROW($AI1)&gt;14,SUM($AI1)=SUM($AG1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1:AJ1048576">
-    <cfRule type="expression" dxfId="99" priority="13">
+    <cfRule type="expression" dxfId="94" priority="13">
       <formula>AND(ISNUMBER(AJ1),AJ1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ1:AR1048576">
-    <cfRule type="expression" dxfId="98" priority="12">
+    <cfRule type="expression" dxfId="93" priority="12">
       <formula>AND(ISNUMBER(AQ1),AQ1&lt;0.98)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU1048576">
-    <cfRule type="expression" dxfId="97" priority="10">
+    <cfRule type="expression" dxfId="92" priority="10">
       <formula>AND(ISNUMBER(AU1),AU1&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW1:AW1048576">
-    <cfRule type="expression" dxfId="96" priority="9">
+    <cfRule type="expression" dxfId="91" priority="9">
       <formula>AND(ISNUMBER(AW1),AW1&lt;0.7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60375,16 +60317,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E004659-5EB2-2446-982F-56BEFF173113}">
-  <sheetPr codeName="Sheet18">
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" ySplit="14" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -61549,7 +61489,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>3</v>
+        <v>672</v>
       </c>
       <c r="C14" s="179" t="s">
         <v>26</v>
@@ -61746,47 +61686,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:G1048576">
-    <cfRule type="expression" dxfId="95" priority="2">
+    <cfRule type="expression" dxfId="90" priority="2">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:AL1048576">
-    <cfRule type="expression" dxfId="94" priority="3">
+    <cfRule type="expression" dxfId="89" priority="3">
       <formula>AND(ISNUMBER(E1),E1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 S1:T1048576 W1:W1048576 Y1:Y1048576 AA1:AA1048576 AC1:AC1048576 AG1:AH1048576">
-    <cfRule type="expression" dxfId="93" priority="4">
+    <cfRule type="expression" dxfId="88" priority="4">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="92" priority="13">
+    <cfRule type="expression" dxfId="87" priority="13">
       <formula>AND(ISNUMBER($S1),SUM($S1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="91" priority="19">
+    <cfRule type="expression" dxfId="86" priority="19">
       <formula>AND(ISNUMBER($T1),SUM($T1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576">
-    <cfRule type="expression" dxfId="90" priority="34">
+    <cfRule type="expression" dxfId="85" priority="34">
       <formula>AND(ISNUMBER($Y1),ROUND(SUM($V1),0)&gt;0,ROUND(SUM($Y1),2)&lt;70%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AA1:AA1048576 AC1:AC1048576">
-    <cfRule type="expression" dxfId="89" priority="3836">
+    <cfRule type="expression" dxfId="84" priority="3836">
       <formula>AND(ISNUMBER(AA1),SUM(AA1)&lt;95%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576">
-    <cfRule type="expression" dxfId="88" priority="10">
+    <cfRule type="expression" dxfId="83" priority="10">
       <formula>AND(ROW($AG1)&gt;14,$AI1="ENTER LINKAGE RATE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AH1048576">
-    <cfRule type="expression" dxfId="87" priority="1">
+    <cfRule type="expression" dxfId="82" priority="1">
       <formula>AND(ROW($AH1)&gt;14,$AJ1="ENTER YIELD RATE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61803,7 +61743,7 @@
       <selection activeCell="K20" sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="K20" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="K20" sqref="A1:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -63047,7 +62987,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>3</v>
+        <v>672</v>
       </c>
       <c r="C14" s="188" t="s">
         <v>254</v>
@@ -63653,152 +63593,152 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:D1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="86" priority="9">
+    <cfRule type="expression" dxfId="81" priority="9">
       <formula>AND(ROW($F1)&gt;14,SUM($F1)&gt;$C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1048576 H1:J1048576">
-    <cfRule type="expression" dxfId="85" priority="11">
+    <cfRule type="expression" dxfId="80" priority="11">
       <formula>(($C1-$F1)+($E1-$G1))&lt;SUM($H1:$J1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 G1:G1048576">
-    <cfRule type="expression" dxfId="84" priority="8">
+    <cfRule type="expression" dxfId="79" priority="8">
       <formula>AND(ROW($G1)&gt;14,SUM($G1)&gt;$E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 M1:M1048576">
-    <cfRule type="expression" dxfId="83" priority="13">
+    <cfRule type="expression" dxfId="78" priority="13">
       <formula>AND(ROW($M1)&gt;14,SUM($M1)&gt;$K1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L1048576 O1:Q1048576">
-    <cfRule type="expression" dxfId="82" priority="15">
+    <cfRule type="expression" dxfId="77" priority="15">
       <formula>(($K1-$M1)+($L1-$N1))&lt;SUM($O1:$Q1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576 N1:N1048576">
-    <cfRule type="expression" dxfId="81" priority="12">
+    <cfRule type="expression" dxfId="76" priority="12">
       <formula>AND(ROW($N1)&gt;14,SUM($N1)&gt;$L1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576 T1:T1048576">
-    <cfRule type="expression" dxfId="80" priority="16">
+    <cfRule type="expression" dxfId="75" priority="16">
       <formula>AND(ROW($T1)&gt;14,SUM($T1)&gt;$R1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1048576 V1:X1048576">
-    <cfRule type="expression" dxfId="79" priority="19">
+    <cfRule type="expression" dxfId="74" priority="19">
       <formula>(($R1-$T1)+($S1-$U1))&lt;SUM($V1:$X1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="78" priority="17">
+    <cfRule type="expression" dxfId="73" priority="17">
       <formula>AND(ROW($U1)&gt;14,SUM($U1)&gt;$S1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576 AA1:AA1048576">
-    <cfRule type="expression" dxfId="77" priority="20">
+    <cfRule type="expression" dxfId="72" priority="20">
       <formula>AND(ROW($AA1)&gt;14,SUM($AA1)&gt;$Y1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Z1048576 AC1:AE1048576">
-    <cfRule type="expression" dxfId="76" priority="23">
+    <cfRule type="expression" dxfId="71" priority="23">
       <formula>(($Y1-$AA1)+($Z1-$AB1))&lt;SUM($AC1:$AE1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1048576 AB1:AB1048576">
-    <cfRule type="expression" dxfId="75" priority="21">
+    <cfRule type="expression" dxfId="70" priority="21">
       <formula>AND(ROW($AB1)&gt;14,SUM($AB1)&gt;$Z1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AF1048576 AH1:AH1048576">
-    <cfRule type="expression" dxfId="74" priority="24">
+    <cfRule type="expression" dxfId="69" priority="24">
       <formula>AND(ROW($AH1)&gt;14,SUM($AH1)&gt;$AF1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AG1048576 AJ1:AL1048576">
-    <cfRule type="expression" dxfId="73" priority="27">
+    <cfRule type="expression" dxfId="68" priority="27">
       <formula>(($AF1-$AH1)+($AG1-$AI1))&lt;SUM($AJ1:$AL1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AI1:AI1048576">
-    <cfRule type="expression" dxfId="72" priority="25">
+    <cfRule type="expression" dxfId="67" priority="25">
       <formula>AND(ROW($AI1)&gt;14,SUM($AI1)&gt;$AG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM1048576 AO1:AO1048576">
-    <cfRule type="expression" dxfId="71" priority="28">
+    <cfRule type="expression" dxfId="66" priority="28">
       <formula>AND(ROW($AO1)&gt;14,SUM($AO1)&gt;$AM1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AN1048576 AQ1:AS1048576">
-    <cfRule type="expression" dxfId="70" priority="31">
+    <cfRule type="expression" dxfId="65" priority="31">
       <formula>(($AM1-$AO1)+($AN1-$AP1))&lt;SUM($AQ1:$AS1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AN1048576 AP1:AP1048576">
-    <cfRule type="expression" dxfId="69" priority="29">
+    <cfRule type="expression" dxfId="64" priority="29">
       <formula>AND(ROW($AP1)&gt;14,SUM($AP1)&gt;$AN1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AT14 AV1:AV1048576 AT16:AT1048576">
-    <cfRule type="expression" dxfId="68" priority="32">
+    <cfRule type="expression" dxfId="63" priority="32">
       <formula>AND(ROW($AV1)&gt;14,SUM($AV1)&gt;$AT1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15">
-    <cfRule type="expression" dxfId="67" priority="1">
+    <cfRule type="expression" dxfId="62" priority="1">
       <formula>AND(ROW($AO15)&gt;14,SUM($AO15)&gt;$AM15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU14 AX1:AZ1048576 AT16:AU1048576">
-    <cfRule type="expression" dxfId="66" priority="35">
+    <cfRule type="expression" dxfId="61" priority="35">
       <formula>(($AT1-$AV1)+($AU1-$AW1))&lt;SUM($AX1:$AZ1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15:AU15">
-    <cfRule type="expression" dxfId="65" priority="3">
+    <cfRule type="expression" dxfId="60" priority="3">
       <formula>(($AM15-$AO15)+($AN15-$AP15))&lt;SUM($AQ15:$AS15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU14 AW1:AW1048576 AU16:AU1048576">
-    <cfRule type="expression" dxfId="64" priority="33">
+    <cfRule type="expression" dxfId="59" priority="33">
       <formula>AND(ROW($AW1)&gt;14,SUM($AW1)&gt;$AU1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU15">
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>AND(ROW($AP15)&gt;14,SUM($AP15)&gt;$AN15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BA1048576">
-    <cfRule type="expression" dxfId="62" priority="48">
+    <cfRule type="expression" dxfId="57" priority="48">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BB1048576">
-    <cfRule type="expression" dxfId="61" priority="1139">
+    <cfRule type="expression" dxfId="56" priority="1139">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB1:BB1048576">
-    <cfRule type="expression" dxfId="60" priority="1138">
+    <cfRule type="expression" dxfId="55" priority="1138">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC1:BC1048576">
-    <cfRule type="expression" dxfId="59" priority="36">
+    <cfRule type="expression" dxfId="54" priority="36">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD1:BD1048576">
-    <cfRule type="expression" dxfId="58" priority="37">
+    <cfRule type="expression" dxfId="53" priority="37">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1:BG1048576">
-    <cfRule type="expression" dxfId="57" priority="39">
+    <cfRule type="expression" dxfId="52" priority="39">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63877,16 +63817,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40254BD6-96BC-8E43-A17A-C96765FDD558}">
-  <sheetPr codeName="Sheet12">
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -64478,7 +64416,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>3</v>
+        <v>672</v>
       </c>
       <c r="C14" s="179" t="s">
         <v>17</v>
@@ -64609,42 +64547,42 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:J1048576 M1:S1048576">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="51" priority="1">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="55" priority="7">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576 O1:P1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="54" priority="8">
+    <cfRule type="expression" dxfId="49" priority="8">
       <formula>AND(ISNUMBER(H1),H1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1048576">
-    <cfRule type="expression" dxfId="53" priority="3765">
+    <cfRule type="expression" dxfId="48" priority="3765">
       <formula>AND(ISNUMBER($M1),ISNUMBER($N1),$N1&lt;$M1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="expression" dxfId="52" priority="3764">
+    <cfRule type="expression" dxfId="47" priority="3764">
       <formula>AND(ISNUMBER($P1),$P1&lt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="expression" dxfId="51" priority="29">
+    <cfRule type="expression" dxfId="46" priority="29">
       <formula>AND(ISNUMBER($Q1),$Q1&lt;$N1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="50" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>AND(SUM($R1)&lt;&gt;0,$S1="",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="49" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>AND(ROW($T1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64663,16 +64601,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B895D15E-C6E2-A247-9FD1-CA32101F4B03}">
-  <sheetPr codeName="Sheet15">
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65216,7 +65152,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>3</v>
+        <v>672</v>
       </c>
       <c r="C14" s="163" t="s">
         <v>17</v>
@@ -65331,27 +65267,27 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:K4 F5:F7 I5:K7 F8:K1048576">
-    <cfRule type="expression" dxfId="9" priority="28">
+    <cfRule type="expression" dxfId="43" priority="28">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:Q1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="8" priority="31">
+    <cfRule type="expression" dxfId="42" priority="31">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1048576">
-    <cfRule type="expression" dxfId="7" priority="52">
+    <cfRule type="expression" dxfId="41" priority="52">
       <formula>AND(ISNUMBER(M1),M1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="6" priority="51" operator="containsText" text="ENTER YIELD">
+    <cfRule type="containsText" dxfId="40" priority="51" operator="containsText" text="ENTER YIELD">
       <formula>NOT(ISERROR(SEARCH("ENTER YIELD",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="39" priority="5">
       <formula>OR($C1="&lt;01","01-09")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65367,16 +65303,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6399F038-EC48-4048-B5DA-2BA7ACE5CEC5}">
-  <sheetPr codeName="Sheet20">
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65682,7 +65616,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="163" t="s">
-        <v>3</v>
+        <v>672</v>
       </c>
       <c r="C14" s="163" t="s">
         <v>17</v>
@@ -65747,20 +65681,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>AND(ROW(F1)&gt;14,LEFT(B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:L1048576">
-    <cfRule type="expression" dxfId="47" priority="5">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="expression" dxfId="46" priority="3">
+    <cfRule type="expression" dxfId="36" priority="3">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",$D1&lt;&gt;"Female")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="35" priority="4">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",NOT(OR($C1="15-24",$C1="25-34")))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FFE387-7C09-4B96-9F7E-FF9D64994D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10B12F7-09A7-4A6C-9B43-A0D1972BA07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -5489,7 +5489,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:B25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -23411,11 +23411,11 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BF3876"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -25368,11 +25368,11 @@
         <v/>
       </c>
       <c r="AJ15" s="288">
-        <f>IF(OR(LEFT($B15,4)="_Mil",$C15="&lt;01"),"",MAX(SUM($X15),90%))</f>
+        <f>IF(OR(LEFT($B15,4)="_Mil"),"",MAX(SUM($X15),90%))</f>
         <v>0.9</v>
       </c>
       <c r="AK15" s="45">
-        <f>IF(OR(LEFT($B15,4)="_Mil",$C15="&lt;01"),"",ROUND(SUM($AI15)*SUM($AJ15),0))</f>
+        <f>IF(OR(LEFT($B15,4)="_Mil"),"",ROUND(SUM($AI15)*SUM($AJ15),0))</f>
         <v>0</v>
       </c>
       <c r="AL15" s="149" t="str">
@@ -25384,7 +25384,7 @@
         <v/>
       </c>
       <c r="AN15" s="146" t="str">
-        <f>IF(OR($F15="",$C15="&lt;01"),$AM15,ROUND($F15,0))</f>
+        <f>IF(OR($F15=""),$AM15,ROUND($F15,0))</f>
         <v/>
       </c>
       <c r="AO15" s="42">
@@ -25396,26 +25396,24 @@
         <v/>
       </c>
       <c r="AQ15" s="288">
-        <f>IF($C15="&lt;01","",98%)</f>
         <v>0.98</v>
       </c>
       <c r="AR15" s="285">
-        <f>IF($C15="&lt;01","",98%)</f>
         <v>0.98</v>
       </c>
       <c r="AS15" s="45">
-        <f>IF($C15="&lt;01","",SUM($AN15)-SUM($M15))</f>
+        <f>SUM($AN15)-SUM($M15)</f>
         <v>0</v>
       </c>
       <c r="AT15" s="45">
-        <f>IF($C15="&lt;01",$K15,IF(SUM($AR15)=0,"",ROUND((SUM($AN15)-(SUM($M15)*SUM($AQ15)))/$AR15,0)))</f>
+        <f>IF(SUM($AR15)=0,"",ROUND((SUM($AN15)-(SUM($M15)*SUM($AQ15)))/$AR15,0))</f>
         <v>0</v>
       </c>
       <c r="AU15" s="285">
         <v>1</v>
       </c>
       <c r="AV15" s="388">
-        <f>IF($C15="&lt;01",SUM($AT15),ROUND(SUM($AT15)*SUM($AU15),0))</f>
+        <f>ROUND(SUM($AT15)*SUM($AU15),0)</f>
         <v>0</v>
       </c>
       <c r="AW15" s="288">
@@ -25429,7 +25427,7 @@
         <v>0.95</v>
       </c>
       <c r="AZ15" s="42">
-        <f>IF($C15="&lt;01",ROUND(INDEX(#REF!,MATCH($B15,#REF!,0))/2,0),ROUND($AX15*$AY15,0))</f>
+        <f>ROUND($AX15*$AY15,0)</f>
         <v>0</v>
       </c>
       <c r="BA15" s="320">
@@ -25440,7 +25438,7 @@
         <v>0.95</v>
       </c>
       <c r="BC15" s="145">
-        <f>IF($C15="&lt;01",ROUND(INDEX(#REF!,MATCH($B15,#REF!,0))/2,0),ROUND($BB15*$AZ15,0))</f>
+        <f>ROUND($BB15*$AZ15,0)</f>
         <v>0</v>
       </c>
       <c r="BD15" s="145">
@@ -25448,11 +25446,10 @@
         <v>0</v>
       </c>
       <c r="BE15" s="265">
-        <f>IF($C15="&lt;01","",95%)</f>
         <v>0.95</v>
       </c>
       <c r="BF15" s="42">
-        <f>IF($C15="&lt;01",ROUND(INDEX(#REF!,MATCH($B15,#REF!,0)),0)/2,IF(SUM($BE15)=0,"",ROUND($AV15/$BE15,0)))</f>
+        <f>ROUND($AV15/$BE15,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -64608,7 +64605,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10B12F7-09A7-4A6C-9B43-A0D1972BA07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F331112-D99E-43B4-B02A-E9DCF314885D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="672">
   <si>
     <t>TX_CURR</t>
   </si>
@@ -2778,12 +2778,6 @@
   </si>
   <si>
     <t>Total Initiated on ART - New and Returned (FY26)</t>
-  </si>
-  <si>
-    <t>Target Setting Unit</t>
-  </si>
-  <si>
-    <t>DREAMS SNU</t>
   </si>
 </sst>
 </file>
@@ -5878,7 +5872,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>672</v>
+        <v>3</v>
       </c>
       <c r="C14" s="179" t="s">
         <v>17</v>
@@ -6630,7 +6624,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>672</v>
+        <v>3</v>
       </c>
       <c r="C14" s="163" t="s">
         <v>17</v>
@@ -7396,7 +7390,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>672</v>
+        <v>3</v>
       </c>
       <c r="C14" s="179" t="s">
         <v>17</v>
@@ -7775,7 +7769,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>672</v>
+        <v>3</v>
       </c>
       <c r="C14" s="188" t="s">
         <v>172</v>
@@ -7837,7 +7831,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8400,7 +8394,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="163" t="s">
-        <v>673</v>
+        <v>3</v>
       </c>
       <c r="C14" s="163" t="s">
         <v>17</v>
@@ -9145,7 +9139,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>672</v>
+        <v>3</v>
       </c>
       <c r="C14" s="179" t="s">
         <v>17</v>
@@ -23228,11 +23222,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC8B68-6747-844D-847F-C4519A511429}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="14" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -23411,11 +23405,11 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BF3876"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -25092,7 +25086,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="162" t="s">
-        <v>672</v>
+        <v>3</v>
       </c>
       <c r="C14" s="163" t="s">
         <v>17</v>
@@ -60321,7 +60315,7 @@
       <pane xSplit="4" ySplit="14" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -61486,7 +61480,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>672</v>
+        <v>3</v>
       </c>
       <c r="C14" s="179" t="s">
         <v>26</v>
@@ -62984,7 +62978,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>672</v>
+        <v>3</v>
       </c>
       <c r="C14" s="188" t="s">
         <v>254</v>
@@ -64413,7 +64407,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>672</v>
+        <v>3</v>
       </c>
       <c r="C14" s="179" t="s">
         <v>17</v>
@@ -64605,7 +64599,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -65149,7 +65143,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>672</v>
+        <v>3</v>
       </c>
       <c r="C14" s="163" t="s">
         <v>17</v>
@@ -65613,7 +65607,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="163" t="s">
-        <v>672</v>
+        <v>3</v>
       </c>
       <c r="C14" s="163" t="s">
         <v>17</v>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD229D2-55C1-4EDB-A22F-C60AF4BE40A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3302EE4-5E5E-484D-B9E0-22F0EF9A7E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="14" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -7824,7 +7824,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -8524,11 +8524,11 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9251,11 +9251,11 @@
         <v/>
       </c>
       <c r="S15" s="33" t="str">
-        <f>$N15</f>
+        <f>IF(SUM($N15)=0,"",$N15)</f>
         <v/>
       </c>
       <c r="T15" s="33" t="str">
-        <f>IF(SUM($O15)=0,"",ROUND($O15*SUM(#REF!),0))</f>
+        <f>IF(SUM($O15)=0,"",$O15)</f>
         <v/>
       </c>
     </row>
@@ -9277,7 +9277,7 @@
       <formula>AND(ISNUMBER(Q2),Q2&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:T1 R2:T14 Q15:T1048576 F1:P1048576">
+  <conditionalFormatting sqref="Q1:T1 R2:T14 F1:P1048576 Q15:T1048576">
     <cfRule type="expression" dxfId="1" priority="14">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
@@ -23398,7 +23398,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BF3876"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3302EE4-5E5E-484D-B9E0-22F0EF9A7E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D3817F-922A-4F55-B9DC-D3A06CD92BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="14" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="7" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -8524,7 +8524,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -23399,10 +23399,10 @@
   <dimension ref="A1:BF3876"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="14" topLeftCell="AN15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL15" sqref="AL15"/>
+      <selection pane="bottomRight" activeCell="BI1" sqref="BI1:BI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -64586,11 +64586,11 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -64741,6 +64741,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="338">
+        <f>SUBTOTAL(109,M$15:INDEX(M:M,COUNTA($B:$B)+14-COUNTA($B$1:$B$14)))</f>
         <v>0</v>
       </c>
       <c r="N4" s="100" t="s">

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D3817F-922A-4F55-B9DC-D3A06CD92BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23537EC-1A43-42B8-A82F-8109E04FF287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="7" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="10" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <definedName name="TX_PVLS.D.KeyPop_HIVStatus.T" localSheetId="5">'KP Validation'!#REF!</definedName>
     <definedName name="TX_PVLS.N.KeyPop_HIVStatus.T" localSheetId="5">'KP Validation'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3254,7 +3254,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="402">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4101,9 +4101,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -4114,7 +4111,17 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{EBDE175B-1152-3C44-B18E-2B948C595077}"/>
   </cellStyles>
-  <dxfs count="106">
+  <dxfs count="107">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -5935,22 +5942,22 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:M1048576">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:L1048576">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>AND(ISNUMBER(J1),J1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>AND(ISNUMBER($K1),$K1&lt;33%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="expression" dxfId="31" priority="7">
+    <cfRule type="expression" dxfId="32" priority="7">
       <formula>AND(ISNUMBER($L1),$L1&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5969,11 +5976,11 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6746,8 +6753,6 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="I16" s="402"/>
-      <c r="J16" s="402"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -6764,76 +6769,73 @@
       <c r="O17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I16:J16"/>
-  </mergeCells>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>AND(ISNUMBER(G7),ROUND(SUM(G7),2)&lt;100%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>AND(ISNUMBER(G7),G7&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1048576 I1:K14 L1:L15 K15 I17:J17 I18:L1048576">
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>AND(SUM(#REF!)&gt;0,G1="",ROW(G1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="expression" dxfId="27" priority="16">
+    <cfRule type="expression" dxfId="28" priority="17">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="18">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>AND(ISNUMBER(G1),ROUND(SUM(G1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="25" priority="3903">
-      <formula>AND(SUM(#REF!)&gt;0,I16="",ROW(I16)&gt;14)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:L14 K15:L15 I17:J17 I18:L1048576 I16">
-    <cfRule type="expression" dxfId="24" priority="22">
+  <conditionalFormatting sqref="I1:L14 K15:L15 I18:L1048576 I16:J17">
+    <cfRule type="expression" dxfId="25" priority="23">
       <formula>AND(ISNUMBER(I1),ROUND(SUM(I1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:L14 T1:U1048576 K15:L15 I16 I17:J17 I18:L1048576">
-    <cfRule type="expression" dxfId="23" priority="26">
+  <conditionalFormatting sqref="I1:L14 T1:U1048576 K15:L15 I18:L1048576 I16:J17">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>AND(ISNUMBER(I1),I1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:N14 K15:O15 I16 I17:J17 I18:W1048576 F1:H1048576 O1:W15 P16:W17">
-    <cfRule type="expression" dxfId="22" priority="24">
+  <conditionalFormatting sqref="I1:N14 K15:O15 I18:W1048576 F1:H1048576 O1:W15 P16:W17 I16:J17">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L15 L18:L1048576">
-    <cfRule type="expression" dxfId="21" priority="30">
+    <cfRule type="expression" dxfId="22" priority="31">
       <formula>AND(SUM(#REF!)&lt;&gt;0,L1="",ROW(L1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>AND(ISNUMBER(T1),ROUND(SUM(T1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:V1048576">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>V1="ENTER INITIATION RATE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>AND(ISNUMBER(V1),V1&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>AND(ISNUMBER(V1),ROUND(SUM(V1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>AND(ISNUMBER(X1),X1&lt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:J16">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(SUM(#REF!)&gt;0,I16="",ROW(I16)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -7485,27 +7487,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:H1048576 J1:R1048576">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576 O1:O1048576">
-    <cfRule type="expression" dxfId="14" priority="3854">
+    <cfRule type="expression" dxfId="15" priority="3854">
       <formula>AND($B1&lt;&gt;"",ROW(J1)&gt;14,NOT(AND($D1="Female",$F1="Y",OR($C1="10-14",$C1="15-17"))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:M1048576">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(ISNUMBER(J1),OR(ROUND(SUM(J1),2)&lt;0,ROUND(SUM(J1),2)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 P1:P1048576">
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>AND($E1&lt;&gt;"",ROW(K1)&gt;14,NOT(OR($C1="05-09",$C1="10-14")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="11" priority="24">
+    <cfRule type="expression" dxfId="12" priority="24">
       <formula>AND(ISNUMBER($M1),ROUND(SUM($M1),2)&lt;20%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7807,7 +7809,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:D1048576 G1:H1048576">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(ISNUMBER(C1),C1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8490,27 +8492,27 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:Q1048576 S1:U1048576">
-    <cfRule type="expression" dxfId="9" priority="23">
+    <cfRule type="expression" dxfId="10" priority="23">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="8" priority="24">
+    <cfRule type="expression" dxfId="9" priority="24">
       <formula>AND(ISNUMBER(Q1),Q1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="7" priority="3881">
+    <cfRule type="expression" dxfId="8" priority="3881">
       <formula>AND(ROUND(SUM($S1),2)&lt;60%,SUM($T1)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="6" priority="35">
+    <cfRule type="expression" dxfId="7" priority="35">
       <formula>AND(ISNUMBER(T1),SUM($T1)&gt;SUM($K1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(ISNUMBER(T1),SUM($U1)&gt;SUM($T1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8528,7 +8530,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9199,47 +9201,47 @@
         <v>||</v>
       </c>
       <c r="F15" s="37" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;F$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;F$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$C15,Spectrum!$K:$K,$D15,Spectrum!$G:$G,F$14,Spectrum!$M:$M,"CY2025Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="G15" s="37" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;G$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;G$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$C15,Spectrum!$K:$K,$D15,Spectrum!$G:$G,G$14,Spectrum!$M:$M,"CY2025Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="H15" s="37" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;H$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;H$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$C15,Spectrum!$K:$K,$D15,Spectrum!$G:$G,H$14,Spectrum!$M:$M,"CY2025Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="I15" s="37" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;I$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;I$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$C15,Spectrum!$K:$K,$D15,Spectrum!$G:$G,I$14,Spectrum!$M:$M,"CY2025Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="J15" s="37" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;J$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;J$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$C15,Spectrum!$K:$K,$D15,Spectrum!$G:$G,J$14,Spectrum!$M:$M,"CY2025Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="K15" s="37" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;K$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;K$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$C15,Spectrum!$K:$K,$D15,Spectrum!$G:$G,K$14,Spectrum!$M:$M,"CY2025Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="L15" s="37" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;L$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;L$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$C15,Spectrum!$K:$K,$D15,Spectrum!$G:$G,L$14,Spectrum!$M:$M,"CY2025Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="M15" s="352" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;M$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;M$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$C15,Spectrum!$K:$K,$D15,Spectrum!$G:$G,M$14,Spectrum!$M:$M,"CY2026Q3"),0)),"")))</f>
         <v/>
       </c>
-      <c r="N15" s="346" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;N$14&amp;"|"&amp;"CY2026Q3",Spectrum!$R:$R,0)),0),""))</f>
+      <c r="N15" s="37" t="str">
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;N$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$C15,Spectrum!$K:$K,$D15,Spectrum!$G:$G,N$14,Spectrum!$M:$M,"CY2026Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="O15" s="37" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;O$14&amp;"|"&amp;"CY2026Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;O$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$C15,Spectrum!$K:$K,$D15,Spectrum!$G:$G,O$14,Spectrum!$M:$M,"CY2026Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="P15" s="37" t="str">
-        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;P$14&amp;"|"&amp;"CY2026Q3",Spectrum!$R:$R,0)),0),""))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",_xlfn.IFNA(ROUND(INDEX(Spectrum!$N:$N,MATCH(RIGHT($B15,13)&amp;"|"&amp;$C15&amp;"|"&amp;$D15&amp;"|"&amp;P$14&amp;"|"&amp;"CY2025Q3",Spectrum!$R:$R,0)),0),IFERROR(1/(1/ROUND(SUMIFS(Spectrum!$N:$N,Spectrum!$Q:$Q,"="&amp;$C15,Spectrum!$K:$K,$D15,Spectrum!$G:$G,P$14,Spectrum!$M:$M,"CY2026Q3"),0)),"")))</f>
         <v/>
       </c>
       <c r="Q15" s="354" t="str">
@@ -9265,25 +9267,25 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:P1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(ROW(F1)&gt;14,LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q14">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(ISNUMBER(Q2),Q2&lt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(ISNUMBER(Q2),Q2&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:T1 R2:T14 F1:P1048576 Q15:T1048576">
-    <cfRule type="expression" dxfId="1" priority="14">
+  <conditionalFormatting sqref="Q1:T1 R2:T14 Q15:T1048576 F1:P1048576">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1 R2:T14 Q15:T1048576">
-    <cfRule type="expression" dxfId="0" priority="13">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>AND(ROW(Q1)&gt;14,LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23375,17 +23377,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="expression" dxfId="105" priority="2">
+    <cfRule type="expression" dxfId="106" priority="2">
       <formula>AND(ROW(B1)&gt;14,LEFT($A1,4)&lt;&gt;"_Mil",$A1&lt;&gt;"",B1&lt;&gt;1,B1&lt;&gt;2,B1&lt;&gt;4,B1&lt;&gt;5,B1&lt;&gt;6,B1&lt;&gt;7,B1&lt;&gt;8,B1&lt;&gt;"M",B1&lt;&gt;"NA")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="104" priority="729">
+    <cfRule type="expression" dxfId="105" priority="729">
       <formula>AND(LEFT($A1,4)&lt;&gt;"_Mil",ROW($C1)&gt;14,$C1&lt;&gt;$B1,$A1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="103" priority="3" operator="containsText" text="BLANK PRIORITIZATIONS">
+    <cfRule type="containsText" dxfId="104" priority="3" operator="containsText" text="BLANK PRIORITIZATIONS">
       <formula>NOT(ISERROR(SEARCH("BLANK PRIORITIZATIONS",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60229,65 +60231,65 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:BF1048576">
-    <cfRule type="expression" dxfId="102" priority="3">
+    <cfRule type="expression" dxfId="103" priority="3">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="101" priority="15">
+    <cfRule type="expression" dxfId="102" priority="15">
       <formula>AND($L1&lt;&gt;$M1,ISNUMBER($M1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:AK1 AO1:AP1 BA1 BD1">
-    <cfRule type="expression" dxfId="100" priority="3921">
+    <cfRule type="expression" dxfId="101" priority="3921">
       <formula>AND(ROW($Q1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:AK1048576 AO2:AP1048576 BA2:BA1048576 BD2:BD1048576">
-    <cfRule type="expression" dxfId="99" priority="4">
+    <cfRule type="expression" dxfId="100" priority="4">
       <formula>AND(ROW($Q1)&gt;14,$E2&lt;&gt;"",LEFT($B2,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576 V1:V1048576 X1:Y1048576 AB1:AB1048576 AD1:AE1048576 AP1:AR1048576 AU1:AU1048576 AW1:AW1048576 AY1:AY1048576 BB1:BB1048576 BE1:BE1048576">
-    <cfRule type="expression" dxfId="98" priority="7">
+    <cfRule type="expression" dxfId="99" priority="7">
       <formula>AND(ISNUMBER(T1),T1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576 Y1:Y1048576 AB1:AB1048576 AD1:AD1048576 AY1:AY1048576 BB1:BB1048576 BE1:BE1048576">
-    <cfRule type="expression" dxfId="97" priority="14">
+    <cfRule type="expression" dxfId="98" priority="14">
       <formula>AND(ISNUMBER(V1),V1&lt;0.95)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576 AJ1:AJ1048576 AP1:AP1048576">
-    <cfRule type="expression" dxfId="96" priority="16">
+    <cfRule type="expression" dxfId="97" priority="16">
       <formula>AND(ISNUMBER(X1),X1&lt;0.9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI1048576">
-    <cfRule type="expression" dxfId="95" priority="6">
+    <cfRule type="expression" dxfId="96" priority="6">
       <formula>AND(ISNUMBER($AI1),ROW($AI1)&gt;14,SUM($AI1)=SUM($AH1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="8">
+    <cfRule type="expression" dxfId="95" priority="8">
       <formula>AND(ISNUMBER($AI1),ROW($AI1)&gt;14,SUM($AI1)=SUM($AG1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1:AJ1048576">
-    <cfRule type="expression" dxfId="93" priority="13">
+    <cfRule type="expression" dxfId="94" priority="13">
       <formula>AND(ISNUMBER(AJ1),AJ1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ1:AR1048576">
-    <cfRule type="expression" dxfId="92" priority="12">
+    <cfRule type="expression" dxfId="93" priority="12">
       <formula>AND(ISNUMBER(AQ1),AQ1&lt;0.98)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU1048576">
-    <cfRule type="expression" dxfId="91" priority="10">
+    <cfRule type="expression" dxfId="92" priority="10">
       <formula>AND(ISNUMBER(AU1),AU1&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW1:AW1048576">
-    <cfRule type="expression" dxfId="90" priority="9">
+    <cfRule type="expression" dxfId="91" priority="9">
       <formula>AND(ISNUMBER(AW1),AW1&lt;0.7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61668,47 +61670,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:G1048576">
-    <cfRule type="expression" dxfId="89" priority="2">
+    <cfRule type="expression" dxfId="90" priority="2">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:AL1048576">
-    <cfRule type="expression" dxfId="88" priority="3">
+    <cfRule type="expression" dxfId="89" priority="3">
       <formula>AND(ISNUMBER(E1),E1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 S1:T1048576 W1:W1048576 Y1:Y1048576 AA1:AA1048576 AC1:AC1048576 AG1:AH1048576">
-    <cfRule type="expression" dxfId="87" priority="4">
+    <cfRule type="expression" dxfId="88" priority="4">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="86" priority="13">
+    <cfRule type="expression" dxfId="87" priority="13">
       <formula>AND(ISNUMBER($S1),SUM($S1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="85" priority="19">
+    <cfRule type="expression" dxfId="86" priority="19">
       <formula>AND(ISNUMBER($T1),SUM($T1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576">
-    <cfRule type="expression" dxfId="84" priority="34">
+    <cfRule type="expression" dxfId="85" priority="34">
       <formula>AND(ISNUMBER($Y1),ROUND(SUM($V1),0)&gt;0,ROUND(SUM($Y1),2)&lt;70%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AA1:AA1048576 AC1:AC1048576">
-    <cfRule type="expression" dxfId="83" priority="3836">
+    <cfRule type="expression" dxfId="84" priority="3836">
       <formula>AND(ISNUMBER(AA1),SUM(AA1)&lt;95%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576">
-    <cfRule type="expression" dxfId="82" priority="10">
+    <cfRule type="expression" dxfId="83" priority="10">
       <formula>AND(ROW($AG1)&gt;14,$AI1="ENTER LINKAGE RATE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AH1048576">
-    <cfRule type="expression" dxfId="81" priority="1">
+    <cfRule type="expression" dxfId="82" priority="1">
       <formula>AND(ROW($AH1)&gt;14,$AJ1="ENTER YIELD RATE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63575,152 +63577,152 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:D1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="80" priority="9">
+    <cfRule type="expression" dxfId="81" priority="9">
       <formula>AND(ROW($F1)&gt;14,SUM($F1)&gt;$C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1048576 H1:J1048576">
-    <cfRule type="expression" dxfId="79" priority="11">
+    <cfRule type="expression" dxfId="80" priority="11">
       <formula>(($C1-$F1)+($E1-$G1))&lt;SUM($H1:$J1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 G1:G1048576">
-    <cfRule type="expression" dxfId="78" priority="8">
+    <cfRule type="expression" dxfId="79" priority="8">
       <formula>AND(ROW($G1)&gt;14,SUM($G1)&gt;$E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 M1:M1048576">
-    <cfRule type="expression" dxfId="77" priority="13">
+    <cfRule type="expression" dxfId="78" priority="13">
       <formula>AND(ROW($M1)&gt;14,SUM($M1)&gt;$K1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L1048576 O1:Q1048576">
-    <cfRule type="expression" dxfId="76" priority="15">
+    <cfRule type="expression" dxfId="77" priority="15">
       <formula>(($K1-$M1)+($L1-$N1))&lt;SUM($O1:$Q1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576 N1:N1048576">
-    <cfRule type="expression" dxfId="75" priority="12">
+    <cfRule type="expression" dxfId="76" priority="12">
       <formula>AND(ROW($N1)&gt;14,SUM($N1)&gt;$L1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576 T1:T1048576">
-    <cfRule type="expression" dxfId="74" priority="16">
+    <cfRule type="expression" dxfId="75" priority="16">
       <formula>AND(ROW($T1)&gt;14,SUM($T1)&gt;$R1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1048576 V1:X1048576">
-    <cfRule type="expression" dxfId="73" priority="19">
+    <cfRule type="expression" dxfId="74" priority="19">
       <formula>(($R1-$T1)+($S1-$U1))&lt;SUM($V1:$X1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="72" priority="17">
+    <cfRule type="expression" dxfId="73" priority="17">
       <formula>AND(ROW($U1)&gt;14,SUM($U1)&gt;$S1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576 AA1:AA1048576">
-    <cfRule type="expression" dxfId="71" priority="20">
+    <cfRule type="expression" dxfId="72" priority="20">
       <formula>AND(ROW($AA1)&gt;14,SUM($AA1)&gt;$Y1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Z1048576 AC1:AE1048576">
-    <cfRule type="expression" dxfId="70" priority="23">
+    <cfRule type="expression" dxfId="71" priority="23">
       <formula>(($Y1-$AA1)+($Z1-$AB1))&lt;SUM($AC1:$AE1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1048576 AB1:AB1048576">
-    <cfRule type="expression" dxfId="69" priority="21">
+    <cfRule type="expression" dxfId="70" priority="21">
       <formula>AND(ROW($AB1)&gt;14,SUM($AB1)&gt;$Z1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AF1048576 AH1:AH1048576">
-    <cfRule type="expression" dxfId="68" priority="24">
+    <cfRule type="expression" dxfId="69" priority="24">
       <formula>AND(ROW($AH1)&gt;14,SUM($AH1)&gt;$AF1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AG1048576 AJ1:AL1048576">
-    <cfRule type="expression" dxfId="67" priority="27">
+    <cfRule type="expression" dxfId="68" priority="27">
       <formula>(($AF1-$AH1)+($AG1-$AI1))&lt;SUM($AJ1:$AL1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AI1:AI1048576">
-    <cfRule type="expression" dxfId="66" priority="25">
+    <cfRule type="expression" dxfId="67" priority="25">
       <formula>AND(ROW($AI1)&gt;14,SUM($AI1)&gt;$AG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM1048576 AO1:AO1048576">
-    <cfRule type="expression" dxfId="65" priority="28">
+    <cfRule type="expression" dxfId="66" priority="28">
       <formula>AND(ROW($AO1)&gt;14,SUM($AO1)&gt;$AM1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AN1048576 AQ1:AS1048576">
-    <cfRule type="expression" dxfId="64" priority="31">
+    <cfRule type="expression" dxfId="65" priority="31">
       <formula>(($AM1-$AO1)+($AN1-$AP1))&lt;SUM($AQ1:$AS1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AN1048576 AP1:AP1048576">
-    <cfRule type="expression" dxfId="63" priority="29">
+    <cfRule type="expression" dxfId="64" priority="29">
       <formula>AND(ROW($AP1)&gt;14,SUM($AP1)&gt;$AN1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AT14 AV1:AV1048576 AT16:AT1048576">
-    <cfRule type="expression" dxfId="62" priority="32">
+    <cfRule type="expression" dxfId="63" priority="32">
       <formula>AND(ROW($AV1)&gt;14,SUM($AV1)&gt;$AT1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15">
-    <cfRule type="expression" dxfId="61" priority="1">
+    <cfRule type="expression" dxfId="62" priority="1">
       <formula>AND(ROW($AO15)&gt;14,SUM($AO15)&gt;$AM15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU14 AX1:AZ1048576 AT16:AU1048576">
-    <cfRule type="expression" dxfId="60" priority="35">
+    <cfRule type="expression" dxfId="61" priority="35">
       <formula>(($AT1-$AV1)+($AU1-$AW1))&lt;SUM($AX1:$AZ1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15:AU15">
-    <cfRule type="expression" dxfId="59" priority="3">
+    <cfRule type="expression" dxfId="60" priority="3">
       <formula>(($AM15-$AO15)+($AN15-$AP15))&lt;SUM($AQ15:$AS15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU14 AW1:AW1048576 AU16:AU1048576">
-    <cfRule type="expression" dxfId="58" priority="33">
+    <cfRule type="expression" dxfId="59" priority="33">
       <formula>AND(ROW($AW1)&gt;14,SUM($AW1)&gt;$AU1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU15">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>AND(ROW($AP15)&gt;14,SUM($AP15)&gt;$AN15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BA1048576">
-    <cfRule type="expression" dxfId="56" priority="48">
+    <cfRule type="expression" dxfId="57" priority="48">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BB1048576">
-    <cfRule type="expression" dxfId="55" priority="1139">
+    <cfRule type="expression" dxfId="56" priority="1139">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB1:BB1048576">
-    <cfRule type="expression" dxfId="54" priority="1138">
+    <cfRule type="expression" dxfId="55" priority="1138">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC1:BC1048576">
-    <cfRule type="expression" dxfId="53" priority="36">
+    <cfRule type="expression" dxfId="54" priority="36">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD1:BD1048576">
-    <cfRule type="expression" dxfId="52" priority="37">
+    <cfRule type="expression" dxfId="53" priority="37">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1:BG1048576">
-    <cfRule type="expression" dxfId="51" priority="39">
+    <cfRule type="expression" dxfId="52" priority="39">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64529,42 +64531,42 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:J1048576 M1:S1048576">
-    <cfRule type="expression" dxfId="50" priority="1">
+    <cfRule type="expression" dxfId="51" priority="1">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="49" priority="7">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576 O1:P1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="48" priority="8">
+    <cfRule type="expression" dxfId="49" priority="8">
       <formula>AND(ISNUMBER(H1),H1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1048576">
-    <cfRule type="expression" dxfId="47" priority="3765">
+    <cfRule type="expression" dxfId="48" priority="3765">
       <formula>AND(ISNUMBER($M1),ISNUMBER($N1),$N1&lt;$M1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="expression" dxfId="46" priority="3764">
+    <cfRule type="expression" dxfId="47" priority="3764">
       <formula>AND(ISNUMBER($P1),$P1&lt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="expression" dxfId="45" priority="29">
+    <cfRule type="expression" dxfId="46" priority="29">
       <formula>AND(ISNUMBER($Q1),$Q1&lt;$N1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="44" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>AND(SUM($R1)&lt;&gt;0,$S1="",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="43" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>AND(ROW($T1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64586,7 +64588,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -65250,22 +65252,22 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:K4 F5:F7 I5:K7 F8:K1048576">
-    <cfRule type="expression" dxfId="42" priority="28">
+    <cfRule type="expression" dxfId="43" priority="28">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:Q1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="41" priority="31">
+    <cfRule type="expression" dxfId="42" priority="31">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="40" priority="51" operator="containsText" text="ENTER YIELD">
+    <cfRule type="containsText" dxfId="41" priority="51" operator="containsText" text="ENTER YIELD">
       <formula>NOT(ISERROR(SEARCH("ENTER YIELD",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>OR($C1="&lt;01","01-09")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65659,20 +65661,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>AND(ROW(F1)&gt;14,LEFT(B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:L1048576">
-    <cfRule type="expression" dxfId="37" priority="5">
+    <cfRule type="expression" dxfId="38" priority="5">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="expression" dxfId="36" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",$D1&lt;&gt;"Female")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",NOT(OR($C1="15-24",$C1="25-34")))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D3887D-F4A1-499E-B2E3-73D4505037ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5291E26E-4CED-4A7B-B56A-BED018FDA6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3405" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-36075" yWindow="-2265" windowWidth="33450" windowHeight="17085" activeTab="7" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="674">
   <si>
     <t>TX_CURR</t>
   </si>
@@ -3260,7 +3260,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4101,6 +4101,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -4111,137 +4114,7 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{EBDE175B-1152-3C44-B18E-2B948C595077}"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="99">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -4398,6 +4271,96 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -4468,6 +4431,36 @@
       </font>
       <fill>
         <patternFill patternType="darkUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -5874,22 +5867,22 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:M1048576">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:L1048576">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND(ISNUMBER(J1),J1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>AND(ISNUMBER($K1),$K1&lt;33%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>AND(ISNUMBER($L1),$L1&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5912,7 +5905,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6707,50 +6700,47 @@
       <c r="O17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="expression" dxfId="24" priority="3">
+      <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(ISNUMBER(G7),ROUND(SUM(G7),2)&lt;100%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
-      <formula>AND(ISNUMBER(G7),G7&gt;1)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L15 L18:L1048576">
+    <cfRule type="expression" dxfId="22" priority="31">
+      <formula>AND(SUM(#REF!)&lt;&gt;0,L1="",ROW(L1)&gt;14)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:O15 I16:J17 I18:W1048576 F1:H1048576 O1:W15 P16:W17 I1:N14">
-    <cfRule type="expression" dxfId="7" priority="25">
+  <conditionalFormatting sqref="O1:W15 P16:W17 I18:W1048576 F1:H1048576 I1:N14 K15:O15 I16:J17">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L15 L18:L1048576">
-    <cfRule type="expression" dxfId="6" priority="31">
-      <formula>AND(SUM(#REF!)&lt;&gt;0,L1="",ROW(L1)&gt;14)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>AND(ISNUMBER(T1),ROUND(SUM(T1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:V1048576">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>V1="ENTER INITIATION RATE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>AND(ISNUMBER(V1),V1&gt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>AND(ISNUMBER(V1),ROUND(SUM(V1),2)&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>AND(ISNUMBER(X1),X1&lt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="0" priority="17">
-      <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -7402,27 +7392,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:H1048576 J1:R1048576">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576 O1:O1048576">
-    <cfRule type="expression" dxfId="27" priority="3854">
+    <cfRule type="expression" dxfId="14" priority="3854">
       <formula>AND($B1&lt;&gt;"",ROW(J1)&gt;14,NOT(AND($D1="Female",$F1="Y",OR($C1="10-14",$C1="15-17"))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:M1048576">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(ISNUMBER(J1),OR(ROUND(SUM(J1),2)&lt;0,ROUND(SUM(J1),2)&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 P1:P1048576">
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>AND($E1&lt;&gt;"",ROW(K1)&gt;14,NOT(OR($C1="05-09",$C1="10-14")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="11" priority="24">
       <formula>AND(ISNUMBER($M1),ROUND(SUM($M1),2)&lt;20%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7724,7 +7714,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:D1048576 G1:H1048576">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(ISNUMBER(C1),C1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8407,27 +8397,27 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:Q1048576 S1:U1048576">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="8" priority="24">
       <formula>AND(ISNUMBER(Q1),Q1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="20" priority="3881">
+    <cfRule type="expression" dxfId="7" priority="3881">
       <formula>AND(ROUND(SUM($S1),2)&lt;60%,SUM($T1)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="19" priority="35">
+    <cfRule type="expression" dxfId="6" priority="35">
       <formula>AND(ISNUMBER(T1),SUM($T1)&gt;SUM($K1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(ISNUMBER(T1),SUM($U1)&gt;SUM($T1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8445,7 +8435,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9182,25 +9172,25 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="F1:P1048576">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(ROW(F1)&gt;14,LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q14">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(ISNUMBER(Q2),Q2&lt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(ISNUMBER(Q2),Q2&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1 R2:T14 Q15:T1048576 F1:P1048576">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1 R2:T14 Q15:T1048576">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>AND(ROW(Q1)&gt;14,LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23292,17 +23282,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="expression" dxfId="99" priority="2">
+    <cfRule type="expression" dxfId="98" priority="2">
       <formula>AND(ROW(B1)&gt;14,LEFT($A1,4)&lt;&gt;"_Mil",$A1&lt;&gt;"",B1&lt;&gt;1,B1&lt;&gt;2,B1&lt;&gt;4,B1&lt;&gt;5,B1&lt;&gt;6,B1&lt;&gt;7,B1&lt;&gt;8,B1&lt;&gt;"M",B1&lt;&gt;"NA")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="98" priority="729">
+    <cfRule type="expression" dxfId="97" priority="729">
       <formula>AND(LEFT($A1,4)&lt;&gt;"_Mil",ROW($C1)&gt;14,$C1&lt;&gt;$B1,$A1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="97" priority="3" operator="containsText" text="BLANK PRIORITIZATIONS">
+    <cfRule type="containsText" dxfId="96" priority="3" operator="containsText" text="BLANK PRIORITIZATIONS">
       <formula>NOT(ISERROR(SEARCH("BLANK PRIORITIZATIONS",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23316,10 +23306,10 @@
   <dimension ref="A1:BF3876"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="14" topLeftCell="AC15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -25281,7 +25271,7 @@
         <v>0</v>
       </c>
       <c r="AL15" s="140" t="str">
-        <f>IF(SUM($M15)=0,"",ROUND(SUM($M15)/IF(SUM($W15)=0,1,$W15),2))</f>
+        <f>IF(SUM($M15)=0,"",ROUND(SUM($M15)/IF(SUM($W15)=0,$M15,$W15),2))</f>
         <v/>
       </c>
       <c r="AM15" s="44" t="str">
@@ -60149,65 +60139,65 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:BF1048576">
-    <cfRule type="expression" dxfId="96" priority="3">
+    <cfRule type="expression" dxfId="95" priority="3">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="expression" dxfId="95" priority="15">
+    <cfRule type="expression" dxfId="94" priority="15">
       <formula>AND($L1&lt;&gt;$M1,ISNUMBER($M1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:AK1 AO1:AP1 BA1 BD1">
-    <cfRule type="expression" dxfId="94" priority="3921">
+    <cfRule type="expression" dxfId="93" priority="3921">
       <formula>AND(ROW($Q1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:AK1048576 AO2:AP1048576 BA2:BA1048576 BD2:BD1048576">
-    <cfRule type="expression" dxfId="93" priority="4">
+    <cfRule type="expression" dxfId="92" priority="4">
       <formula>AND(ROW($Q1)&gt;14,$E2&lt;&gt;"",LEFT($B2,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576 V1:V1048576 X1:Y1048576 AB1:AB1048576 AD1:AE1048576 AP1:AR1048576 AU1:AU1048576 AW1:AW1048576 AY1:AY1048576 BB1:BB1048576 BE1:BE1048576">
-    <cfRule type="expression" dxfId="92" priority="7">
+    <cfRule type="expression" dxfId="91" priority="7">
       <formula>AND(ISNUMBER(T1),T1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576 Y1:Y1048576 AB1:AB1048576 AD1:AD1048576 AY1:AY1048576 BB1:BB1048576 BE1:BE1048576">
-    <cfRule type="expression" dxfId="91" priority="14">
+    <cfRule type="expression" dxfId="90" priority="14">
       <formula>AND(ISNUMBER(V1),V1&lt;0.95)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576 AJ1:AJ1048576 AP1:AP1048576">
-    <cfRule type="expression" dxfId="90" priority="16">
+    <cfRule type="expression" dxfId="89" priority="16">
       <formula>AND(ISNUMBER(X1),X1&lt;0.9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AI1048576">
-    <cfRule type="expression" dxfId="89" priority="6">
+    <cfRule type="expression" dxfId="88" priority="6">
       <formula>AND(ISNUMBER($AI1),ROW($AI1)&gt;14,SUM($AI1)=SUM($AH1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="8">
+    <cfRule type="expression" dxfId="87" priority="8">
       <formula>AND(ISNUMBER($AI1),ROW($AI1)&gt;14,SUM($AI1)=SUM($AG1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1:AJ1048576">
-    <cfRule type="expression" dxfId="87" priority="13">
+    <cfRule type="expression" dxfId="86" priority="13">
       <formula>AND(ISNUMBER(AJ1),AJ1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ1:AR1048576">
-    <cfRule type="expression" dxfId="86" priority="12">
+    <cfRule type="expression" dxfId="85" priority="12">
       <formula>AND(ISNUMBER(AQ1),AQ1&lt;0.98)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU1048576">
-    <cfRule type="expression" dxfId="85" priority="10">
+    <cfRule type="expression" dxfId="84" priority="10">
       <formula>AND(ISNUMBER(AU1),AU1&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW1:AW1048576">
-    <cfRule type="expression" dxfId="84" priority="9">
+    <cfRule type="expression" dxfId="83" priority="9">
       <formula>AND(ISNUMBER(AW1),AW1&lt;0.7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61588,47 +61578,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:G1048576">
-    <cfRule type="expression" dxfId="83" priority="2">
+    <cfRule type="expression" dxfId="82" priority="2">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:AL1048576">
-    <cfRule type="expression" dxfId="82" priority="3">
+    <cfRule type="expression" dxfId="81" priority="3">
       <formula>AND(ISNUMBER(E1),E1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 S1:T1048576 W1:W1048576 Y1:Y1048576 AA1:AA1048576 AC1:AC1048576 AG1:AH1048576">
-    <cfRule type="expression" dxfId="81" priority="4">
+    <cfRule type="expression" dxfId="80" priority="4">
       <formula>AND(ISNUMBER(G1),G1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="80" priority="13">
+    <cfRule type="expression" dxfId="79" priority="13">
       <formula>AND(ISNUMBER($S1),SUM($S1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="79" priority="19">
+    <cfRule type="expression" dxfId="78" priority="19">
       <formula>AND(ISNUMBER($T1),SUM($T1)&lt;98%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576">
-    <cfRule type="expression" dxfId="78" priority="34">
+    <cfRule type="expression" dxfId="77" priority="34">
       <formula>AND(ISNUMBER($Y1),ROUND(SUM($V1),0)&gt;0,ROUND(SUM($Y1),2)&lt;70%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AA1:AA1048576 AC1:AC1048576">
-    <cfRule type="expression" dxfId="77" priority="3836">
+    <cfRule type="expression" dxfId="76" priority="3836">
       <formula>AND(ISNUMBER(AA1),SUM(AA1)&lt;95%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576">
-    <cfRule type="expression" dxfId="76" priority="10">
+    <cfRule type="expression" dxfId="75" priority="10">
       <formula>AND(ROW($AG1)&gt;14,$AI1="ENTER LINKAGE RATE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AH1048576">
-    <cfRule type="expression" dxfId="75" priority="1">
+    <cfRule type="expression" dxfId="74" priority="1">
       <formula>AND(ROW($AH1)&gt;14,$AJ1="ENTER YIELD RATE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63495,152 +63485,152 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:D1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="74" priority="9">
+    <cfRule type="expression" dxfId="73" priority="9">
       <formula>AND(ROW($F1)&gt;14,SUM($F1)&gt;$C1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1048576 H1:J1048576">
-    <cfRule type="expression" dxfId="73" priority="11">
+    <cfRule type="expression" dxfId="72" priority="11">
       <formula>(($C1-$F1)+($E1-$G1))&lt;SUM($H1:$J1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 G1:G1048576">
-    <cfRule type="expression" dxfId="72" priority="8">
+    <cfRule type="expression" dxfId="71" priority="8">
       <formula>AND(ROW($G1)&gt;14,SUM($G1)&gt;$E1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 M1:M1048576">
-    <cfRule type="expression" dxfId="71" priority="13">
+    <cfRule type="expression" dxfId="70" priority="13">
       <formula>AND(ROW($M1)&gt;14,SUM($M1)&gt;$K1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L1048576 O1:Q1048576">
-    <cfRule type="expression" dxfId="70" priority="15">
+    <cfRule type="expression" dxfId="69" priority="15">
       <formula>(($K1-$M1)+($L1-$N1))&lt;SUM($O1:$Q1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576 N1:N1048576">
-    <cfRule type="expression" dxfId="69" priority="12">
+    <cfRule type="expression" dxfId="68" priority="12">
       <formula>AND(ROW($N1)&gt;14,SUM($N1)&gt;$L1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576 T1:T1048576">
-    <cfRule type="expression" dxfId="68" priority="16">
+    <cfRule type="expression" dxfId="67" priority="16">
       <formula>AND(ROW($T1)&gt;14,SUM($T1)&gt;$R1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1048576 V1:X1048576">
-    <cfRule type="expression" dxfId="67" priority="19">
+    <cfRule type="expression" dxfId="66" priority="19">
       <formula>(($R1-$T1)+($S1-$U1))&lt;SUM($V1:$X1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="66" priority="17">
+    <cfRule type="expression" dxfId="65" priority="17">
       <formula>AND(ROW($U1)&gt;14,SUM($U1)&gt;$S1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y1048576 AA1:AA1048576">
-    <cfRule type="expression" dxfId="65" priority="20">
+    <cfRule type="expression" dxfId="64" priority="20">
       <formula>AND(ROW($AA1)&gt;14,SUM($AA1)&gt;$Y1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Z1048576 AC1:AE1048576">
-    <cfRule type="expression" dxfId="64" priority="23">
+    <cfRule type="expression" dxfId="63" priority="23">
       <formula>(($Y1-$AA1)+($Z1-$AB1))&lt;SUM($AC1:$AE1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z1048576 AB1:AB1048576">
-    <cfRule type="expression" dxfId="63" priority="21">
+    <cfRule type="expression" dxfId="62" priority="21">
       <formula>AND(ROW($AB1)&gt;14,SUM($AB1)&gt;$Z1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AF1048576 AH1:AH1048576">
-    <cfRule type="expression" dxfId="62" priority="24">
+    <cfRule type="expression" dxfId="61" priority="24">
       <formula>AND(ROW($AH1)&gt;14,SUM($AH1)&gt;$AF1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AG1048576 AJ1:AL1048576">
-    <cfRule type="expression" dxfId="61" priority="27">
+    <cfRule type="expression" dxfId="60" priority="27">
       <formula>(($AF1-$AH1)+($AG1-$AI1))&lt;SUM($AJ1:$AL1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576 AI1:AI1048576">
-    <cfRule type="expression" dxfId="60" priority="25">
+    <cfRule type="expression" dxfId="59" priority="25">
       <formula>AND(ROW($AI1)&gt;14,SUM($AI1)&gt;$AG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AM1048576 AO1:AO1048576">
-    <cfRule type="expression" dxfId="59" priority="28">
+    <cfRule type="expression" dxfId="58" priority="28">
       <formula>AND(ROW($AO1)&gt;14,SUM($AO1)&gt;$AM1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AN1048576 AQ1:AS1048576">
-    <cfRule type="expression" dxfId="58" priority="31">
+    <cfRule type="expression" dxfId="57" priority="31">
       <formula>(($AM1-$AO1)+($AN1-$AP1))&lt;SUM($AQ1:$AS1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AN1048576 AP1:AP1048576">
-    <cfRule type="expression" dxfId="57" priority="29">
+    <cfRule type="expression" dxfId="56" priority="29">
       <formula>AND(ROW($AP1)&gt;14,SUM($AP1)&gt;$AN1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AT14 AV1:AV1048576 AT16:AT1048576">
-    <cfRule type="expression" dxfId="56" priority="32">
+    <cfRule type="expression" dxfId="55" priority="32">
       <formula>AND(ROW($AV1)&gt;14,SUM($AV1)&gt;$AT1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15">
-    <cfRule type="expression" dxfId="55" priority="1">
+    <cfRule type="expression" dxfId="54" priority="1">
       <formula>AND(ROW($AO15)&gt;14,SUM($AO15)&gt;$AM15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT1:AU14 AX1:AZ1048576 AT16:AU1048576">
-    <cfRule type="expression" dxfId="54" priority="35">
+    <cfRule type="expression" dxfId="53" priority="35">
       <formula>(($AT1-$AV1)+($AU1-$AW1))&lt;SUM($AX1:$AZ1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15:AU15">
-    <cfRule type="expression" dxfId="53" priority="3">
+    <cfRule type="expression" dxfId="52" priority="3">
       <formula>(($AM15-$AO15)+($AN15-$AP15))&lt;SUM($AQ15:$AS15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1:AU14 AW1:AW1048576 AU16:AU1048576">
-    <cfRule type="expression" dxfId="52" priority="33">
+    <cfRule type="expression" dxfId="51" priority="33">
       <formula>AND(ROW($AW1)&gt;14,SUM($AW1)&gt;$AU1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU15">
-    <cfRule type="expression" dxfId="51" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>AND(ROW($AP15)&gt;14,SUM($AP15)&gt;$AN15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BA1048576">
-    <cfRule type="expression" dxfId="50" priority="48">
+    <cfRule type="expression" dxfId="49" priority="48">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BB1048576">
-    <cfRule type="expression" dxfId="49" priority="1139">
+    <cfRule type="expression" dxfId="48" priority="1139">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB1:BB1048576">
-    <cfRule type="expression" dxfId="48" priority="1138">
+    <cfRule type="expression" dxfId="47" priority="1138">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC1:BC1048576">
-    <cfRule type="expression" dxfId="47" priority="36">
+    <cfRule type="expression" dxfId="46" priority="36">
       <formula>AND(ROW($BC1)&gt;14,SUM($BC1)&gt;$BA1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD1:BD1048576">
-    <cfRule type="expression" dxfId="46" priority="37">
+    <cfRule type="expression" dxfId="45" priority="37">
       <formula>AND(ROW($BD1)&gt;14,SUM($BD1)&gt;$BB1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1:BG1048576">
-    <cfRule type="expression" dxfId="45" priority="39">
+    <cfRule type="expression" dxfId="44" priority="39">
       <formula>(($BA1-$BC1)+($BB1-$BD1))&lt;SUM($BE1:$BG1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63722,11 +63712,11 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="14" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -63795,12 +63785,8 @@
       <c r="J2" s="98"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
-      <c r="M2" s="213" t="s">
-        <v>402</v>
-      </c>
-      <c r="N2" s="213" t="s">
-        <v>402</v>
-      </c>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="210" t="s">
@@ -64449,42 +64435,42 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:J1048576 M1:S1048576">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="43" priority="1">
       <formula>LEFT($B1,4)="_Mil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:S1048576 U1:U1048576">
-    <cfRule type="expression" dxfId="43" priority="7">
+    <cfRule type="expression" dxfId="42" priority="7">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576 O1:P1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="42" priority="8">
+    <cfRule type="expression" dxfId="41" priority="8">
       <formula>AND(ISNUMBER(H1),H1&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1048576">
-    <cfRule type="expression" dxfId="41" priority="3765">
+    <cfRule type="expression" dxfId="40" priority="3765">
       <formula>AND(ISNUMBER($M1),ISNUMBER($N1),$N1&lt;$M1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="expression" dxfId="40" priority="3764">
+    <cfRule type="expression" dxfId="39" priority="3764">
       <formula>AND(ISNUMBER($P1),$P1&lt;0.8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="expression" dxfId="39" priority="29">
+    <cfRule type="expression" dxfId="38" priority="29">
       <formula>AND(ISNUMBER($Q1),$Q1&lt;$N1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="expression" dxfId="38" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>AND(SUM($R1)&lt;&gt;0,$S1="",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="expression" dxfId="37" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>AND(ROW($T1)&gt;14,$E1&lt;&gt;"",LEFT($B1,4)&lt;&gt;"_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64506,7 +64492,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -65184,18 +65170,18 @@
   <mergeCells count="1">
     <mergeCell ref="A2:B3"/>
   </mergeCells>
-  <conditionalFormatting sqref="S1:S1048576 F1:Q1048576">
-    <cfRule type="expression" dxfId="12" priority="31">
+  <conditionalFormatting sqref="F1:Q1048576 S1:S1048576">
+    <cfRule type="expression" dxfId="35" priority="31">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="11" priority="51" operator="containsText" text="ENTER YIELD">
+    <cfRule type="containsText" dxfId="34" priority="51" operator="containsText" text="ENTER YIELD">
       <formula>NOT(ISERROR(SEARCH("ENTER YIELD",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S1048576">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="33" priority="5">
       <formula>OR($C1="&lt;01","01-09")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65589,20 +65575,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(ROW(F1)&gt;14,LEFT(B1,4)="_Mil")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:L1048576">
-    <cfRule type="expression" dxfId="35" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>AND(ISNUMBER(F1),F1&lt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="expression" dxfId="34" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",$D1&lt;&gt;"Female")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>AND(ROW(H1)&gt;14,$E1&lt;&gt;"",NOT(OR($C1="15-24",$C1="25-34")))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/extdata/COP25_Data_Pack_Template.xlsx
+++ b/inst/extdata/COP25_Data_Pack_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d-christian.domaas\Documents\GitHub\datapackr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5291E26E-4CED-4A7B-B56A-BED018FDA6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A261545-E6E3-4B5D-8F13-1CC4FBA2CD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36075" yWindow="-2265" windowWidth="33450" windowHeight="17085" activeTab="7" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
+    <workbookView xWindow="-36060" yWindow="-3240" windowWidth="33450" windowHeight="11910" activeTab="3" xr2:uid="{35D0834B-83BC-CC4F-BCCA-B5B2ECED3698}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -23305,11 +23305,11 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BF3876"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="AC15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="14" topLeftCell="X16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL15" sqref="AL15"/>
+      <selection pane="bottomRight" activeCell="AO16" sqref="AO16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -25283,7 +25283,7 @@
         <v/>
       </c>
       <c r="AO15" s="42">
-        <f>IF(LEFT($B15,4)="_Mil","",IF(SUM($AN15)=0,SUM($W15),IF(OR(SUM($W15)=0,SUM($M15)=0),MAX($AN15,$W15),ROUND($AN15/$AN15,0))))</f>
+        <f>IF(LEFT($B15,4)="_Mil","",IF(SUM($AN15)=0,SUM($W15),IF(OR(SUM($W15)=0,SUM($M15)=0),MAX($AN15,$W15),ROUND($AN15*$W15/$M15,0))))</f>
         <v>0</v>
       </c>
       <c r="AP15" s="270" t="str">
@@ -64492,7 +64492,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
